--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -377,27 +377,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gdph</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>jgdp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ch</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gdph</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>jc</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>jc</t>
+          <t>jgdp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -614,19 +614,19 @@
         <v>1051.2</v>
       </c>
       <c r="C2">
+        <v>631.7000000000001</v>
+      </c>
+      <c r="D2">
+        <v>3065.1</v>
+      </c>
+      <c r="E2">
         <v>4936.6</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>20.61</v>
+      </c>
+      <c r="G2">
         <v>21.286</v>
-      </c>
-      <c r="E2">
-        <v>631.7000000000001</v>
-      </c>
-      <c r="F2">
-        <v>3065.1</v>
-      </c>
-      <c r="G2">
-        <v>20.61</v>
       </c>
       <c r="H2">
         <v>18.701</v>
@@ -754,19 +754,19 @@
         <v>1067.4</v>
       </c>
       <c r="C3">
+        <v>641.6</v>
+      </c>
+      <c r="D3">
+        <v>3079</v>
+      </c>
+      <c r="E3">
         <v>4943.6</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>20.838</v>
+      </c>
+      <c r="G3">
         <v>21.593</v>
-      </c>
-      <c r="E3">
-        <v>641.6</v>
-      </c>
-      <c r="F3">
-        <v>3079</v>
-      </c>
-      <c r="G3">
-        <v>20.838</v>
       </c>
       <c r="H3">
         <v>18.948</v>
@@ -894,19 +894,19 @@
         <v>1086.1</v>
       </c>
       <c r="C4">
+        <v>653.5</v>
+      </c>
+      <c r="D4">
+        <v>3106</v>
+      </c>
+      <c r="E4">
         <v>4989.2</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>21.041</v>
+      </c>
+      <c r="G4">
         <v>21.77</v>
-      </c>
-      <c r="E4">
-        <v>653.5</v>
-      </c>
-      <c r="F4">
-        <v>3106</v>
-      </c>
-      <c r="G4">
-        <v>21.041</v>
       </c>
       <c r="H4">
         <v>19.271</v>
@@ -1034,19 +1034,19 @@
         <v>1088.6</v>
       </c>
       <c r="C5">
+        <v>660.2000000000001</v>
+      </c>
+      <c r="D5">
+        <v>3097.5</v>
+      </c>
+      <c r="E5">
         <v>4935.7</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>21.314</v>
+      </c>
+      <c r="G5">
         <v>22.055</v>
-      </c>
-      <c r="E5">
-        <v>660.2000000000001</v>
-      </c>
-      <c r="F5">
-        <v>3097.5</v>
-      </c>
-      <c r="G5">
-        <v>21.314</v>
       </c>
       <c r="H5">
         <v>19.516</v>
@@ -1174,19 +1174,19 @@
         <v>1135.2</v>
       </c>
       <c r="C6">
+        <v>679.2000000000001</v>
+      </c>
+      <c r="D6">
+        <v>3157</v>
+      </c>
+      <c r="E6">
         <v>5069.7</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>21.516</v>
+      </c>
+      <c r="G6">
         <v>22.389</v>
-      </c>
-      <c r="E6">
-        <v>679.2000000000001</v>
-      </c>
-      <c r="F6">
-        <v>3157</v>
-      </c>
-      <c r="G6">
-        <v>21.516</v>
       </c>
       <c r="H6">
         <v>20.134</v>
@@ -1314,19 +1314,19 @@
         <v>1156.3</v>
       </c>
       <c r="C7">
+        <v>693.2000000000001</v>
+      </c>
+      <c r="D7">
+        <v>3186</v>
+      </c>
+      <c r="E7">
         <v>5097.2</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>21.761</v>
+      </c>
+      <c r="G7">
         <v>22.689</v>
-      </c>
-      <c r="E7">
-        <v>693.2000000000001</v>
-      </c>
-      <c r="F7">
-        <v>3186</v>
-      </c>
-      <c r="G7">
-        <v>21.761</v>
       </c>
       <c r="H7">
         <v>20.51</v>
@@ -1454,19 +1454,19 @@
         <v>1177.7</v>
       </c>
       <c r="C8">
+        <v>705.6</v>
+      </c>
+      <c r="D8">
+        <v>3211.4</v>
+      </c>
+      <c r="E8">
         <v>5139.1</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>21.975</v>
+      </c>
+      <c r="G8">
         <v>22.917</v>
-      </c>
-      <c r="E8">
-        <v>705.6</v>
-      </c>
-      <c r="F8">
-        <v>3211.4</v>
-      </c>
-      <c r="G8">
-        <v>21.975</v>
       </c>
       <c r="H8">
         <v>20.807</v>
@@ -1594,19 +1594,19 @@
         <v>1190.3</v>
       </c>
       <c r="C9">
+        <v>721.7000000000001</v>
+      </c>
+      <c r="D9">
+        <v>3264.7</v>
+      </c>
+      <c r="E9">
         <v>5151.2</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>22.111</v>
+      </c>
+      <c r="G9">
         <v>23.107</v>
-      </c>
-      <c r="E9">
-        <v>721.7000000000001</v>
-      </c>
-      <c r="F9">
-        <v>3264.7</v>
-      </c>
-      <c r="G9">
-        <v>22.111</v>
       </c>
       <c r="H9">
         <v>21.23</v>
@@ -1734,19 +1734,19 @@
         <v>1230.6</v>
       </c>
       <c r="C10">
+        <v>738.9</v>
+      </c>
+      <c r="D10">
+        <v>3307.8</v>
+      </c>
+      <c r="E10">
         <v>5246</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>22.344</v>
+      </c>
+      <c r="G10">
         <v>23.478</v>
-      </c>
-      <c r="E10">
-        <v>738.9</v>
-      </c>
-      <c r="F10">
-        <v>3307.8</v>
-      </c>
-      <c r="G10">
-        <v>22.344</v>
       </c>
       <c r="H10">
         <v>22.104</v>
@@ -1874,19 +1874,19 @@
         <v>1266.4</v>
       </c>
       <c r="C11">
+        <v>757.4</v>
+      </c>
+      <c r="D11">
+        <v>3370.7</v>
+      </c>
+      <c r="E11">
         <v>5365</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>22.473</v>
+      </c>
+      <c r="G11">
         <v>23.621</v>
-      </c>
-      <c r="E11">
-        <v>757.4</v>
-      </c>
-      <c r="F11">
-        <v>3370.7</v>
-      </c>
-      <c r="G11">
-        <v>22.473</v>
       </c>
       <c r="H11">
         <v>22.327</v>
@@ -2014,19 +2014,19 @@
         <v>1290.6</v>
       </c>
       <c r="C12">
+        <v>775.8</v>
+      </c>
+      <c r="D12">
+        <v>3422.7</v>
+      </c>
+      <c r="E12">
         <v>5415.7</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>22.671</v>
+      </c>
+      <c r="G12">
         <v>23.835</v>
-      </c>
-      <c r="E12">
-        <v>775.8</v>
-      </c>
-      <c r="F12">
-        <v>3422.7</v>
-      </c>
-      <c r="G12">
-        <v>22.671</v>
       </c>
       <c r="H12">
         <v>22.51</v>
@@ -2154,19 +2154,19 @@
         <v>1328.9</v>
       </c>
       <c r="C13">
+        <v>800.5</v>
+      </c>
+      <c r="D13">
+        <v>3503</v>
+      </c>
+      <c r="E13">
         <v>5506.4</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>22.855</v>
+      </c>
+      <c r="G13">
         <v>24.105</v>
-      </c>
-      <c r="E13">
-        <v>800.5</v>
-      </c>
-      <c r="F13">
-        <v>3503</v>
-      </c>
-      <c r="G13">
-        <v>22.855</v>
       </c>
       <c r="H13">
         <v>22.999</v>
@@ -2294,19 +2294,19 @@
         <v>1377.5</v>
       </c>
       <c r="C14">
+        <v>825</v>
+      </c>
+      <c r="D14">
+        <v>3567</v>
+      </c>
+      <c r="E14">
         <v>5642.7</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>23.131</v>
+      </c>
+      <c r="G14">
         <v>24.412</v>
-      </c>
-      <c r="E14">
-        <v>825</v>
-      </c>
-      <c r="F14">
-        <v>3567</v>
-      </c>
-      <c r="G14">
-        <v>23.131</v>
       </c>
       <c r="H14">
         <v>23.37</v>
@@ -2434,19 +2434,19 @@
         <v>1413.9</v>
       </c>
       <c r="C15">
+        <v>840.5</v>
+      </c>
+      <c r="D15">
+        <v>3565.3</v>
+      </c>
+      <c r="E15">
         <v>5704.1</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>23.576</v>
+      </c>
+      <c r="G15">
         <v>24.816</v>
-      </c>
-      <c r="E15">
-        <v>840.5</v>
-      </c>
-      <c r="F15">
-        <v>3565.3</v>
-      </c>
-      <c r="G15">
-        <v>23.576</v>
       </c>
       <c r="H15">
         <v>23.777</v>
@@ -2574,19 +2574,19 @@
         <v>1433.8</v>
       </c>
       <c r="C16">
+        <v>858.9</v>
+      </c>
+      <c r="D16">
+        <v>3577.9</v>
+      </c>
+      <c r="E16">
         <v>5674.1</v>
       </c>
-      <c r="D16">
+      <c r="F16">
+        <v>24.005</v>
+      </c>
+      <c r="G16">
         <v>25.29</v>
-      </c>
-      <c r="E16">
-        <v>858.9</v>
-      </c>
-      <c r="F16">
-        <v>3577.9</v>
-      </c>
-      <c r="G16">
-        <v>24.005</v>
       </c>
       <c r="H16">
         <v>24.269</v>
@@ -2714,19 +2714,19 @@
         <v>1476.3</v>
       </c>
       <c r="C17">
+        <v>873.9</v>
+      </c>
+      <c r="D17">
+        <v>3567.2</v>
+      </c>
+      <c r="E17">
         <v>5728</v>
       </c>
-      <c r="D17">
+      <c r="F17">
+        <v>24.496</v>
+      </c>
+      <c r="G17">
         <v>25.728</v>
-      </c>
-      <c r="E17">
-        <v>873.9</v>
-      </c>
-      <c r="F17">
-        <v>3567.2</v>
-      </c>
-      <c r="G17">
-        <v>24.496</v>
       </c>
       <c r="H17">
         <v>24.788</v>
@@ -2854,19 +2854,19 @@
         <v>1491.2</v>
       </c>
       <c r="C18">
+        <v>891.9</v>
+      </c>
+      <c r="D18">
+        <v>3535.3</v>
+      </c>
+      <c r="E18">
         <v>5678.7</v>
       </c>
-      <c r="D18">
+      <c r="F18">
+        <v>25.225</v>
+      </c>
+      <c r="G18">
         <v>26.249</v>
-      </c>
-      <c r="E18">
-        <v>891.9</v>
-      </c>
-      <c r="F18">
-        <v>3535.3</v>
-      </c>
-      <c r="G18">
-        <v>25.225</v>
       </c>
       <c r="H18">
         <v>25.042</v>
@@ -2994,19 +2994,19 @@
         <v>1530.1</v>
       </c>
       <c r="C19">
+        <v>920.4</v>
+      </c>
+      <c r="D19">
+        <v>3548</v>
+      </c>
+      <c r="E19">
         <v>5692.2</v>
       </c>
-      <c r="D19">
+      <c r="F19">
+        <v>25.939</v>
+      </c>
+      <c r="G19">
         <v>26.832</v>
-      </c>
-      <c r="E19">
-        <v>920.4</v>
-      </c>
-      <c r="F19">
-        <v>3548</v>
-      </c>
-      <c r="G19">
-        <v>25.939</v>
       </c>
       <c r="H19">
         <v>25.494</v>
@@ -3134,19 +3134,19 @@
         <v>1560</v>
       </c>
       <c r="C20">
+        <v>949.3</v>
+      </c>
+      <c r="D20">
+        <v>3563.3</v>
+      </c>
+      <c r="E20">
         <v>5638.4</v>
       </c>
-      <c r="D20">
+      <c r="F20">
+        <v>26.639</v>
+      </c>
+      <c r="G20">
         <v>27.659</v>
-      </c>
-      <c r="E20">
-        <v>949.3</v>
-      </c>
-      <c r="F20">
-        <v>3563.3</v>
-      </c>
-      <c r="G20">
-        <v>26.639</v>
       </c>
       <c r="H20">
         <v>26.239</v>
@@ -3274,19 +3274,19 @@
         <v>1599.7</v>
       </c>
       <c r="C21">
+        <v>959.1</v>
+      </c>
+      <c r="D21">
+        <v>3511.2</v>
+      </c>
+      <c r="E21">
         <v>5616.5</v>
       </c>
-      <c r="D21">
+      <c r="F21">
+        <v>27.316</v>
+      </c>
+      <c r="G21">
         <v>28.498</v>
-      </c>
-      <c r="E21">
-        <v>959.1</v>
-      </c>
-      <c r="F21">
-        <v>3511.2</v>
-      </c>
-      <c r="G21">
-        <v>27.316</v>
       </c>
       <c r="H21">
         <v>27.11</v>
@@ -3414,19 +3414,19 @@
         <v>1616.1</v>
       </c>
       <c r="C22">
+        <v>985.2000000000001</v>
+      </c>
+      <c r="D22">
+        <v>3540.6</v>
+      </c>
+      <c r="E22">
         <v>5548.2</v>
       </c>
-      <c r="D22">
+      <c r="F22">
+        <v>27.83</v>
+      </c>
+      <c r="G22">
         <v>29.142</v>
-      </c>
-      <c r="E22">
-        <v>985.2000000000001</v>
-      </c>
-      <c r="F22">
-        <v>3540.6</v>
-      </c>
-      <c r="G22">
-        <v>27.83</v>
       </c>
       <c r="H22">
         <v>27.603</v>
@@ -3554,19 +3554,19 @@
         <v>1651.9</v>
       </c>
       <c r="C23">
+        <v>1013.6</v>
+      </c>
+      <c r="D23">
+        <v>3598.9</v>
+      </c>
+      <c r="E23">
         <v>5587.8</v>
       </c>
-      <c r="D23">
+      <c r="F23">
+        <v>28.172</v>
+      </c>
+      <c r="G23">
         <v>29.565</v>
-      </c>
-      <c r="E23">
-        <v>1013.6</v>
-      </c>
-      <c r="F23">
-        <v>3598.9</v>
-      </c>
-      <c r="G23">
-        <v>28.172</v>
       </c>
       <c r="H23">
         <v>28.003</v>
@@ -3694,19 +3694,19 @@
         <v>1709.8</v>
       </c>
       <c r="C24">
+        <v>1047.2</v>
+      </c>
+      <c r="D24">
+        <v>3650</v>
+      </c>
+      <c r="E24">
         <v>5683.4</v>
       </c>
-      <c r="D24">
+      <c r="F24">
+        <v>28.699</v>
+      </c>
+      <c r="G24">
         <v>30.087</v>
-      </c>
-      <c r="E24">
-        <v>1047.2</v>
-      </c>
-      <c r="F24">
-        <v>3650</v>
-      </c>
-      <c r="G24">
-        <v>28.699</v>
       </c>
       <c r="H24">
         <v>28.38</v>
@@ -3834,19 +3834,19 @@
         <v>1761.8</v>
       </c>
       <c r="C25">
+        <v>1076.2</v>
+      </c>
+      <c r="D25">
+        <v>3689.3</v>
+      </c>
+      <c r="E25">
         <v>5760</v>
       </c>
-      <c r="D25">
+      <c r="F25">
+        <v>29.18</v>
+      </c>
+      <c r="G25">
         <v>30.59</v>
-      </c>
-      <c r="E25">
-        <v>1076.2</v>
-      </c>
-      <c r="F25">
-        <v>3689.3</v>
-      </c>
-      <c r="G25">
-        <v>29.18</v>
       </c>
       <c r="H25">
         <v>29.032</v>
@@ -3974,19 +3974,19 @@
         <v>1820.5</v>
       </c>
       <c r="C26">
+        <v>1109.9</v>
+      </c>
+      <c r="D26">
+        <v>3763</v>
+      </c>
+      <c r="E26">
         <v>5889.5</v>
       </c>
-      <c r="D26">
+      <c r="F26">
+        <v>29.502</v>
+      </c>
+      <c r="G26">
         <v>30.925</v>
-      </c>
-      <c r="E26">
-        <v>1109.9</v>
-      </c>
-      <c r="F26">
-        <v>3763</v>
-      </c>
-      <c r="G26">
-        <v>29.502</v>
       </c>
       <c r="H26">
         <v>29.456</v>
@@ -4114,19 +4114,19 @@
         <v>1852.3</v>
       </c>
       <c r="C27">
+        <v>1129.5</v>
+      </c>
+      <c r="D27">
+        <v>3797.7</v>
+      </c>
+      <c r="E27">
         <v>5932.7</v>
       </c>
-      <c r="D27">
+      <c r="F27">
+        <v>29.749</v>
+      </c>
+      <c r="G27">
         <v>31.233</v>
-      </c>
-      <c r="E27">
-        <v>1129.5</v>
-      </c>
-      <c r="F27">
-        <v>3797.7</v>
-      </c>
-      <c r="G27">
-        <v>29.749</v>
       </c>
       <c r="H27">
         <v>29.703</v>
@@ -4254,19 +4254,19 @@
         <v>1886.6</v>
       </c>
       <c r="C28">
+        <v>1158.8</v>
+      </c>
+      <c r="D28">
+        <v>3837.7</v>
+      </c>
+      <c r="E28">
         <v>5965.3</v>
       </c>
-      <c r="D28">
+      <c r="F28">
+        <v>30.2</v>
+      </c>
+      <c r="G28">
         <v>31.632</v>
-      </c>
-      <c r="E28">
-        <v>1158.8</v>
-      </c>
-      <c r="F28">
-        <v>3837.7</v>
-      </c>
-      <c r="G28">
-        <v>30.2</v>
       </c>
       <c r="H28">
         <v>30.043</v>
@@ -4394,19 +4394,19 @@
         <v>1934.3</v>
       </c>
       <c r="C29">
+        <v>1192.4</v>
+      </c>
+      <c r="D29">
+        <v>3887.4</v>
+      </c>
+      <c r="E29">
         <v>6008.5</v>
       </c>
-      <c r="D29">
+      <c r="F29">
+        <v>30.678</v>
+      </c>
+      <c r="G29">
         <v>32.169</v>
-      </c>
-      <c r="E29">
-        <v>1192.4</v>
-      </c>
-      <c r="F29">
-        <v>3887.4</v>
-      </c>
-      <c r="G29">
-        <v>30.678</v>
       </c>
       <c r="H29">
         <v>30.846</v>
@@ -4534,19 +4534,19 @@
         <v>1988.6</v>
       </c>
       <c r="C30">
+        <v>1228.2</v>
+      </c>
+      <c r="D30">
+        <v>3933.3</v>
+      </c>
+      <c r="E30">
         <v>6079.5</v>
       </c>
-      <c r="D30">
+      <c r="F30">
+        <v>31.231</v>
+      </c>
+      <c r="G30">
         <v>32.689</v>
-      </c>
-      <c r="E30">
-        <v>1228.2</v>
-      </c>
-      <c r="F30">
-        <v>3933.3</v>
-      </c>
-      <c r="G30">
-        <v>31.231</v>
       </c>
       <c r="H30">
         <v>31.283</v>
@@ -4674,19 +4674,19 @@
         <v>2055.9</v>
       </c>
       <c r="C31">
+        <v>1256</v>
+      </c>
+      <c r="D31">
+        <v>3954.6</v>
+      </c>
+      <c r="E31">
         <v>6197.7</v>
       </c>
-      <c r="D31">
+      <c r="F31">
+        <v>31.766</v>
+      </c>
+      <c r="G31">
         <v>33.205</v>
-      </c>
-      <c r="E31">
-        <v>1256</v>
-      </c>
-      <c r="F31">
-        <v>3954.6</v>
-      </c>
-      <c r="G31">
-        <v>31.766</v>
       </c>
       <c r="H31">
         <v>31.639</v>
@@ -4814,19 +4814,19 @@
         <v>2118.5</v>
       </c>
       <c r="C32">
+        <v>1286.9</v>
+      </c>
+      <c r="D32">
+        <v>3992</v>
+      </c>
+      <c r="E32">
         <v>6309.5</v>
       </c>
-      <c r="D32">
+      <c r="F32">
+        <v>32.243</v>
+      </c>
+      <c r="G32">
         <v>33.662</v>
-      </c>
-      <c r="E32">
-        <v>1286.9</v>
-      </c>
-      <c r="F32">
-        <v>3992</v>
-      </c>
-      <c r="G32">
-        <v>32.243</v>
       </c>
       <c r="H32">
         <v>31.795</v>
@@ -4954,19 +4954,19 @@
         <v>2164.3</v>
       </c>
       <c r="C33">
+        <v>1324.8</v>
+      </c>
+      <c r="D33">
+        <v>4052</v>
+      </c>
+      <c r="E33">
         <v>6309.7</v>
       </c>
-      <c r="D33">
+      <c r="F33">
+        <v>32.702</v>
+      </c>
+      <c r="G33">
         <v>34.225</v>
-      </c>
-      <c r="E33">
-        <v>1324.8</v>
-      </c>
-      <c r="F33">
-        <v>4052</v>
-      </c>
-      <c r="G33">
-        <v>32.702</v>
       </c>
       <c r="H33">
         <v>32.716</v>
@@ -5094,19 +5094,19 @@
         <v>2202.8</v>
       </c>
       <c r="C34">
+        <v>1354.1</v>
+      </c>
+      <c r="D34">
+        <v>4074.8</v>
+      </c>
+      <c r="E34">
         <v>6329.8</v>
       </c>
-      <c r="D34">
+      <c r="F34">
+        <v>33.238</v>
+      </c>
+      <c r="G34">
         <v>34.786</v>
-      </c>
-      <c r="E34">
-        <v>1354.1</v>
-      </c>
-      <c r="F34">
-        <v>4074.8</v>
-      </c>
-      <c r="G34">
-        <v>33.238</v>
       </c>
       <c r="H34">
         <v>33.09</v>
@@ -5234,19 +5234,19 @@
         <v>2331.6</v>
       </c>
       <c r="C35">
+        <v>1411.4</v>
+      </c>
+      <c r="D35">
+        <v>4161.9</v>
+      </c>
+      <c r="E35">
         <v>6574.4</v>
       </c>
-      <c r="D35">
+      <c r="F35">
+        <v>33.921</v>
+      </c>
+      <c r="G35">
         <v>35.48</v>
-      </c>
-      <c r="E35">
-        <v>1411.4</v>
-      </c>
-      <c r="F35">
-        <v>4161.9</v>
-      </c>
-      <c r="G35">
-        <v>33.921</v>
       </c>
       <c r="H35">
         <v>33.74</v>
@@ -5374,19 +5374,19 @@
         <v>2395.1</v>
       </c>
       <c r="C36">
+        <v>1442.2</v>
+      </c>
+      <c r="D36">
+        <v>4179.4</v>
+      </c>
+      <c r="E36">
         <v>6640.5</v>
       </c>
-      <c r="D36">
+      <c r="F36">
+        <v>34.517</v>
+      </c>
+      <c r="G36">
         <v>36.106</v>
-      </c>
-      <c r="E36">
-        <v>1442.2</v>
-      </c>
-      <c r="F36">
-        <v>4179.4</v>
-      </c>
-      <c r="G36">
-        <v>34.517</v>
       </c>
       <c r="H36">
         <v>34.304</v>
@@ -5514,19 +5514,19 @@
         <v>2476.9</v>
       </c>
       <c r="C37">
+        <v>1481.4</v>
+      </c>
+      <c r="D37">
+        <v>4213.1</v>
+      </c>
+      <c r="E37">
         <v>6729.8</v>
       </c>
-      <c r="D37">
+      <c r="F37">
+        <v>35.169</v>
+      </c>
+      <c r="G37">
         <v>36.819</v>
-      </c>
-      <c r="E37">
-        <v>1481.4</v>
-      </c>
-      <c r="F37">
-        <v>4213.1</v>
-      </c>
-      <c r="G37">
-        <v>35.169</v>
       </c>
       <c r="H37">
         <v>34.896</v>
@@ -5654,19 +5654,19 @@
         <v>2526.6</v>
       </c>
       <c r="C38">
+        <v>1517.1</v>
+      </c>
+      <c r="D38">
+        <v>4234.9</v>
+      </c>
+      <c r="E38">
         <v>6741.9</v>
       </c>
-      <c r="D38">
+      <c r="F38">
+        <v>35.831</v>
+      </c>
+      <c r="G38">
         <v>37.507</v>
-      </c>
-      <c r="E38">
-        <v>1517.1</v>
-      </c>
-      <c r="F38">
-        <v>4234.9</v>
-      </c>
-      <c r="G38">
-        <v>35.831</v>
       </c>
       <c r="H38">
         <v>35.539</v>
@@ -5794,19 +5794,19 @@
         <v>2591.2</v>
       </c>
       <c r="C39">
+        <v>1557.6</v>
+      </c>
+      <c r="D39">
+        <v>4232.2</v>
+      </c>
+      <c r="E39">
         <v>6749.1</v>
       </c>
-      <c r="D39">
+      <c r="F39">
+        <v>36.81</v>
+      </c>
+      <c r="G39">
         <v>38.413</v>
-      </c>
-      <c r="E39">
-        <v>1557.6</v>
-      </c>
-      <c r="F39">
-        <v>4232.2</v>
-      </c>
-      <c r="G39">
-        <v>36.81</v>
       </c>
       <c r="H39">
         <v>36.076</v>
@@ -5934,19 +5934,19 @@
         <v>2667.6</v>
       </c>
       <c r="C40">
+        <v>1611.9</v>
+      </c>
+      <c r="D40">
+        <v>4273.3</v>
+      </c>
+      <c r="E40">
         <v>6799.2</v>
       </c>
-      <c r="D40">
+      <c r="F40">
+        <v>37.724</v>
+      </c>
+      <c r="G40">
         <v>39.215</v>
-      </c>
-      <c r="E40">
-        <v>1611.9</v>
-      </c>
-      <c r="F40">
-        <v>4273.3</v>
-      </c>
-      <c r="G40">
-        <v>37.724</v>
       </c>
       <c r="H40">
         <v>36.918</v>
@@ -6074,19 +6074,19 @@
         <v>2723.9</v>
       </c>
       <c r="C41">
+        <v>1655</v>
+      </c>
+      <c r="D41">
+        <v>4284</v>
+      </c>
+      <c r="E41">
         <v>6816.2</v>
       </c>
-      <c r="D41">
+      <c r="F41">
+        <v>38.637</v>
+      </c>
+      <c r="G41">
         <v>39.93</v>
-      </c>
-      <c r="E41">
-        <v>1655</v>
-      </c>
-      <c r="F41">
-        <v>4284</v>
-      </c>
-      <c r="G41">
-        <v>38.637</v>
       </c>
       <c r="H41">
         <v>37.731</v>
@@ -6214,19 +6214,19 @@
         <v>2789.8</v>
       </c>
       <c r="C42">
+        <v>1702.3</v>
+      </c>
+      <c r="D42">
+        <v>4277.9</v>
+      </c>
+      <c r="E42">
         <v>6837.6</v>
       </c>
-      <c r="D42">
+      <c r="F42">
+        <v>39.797</v>
+      </c>
+      <c r="G42">
         <v>40.804</v>
-      </c>
-      <c r="E42">
-        <v>1702.3</v>
-      </c>
-      <c r="F42">
-        <v>4277.9</v>
-      </c>
-      <c r="G42">
-        <v>39.797</v>
       </c>
       <c r="H42">
         <v>38.477</v>
@@ -6354,19 +6354,19 @@
         <v>2797.4</v>
       </c>
       <c r="C43">
+        <v>1704.7</v>
+      </c>
+      <c r="D43">
+        <v>4181.5</v>
+      </c>
+      <c r="E43">
         <v>6696.8</v>
       </c>
-      <c r="D43">
+      <c r="F43">
+        <v>40.771</v>
+      </c>
+      <c r="G43">
         <v>41.771</v>
-      </c>
-      <c r="E43">
-        <v>1704.7</v>
-      </c>
-      <c r="F43">
-        <v>4181.5</v>
-      </c>
-      <c r="G43">
-        <v>40.771</v>
       </c>
       <c r="H43">
         <v>39.964</v>
@@ -6494,19 +6494,19 @@
         <v>2856.5</v>
       </c>
       <c r="C44">
+        <v>1763.8</v>
+      </c>
+      <c r="D44">
+        <v>4227.4</v>
+      </c>
+      <c r="E44">
         <v>6688.8</v>
       </c>
-      <c r="D44">
+      <c r="F44">
+        <v>41.724</v>
+      </c>
+      <c r="G44">
         <v>42.703</v>
-      </c>
-      <c r="E44">
-        <v>1763.8</v>
-      </c>
-      <c r="F44">
-        <v>4227.4</v>
-      </c>
-      <c r="G44">
-        <v>41.724</v>
       </c>
       <c r="H44">
         <v>40.369</v>
@@ -6634,19 +6634,19 @@
         <v>2985.6</v>
       </c>
       <c r="C45">
+        <v>1831.9</v>
+      </c>
+      <c r="D45">
+        <v>4284.5</v>
+      </c>
+      <c r="E45">
         <v>6813.5</v>
       </c>
-      <c r="D45">
+      <c r="F45">
+        <v>42.757</v>
+      </c>
+      <c r="G45">
         <v>43.835</v>
-      </c>
-      <c r="E45">
-        <v>1831.9</v>
-      </c>
-      <c r="F45">
-        <v>4284.5</v>
-      </c>
-      <c r="G45">
-        <v>42.757</v>
       </c>
       <c r="H45">
         <v>41.584</v>
@@ -6774,19 +6774,19 @@
         <v>3124.2</v>
       </c>
       <c r="C46">
+        <v>1885.7</v>
+      </c>
+      <c r="D46">
+        <v>4298.8</v>
+      </c>
+      <c r="E46">
         <v>6947</v>
       </c>
-      <c r="D46">
+      <c r="F46">
+        <v>43.866</v>
+      </c>
+      <c r="G46">
         <v>44.997</v>
-      </c>
-      <c r="E46">
-        <v>1885.7</v>
-      </c>
-      <c r="F46">
-        <v>4298.8</v>
-      </c>
-      <c r="G46">
-        <v>43.866</v>
       </c>
       <c r="H46">
         <v>42.415</v>
@@ -6914,19 +6914,19 @@
         <v>3162.5</v>
       </c>
       <c r="C47">
+        <v>1917.5</v>
+      </c>
+      <c r="D47">
+        <v>4299.2</v>
+      </c>
+      <c r="E47">
         <v>6895.6</v>
       </c>
-      <c r="D47">
+      <c r="F47">
+        <v>44.601</v>
+      </c>
+      <c r="G47">
         <v>45.842</v>
-      </c>
-      <c r="E47">
-        <v>1917.5</v>
-      </c>
-      <c r="F47">
-        <v>4299.2</v>
-      </c>
-      <c r="G47">
-        <v>44.601</v>
       </c>
       <c r="H47">
         <v>43.402</v>
@@ -7054,19 +7054,19 @@
         <v>3260.6</v>
       </c>
       <c r="C48">
+        <v>1958.1</v>
+      </c>
+      <c r="D48">
+        <v>4319</v>
+      </c>
+      <c r="E48">
         <v>6978.1</v>
       </c>
-      <c r="D48">
+      <c r="F48">
+        <v>45.336</v>
+      </c>
+      <c r="G48">
         <v>46.733</v>
-      </c>
-      <c r="E48">
-        <v>1958.1</v>
-      </c>
-      <c r="F48">
-        <v>4319</v>
-      </c>
-      <c r="G48">
-        <v>45.336</v>
       </c>
       <c r="H48">
         <v>44.354</v>
@@ -7194,19 +7194,19 @@
         <v>3280.8</v>
       </c>
       <c r="C49">
+        <v>1974.4</v>
+      </c>
+      <c r="D49">
+        <v>4289.5</v>
+      </c>
+      <c r="E49">
         <v>6902.1</v>
       </c>
-      <c r="D49">
+      <c r="F49">
+        <v>46.031</v>
+      </c>
+      <c r="G49">
         <v>47.505</v>
-      </c>
-      <c r="E49">
-        <v>1974.4</v>
-      </c>
-      <c r="F49">
-        <v>4289.5</v>
-      </c>
-      <c r="G49">
-        <v>46.031</v>
       </c>
       <c r="H49">
         <v>45.203</v>
@@ -7334,19 +7334,19 @@
         <v>3274.3</v>
       </c>
       <c r="C50">
+        <v>2014.2</v>
+      </c>
+      <c r="D50">
+        <v>4321.1</v>
+      </c>
+      <c r="E50">
         <v>6794.9</v>
       </c>
-      <c r="D50">
+      <c r="F50">
+        <v>46.616</v>
+      </c>
+      <c r="G50">
         <v>48.186</v>
-      </c>
-      <c r="E50">
-        <v>2014.2</v>
-      </c>
-      <c r="F50">
-        <v>4321.1</v>
-      </c>
-      <c r="G50">
-        <v>46.616</v>
       </c>
       <c r="H50">
         <v>45.925</v>
@@ -7474,19 +7474,19 @@
         <v>3332</v>
       </c>
       <c r="C51">
+        <v>2039.6</v>
+      </c>
+      <c r="D51">
+        <v>4334.3</v>
+      </c>
+      <c r="E51">
         <v>6825.9</v>
       </c>
-      <c r="D51">
+      <c r="F51">
+        <v>47.064</v>
+      </c>
+      <c r="G51">
         <v>48.826</v>
-      </c>
-      <c r="E51">
-        <v>2039.6</v>
-      </c>
-      <c r="F51">
-        <v>4334.3</v>
-      </c>
-      <c r="G51">
-        <v>47.064</v>
       </c>
       <c r="H51">
         <v>46.835</v>
@@ -7614,19 +7614,19 @@
         <v>3366.3</v>
       </c>
       <c r="C52">
+        <v>2085.7</v>
+      </c>
+      <c r="D52">
+        <v>4363.3</v>
+      </c>
+      <c r="E52">
         <v>6799.8</v>
       </c>
-      <c r="D52">
+      <c r="F52">
+        <v>47.808</v>
+      </c>
+      <c r="G52">
         <v>49.504</v>
-      </c>
-      <c r="E52">
-        <v>2085.7</v>
-      </c>
-      <c r="F52">
-        <v>4363.3</v>
-      </c>
-      <c r="G52">
-        <v>47.808</v>
       </c>
       <c r="H52">
         <v>47.228</v>
@@ -7754,19 +7754,19 @@
         <v>3402.6</v>
       </c>
       <c r="C53">
+        <v>2145.6</v>
+      </c>
+      <c r="D53">
+        <v>4439.7</v>
+      </c>
+      <c r="E53">
         <v>6802.5</v>
       </c>
-      <c r="D53">
+      <c r="F53">
+        <v>48.335</v>
+      </c>
+      <c r="G53">
         <v>50.005</v>
-      </c>
-      <c r="E53">
-        <v>2145.6</v>
-      </c>
-      <c r="F53">
-        <v>4439.7</v>
-      </c>
-      <c r="G53">
-        <v>48.335</v>
       </c>
       <c r="H53">
         <v>47.785</v>
@@ -7894,19 +7894,19 @@
         <v>3473.4</v>
       </c>
       <c r="C54">
+        <v>2184.6</v>
+      </c>
+      <c r="D54">
+        <v>4483.6</v>
+      </c>
+      <c r="E54">
         <v>6892.1</v>
       </c>
-      <c r="D54">
+      <c r="F54">
+        <v>48.735</v>
+      </c>
+      <c r="G54">
         <v>50.404</v>
-      </c>
-      <c r="E54">
-        <v>2184.6</v>
-      </c>
-      <c r="F54">
-        <v>4483.6</v>
-      </c>
-      <c r="G54">
-        <v>48.735</v>
       </c>
       <c r="H54">
         <v>47.875</v>
@@ -8034,19 +8034,19 @@
         <v>3578.8</v>
       </c>
       <c r="C55">
+        <v>2249.4</v>
+      </c>
+      <c r="D55">
+        <v>4574.9</v>
+      </c>
+      <c r="E55">
         <v>7049</v>
       </c>
-      <c r="D55">
+      <c r="F55">
+        <v>49.18</v>
+      </c>
+      <c r="G55">
         <v>50.778</v>
-      </c>
-      <c r="E55">
-        <v>2249.4</v>
-      </c>
-      <c r="F55">
-        <v>4574.9</v>
-      </c>
-      <c r="G55">
-        <v>49.18</v>
       </c>
       <c r="H55">
         <v>48.245</v>
@@ -8174,19 +8174,19 @@
         <v>3689.2</v>
       </c>
       <c r="C56">
+        <v>2319.9</v>
+      </c>
+      <c r="D56">
+        <v>4657</v>
+      </c>
+      <c r="E56">
         <v>7189.9</v>
       </c>
-      <c r="D56">
+      <c r="F56">
+        <v>49.827</v>
+      </c>
+      <c r="G56">
         <v>51.318</v>
-      </c>
-      <c r="E56">
-        <v>2319.9</v>
-      </c>
-      <c r="F56">
-        <v>4657</v>
-      </c>
-      <c r="G56">
-        <v>49.827</v>
       </c>
       <c r="H56">
         <v>48.78</v>
@@ -8314,19 +8314,19 @@
         <v>3794.7</v>
       </c>
       <c r="C57">
+        <v>2372.5</v>
+      </c>
+      <c r="D57">
+        <v>4731.2</v>
+      </c>
+      <c r="E57">
         <v>7339.9</v>
       </c>
-      <c r="D57">
+      <c r="F57">
+        <v>50.156</v>
+      </c>
+      <c r="G57">
         <v>51.702</v>
-      </c>
-      <c r="E57">
-        <v>2372.5</v>
-      </c>
-      <c r="F57">
-        <v>4731.2</v>
-      </c>
-      <c r="G57">
-        <v>50.156</v>
       </c>
       <c r="H57">
         <v>49.098</v>
@@ -8454,19 +8454,19 @@
         <v>3908.1</v>
       </c>
       <c r="C58">
+        <v>2418.2</v>
+      </c>
+      <c r="D58">
+        <v>4770.5</v>
+      </c>
+      <c r="E58">
         <v>7483.4</v>
       </c>
-      <c r="D58">
+      <c r="F58">
+        <v>50.698</v>
+      </c>
+      <c r="G58">
         <v>52.212</v>
-      </c>
-      <c r="E58">
-        <v>2418.2</v>
-      </c>
-      <c r="F58">
-        <v>4770.5</v>
-      </c>
-      <c r="G58">
-        <v>50.698</v>
       </c>
       <c r="H58">
         <v>49.735</v>
@@ -8594,19 +8594,19 @@
         <v>4009.6</v>
       </c>
       <c r="C59">
+        <v>2475.9</v>
+      </c>
+      <c r="D59">
+        <v>4837.3</v>
+      </c>
+      <c r="E59">
         <v>7612.7</v>
       </c>
-      <c r="D59">
+      <c r="F59">
+        <v>51.189</v>
+      </c>
+      <c r="G59">
         <v>52.681</v>
-      </c>
-      <c r="E59">
-        <v>2475.9</v>
-      </c>
-      <c r="F59">
-        <v>4837.3</v>
-      </c>
-      <c r="G59">
-        <v>51.189</v>
       </c>
       <c r="H59">
         <v>50.23</v>
@@ -8734,19 +8734,19 @@
         <v>4084.3</v>
       </c>
       <c r="C60">
+        <v>2513.5</v>
+      </c>
+      <c r="D60">
+        <v>4873.2</v>
+      </c>
+      <c r="E60">
         <v>7686.1</v>
       </c>
-      <c r="D60">
+      <c r="F60">
+        <v>51.584</v>
+      </c>
+      <c r="G60">
         <v>53.157</v>
-      </c>
-      <c r="E60">
-        <v>2513.5</v>
-      </c>
-      <c r="F60">
-        <v>4873.2</v>
-      </c>
-      <c r="G60">
-        <v>51.584</v>
       </c>
       <c r="H60">
         <v>50.977</v>
@@ -8874,19 +8874,19 @@
         <v>4148.6</v>
       </c>
       <c r="C61">
+        <v>2561.8</v>
+      </c>
+      <c r="D61">
+        <v>4936.3</v>
+      </c>
+      <c r="E61">
         <v>7749.2</v>
       </c>
-      <c r="D61">
+      <c r="F61">
+        <v>51.902</v>
+      </c>
+      <c r="G61">
         <v>53.528</v>
-      </c>
-      <c r="E61">
-        <v>2561.8</v>
-      </c>
-      <c r="F61">
-        <v>4936.3</v>
-      </c>
-      <c r="G61">
-        <v>51.902</v>
       </c>
       <c r="H61">
         <v>51.605</v>
@@ -9014,19 +9014,19 @@
         <v>4230.2</v>
       </c>
       <c r="C62">
+        <v>2636</v>
+      </c>
+      <c r="D62">
+        <v>5020.2</v>
+      </c>
+      <c r="E62">
         <v>7824.2</v>
       </c>
-      <c r="D62">
+      <c r="F62">
+        <v>52.514</v>
+      </c>
+      <c r="G62">
         <v>54.076</v>
-      </c>
-      <c r="E62">
-        <v>2636</v>
-      </c>
-      <c r="F62">
-        <v>5020.2</v>
-      </c>
-      <c r="G62">
-        <v>52.514</v>
       </c>
       <c r="H62">
         <v>51.399</v>
@@ -9154,19 +9154,19 @@
         <v>4294.9</v>
       </c>
       <c r="C63">
+        <v>2681.8</v>
+      </c>
+      <c r="D63">
+        <v>5066.3</v>
+      </c>
+      <c r="E63">
         <v>7893.1</v>
       </c>
-      <c r="D63">
+      <c r="F63">
+        <v>52.94</v>
+      </c>
+      <c r="G63">
         <v>54.396</v>
-      </c>
-      <c r="E63">
-        <v>2681.8</v>
-      </c>
-      <c r="F63">
-        <v>5066.3</v>
-      </c>
-      <c r="G63">
-        <v>52.94</v>
       </c>
       <c r="H63">
         <v>51.52</v>
@@ -9294,19 +9294,19 @@
         <v>4386.8</v>
       </c>
       <c r="C64">
+        <v>2754.1</v>
+      </c>
+      <c r="D64">
+        <v>5162.5</v>
+      </c>
+      <c r="E64">
         <v>8013.7</v>
       </c>
-      <c r="D64">
+      <c r="F64">
+        <v>53.355</v>
+      </c>
+      <c r="G64">
         <v>54.757</v>
-      </c>
-      <c r="E64">
-        <v>2754.1</v>
-      </c>
-      <c r="F64">
-        <v>5162.5</v>
-      </c>
-      <c r="G64">
-        <v>53.355</v>
       </c>
       <c r="H64">
         <v>51.795</v>
@@ -9434,19 +9434,19 @@
         <v>4444.1</v>
       </c>
       <c r="C65">
+        <v>2779.4</v>
+      </c>
+      <c r="D65">
+        <v>5173.6</v>
+      </c>
+      <c r="E65">
         <v>8073.2</v>
       </c>
-      <c r="D65">
+      <c r="F65">
+        <v>53.727</v>
+      </c>
+      <c r="G65">
         <v>55.042</v>
-      </c>
-      <c r="E65">
-        <v>2779.4</v>
-      </c>
-      <c r="F65">
-        <v>5173.6</v>
-      </c>
-      <c r="G65">
-        <v>53.727</v>
       </c>
       <c r="H65">
         <v>52.135</v>
@@ -9574,19 +9574,19 @@
         <v>4507.9</v>
       </c>
       <c r="C66">
+        <v>2823.6</v>
+      </c>
+      <c r="D66">
+        <v>5218.9</v>
+      </c>
+      <c r="E66">
         <v>8148.6</v>
       </c>
-      <c r="D66">
+      <c r="F66">
+        <v>54.108</v>
+      </c>
+      <c r="G66">
         <v>55.313</v>
-      </c>
-      <c r="E66">
-        <v>2823.6</v>
-      </c>
-      <c r="F66">
-        <v>5218.9</v>
-      </c>
-      <c r="G66">
-        <v>54.108</v>
       </c>
       <c r="H66">
         <v>52.003</v>
@@ -9714,19 +9714,19 @@
         <v>4545.3</v>
       </c>
       <c r="C67">
+        <v>2851.5</v>
+      </c>
+      <c r="D67">
+        <v>5275.7</v>
+      </c>
+      <c r="E67">
         <v>8185.3</v>
       </c>
-      <c r="D67">
+      <c r="F67">
+        <v>54.051</v>
+      </c>
+      <c r="G67">
         <v>55.507</v>
-      </c>
-      <c r="E67">
-        <v>2851.5</v>
-      </c>
-      <c r="F67">
-        <v>5275.7</v>
-      </c>
-      <c r="G67">
-        <v>54.051</v>
       </c>
       <c r="H67">
         <v>51.873</v>
@@ -9854,19 +9854,19 @@
         <v>4607.7</v>
       </c>
       <c r="C68">
+        <v>2917.2</v>
+      </c>
+      <c r="D68">
+        <v>5369</v>
+      </c>
+      <c r="E68">
         <v>8263.6</v>
       </c>
-      <c r="D68">
+      <c r="F68">
+        <v>54.336</v>
+      </c>
+      <c r="G68">
         <v>55.771</v>
-      </c>
-      <c r="E68">
-        <v>2917.2</v>
-      </c>
-      <c r="F68">
-        <v>5369</v>
-      </c>
-      <c r="G68">
-        <v>54.336</v>
       </c>
       <c r="H68">
         <v>51.947</v>
@@ -9994,19 +9994,19 @@
         <v>4657.6</v>
       </c>
       <c r="C69">
+        <v>2952.8</v>
+      </c>
+      <c r="D69">
+        <v>5402</v>
+      </c>
+      <c r="E69">
         <v>8308</v>
       </c>
-      <c r="D69">
+      <c r="F69">
+        <v>54.665</v>
+      </c>
+      <c r="G69">
         <v>56.102</v>
-      </c>
-      <c r="E69">
-        <v>2952.8</v>
-      </c>
-      <c r="F69">
-        <v>5402</v>
-      </c>
-      <c r="G69">
-        <v>54.665</v>
       </c>
       <c r="H69">
         <v>52.006</v>
@@ -10134,19 +10134,19 @@
         <v>4722.2</v>
       </c>
       <c r="C70">
+        <v>2983.5</v>
+      </c>
+      <c r="D70">
+        <v>5407.4</v>
+      </c>
+      <c r="E70">
         <v>8369.9</v>
       </c>
-      <c r="D70">
+      <c r="F70">
+        <v>55.179</v>
+      </c>
+      <c r="G70">
         <v>56.427</v>
-      </c>
-      <c r="E70">
-        <v>2983.5</v>
-      </c>
-      <c r="F70">
-        <v>5407.4</v>
-      </c>
-      <c r="G70">
-        <v>55.179</v>
       </c>
       <c r="H70">
         <v>51.917</v>
@@ -10274,19 +10274,19 @@
         <v>4806.2</v>
       </c>
       <c r="C71">
+        <v>3053.3</v>
+      </c>
+      <c r="D71">
+        <v>5481.2</v>
+      </c>
+      <c r="E71">
         <v>8460.200000000001</v>
       </c>
-      <c r="D71">
+      <c r="F71">
+        <v>55.711</v>
+      </c>
+      <c r="G71">
         <v>56.81</v>
-      </c>
-      <c r="E71">
-        <v>3053.3</v>
-      </c>
-      <c r="F71">
-        <v>5481.2</v>
-      </c>
-      <c r="G71">
-        <v>55.711</v>
       </c>
       <c r="H71">
         <v>52.164</v>
@@ -10414,19 +10414,19 @@
         <v>4884.6</v>
       </c>
       <c r="C72">
+        <v>3117.4</v>
+      </c>
+      <c r="D72">
+        <v>5543.7</v>
+      </c>
+      <c r="E72">
         <v>8533.6</v>
       </c>
-      <c r="D72">
+      <c r="F72">
+        <v>56.239</v>
+      </c>
+      <c r="G72">
         <v>57.248</v>
-      </c>
-      <c r="E72">
-        <v>3117.4</v>
-      </c>
-      <c r="F72">
-        <v>5543.7</v>
-      </c>
-      <c r="G72">
-        <v>56.239</v>
       </c>
       <c r="H72">
         <v>52.541</v>
@@ -10554,19 +10554,19 @@
         <v>5008</v>
       </c>
       <c r="C73">
+        <v>3150.9</v>
+      </c>
+      <c r="D73">
+        <v>5555.5</v>
+      </c>
+      <c r="E73">
         <v>8680.200000000001</v>
       </c>
-      <c r="D73">
+      <c r="F73">
+        <v>56.725</v>
+      </c>
+      <c r="G73">
         <v>57.678</v>
-      </c>
-      <c r="E73">
-        <v>3150.9</v>
-      </c>
-      <c r="F73">
-        <v>5555.5</v>
-      </c>
-      <c r="G73">
-        <v>56.725</v>
       </c>
       <c r="H73">
         <v>52.651</v>
@@ -10694,19 +10694,19 @@
         <v>5073.4</v>
       </c>
       <c r="C74">
+        <v>3231.9</v>
+      </c>
+      <c r="D74">
+        <v>5653.6</v>
+      </c>
+      <c r="E74">
         <v>8725</v>
       </c>
-      <c r="D74">
+      <c r="F74">
+        <v>57.173</v>
+      </c>
+      <c r="G74">
         <v>58.124</v>
-      </c>
-      <c r="E74">
-        <v>3231.9</v>
-      </c>
-      <c r="F74">
-        <v>5653.6</v>
-      </c>
-      <c r="G74">
-        <v>57.173</v>
       </c>
       <c r="H74">
         <v>53.369</v>
@@ -10834,19 +10834,19 @@
         <v>5190</v>
       </c>
       <c r="C75">
+        <v>3291.7</v>
+      </c>
+      <c r="D75">
+        <v>5695.3</v>
+      </c>
+      <c r="E75">
         <v>8839.6</v>
       </c>
-      <c r="D75">
+      <c r="F75">
+        <v>57.805</v>
+      </c>
+      <c r="G75">
         <v>58.704</v>
-      </c>
-      <c r="E75">
-        <v>3291.7</v>
-      </c>
-      <c r="F75">
-        <v>5695.3</v>
-      </c>
-      <c r="G75">
-        <v>57.805</v>
       </c>
       <c r="H75">
         <v>53.893</v>
@@ -10974,19 +10974,19 @@
         <v>5282.8</v>
       </c>
       <c r="C76">
+        <v>3361.9</v>
+      </c>
+      <c r="D76">
+        <v>5745.9</v>
+      </c>
+      <c r="E76">
         <v>8891.4</v>
       </c>
-      <c r="D76">
+      <c r="F76">
+        <v>58.517</v>
+      </c>
+      <c r="G76">
         <v>59.423</v>
-      </c>
-      <c r="E76">
-        <v>3361.9</v>
-      </c>
-      <c r="F76">
-        <v>5745.9</v>
-      </c>
-      <c r="G76">
-        <v>58.517</v>
       </c>
       <c r="H76">
         <v>54.201</v>
@@ -11114,19 +11114,19 @@
         <v>5399.5</v>
       </c>
       <c r="C77">
+        <v>3434.5</v>
+      </c>
+      <c r="D77">
+        <v>5811.3</v>
+      </c>
+      <c r="E77">
         <v>9009.9</v>
       </c>
-      <c r="D77">
+      <c r="F77">
+        <v>59.108</v>
+      </c>
+      <c r="G77">
         <v>59.97</v>
-      </c>
-      <c r="E77">
-        <v>3434.5</v>
-      </c>
-      <c r="F77">
-        <v>5811.3</v>
-      </c>
-      <c r="G77">
-        <v>59.108</v>
       </c>
       <c r="H77">
         <v>54.638</v>
@@ -11254,19 +11254,19 @@
         <v>5511.3</v>
       </c>
       <c r="C78">
+        <v>3490.2</v>
+      </c>
+      <c r="D78">
+        <v>5838.2</v>
+      </c>
+      <c r="E78">
         <v>9101.5</v>
       </c>
-      <c r="D78">
+      <c r="F78">
+        <v>59.787</v>
+      </c>
+      <c r="G78">
         <v>60.547</v>
-      </c>
-      <c r="E78">
-        <v>3490.2</v>
-      </c>
-      <c r="F78">
-        <v>5838.2</v>
-      </c>
-      <c r="G78">
-        <v>59.787</v>
       </c>
       <c r="H78">
         <v>55.043</v>
@@ -11394,19 +11394,19 @@
         <v>5612.5</v>
       </c>
       <c r="C79">
+        <v>3553.8</v>
+      </c>
+      <c r="D79">
+        <v>5865.5</v>
+      </c>
+      <c r="E79">
         <v>9171</v>
       </c>
-      <c r="D79">
+      <c r="F79">
+        <v>60.593</v>
+      </c>
+      <c r="G79">
         <v>61.202</v>
-      </c>
-      <c r="E79">
-        <v>3553.8</v>
-      </c>
-      <c r="F79">
-        <v>5865.5</v>
-      </c>
-      <c r="G79">
-        <v>60.593</v>
       </c>
       <c r="H79">
         <v>55.447</v>
@@ -11534,19 +11534,19 @@
         <v>5695.4</v>
       </c>
       <c r="C80">
+        <v>3609.4</v>
+      </c>
+      <c r="D80">
+        <v>5922.3</v>
+      </c>
+      <c r="E80">
         <v>9238.9</v>
       </c>
-      <c r="D80">
+      <c r="F80">
+        <v>60.95</v>
+      </c>
+      <c r="G80">
         <v>61.656</v>
-      </c>
-      <c r="E80">
-        <v>3609.4</v>
-      </c>
-      <c r="F80">
-        <v>5922.3</v>
-      </c>
-      <c r="G80">
-        <v>60.95</v>
       </c>
       <c r="H80">
         <v>55.723</v>
@@ -11674,19 +11674,19 @@
         <v>5747.2</v>
       </c>
       <c r="C81">
+        <v>3653.7</v>
+      </c>
+      <c r="D81">
+        <v>5948</v>
+      </c>
+      <c r="E81">
         <v>9257.1</v>
       </c>
-      <c r="D81">
+      <c r="F81">
+        <v>61.43</v>
+      </c>
+      <c r="G81">
         <v>62.077</v>
-      </c>
-      <c r="E81">
-        <v>3653.7</v>
-      </c>
-      <c r="F81">
-        <v>5948</v>
-      </c>
-      <c r="G81">
-        <v>61.43</v>
       </c>
       <c r="H81">
         <v>55.923</v>
@@ -11814,19 +11814,19 @@
         <v>5872.7</v>
       </c>
       <c r="C82">
+        <v>3737.9</v>
+      </c>
+      <c r="D82">
+        <v>5998.1</v>
+      </c>
+      <c r="E82">
         <v>9358.299999999999</v>
       </c>
-      <c r="D82">
+      <c r="F82">
+        <v>62.32</v>
+      </c>
+      <c r="G82">
         <v>62.753</v>
-      </c>
-      <c r="E82">
-        <v>3737.9</v>
-      </c>
-      <c r="F82">
-        <v>5998.1</v>
-      </c>
-      <c r="G82">
-        <v>62.32</v>
       </c>
       <c r="H82">
         <v>56.315</v>
@@ -11954,19 +11954,19 @@
         <v>5960</v>
       </c>
       <c r="C83">
+        <v>3783.4</v>
+      </c>
+      <c r="D83">
+        <v>6016.3</v>
+      </c>
+      <c r="E83">
         <v>9392.299999999999</v>
       </c>
-      <c r="D83">
+      <c r="F83">
+        <v>62.886</v>
+      </c>
+      <c r="G83">
         <v>63.455</v>
-      </c>
-      <c r="E83">
-        <v>3783.4</v>
-      </c>
-      <c r="F83">
-        <v>6016.3</v>
-      </c>
-      <c r="G83">
-        <v>62.886</v>
       </c>
       <c r="H83">
         <v>57.282</v>
@@ -12094,19 +12094,19 @@
         <v>6015.1</v>
       </c>
       <c r="C84">
+        <v>3846.7</v>
+      </c>
+      <c r="D84">
+        <v>6040.2</v>
+      </c>
+      <c r="E84">
         <v>9398.5</v>
       </c>
-      <c r="D84">
+      <c r="F84">
+        <v>63.685</v>
+      </c>
+      <c r="G84">
         <v>64.00400000000001</v>
-      </c>
-      <c r="E84">
-        <v>3846.7</v>
-      </c>
-      <c r="F84">
-        <v>6040.2</v>
-      </c>
-      <c r="G84">
-        <v>63.685</v>
       </c>
       <c r="H84">
         <v>57.36</v>
@@ -12234,19 +12234,19 @@
         <v>6004.7</v>
       </c>
       <c r="C85">
+        <v>3867.9</v>
+      </c>
+      <c r="D85">
+        <v>5994.2</v>
+      </c>
+      <c r="E85">
         <v>9312.9</v>
       </c>
-      <c r="D85">
+      <c r="F85">
+        <v>64.527</v>
+      </c>
+      <c r="G85">
         <v>64.493</v>
-      </c>
-      <c r="E85">
-        <v>3867.9</v>
-      </c>
-      <c r="F85">
-        <v>5994.2</v>
-      </c>
-      <c r="G85">
-        <v>64.527</v>
       </c>
       <c r="H85">
         <v>58.043</v>
@@ -12374,19 +12374,19 @@
         <v>6035.2</v>
       </c>
       <c r="C86">
+        <v>3873.6</v>
+      </c>
+      <c r="D86">
+        <v>5971.7</v>
+      </c>
+      <c r="E86">
         <v>9269.4</v>
       </c>
-      <c r="D86">
+      <c r="F86">
+        <v>64.866</v>
+      </c>
+      <c r="G86">
         <v>65.12000000000001</v>
-      </c>
-      <c r="E86">
-        <v>3873.6</v>
-      </c>
-      <c r="F86">
-        <v>5971.7</v>
-      </c>
-      <c r="G86">
-        <v>64.866</v>
       </c>
       <c r="H86">
         <v>58.563</v>
@@ -12514,19 +12514,19 @@
         <v>6126.9</v>
       </c>
       <c r="C87">
+        <v>3926.9</v>
+      </c>
+      <c r="D87">
+        <v>6021.2</v>
+      </c>
+      <c r="E87">
         <v>9341.6</v>
       </c>
-      <c r="D87">
+      <c r="F87">
+        <v>65.221</v>
+      </c>
+      <c r="G87">
         <v>65.589</v>
-      </c>
-      <c r="E87">
-        <v>3926.9</v>
-      </c>
-      <c r="F87">
-        <v>6021.2</v>
-      </c>
-      <c r="G87">
-        <v>65.221</v>
       </c>
       <c r="H87">
         <v>58.852</v>
@@ -12654,19 +12654,19 @@
         <v>6205.9</v>
       </c>
       <c r="C88">
+        <v>3973.3</v>
+      </c>
+      <c r="D88">
+        <v>6051.2</v>
+      </c>
+      <c r="E88">
         <v>9388.799999999999</v>
       </c>
-      <c r="D88">
+      <c r="F88">
+        <v>65.664</v>
+      </c>
+      <c r="G88">
         <v>66.092</v>
-      </c>
-      <c r="E88">
-        <v>3973.3</v>
-      </c>
-      <c r="F88">
-        <v>6051.2</v>
-      </c>
-      <c r="G88">
-        <v>65.664</v>
       </c>
       <c r="H88">
         <v>59.608</v>
@@ -12794,19 +12794,19 @@
         <v>6264.5</v>
       </c>
       <c r="C89">
+        <v>4000</v>
+      </c>
+      <c r="D89">
+        <v>6048.2</v>
+      </c>
+      <c r="E89">
         <v>9421.6</v>
       </c>
-      <c r="D89">
+      <c r="F89">
+        <v>66.14</v>
+      </c>
+      <c r="G89">
         <v>66.476</v>
-      </c>
-      <c r="E89">
-        <v>4000</v>
-      </c>
-      <c r="F89">
-        <v>6048.2</v>
-      </c>
-      <c r="G89">
-        <v>66.14</v>
       </c>
       <c r="H89">
         <v>60.211</v>
@@ -12934,19 +12934,19 @@
         <v>6363.1</v>
       </c>
       <c r="C90">
+        <v>4100.4</v>
+      </c>
+      <c r="D90">
+        <v>6161.4</v>
+      </c>
+      <c r="E90">
         <v>9534.299999999999</v>
       </c>
-      <c r="D90">
+      <c r="F90">
+        <v>66.55500000000001</v>
+      </c>
+      <c r="G90">
         <v>66.743</v>
-      </c>
-      <c r="E90">
-        <v>4100.4</v>
-      </c>
-      <c r="F90">
-        <v>6161.4</v>
-      </c>
-      <c r="G90">
-        <v>66.55500000000001</v>
       </c>
       <c r="H90">
         <v>60.299</v>
@@ -13074,19 +13074,19 @@
         <v>6470.8</v>
       </c>
       <c r="C91">
+        <v>4155.7</v>
+      </c>
+      <c r="D91">
+        <v>6203.2</v>
+      </c>
+      <c r="E91">
         <v>9637.700000000001</v>
       </c>
-      <c r="D91">
+      <c r="F91">
+        <v>66.99800000000001</v>
+      </c>
+      <c r="G91">
         <v>67.14100000000001</v>
-      </c>
-      <c r="E91">
-        <v>4155.7</v>
-      </c>
-      <c r="F91">
-        <v>6203.2</v>
-      </c>
-      <c r="G91">
-        <v>66.99800000000001</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -13214,19 +13214,19 @@
         <v>6566.6</v>
       </c>
       <c r="C92">
+        <v>4227</v>
+      </c>
+      <c r="D92">
+        <v>6269.7</v>
+      </c>
+      <c r="E92">
         <v>9733</v>
       </c>
-      <c r="D92">
+      <c r="F92">
+        <v>67.425</v>
+      </c>
+      <c r="G92">
         <v>67.462</v>
-      </c>
-      <c r="E92">
-        <v>4227</v>
-      </c>
-      <c r="F92">
-        <v>6269.7</v>
-      </c>
-      <c r="G92">
-        <v>67.425</v>
       </c>
       <c r="H92">
         <v>61.047</v>
@@ -13354,19 +13354,19 @@
         <v>6680.8</v>
       </c>
       <c r="C93">
+        <v>4307.2</v>
+      </c>
+      <c r="D93">
+        <v>6344.4</v>
+      </c>
+      <c r="E93">
         <v>9834.5</v>
       </c>
-      <c r="D93">
+      <c r="F93">
+        <v>67.895</v>
+      </c>
+      <c r="G93">
         <v>67.937</v>
-      </c>
-      <c r="E93">
-        <v>4307.2</v>
-      </c>
-      <c r="F93">
-        <v>6344.4</v>
-      </c>
-      <c r="G93">
-        <v>67.895</v>
       </c>
       <c r="H93">
         <v>61.43</v>
@@ -13494,19 +13494,19 @@
         <v>6729.5</v>
       </c>
       <c r="C94">
+        <v>4349.5</v>
+      </c>
+      <c r="D94">
+        <v>6368.8</v>
+      </c>
+      <c r="E94">
         <v>9851</v>
       </c>
-      <c r="D94">
+      <c r="F94">
+        <v>68.29900000000001</v>
+      </c>
+      <c r="G94">
         <v>68.34099999999999</v>
-      </c>
-      <c r="E94">
-        <v>4349.5</v>
-      </c>
-      <c r="F94">
-        <v>6368.8</v>
-      </c>
-      <c r="G94">
-        <v>68.29900000000001</v>
       </c>
       <c r="H94">
         <v>61.584</v>
@@ -13640,19 +13640,19 @@
         <v>6808.9</v>
       </c>
       <c r="C95">
+        <v>4418.6</v>
+      </c>
+      <c r="D95">
+        <v>6426.7</v>
+      </c>
+      <c r="E95">
         <v>9908.299999999999</v>
       </c>
-      <c r="D95">
+      <c r="F95">
+        <v>68.758</v>
+      </c>
+      <c r="G95">
         <v>68.744</v>
-      </c>
-      <c r="E95">
-        <v>4418.6</v>
-      </c>
-      <c r="F95">
-        <v>6426.7</v>
-      </c>
-      <c r="G95">
-        <v>68.758</v>
       </c>
       <c r="H95">
         <v>61.855</v>
@@ -13786,19 +13786,19 @@
         <v>6882.1</v>
       </c>
       <c r="C96">
+        <v>4487.2</v>
+      </c>
+      <c r="D96">
+        <v>6498.2</v>
+      </c>
+      <c r="E96">
         <v>9955.6</v>
       </c>
-      <c r="D96">
+      <c r="F96">
+        <v>69.057</v>
+      </c>
+      <c r="G96">
         <v>69.089</v>
-      </c>
-      <c r="E96">
-        <v>4487.2</v>
-      </c>
-      <c r="F96">
-        <v>6498.2</v>
-      </c>
-      <c r="G96">
-        <v>69.057</v>
       </c>
       <c r="H96">
         <v>62.303</v>
@@ -13932,19 +13932,19 @@
         <v>7013.7</v>
       </c>
       <c r="C97">
+        <v>4552.7</v>
+      </c>
+      <c r="D97">
+        <v>6555.3</v>
+      </c>
+      <c r="E97">
         <v>10091</v>
       </c>
-      <c r="D97">
+      <c r="F97">
+        <v>69.455</v>
+      </c>
+      <c r="G97">
         <v>69.49500000000001</v>
-      </c>
-      <c r="E97">
-        <v>4552.7</v>
-      </c>
-      <c r="F97">
-        <v>6555.3</v>
-      </c>
-      <c r="G97">
-        <v>69.455</v>
       </c>
       <c r="H97">
         <v>62.861</v>
@@ -14078,19 +14078,19 @@
         <v>7115.7</v>
       </c>
       <c r="C98">
+        <v>4621.2</v>
+      </c>
+      <c r="D98">
+        <v>6630.3</v>
+      </c>
+      <c r="E98">
         <v>10189</v>
       </c>
-      <c r="D98">
+      <c r="F98">
+        <v>69.70399999999999</v>
+      </c>
+      <c r="G98">
         <v>69.851</v>
-      </c>
-      <c r="E98">
-        <v>4621.2</v>
-      </c>
-      <c r="F98">
-        <v>6630.3</v>
-      </c>
-      <c r="G98">
-        <v>69.70399999999999</v>
       </c>
       <c r="H98">
         <v>63.15</v>
@@ -14224,19 +14224,19 @@
         <v>7246.9</v>
       </c>
       <c r="C99">
+        <v>4683.2</v>
+      </c>
+      <c r="D99">
+        <v>6681.8</v>
+      </c>
+      <c r="E99">
         <v>10327</v>
       </c>
-      <c r="D99">
+      <c r="F99">
+        <v>70.093</v>
+      </c>
+      <c r="G99">
         <v>70.184</v>
-      </c>
-      <c r="E99">
-        <v>4683.2</v>
-      </c>
-      <c r="F99">
-        <v>6681.8</v>
-      </c>
-      <c r="G99">
-        <v>70.093</v>
       </c>
       <c r="H99">
         <v>63.679</v>
@@ -14370,19 +14370,19 @@
         <v>7331.1</v>
       </c>
       <c r="C100">
+        <v>4752.8</v>
+      </c>
+      <c r="D100">
+        <v>6732.8</v>
+      </c>
+      <c r="E100">
         <v>10387.4</v>
       </c>
-      <c r="D100">
+      <c r="F100">
+        <v>70.596</v>
+      </c>
+      <c r="G100">
         <v>70.55800000000001</v>
-      </c>
-      <c r="E100">
-        <v>4752.8</v>
-      </c>
-      <c r="F100">
-        <v>6732.8</v>
-      </c>
-      <c r="G100">
-        <v>70.596</v>
       </c>
       <c r="H100">
         <v>64.045</v>
@@ -14516,19 +14516,19 @@
         <v>7455.3</v>
       </c>
       <c r="C101">
+        <v>4826.7</v>
+      </c>
+      <c r="D101">
+        <v>6805.6</v>
+      </c>
+      <c r="E101">
         <v>10506.4</v>
       </c>
-      <c r="D101">
+      <c r="F101">
+        <v>70.92700000000001</v>
+      </c>
+      <c r="G101">
         <v>70.952</v>
-      </c>
-      <c r="E101">
-        <v>4826.7</v>
-      </c>
-      <c r="F101">
-        <v>6805.6</v>
-      </c>
-      <c r="G101">
-        <v>70.92700000000001</v>
       </c>
       <c r="H101">
         <v>64.571</v>
@@ -14662,19 +14662,19 @@
         <v>7522.3</v>
       </c>
       <c r="C102">
+        <v>4862.4</v>
+      </c>
+      <c r="D102">
+        <v>6822.5</v>
+      </c>
+      <c r="E102">
         <v>10543.6</v>
       </c>
-      <c r="D102">
+      <c r="F102">
+        <v>71.274</v>
+      </c>
+      <c r="G102">
         <v>71.356</v>
-      </c>
-      <c r="E102">
-        <v>4862.4</v>
-      </c>
-      <c r="F102">
-        <v>6822.5</v>
-      </c>
-      <c r="G102">
-        <v>71.274</v>
       </c>
       <c r="H102">
         <v>65.115</v>
@@ -14808,19 +14808,19 @@
         <v>7581</v>
       </c>
       <c r="C103">
+        <v>4933.6</v>
+      </c>
+      <c r="D103">
+        <v>6882.3</v>
+      </c>
+      <c r="E103">
         <v>10575.1</v>
       </c>
-      <c r="D103">
+      <c r="F103">
+        <v>71.68899999999999</v>
+      </c>
+      <c r="G103">
         <v>71.706</v>
-      </c>
-      <c r="E103">
-        <v>4933.6</v>
-      </c>
-      <c r="F103">
-        <v>6882.3</v>
-      </c>
-      <c r="G103">
-        <v>71.68899999999999</v>
       </c>
       <c r="H103">
         <v>65.54900000000001</v>
@@ -14954,19 +14954,19 @@
         <v>7683.1</v>
       </c>
       <c r="C104">
+        <v>4998.7</v>
+      </c>
+      <c r="D104">
+        <v>6944.7</v>
+      </c>
+      <c r="E104">
         <v>10665.1</v>
       </c>
-      <c r="D104">
+      <c r="F104">
+        <v>71.981</v>
+      </c>
+      <c r="G104">
         <v>72.027</v>
-      </c>
-      <c r="E104">
-        <v>4998.7</v>
-      </c>
-      <c r="F104">
-        <v>6944.7</v>
-      </c>
-      <c r="G104">
-        <v>71.981</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -15100,19 +15100,19 @@
         <v>7772.6</v>
       </c>
       <c r="C105">
+        <v>5055.7</v>
+      </c>
+      <c r="D105">
+        <v>6993.1</v>
+      </c>
+      <c r="E105">
         <v>10737.5</v>
       </c>
-      <c r="D105">
+      <c r="F105">
+        <v>72.298</v>
+      </c>
+      <c r="G105">
         <v>72.367</v>
-      </c>
-      <c r="E105">
-        <v>5055.7</v>
-      </c>
-      <c r="F105">
-        <v>6993.1</v>
-      </c>
-      <c r="G105">
-        <v>72.298</v>
       </c>
       <c r="H105">
         <v>66.798</v>
@@ -15246,16 +15246,16 @@
         <v>7868.5</v>
       </c>
       <c r="C106">
+        <v>5130.6</v>
+      </c>
+      <c r="D106">
+        <v>7057.6</v>
+      </c>
+      <c r="E106">
         <v>10817.9</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>72.7</v>
-      </c>
-      <c r="E106">
-        <v>5130.6</v>
-      </c>
-      <c r="F106">
-        <v>7057.6</v>
       </c>
       <c r="G106">
         <v>72.7</v>
@@ -15392,19 +15392,19 @@
         <v>8032.8</v>
       </c>
       <c r="C107">
+        <v>5220.5</v>
+      </c>
+      <c r="D107">
+        <v>7133.6</v>
+      </c>
+      <c r="E107">
         <v>10998.3</v>
       </c>
-      <c r="D107">
+      <c r="F107">
+        <v>73.187</v>
+      </c>
+      <c r="G107">
         <v>72.997</v>
-      </c>
-      <c r="E107">
-        <v>5220.5</v>
-      </c>
-      <c r="F107">
-        <v>7133.6</v>
-      </c>
-      <c r="G107">
-        <v>73.187</v>
       </c>
       <c r="H107">
         <v>66.596</v>
@@ -15538,19 +15538,19 @@
         <v>8131.4</v>
       </c>
       <c r="C108">
+        <v>5274.5</v>
+      </c>
+      <c r="D108">
+        <v>7176.8</v>
+      </c>
+      <c r="E108">
         <v>11097</v>
       </c>
-      <c r="D108">
+      <c r="F108">
+        <v>73.499</v>
+      </c>
+      <c r="G108">
         <v>73.352</v>
-      </c>
-      <c r="E108">
-        <v>5274.5</v>
-      </c>
-      <c r="F108">
-        <v>7176.8</v>
-      </c>
-      <c r="G108">
-        <v>73.499</v>
       </c>
       <c r="H108">
         <v>66.983</v>
@@ -15684,19 +15684,19 @@
         <v>8259.799999999999</v>
       </c>
       <c r="C109">
+        <v>5352.8</v>
+      </c>
+      <c r="D109">
+        <v>7233.9</v>
+      </c>
+      <c r="E109">
         <v>11212.2</v>
       </c>
-      <c r="D109">
+      <c r="F109">
+        <v>73.999</v>
+      </c>
+      <c r="G109">
         <v>73.66200000000001</v>
-      </c>
-      <c r="E109">
-        <v>5352.8</v>
-      </c>
-      <c r="F109">
-        <v>7233.9</v>
-      </c>
-      <c r="G109">
-        <v>73.999</v>
       </c>
       <c r="H109">
         <v>67.212</v>
@@ -15830,19 +15830,19 @@
         <v>8362.700000000001</v>
       </c>
       <c r="C110">
+        <v>5433.1</v>
+      </c>
+      <c r="D110">
+        <v>7310.2</v>
+      </c>
+      <c r="E110">
         <v>11284.6</v>
       </c>
-      <c r="D110">
+      <c r="F110">
+        <v>74.32599999999999</v>
+      </c>
+      <c r="G110">
         <v>73.992</v>
-      </c>
-      <c r="E110">
-        <v>5433.1</v>
-      </c>
-      <c r="F110">
-        <v>7310.2</v>
-      </c>
-      <c r="G110">
-        <v>74.32599999999999</v>
       </c>
       <c r="H110">
         <v>67.44199999999999</v>
@@ -15976,19 +15976,19 @@
         <v>8518.799999999999</v>
       </c>
       <c r="C111">
+        <v>5471.3</v>
+      </c>
+      <c r="D111">
+        <v>7343.1</v>
+      </c>
+      <c r="E111">
         <v>11472.1</v>
       </c>
-      <c r="D111">
+      <c r="F111">
+        <v>74.512</v>
+      </c>
+      <c r="G111">
         <v>74.361</v>
-      </c>
-      <c r="E111">
-        <v>5471.3</v>
-      </c>
-      <c r="F111">
-        <v>7343.1</v>
-      </c>
-      <c r="G111">
-        <v>74.512</v>
       </c>
       <c r="H111">
         <v>67.88500000000001</v>
@@ -16122,19 +16122,19 @@
         <v>8662.799999999999</v>
       </c>
       <c r="C112">
+        <v>5579.2</v>
+      </c>
+      <c r="D112">
+        <v>7468.2</v>
+      </c>
+      <c r="E112">
         <v>11615.6</v>
       </c>
-      <c r="D112">
+      <c r="F112">
+        <v>74.709</v>
+      </c>
+      <c r="G112">
         <v>74.581</v>
-      </c>
-      <c r="E112">
-        <v>5579.2</v>
-      </c>
-      <c r="F112">
-        <v>7468.2</v>
-      </c>
-      <c r="G112">
-        <v>74.709</v>
       </c>
       <c r="H112">
         <v>68.042</v>
@@ -16268,19 +16268,19 @@
         <v>8765.9</v>
       </c>
       <c r="C113">
+        <v>5663.6</v>
+      </c>
+      <c r="D113">
+        <v>7557.4</v>
+      </c>
+      <c r="E113">
         <v>11715.4</v>
       </c>
-      <c r="D113">
+      <c r="F113">
+        <v>74.943</v>
+      </c>
+      <c r="G113">
         <v>74.848</v>
-      </c>
-      <c r="E113">
-        <v>5663.6</v>
-      </c>
-      <c r="F113">
-        <v>7557.4</v>
-      </c>
-      <c r="G113">
-        <v>74.943</v>
       </c>
       <c r="H113">
         <v>68.51900000000001</v>
@@ -16414,19 +16414,19 @@
         <v>8866.5</v>
       </c>
       <c r="C114">
+        <v>5721.3</v>
+      </c>
+      <c r="D114">
+        <v>7633.9</v>
+      </c>
+      <c r="E114">
         <v>11832.5</v>
       </c>
-      <c r="D114">
+      <c r="F114">
+        <v>74.949</v>
+      </c>
+      <c r="G114">
         <v>74.92400000000001</v>
-      </c>
-      <c r="E114">
-        <v>5721.3</v>
-      </c>
-      <c r="F114">
-        <v>7633.9</v>
-      </c>
-      <c r="G114">
-        <v>74.949</v>
       </c>
       <c r="H114">
         <v>68.232</v>
@@ -16560,19 +16560,19 @@
         <v>8969.700000000001</v>
       </c>
       <c r="C115">
+        <v>5832.6</v>
+      </c>
+      <c r="D115">
+        <v>7768.3</v>
+      </c>
+      <c r="E115">
         <v>11942</v>
       </c>
-      <c r="D115">
+      <c r="F115">
+        <v>75.084</v>
+      </c>
+      <c r="G115">
         <v>75.119</v>
-      </c>
-      <c r="E115">
-        <v>5832.6</v>
-      </c>
-      <c r="F115">
-        <v>7768.3</v>
-      </c>
-      <c r="G115">
-        <v>75.084</v>
       </c>
       <c r="H115">
         <v>68.67100000000001</v>
@@ -16706,19 +16706,19 @@
         <v>9121.1</v>
       </c>
       <c r="C116">
+        <v>5926.8</v>
+      </c>
+      <c r="D116">
+        <v>7869.6</v>
+      </c>
+      <c r="E116">
         <v>12091.6</v>
       </c>
-      <c r="D116">
+      <c r="F116">
+        <v>75.31699999999999</v>
+      </c>
+      <c r="G116">
         <v>75.41</v>
-      </c>
-      <c r="E116">
-        <v>5926.8</v>
-      </c>
-      <c r="F116">
-        <v>7869.6</v>
-      </c>
-      <c r="G116">
-        <v>75.31699999999999</v>
       </c>
       <c r="H116">
         <v>69.119</v>
@@ -16852,19 +16852,19 @@
         <v>9294</v>
       </c>
       <c r="C117">
+        <v>6028.2</v>
+      </c>
+      <c r="D117">
+        <v>7983.3</v>
+      </c>
+      <c r="E117">
         <v>12287</v>
       </c>
-      <c r="D117">
+      <c r="F117">
+        <v>75.515</v>
+      </c>
+      <c r="G117">
         <v>75.613</v>
-      </c>
-      <c r="E117">
-        <v>6028.2</v>
-      </c>
-      <c r="F117">
-        <v>7983.3</v>
-      </c>
-      <c r="G117">
-        <v>75.515</v>
       </c>
       <c r="H117">
         <v>69.34099999999999</v>
@@ -16998,19 +16998,19 @@
         <v>9417.299999999999</v>
       </c>
       <c r="C118">
+        <v>6102.5</v>
+      </c>
+      <c r="D118">
+        <v>8060.8</v>
+      </c>
+      <c r="E118">
         <v>12403.3</v>
       </c>
-      <c r="D118">
+      <c r="F118">
+        <v>75.71299999999999</v>
+      </c>
+      <c r="G118">
         <v>75.859</v>
-      </c>
-      <c r="E118">
-        <v>6102.5</v>
-      </c>
-      <c r="F118">
-        <v>8060.8</v>
-      </c>
-      <c r="G118">
-        <v>75.71299999999999</v>
       </c>
       <c r="H118">
         <v>69.54600000000001</v>
@@ -17144,19 +17144,19 @@
         <v>9524.200000000001</v>
       </c>
       <c r="C119">
+        <v>6225.3</v>
+      </c>
+      <c r="D119">
+        <v>8178.3</v>
+      </c>
+      <c r="E119">
         <v>12498.7</v>
       </c>
-      <c r="D119">
+      <c r="F119">
+        <v>76.127</v>
+      </c>
+      <c r="G119">
         <v>76.19</v>
-      </c>
-      <c r="E119">
-        <v>6225.3</v>
-      </c>
-      <c r="F119">
-        <v>8178.3</v>
-      </c>
-      <c r="G119">
-        <v>76.127</v>
       </c>
       <c r="H119">
         <v>70.128</v>
@@ -17290,19 +17290,19 @@
         <v>9681.9</v>
       </c>
       <c r="C120">
+        <v>6328.9</v>
+      </c>
+      <c r="D120">
+        <v>8270.6</v>
+      </c>
+      <c r="E120">
         <v>12662.4</v>
       </c>
-      <c r="D120">
+      <c r="F120">
+        <v>76.53</v>
+      </c>
+      <c r="G120">
         <v>76.47199999999999</v>
-      </c>
-      <c r="E120">
-        <v>6328.9</v>
-      </c>
-      <c r="F120">
-        <v>8270.6</v>
-      </c>
-      <c r="G120">
-        <v>76.53</v>
       </c>
       <c r="H120">
         <v>70.765</v>
@@ -17436,19 +17436,19 @@
         <v>9899.4</v>
       </c>
       <c r="C121">
+        <v>6459.6</v>
+      </c>
+      <c r="D121">
+        <v>8391.799999999999</v>
+      </c>
+      <c r="E121">
         <v>12877.6</v>
       </c>
-      <c r="D121">
+      <c r="F121">
+        <v>76.982</v>
+      </c>
+      <c r="G121">
         <v>76.863</v>
-      </c>
-      <c r="E121">
-        <v>6459.6</v>
-      </c>
-      <c r="F121">
-        <v>8391.799999999999</v>
-      </c>
-      <c r="G121">
-        <v>76.982</v>
       </c>
       <c r="H121">
         <v>71.636</v>
@@ -17582,19 +17582,19 @@
         <v>10002.9</v>
       </c>
       <c r="C122">
+        <v>6613.6</v>
+      </c>
+      <c r="D122">
+        <v>8520.700000000001</v>
+      </c>
+      <c r="E122">
         <v>12924.2</v>
       </c>
-      <c r="D122">
+      <c r="F122">
+        <v>77.625</v>
+      </c>
+      <c r="G122">
         <v>77.389</v>
-      </c>
-      <c r="E122">
-        <v>6613.6</v>
-      </c>
-      <c r="F122">
-        <v>8520.700000000001</v>
-      </c>
-      <c r="G122">
-        <v>77.625</v>
       </c>
       <c r="H122">
         <v>72.334</v>
@@ -17728,19 +17728,19 @@
         <v>10247.7</v>
       </c>
       <c r="C123">
+        <v>6707.5</v>
+      </c>
+      <c r="D123">
+        <v>8603</v>
+      </c>
+      <c r="E123">
         <v>13160.8</v>
       </c>
-      <c r="D123">
+      <c r="F123">
+        <v>77.973</v>
+      </c>
+      <c r="G123">
         <v>77.84099999999999</v>
-      </c>
-      <c r="E123">
-        <v>6707.5</v>
-      </c>
-      <c r="F123">
-        <v>8603</v>
-      </c>
-      <c r="G123">
-        <v>77.973</v>
       </c>
       <c r="H123">
         <v>72.614</v>
@@ -17874,19 +17874,19 @@
         <v>10319.8</v>
       </c>
       <c r="C124">
+        <v>6815.4</v>
+      </c>
+      <c r="D124">
+        <v>8687.5</v>
+      </c>
+      <c r="E124">
         <v>13178.4</v>
       </c>
-      <c r="D124">
+      <c r="F124">
+        <v>78.455</v>
+      </c>
+      <c r="G124">
         <v>78.315</v>
-      </c>
-      <c r="E124">
-        <v>6815.4</v>
-      </c>
-      <c r="F124">
-        <v>8687.5</v>
-      </c>
-      <c r="G124">
-        <v>78.455</v>
       </c>
       <c r="H124">
         <v>73.134</v>
@@ -18020,19 +18020,19 @@
         <v>10439</v>
       </c>
       <c r="C125">
+        <v>6912.1</v>
+      </c>
+      <c r="D125">
+        <v>8762.200000000001</v>
+      </c>
+      <c r="E125">
         <v>13260.5</v>
       </c>
-      <c r="D125">
+      <c r="F125">
+        <v>78.88800000000001</v>
+      </c>
+      <c r="G125">
         <v>78.729</v>
-      </c>
-      <c r="E125">
-        <v>6912.1</v>
-      </c>
-      <c r="F125">
-        <v>8762.200000000001</v>
-      </c>
-      <c r="G125">
-        <v>78.88800000000001</v>
       </c>
       <c r="H125">
         <v>73.46299999999999</v>
@@ -18166,19 +18166,19 @@
         <v>10472.9</v>
       </c>
       <c r="C126">
+        <v>6986.9</v>
+      </c>
+      <c r="D126">
+        <v>8797.299999999999</v>
+      </c>
+      <c r="E126">
         <v>13222.7</v>
       </c>
-      <c r="D126">
+      <c r="F126">
+        <v>79.423</v>
+      </c>
+      <c r="G126">
         <v>79.232</v>
-      </c>
-      <c r="E126">
-        <v>6986.9</v>
-      </c>
-      <c r="F126">
-        <v>8797.299999999999</v>
-      </c>
-      <c r="G126">
-        <v>79.423</v>
       </c>
       <c r="H126">
         <v>73.589</v>
@@ -18312,19 +18312,19 @@
         <v>10597.8</v>
       </c>
       <c r="C127">
+        <v>7036.3</v>
+      </c>
+      <c r="D127">
+        <v>8818.1</v>
+      </c>
+      <c r="E127">
         <v>13300</v>
       </c>
-      <c r="D127">
+      <c r="F127">
+        <v>79.795</v>
+      </c>
+      <c r="G127">
         <v>79.76000000000001</v>
-      </c>
-      <c r="E127">
-        <v>7036.3</v>
-      </c>
-      <c r="F127">
-        <v>8818.1</v>
-      </c>
-      <c r="G127">
-        <v>79.795</v>
       </c>
       <c r="H127">
         <v>73.97499999999999</v>
@@ -18458,19 +18458,19 @@
         <v>10596.3</v>
       </c>
       <c r="C128">
+        <v>7064.7</v>
+      </c>
+      <c r="D128">
+        <v>8848.299999999999</v>
+      </c>
+      <c r="E128">
         <v>13244.8</v>
       </c>
-      <c r="D128">
+      <c r="F128">
+        <v>79.842</v>
+      </c>
+      <c r="G128">
         <v>80.01000000000001</v>
-      </c>
-      <c r="E128">
-        <v>7064.7</v>
-      </c>
-      <c r="F128">
-        <v>8848.299999999999</v>
-      </c>
-      <c r="G128">
-        <v>79.842</v>
       </c>
       <c r="H128">
         <v>74.44799999999999</v>
@@ -18604,19 +18604,19 @@
         <v>10660.3</v>
       </c>
       <c r="C129">
+        <v>7174.7</v>
+      </c>
+      <c r="D129">
+        <v>8980.6</v>
+      </c>
+      <c r="E129">
         <v>13280.9</v>
       </c>
-      <c r="D129">
+      <c r="F129">
+        <v>79.892</v>
+      </c>
+      <c r="G129">
         <v>80.28400000000001</v>
-      </c>
-      <c r="E129">
-        <v>7174.7</v>
-      </c>
-      <c r="F129">
-        <v>8980.6</v>
-      </c>
-      <c r="G129">
-        <v>79.892</v>
       </c>
       <c r="H129">
         <v>74.93000000000001</v>
@@ -18750,19 +18750,19 @@
         <v>10789</v>
       </c>
       <c r="C130">
+        <v>7209.9</v>
+      </c>
+      <c r="D130">
+        <v>9008.1</v>
+      </c>
+      <c r="E130">
         <v>13397</v>
       </c>
-      <c r="D130">
+      <c r="F130">
+        <v>80.041</v>
+      </c>
+      <c r="G130">
         <v>80.503</v>
-      </c>
-      <c r="E130">
-        <v>7209.9</v>
-      </c>
-      <c r="F130">
-        <v>9008.1</v>
-      </c>
-      <c r="G130">
-        <v>80.041</v>
       </c>
       <c r="H130">
         <v>75.414</v>
@@ -18896,19 +18896,19 @@
         <v>10893.2</v>
       </c>
       <c r="C131">
+        <v>7302.1</v>
+      </c>
+      <c r="D131">
+        <v>9054.299999999999</v>
+      </c>
+      <c r="E131">
         <v>13478.2</v>
       </c>
-      <c r="D131">
+      <c r="F131">
+        <v>80.651</v>
+      </c>
+      <c r="G131">
         <v>80.83199999999999</v>
-      </c>
-      <c r="E131">
-        <v>7302.1</v>
-      </c>
-      <c r="F131">
-        <v>9054.299999999999</v>
-      </c>
-      <c r="G131">
-        <v>80.651</v>
       </c>
       <c r="H131">
         <v>76.127</v>
@@ -19042,19 +19042,19 @@
         <v>10992.1</v>
       </c>
       <c r="C132">
+        <v>7390.9</v>
+      </c>
+      <c r="D132">
+        <v>9119.9</v>
+      </c>
+      <c r="E132">
         <v>13538.1</v>
       </c>
-      <c r="D132">
+      <c r="F132">
+        <v>81.045</v>
+      </c>
+      <c r="G132">
         <v>81.17700000000001</v>
-      </c>
-      <c r="E132">
-        <v>7390.9</v>
-      </c>
-      <c r="F132">
-        <v>9119.9</v>
-      </c>
-      <c r="G132">
-        <v>81.045</v>
       </c>
       <c r="H132">
         <v>76.78</v>
@@ -19188,19 +19188,19 @@
         <v>11071.5</v>
       </c>
       <c r="C133">
+        <v>7467.7</v>
+      </c>
+      <c r="D133">
+        <v>9172.4</v>
+      </c>
+      <c r="E133">
         <v>13559</v>
       </c>
-      <c r="D133">
+      <c r="F133">
+        <v>81.42</v>
+      </c>
+      <c r="G133">
         <v>81.643</v>
-      </c>
-      <c r="E133">
-        <v>7467.7</v>
-      </c>
-      <c r="F133">
-        <v>9172.4</v>
-      </c>
-      <c r="G133">
-        <v>81.42</v>
       </c>
       <c r="H133">
         <v>78.203</v>
@@ -19334,19 +19334,19 @@
         <v>11183.5</v>
       </c>
       <c r="C134">
+        <v>7555.8</v>
+      </c>
+      <c r="D134">
+        <v>9215.5</v>
+      </c>
+      <c r="E134">
         <v>13634.3</v>
       </c>
-      <c r="D134">
+      <c r="F134">
+        <v>81.994</v>
+      </c>
+      <c r="G134">
         <v>82.047</v>
-      </c>
-      <c r="E134">
-        <v>7555.8</v>
-      </c>
-      <c r="F134">
-        <v>9215.5</v>
-      </c>
-      <c r="G134">
-        <v>81.994</v>
       </c>
       <c r="H134">
         <v>79.075</v>
@@ -19480,19 +19480,19 @@
         <v>11312.9</v>
       </c>
       <c r="C135">
+        <v>7642.6</v>
+      </c>
+      <c r="D135">
+        <v>9319</v>
+      </c>
+      <c r="E135">
         <v>13751.5</v>
       </c>
-      <c r="D135">
+      <c r="F135">
+        <v>82.015</v>
+      </c>
+      <c r="G135">
         <v>82.28700000000001</v>
-      </c>
-      <c r="E135">
-        <v>7642.6</v>
-      </c>
-      <c r="F135">
-        <v>9319</v>
-      </c>
-      <c r="G135">
-        <v>82.015</v>
       </c>
       <c r="H135">
         <v>79.637</v>
@@ -19626,19 +19626,19 @@
         <v>11567.3</v>
       </c>
       <c r="C136">
+        <v>7802.6</v>
+      </c>
+      <c r="D136">
+        <v>9455.700000000001</v>
+      </c>
+      <c r="E136">
         <v>13985.1</v>
       </c>
-      <c r="D136">
+      <c r="F136">
+        <v>82.52200000000001</v>
+      </c>
+      <c r="G136">
         <v>82.738</v>
-      </c>
-      <c r="E136">
-        <v>7802.6</v>
-      </c>
-      <c r="F136">
-        <v>9455.700000000001</v>
-      </c>
-      <c r="G136">
-        <v>82.52200000000001</v>
       </c>
       <c r="H136">
         <v>80.359</v>
@@ -19772,19 +19772,19 @@
         <v>11769.3</v>
       </c>
       <c r="C137">
+        <v>7891.5</v>
+      </c>
+      <c r="D137">
+        <v>9519.799999999999</v>
+      </c>
+      <c r="E137">
         <v>14145.6</v>
       </c>
-      <c r="D137">
+      <c r="F137">
+        <v>82.901</v>
+      </c>
+      <c r="G137">
         <v>83.196</v>
-      </c>
-      <c r="E137">
-        <v>7891.5</v>
-      </c>
-      <c r="F137">
-        <v>9519.799999999999</v>
-      </c>
-      <c r="G137">
-        <v>82.901</v>
       </c>
       <c r="H137">
         <v>80.961</v>
@@ -19918,19 +19918,19 @@
         <v>11920.2</v>
       </c>
       <c r="C138">
+        <v>8027.7</v>
+      </c>
+      <c r="D138">
+        <v>9604.5</v>
+      </c>
+      <c r="E138">
         <v>14221.1</v>
       </c>
-      <c r="D138">
+      <c r="F138">
+        <v>83.589</v>
+      </c>
+      <c r="G138">
         <v>83.824</v>
-      </c>
-      <c r="E138">
-        <v>8027.7</v>
-      </c>
-      <c r="F138">
-        <v>9604.5</v>
-      </c>
-      <c r="G138">
-        <v>83.589</v>
       </c>
       <c r="H138">
         <v>81.65000000000001</v>
@@ -20064,19 +20064,19 @@
         <v>12109</v>
       </c>
       <c r="C139">
+        <v>8133</v>
+      </c>
+      <c r="D139">
+        <v>9664.299999999999</v>
+      </c>
+      <c r="E139">
         <v>14329.5</v>
       </c>
-      <c r="D139">
+      <c r="F139">
+        <v>84.16200000000001</v>
+      </c>
+      <c r="G139">
         <v>84.515</v>
-      </c>
-      <c r="E139">
-        <v>8133</v>
-      </c>
-      <c r="F139">
-        <v>9664.299999999999</v>
-      </c>
-      <c r="G139">
-        <v>84.16200000000001</v>
       </c>
       <c r="H139">
         <v>82.358</v>
@@ -20210,19 +20210,19 @@
         <v>12303.3</v>
       </c>
       <c r="C140">
+        <v>8264.299999999999</v>
+      </c>
+      <c r="D140">
+        <v>9771.1</v>
+      </c>
+      <c r="E140">
         <v>14465</v>
       </c>
-      <c r="D140">
+      <c r="F140">
+        <v>84.586</v>
+      </c>
+      <c r="G140">
         <v>85.06</v>
-      </c>
-      <c r="E140">
-        <v>8264.299999999999</v>
-      </c>
-      <c r="F140">
-        <v>9771.1</v>
-      </c>
-      <c r="G140">
-        <v>84.586</v>
       </c>
       <c r="H140">
         <v>83.112</v>
@@ -20356,19 +20356,19 @@
         <v>12522.4</v>
       </c>
       <c r="C141">
+        <v>8425.6</v>
+      </c>
+      <c r="D141">
+        <v>9877.4</v>
+      </c>
+      <c r="E141">
         <v>14609.9</v>
       </c>
-      <c r="D141">
+      <c r="F141">
+        <v>85.309</v>
+      </c>
+      <c r="G141">
         <v>85.714</v>
-      </c>
-      <c r="E141">
-        <v>8425.6</v>
-      </c>
-      <c r="F141">
-        <v>9877.4</v>
-      </c>
-      <c r="G141">
-        <v>85.309</v>
       </c>
       <c r="H141">
         <v>83.92</v>
@@ -20502,19 +20502,19 @@
         <v>12761.3</v>
       </c>
       <c r="C142">
+        <v>8523</v>
+      </c>
+      <c r="D142">
+        <v>9935</v>
+      </c>
+      <c r="E142">
         <v>14771.6</v>
       </c>
-      <c r="D142">
+      <c r="F142">
+        <v>85.795</v>
+      </c>
+      <c r="G142">
         <v>86.368</v>
-      </c>
-      <c r="E142">
-        <v>8523</v>
-      </c>
-      <c r="F142">
-        <v>9935</v>
-      </c>
-      <c r="G142">
-        <v>85.795</v>
       </c>
       <c r="H142">
         <v>85.026</v>
@@ -20648,19 +20648,19 @@
         <v>12910</v>
       </c>
       <c r="C143">
+        <v>8671.4</v>
+      </c>
+      <c r="D143">
+        <v>10047.8</v>
+      </c>
+      <c r="E143">
         <v>14839.8</v>
       </c>
-      <c r="D143">
+      <c r="F143">
+        <v>86.31</v>
+      </c>
+      <c r="G143">
         <v>86.977</v>
-      </c>
-      <c r="E143">
-        <v>8671.4</v>
-      </c>
-      <c r="F143">
-        <v>10047.8</v>
-      </c>
-      <c r="G143">
-        <v>86.31</v>
       </c>
       <c r="H143">
         <v>85.79300000000001</v>
@@ -20794,19 +20794,19 @@
         <v>13142.9</v>
       </c>
       <c r="C144">
+        <v>8849.200000000001</v>
+      </c>
+      <c r="D144">
+        <v>10145.3</v>
+      </c>
+      <c r="E144">
         <v>14972.1</v>
       </c>
-      <c r="D144">
+      <c r="F144">
+        <v>87.232</v>
+      </c>
+      <c r="G144">
         <v>87.794</v>
-      </c>
-      <c r="E144">
-        <v>8849.200000000001</v>
-      </c>
-      <c r="F144">
-        <v>10145.3</v>
-      </c>
-      <c r="G144">
-        <v>87.232</v>
       </c>
       <c r="H144">
         <v>86.688</v>
@@ -20940,19 +20940,19 @@
         <v>13332.3</v>
       </c>
       <c r="C145">
+        <v>8944.9</v>
+      </c>
+      <c r="D145">
+        <v>10175.4</v>
+      </c>
+      <c r="E145">
         <v>15066.6</v>
       </c>
-      <c r="D145">
+      <c r="F145">
+        <v>87.913</v>
+      </c>
+      <c r="G145">
         <v>88.489</v>
-      </c>
-      <c r="E145">
-        <v>8944.9</v>
-      </c>
-      <c r="F145">
-        <v>10175.4</v>
-      </c>
-      <c r="G145">
-        <v>87.913</v>
       </c>
       <c r="H145">
         <v>87.31</v>
@@ -21086,19 +21086,19 @@
         <v>13603.9</v>
       </c>
       <c r="C146">
+        <v>9090.700000000001</v>
+      </c>
+      <c r="D146">
+        <v>10288.9</v>
+      </c>
+      <c r="E146">
         <v>15267</v>
       </c>
-      <c r="D146">
+      <c r="F146">
+        <v>88.359</v>
+      </c>
+      <c r="G146">
         <v>89.101</v>
-      </c>
-      <c r="E146">
-        <v>9090.700000000001</v>
-      </c>
-      <c r="F146">
-        <v>10288.9</v>
-      </c>
-      <c r="G146">
-        <v>88.359</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -21232,19 +21232,19 @@
         <v>13749.8</v>
       </c>
       <c r="C147">
+        <v>9210.200000000001</v>
+      </c>
+      <c r="D147">
+        <v>10341</v>
+      </c>
+      <c r="E147">
         <v>15302.7</v>
       </c>
-      <c r="D147">
+      <c r="F147">
+        <v>89.069</v>
+      </c>
+      <c r="G147">
         <v>89.845</v>
-      </c>
-      <c r="E147">
-        <v>9210.200000000001</v>
-      </c>
-      <c r="F147">
-        <v>10341</v>
-      </c>
-      <c r="G147">
-        <v>89.069</v>
       </c>
       <c r="H147">
         <v>88.657</v>
@@ -21378,19 +21378,19 @@
         <v>13867.5</v>
       </c>
       <c r="C148">
+        <v>9333</v>
+      </c>
+      <c r="D148">
+        <v>10403.8</v>
+      </c>
+      <c r="E148">
         <v>15326.4</v>
       </c>
-      <c r="D148">
+      <c r="F148">
+        <v>89.711</v>
+      </c>
+      <c r="G148">
         <v>90.505</v>
-      </c>
-      <c r="E148">
-        <v>9333</v>
-      </c>
-      <c r="F148">
-        <v>10403.8</v>
-      </c>
-      <c r="G148">
-        <v>89.711</v>
       </c>
       <c r="H148">
         <v>89.315</v>
@@ -21524,19 +21524,19 @@
         <v>14037.2</v>
       </c>
       <c r="C149">
+        <v>9407.5</v>
+      </c>
+      <c r="D149">
+        <v>10504.5</v>
+      </c>
+      <c r="E149">
         <v>15456.9</v>
       </c>
-      <c r="D149">
+      <c r="F149">
+        <v>89.559</v>
+      </c>
+      <c r="G149">
         <v>90.845</v>
-      </c>
-      <c r="E149">
-        <v>9407.5</v>
-      </c>
-      <c r="F149">
-        <v>10504.5</v>
-      </c>
-      <c r="G149">
-        <v>89.559</v>
       </c>
       <c r="H149">
         <v>89.78</v>
@@ -21670,19 +21670,19 @@
         <v>14208.6</v>
       </c>
       <c r="C150">
+        <v>9549.4</v>
+      </c>
+      <c r="D150">
+        <v>10563.3</v>
+      </c>
+      <c r="E150">
         <v>15493.3</v>
       </c>
-      <c r="D150">
+      <c r="F150">
+        <v>90.40600000000001</v>
+      </c>
+      <c r="G150">
         <v>91.777</v>
-      </c>
-      <c r="E150">
-        <v>9549.4</v>
-      </c>
-      <c r="F150">
-        <v>10563.3</v>
-      </c>
-      <c r="G150">
-        <v>90.40600000000001</v>
       </c>
       <c r="H150">
         <v>90.54900000000001</v>
@@ -21816,19 +21816,19 @@
         <v>14382.4</v>
       </c>
       <c r="C151">
+        <v>9644.700000000001</v>
+      </c>
+      <c r="D151">
+        <v>10582.8</v>
+      </c>
+      <c r="E151">
         <v>15582.1</v>
       </c>
-      <c r="D151">
+      <c r="F151">
+        <v>91.139</v>
+      </c>
+      <c r="G151">
         <v>92.339</v>
-      </c>
-      <c r="E151">
-        <v>9644.700000000001</v>
-      </c>
-      <c r="F151">
-        <v>10582.8</v>
-      </c>
-      <c r="G151">
-        <v>91.139</v>
       </c>
       <c r="H151">
         <v>91.27200000000001</v>
@@ -21962,19 +21962,19 @@
         <v>14535</v>
       </c>
       <c r="C152">
+        <v>9753.799999999999</v>
+      </c>
+      <c r="D152">
+        <v>10642.5</v>
+      </c>
+      <c r="E152">
         <v>15666.7</v>
       </c>
-      <c r="D152">
+      <c r="F152">
+        <v>91.65300000000001</v>
+      </c>
+      <c r="G152">
         <v>92.72499999999999</v>
-      </c>
-      <c r="E152">
-        <v>9753.799999999999</v>
-      </c>
-      <c r="F152">
-        <v>10642.5</v>
-      </c>
-      <c r="G152">
-        <v>91.65300000000001</v>
       </c>
       <c r="H152">
         <v>91.899</v>
@@ -22108,19 +22108,19 @@
         <v>14681.5</v>
       </c>
       <c r="C153">
+        <v>9877.799999999999</v>
+      </c>
+      <c r="D153">
+        <v>10672.8</v>
+      </c>
+      <c r="E153">
         <v>15762</v>
       </c>
-      <c r="D153">
+      <c r="F153">
+        <v>92.553</v>
+      </c>
+      <c r="G153">
         <v>93.15000000000001</v>
-      </c>
-      <c r="E153">
-        <v>9877.799999999999</v>
-      </c>
-      <c r="F153">
-        <v>10672.8</v>
-      </c>
-      <c r="G153">
-        <v>92.553</v>
       </c>
       <c r="H153">
         <v>92.636</v>
@@ -22254,19 +22254,19 @@
         <v>14651</v>
       </c>
       <c r="C154">
+        <v>9934.299999999999</v>
+      </c>
+      <c r="D154">
+        <v>10644.4</v>
+      </c>
+      <c r="E154">
         <v>15671.4</v>
       </c>
-      <c r="D154">
+      <c r="F154">
+        <v>93.32899999999999</v>
+      </c>
+      <c r="G154">
         <v>93.569</v>
-      </c>
-      <c r="E154">
-        <v>9934.299999999999</v>
-      </c>
-      <c r="F154">
-        <v>10644.4</v>
-      </c>
-      <c r="G154">
-        <v>93.32899999999999</v>
       </c>
       <c r="H154">
         <v>93.416</v>
@@ -22400,19 +22400,19 @@
         <v>14805.6</v>
       </c>
       <c r="C155">
+        <v>10052.8</v>
+      </c>
+      <c r="D155">
+        <v>10661.7</v>
+      </c>
+      <c r="E155">
         <v>15752.3</v>
       </c>
-      <c r="D155">
+      <c r="F155">
+        <v>94.289</v>
+      </c>
+      <c r="G155">
         <v>93.935</v>
-      </c>
-      <c r="E155">
-        <v>10052.8</v>
-      </c>
-      <c r="F155">
-        <v>10661.7</v>
-      </c>
-      <c r="G155">
-        <v>94.289</v>
       </c>
       <c r="H155">
         <v>94.37300000000001</v>
@@ -22546,19 +22546,19 @@
         <v>14835.2</v>
       </c>
       <c r="C156">
+        <v>10081</v>
+      </c>
+      <c r="D156">
+        <v>10581.9</v>
+      </c>
+      <c r="E156">
         <v>15667</v>
       </c>
-      <c r="D156">
+      <c r="F156">
+        <v>95.26600000000001</v>
+      </c>
+      <c r="G156">
         <v>94.654</v>
-      </c>
-      <c r="E156">
-        <v>10081</v>
-      </c>
-      <c r="F156">
-        <v>10581.9</v>
-      </c>
-      <c r="G156">
-        <v>95.26600000000001</v>
       </c>
       <c r="H156">
         <v>95.09</v>
@@ -22692,19 +22692,19 @@
         <v>14559.5</v>
       </c>
       <c r="C157">
+        <v>9837.299999999999</v>
+      </c>
+      <c r="D157">
+        <v>10483.4</v>
+      </c>
+      <c r="E157">
         <v>15328</v>
       </c>
-      <c r="D157">
+      <c r="F157">
+        <v>93.836</v>
+      </c>
+      <c r="G157">
         <v>94.896</v>
-      </c>
-      <c r="E157">
-        <v>9837.299999999999</v>
-      </c>
-      <c r="F157">
-        <v>10483.4</v>
-      </c>
-      <c r="G157">
-        <v>93.836</v>
       </c>
       <c r="H157">
         <v>94.646</v>
@@ -22838,19 +22838,19 @@
         <v>14394.5</v>
       </c>
       <c r="C158">
+        <v>9756.1</v>
+      </c>
+      <c r="D158">
+        <v>10459.7</v>
+      </c>
+      <c r="E158">
         <v>15155.9</v>
       </c>
-      <c r="D158">
+      <c r="F158">
+        <v>93.274</v>
+      </c>
+      <c r="G158">
         <v>94.959</v>
-      </c>
-      <c r="E158">
-        <v>9756.1</v>
-      </c>
-      <c r="F158">
-        <v>10459.7</v>
-      </c>
-      <c r="G158">
-        <v>93.274</v>
       </c>
       <c r="H158">
         <v>93.87600000000001</v>
@@ -22984,19 +22984,19 @@
         <v>14352.9</v>
       </c>
       <c r="C159">
+        <v>9760.200000000001</v>
+      </c>
+      <c r="D159">
+        <v>10417.3</v>
+      </c>
+      <c r="E159">
         <v>15134.1</v>
       </c>
-      <c r="D159">
+      <c r="F159">
+        <v>93.693</v>
+      </c>
+      <c r="G159">
         <v>94.856</v>
-      </c>
-      <c r="E159">
-        <v>9760.200000000001</v>
-      </c>
-      <c r="F159">
-        <v>10417.3</v>
-      </c>
-      <c r="G159">
-        <v>93.693</v>
       </c>
       <c r="H159">
         <v>93.895</v>
@@ -23130,19 +23130,19 @@
         <v>14420.3</v>
       </c>
       <c r="C160">
+        <v>9895.4</v>
+      </c>
+      <c r="D160">
+        <v>10489.2</v>
+      </c>
+      <c r="E160">
         <v>15189.2</v>
       </c>
-      <c r="D160">
+      <c r="F160">
+        <v>94.34</v>
+      </c>
+      <c r="G160">
         <v>94.91200000000001</v>
-      </c>
-      <c r="E160">
-        <v>9895.4</v>
-      </c>
-      <c r="F160">
-        <v>10489.2</v>
-      </c>
-      <c r="G160">
-        <v>94.34</v>
       </c>
       <c r="H160">
         <v>94.188</v>
@@ -23276,19 +23276,19 @@
         <v>14628</v>
       </c>
       <c r="C161">
+        <v>9957.1</v>
+      </c>
+      <c r="D161">
+        <v>10473.6</v>
+      </c>
+      <c r="E161">
         <v>15356.1</v>
       </c>
-      <c r="D161">
+      <c r="F161">
+        <v>95.06999999999999</v>
+      </c>
+      <c r="G161">
         <v>95.26900000000001</v>
-      </c>
-      <c r="E161">
-        <v>9957.1</v>
-      </c>
-      <c r="F161">
-        <v>10473.6</v>
-      </c>
-      <c r="G161">
-        <v>95.06999999999999</v>
       </c>
       <c r="H161">
         <v>94.896</v>
@@ -23422,19 +23422,19 @@
         <v>14721.4</v>
       </c>
       <c r="C162">
+        <v>10040.5</v>
+      </c>
+      <c r="D162">
+        <v>10525.4</v>
+      </c>
+      <c r="E162">
         <v>15415.1</v>
       </c>
-      <c r="D162">
+      <c r="F162">
+        <v>95.395</v>
+      </c>
+      <c r="G162">
         <v>95.491</v>
-      </c>
-      <c r="E162">
-        <v>10040.5</v>
-      </c>
-      <c r="F162">
-        <v>10525.4</v>
-      </c>
-      <c r="G162">
-        <v>95.395</v>
       </c>
       <c r="H162">
         <v>95.484</v>
@@ -23568,19 +23568,19 @@
         <v>14926.1</v>
       </c>
       <c r="C163">
+        <v>10131.8</v>
+      </c>
+      <c r="D163">
+        <v>10609.1</v>
+      </c>
+      <c r="E163">
         <v>15557.3</v>
       </c>
-      <c r="D163">
+      <c r="F163">
+        <v>95.503</v>
+      </c>
+      <c r="G163">
         <v>95.91200000000001</v>
-      </c>
-      <c r="E163">
-        <v>10131.8</v>
-      </c>
-      <c r="F163">
-        <v>10609.1</v>
-      </c>
-      <c r="G163">
-        <v>95.503</v>
       </c>
       <c r="H163">
         <v>96.214</v>
@@ -23714,19 +23714,19 @@
         <v>15079.9</v>
       </c>
       <c r="C164">
+        <v>10220.6</v>
+      </c>
+      <c r="D164">
+        <v>10683.3</v>
+      </c>
+      <c r="E164">
         <v>15672</v>
       </c>
-      <c r="D164">
+      <c r="F164">
+        <v>95.67100000000001</v>
+      </c>
+      <c r="G164">
         <v>96.25100000000001</v>
-      </c>
-      <c r="E164">
-        <v>10220.6</v>
-      </c>
-      <c r="F164">
-        <v>10683.3</v>
-      </c>
-      <c r="G164">
-        <v>95.67100000000001</v>
       </c>
       <c r="H164">
         <v>96.59699999999999</v>
@@ -23860,19 +23860,19 @@
         <v>15240.8</v>
       </c>
       <c r="C165">
+        <v>10350.5</v>
+      </c>
+      <c r="D165">
+        <v>10754</v>
+      </c>
+      <c r="E165">
         <v>15750.6</v>
       </c>
-      <c r="D165">
+      <c r="F165">
+        <v>96.25</v>
+      </c>
+      <c r="G165">
         <v>96.78100000000001</v>
-      </c>
-      <c r="E165">
-        <v>10350.5</v>
-      </c>
-      <c r="F165">
-        <v>10754</v>
-      </c>
-      <c r="G165">
-        <v>96.25</v>
       </c>
       <c r="H165">
         <v>97.389</v>
@@ -24006,19 +24006,19 @@
         <v>15285.8</v>
       </c>
       <c r="C166">
+        <v>10485.4</v>
+      </c>
+      <c r="D166">
+        <v>10799.7</v>
+      </c>
+      <c r="E166">
         <v>15712.8</v>
       </c>
-      <c r="D166">
+      <c r="F166">
+        <v>97.09099999999999</v>
+      </c>
+      <c r="G166">
         <v>97.276</v>
-      </c>
-      <c r="E166">
-        <v>10485.4</v>
-      </c>
-      <c r="F166">
-        <v>10799.7</v>
-      </c>
-      <c r="G166">
-        <v>97.09099999999999</v>
       </c>
       <c r="H166">
         <v>98.26600000000001</v>
@@ -24152,19 +24152,19 @@
         <v>15496.2</v>
       </c>
       <c r="C167">
+        <v>10612.1</v>
+      </c>
+      <c r="D167">
+        <v>10823.7</v>
+      </c>
+      <c r="E167">
         <v>15825.1</v>
       </c>
-      <c r="D167">
+      <c r="F167">
+        <v>98.048</v>
+      </c>
+      <c r="G167">
         <v>97.97499999999999</v>
-      </c>
-      <c r="E167">
-        <v>10612.1</v>
-      </c>
-      <c r="F167">
-        <v>10823.7</v>
-      </c>
-      <c r="G167">
-        <v>98.048</v>
       </c>
       <c r="H167">
         <v>99.155</v>
@@ -24298,19 +24298,19 @@
         <v>15591.9</v>
       </c>
       <c r="C168">
+        <v>10705.4</v>
+      </c>
+      <c r="D168">
+        <v>10866</v>
+      </c>
+      <c r="E168">
         <v>15820.7</v>
       </c>
-      <c r="D168">
+      <c r="F168">
+        <v>98.523</v>
+      </c>
+      <c r="G168">
         <v>98.51900000000001</v>
-      </c>
-      <c r="E168">
-        <v>10705.4</v>
-      </c>
-      <c r="F168">
-        <v>10866</v>
-      </c>
-      <c r="G168">
-        <v>98.523</v>
       </c>
       <c r="H168">
         <v>99.49800000000001</v>
@@ -24444,19 +24444,19 @@
         <v>15796.5</v>
       </c>
       <c r="C169">
+        <v>10761.6</v>
+      </c>
+      <c r="D169">
+        <v>10885.9</v>
+      </c>
+      <c r="E169">
         <v>16004.1</v>
       </c>
-      <c r="D169">
+      <c r="F169">
+        <v>98.86</v>
+      </c>
+      <c r="G169">
         <v>98.676</v>
-      </c>
-      <c r="E169">
-        <v>10761.6</v>
-      </c>
-      <c r="F169">
-        <v>10885.9</v>
-      </c>
-      <c r="G169">
-        <v>98.86</v>
       </c>
       <c r="H169">
         <v>99.363</v>
@@ -24590,19 +24590,19 @@
         <v>16019.8</v>
       </c>
       <c r="C170">
+        <v>10922.4</v>
+      </c>
+      <c r="D170">
+        <v>10973.3</v>
+      </c>
+      <c r="E170">
         <v>16129.4</v>
       </c>
-      <c r="D170">
+      <c r="F170">
+        <v>99.538</v>
+      </c>
+      <c r="G170">
         <v>99.28400000000001</v>
-      </c>
-      <c r="E170">
-        <v>10922.4</v>
-      </c>
-      <c r="F170">
-        <v>10973.3</v>
-      </c>
-      <c r="G170">
-        <v>99.538</v>
       </c>
       <c r="H170">
         <v>99.705</v>
@@ -24736,19 +24736,19 @@
         <v>16152.3</v>
       </c>
       <c r="C171">
+        <v>10964.9</v>
+      </c>
+      <c r="D171">
+        <v>10989.6</v>
+      </c>
+      <c r="E171">
         <v>16198.8</v>
       </c>
-      <c r="D171">
+      <c r="F171">
+        <v>99.776</v>
+      </c>
+      <c r="G171">
         <v>99.68899999999999</v>
-      </c>
-      <c r="E171">
-        <v>10964.9</v>
-      </c>
-      <c r="F171">
-        <v>10989.6</v>
-      </c>
-      <c r="G171">
-        <v>99.776</v>
       </c>
       <c r="H171">
         <v>99.928</v>
@@ -24882,19 +24882,19 @@
         <v>16257.2</v>
       </c>
       <c r="C172">
+        <v>11014.2</v>
+      </c>
+      <c r="D172">
+        <v>11007.5</v>
+      </c>
+      <c r="E172">
         <v>16220.7</v>
       </c>
-      <c r="D172">
+      <c r="F172">
+        <v>100.062</v>
+      </c>
+      <c r="G172">
         <v>100.299</v>
-      </c>
-      <c r="E172">
-        <v>11014.2</v>
-      </c>
-      <c r="F172">
-        <v>11007.5</v>
-      </c>
-      <c r="G172">
-        <v>100.062</v>
       </c>
       <c r="H172">
         <v>100.122</v>
@@ -25028,19 +25028,19 @@
         <v>16358.9</v>
       </c>
       <c r="C173">
+        <v>11125.7</v>
+      </c>
+      <c r="D173">
+        <v>11056.9</v>
+      </c>
+      <c r="E173">
         <v>16239.1</v>
       </c>
-      <c r="D173">
+      <c r="F173">
+        <v>100.624</v>
+      </c>
+      <c r="G173">
         <v>100.728</v>
-      </c>
-      <c r="E173">
-        <v>11125.7</v>
-      </c>
-      <c r="F173">
-        <v>11056.9</v>
-      </c>
-      <c r="G173">
-        <v>100.624</v>
       </c>
       <c r="H173">
         <v>100.245</v>
@@ -25174,19 +25174,19 @@
         <v>16569.6</v>
       </c>
       <c r="C174">
+        <v>11223.2</v>
+      </c>
+      <c r="D174">
+        <v>11114.2</v>
+      </c>
+      <c r="E174">
         <v>16383</v>
       </c>
-      <c r="D174">
+      <c r="F174">
+        <v>100.982</v>
+      </c>
+      <c r="G174">
         <v>101.123</v>
-      </c>
-      <c r="E174">
-        <v>11223.2</v>
-      </c>
-      <c r="F174">
-        <v>11114.2</v>
-      </c>
-      <c r="G174">
-        <v>100.982</v>
       </c>
       <c r="H174">
         <v>100.241</v>
@@ -25320,19 +25320,19 @@
         <v>16637.9</v>
       </c>
       <c r="C175">
+        <v>11239.6</v>
+      </c>
+      <c r="D175">
+        <v>11122.2</v>
+      </c>
+      <c r="E175">
         <v>16403.2</v>
       </c>
-      <c r="D175">
+      <c r="F175">
+        <v>101.057</v>
+      </c>
+      <c r="G175">
         <v>101.431</v>
-      </c>
-      <c r="E175">
-        <v>11239.6</v>
-      </c>
-      <c r="F175">
-        <v>11122.2</v>
-      </c>
-      <c r="G175">
-        <v>101.057</v>
       </c>
       <c r="H175">
         <v>100.436</v>
@@ -25466,19 +25466,19 @@
         <v>16848.7</v>
       </c>
       <c r="C176">
+        <v>11330.9</v>
+      </c>
+      <c r="D176">
+        <v>11167.4</v>
+      </c>
+      <c r="E176">
         <v>16531.7</v>
       </c>
-      <c r="D176">
+      <c r="F176">
+        <v>101.466</v>
+      </c>
+      <c r="G176">
         <v>101.985</v>
-      </c>
-      <c r="E176">
-        <v>11330.9</v>
-      </c>
-      <c r="F176">
-        <v>11167.4</v>
-      </c>
-      <c r="G176">
-        <v>101.466</v>
       </c>
       <c r="H176">
         <v>100.759</v>
@@ -25612,19 +25612,19 @@
         <v>17083.1</v>
       </c>
       <c r="C177">
+        <v>11475.1</v>
+      </c>
+      <c r="D177">
+        <v>11263.6</v>
+      </c>
+      <c r="E177">
         <v>16663.6</v>
       </c>
-      <c r="D177">
+      <c r="F177">
+        <v>101.88</v>
+      </c>
+      <c r="G177">
         <v>102.551</v>
-      </c>
-      <c r="E177">
-        <v>11475.1</v>
-      </c>
-      <c r="F177">
-        <v>11263.6</v>
-      </c>
-      <c r="G177">
-        <v>101.88</v>
       </c>
       <c r="H177">
         <v>102.29</v>
@@ -25758,19 +25758,19 @@
         <v>17104.6</v>
       </c>
       <c r="C178">
+        <v>11574.2</v>
+      </c>
+      <c r="D178">
+        <v>11308</v>
+      </c>
+      <c r="E178">
         <v>16616.5</v>
       </c>
-      <c r="D178">
+      <c r="F178">
+        <v>102.357</v>
+      </c>
+      <c r="G178">
         <v>102.96</v>
-      </c>
-      <c r="E178">
-        <v>11574.2</v>
-      </c>
-      <c r="F178">
-        <v>11308</v>
-      </c>
-      <c r="G178">
-        <v>102.357</v>
       </c>
       <c r="H178">
         <v>102.024</v>
@@ -25904,19 +25904,19 @@
         <v>17432.9</v>
       </c>
       <c r="C179">
+        <v>11756.9</v>
+      </c>
+      <c r="D179">
+        <v>11431.8</v>
+      </c>
+      <c r="E179">
         <v>16841.5</v>
       </c>
-      <c r="D179">
+      <c r="F179">
+        <v>102.846</v>
+      </c>
+      <c r="G179">
         <v>103.539</v>
-      </c>
-      <c r="E179">
-        <v>11756.9</v>
-      </c>
-      <c r="F179">
-        <v>11431.8</v>
-      </c>
-      <c r="G179">
-        <v>102.846</v>
       </c>
       <c r="H179">
         <v>102.472</v>
@@ -26050,19 +26050,19 @@
         <v>17721.7</v>
       </c>
       <c r="C180">
+        <v>11915.4</v>
+      </c>
+      <c r="D180">
+        <v>11554.8</v>
+      </c>
+      <c r="E180">
         <v>17047.1</v>
       </c>
-      <c r="D180">
+      <c r="F180">
+        <v>103.123</v>
+      </c>
+      <c r="G180">
         <v>104.01</v>
-      </c>
-      <c r="E180">
-        <v>11915.4</v>
-      </c>
-      <c r="F180">
-        <v>11554.8</v>
-      </c>
-      <c r="G180">
-        <v>103.123</v>
       </c>
       <c r="H180">
         <v>102.949</v>
@@ -26196,19 +26196,19 @@
         <v>17849.9</v>
       </c>
       <c r="C181">
+        <v>12044.5</v>
+      </c>
+      <c r="D181">
+        <v>11695</v>
+      </c>
+      <c r="E181">
         <v>17143</v>
       </c>
-      <c r="D181">
+      <c r="F181">
+        <v>102.992</v>
+      </c>
+      <c r="G181">
         <v>104.078</v>
-      </c>
-      <c r="E181">
-        <v>12044.5</v>
-      </c>
-      <c r="F181">
-        <v>11695</v>
-      </c>
-      <c r="G181">
-        <v>102.992</v>
       </c>
       <c r="H181">
         <v>103.085</v>
@@ -26342,19 +26342,19 @@
         <v>18003.4</v>
       </c>
       <c r="C182">
+        <v>12099.1</v>
+      </c>
+      <c r="D182">
+        <v>11798.3</v>
+      </c>
+      <c r="E182">
         <v>17305.8</v>
       </c>
-      <c r="D182">
+      <c r="F182">
+        <v>102.552</v>
+      </c>
+      <c r="G182">
         <v>104.054</v>
-      </c>
-      <c r="E182">
-        <v>12099.1</v>
-      </c>
-      <c r="F182">
-        <v>11798.3</v>
-      </c>
-      <c r="G182">
-        <v>102.552</v>
       </c>
       <c r="H182">
         <v>102.922</v>
@@ -26488,19 +26488,19 @@
         <v>18223.6</v>
       </c>
       <c r="C183">
+        <v>12255.5</v>
+      </c>
+      <c r="D183">
+        <v>11892.3</v>
+      </c>
+      <c r="E183">
         <v>17422.8</v>
       </c>
-      <c r="D183">
+      <c r="F183">
+        <v>103.057</v>
+      </c>
+      <c r="G183">
         <v>104.647</v>
-      </c>
-      <c r="E183">
-        <v>12255.5</v>
-      </c>
-      <c r="F183">
-        <v>11892.3</v>
-      </c>
-      <c r="G183">
-        <v>103.057</v>
       </c>
       <c r="H183">
         <v>103.122</v>
@@ -26634,19 +26634,19 @@
         <v>18347.4</v>
       </c>
       <c r="C184">
+        <v>12389.3</v>
+      </c>
+      <c r="D184">
+        <v>11991.2</v>
+      </c>
+      <c r="E184">
         <v>17486</v>
       </c>
-      <c r="D184">
+      <c r="F184">
+        <v>103.322</v>
+      </c>
+      <c r="G184">
         <v>104.92</v>
-      </c>
-      <c r="E184">
-        <v>12389.3</v>
-      </c>
-      <c r="F184">
-        <v>11991.2</v>
-      </c>
-      <c r="G184">
-        <v>103.322</v>
       </c>
       <c r="H184">
         <v>103.277</v>
@@ -26780,19 +26780,19 @@
         <v>18378.8</v>
       </c>
       <c r="C185">
+        <v>12446</v>
+      </c>
+      <c r="D185">
+        <v>12055.4</v>
+      </c>
+      <c r="E185">
         <v>17514.1</v>
       </c>
-      <c r="D185">
+      <c r="F185">
+        <v>103.243</v>
+      </c>
+      <c r="G185">
         <v>104.935</v>
-      </c>
-      <c r="E185">
-        <v>12446</v>
-      </c>
-      <c r="F185">
-        <v>12055.4</v>
-      </c>
-      <c r="G185">
-        <v>103.243</v>
       </c>
       <c r="H185">
         <v>103.192</v>
@@ -26926,19 +26926,19 @@
         <v>18470.2</v>
       </c>
       <c r="C186">
+        <v>12551.6</v>
+      </c>
+      <c r="D186">
+        <v>12148.1</v>
+      </c>
+      <c r="E186">
         <v>17613.3</v>
       </c>
-      <c r="D186">
+      <c r="F186">
+        <v>103.325</v>
+      </c>
+      <c r="G186">
         <v>104.902</v>
-      </c>
-      <c r="E186">
-        <v>12551.6</v>
-      </c>
-      <c r="F186">
-        <v>12148.1</v>
-      </c>
-      <c r="G186">
-        <v>103.325</v>
       </c>
       <c r="H186">
         <v>102.914</v>
@@ -27072,19 +27072,19 @@
         <v>18656.2</v>
       </c>
       <c r="C187">
+        <v>12707.5</v>
+      </c>
+      <c r="D187">
+        <v>12225.8</v>
+      </c>
+      <c r="E187">
         <v>17668.2</v>
       </c>
-      <c r="D187">
+      <c r="F187">
+        <v>103.944</v>
+      </c>
+      <c r="G187">
         <v>105.595</v>
-      </c>
-      <c r="E187">
-        <v>12707.5</v>
-      </c>
-      <c r="F187">
-        <v>12225.8</v>
-      </c>
-      <c r="G187">
-        <v>103.944</v>
       </c>
       <c r="H187">
         <v>103.505</v>
@@ -27218,19 +27218,19 @@
         <v>18821.4</v>
       </c>
       <c r="C188">
+        <v>12841.2</v>
+      </c>
+      <c r="D188">
+        <v>12304.5</v>
+      </c>
+      <c r="E188">
         <v>17764.4</v>
       </c>
-      <c r="D188">
+      <c r="F188">
+        <v>104.366</v>
+      </c>
+      <c r="G188">
         <v>105.941</v>
-      </c>
-      <c r="E188">
-        <v>12841.2</v>
-      </c>
-      <c r="F188">
-        <v>12304.5</v>
-      </c>
-      <c r="G188">
-        <v>104.366</v>
       </c>
       <c r="H188">
         <v>103.95</v>
@@ -27364,19 +27364,19 @@
         <v>19032.6</v>
       </c>
       <c r="C189">
+        <v>12979.5</v>
+      </c>
+      <c r="D189">
+        <v>12380</v>
+      </c>
+      <c r="E189">
         <v>17876.2</v>
       </c>
-      <c r="D189">
+      <c r="F189">
+        <v>104.847</v>
+      </c>
+      <c r="G189">
         <v>106.506</v>
-      </c>
-      <c r="E189">
-        <v>12979.5</v>
-      </c>
-      <c r="F189">
-        <v>12380</v>
-      </c>
-      <c r="G189">
-        <v>104.847</v>
       </c>
       <c r="H189">
         <v>104.475</v>
@@ -27510,19 +27510,19 @@
         <v>19237.4</v>
       </c>
       <c r="C190">
+        <v>13153.2</v>
+      </c>
+      <c r="D190">
+        <v>12477.3</v>
+      </c>
+      <c r="E190">
         <v>17977.3</v>
       </c>
-      <c r="D190">
+      <c r="F190">
+        <v>105.421</v>
+      </c>
+      <c r="G190">
         <v>107.031</v>
-      </c>
-      <c r="E190">
-        <v>13153.2</v>
-      </c>
-      <c r="F190">
-        <v>12477.3</v>
-      </c>
-      <c r="G190">
-        <v>105.421</v>
       </c>
       <c r="H190">
         <v>105.072</v>
@@ -27656,19 +27656,19 @@
         <v>19379.2</v>
       </c>
       <c r="C191">
+        <v>13241.3</v>
+      </c>
+      <c r="D191">
+        <v>12533.1</v>
+      </c>
+      <c r="E191">
         <v>18054.1</v>
       </c>
-      <c r="D191">
+      <c r="F191">
+        <v>105.654</v>
+      </c>
+      <c r="G191">
         <v>107.368</v>
-      </c>
-      <c r="E191">
-        <v>13241.3</v>
-      </c>
-      <c r="F191">
-        <v>12533.1</v>
-      </c>
-      <c r="G191">
-        <v>105.654</v>
       </c>
       <c r="H191">
         <v>105.466</v>
@@ -27802,19 +27802,19 @@
         <v>19617.3</v>
       </c>
       <c r="C192">
+        <v>13370.9</v>
+      </c>
+      <c r="D192">
+        <v>12604.5</v>
+      </c>
+      <c r="E192">
         <v>18185.6</v>
       </c>
-      <c r="D192">
+      <c r="F192">
+        <v>106.084</v>
+      </c>
+      <c r="G192">
         <v>107.968</v>
-      </c>
-      <c r="E192">
-        <v>13370.9</v>
-      </c>
-      <c r="F192">
-        <v>12604.5</v>
-      </c>
-      <c r="G192">
-        <v>106.084</v>
       </c>
       <c r="H192">
         <v>106.002</v>
@@ -27948,19 +27948,19 @@
         <v>19938</v>
       </c>
       <c r="C193">
+        <v>13596</v>
+      </c>
+      <c r="D193">
+        <v>12733.7</v>
+      </c>
+      <c r="E193">
         <v>18359.4</v>
       </c>
-      <c r="D193">
+      <c r="F193">
+        <v>106.775</v>
+      </c>
+      <c r="G193">
         <v>108.637</v>
-      </c>
-      <c r="E193">
-        <v>13596</v>
-      </c>
-      <c r="F193">
-        <v>12733.7</v>
-      </c>
-      <c r="G193">
-        <v>106.775</v>
       </c>
       <c r="H193">
         <v>106.831</v>
@@ -28094,19 +28094,19 @@
         <v>20242.2</v>
       </c>
       <c r="C194">
+        <v>13755.5</v>
+      </c>
+      <c r="D194">
+        <v>12798.1</v>
+      </c>
+      <c r="E194">
         <v>18530.5</v>
       </c>
-      <c r="D194">
+      <c r="F194">
+        <v>107.485</v>
+      </c>
+      <c r="G194">
         <v>109.292</v>
-      </c>
-      <c r="E194">
-        <v>13755.5</v>
-      </c>
-      <c r="F194">
-        <v>12798.1</v>
-      </c>
-      <c r="G194">
-        <v>107.485</v>
       </c>
       <c r="H194">
         <v>107.962</v>
@@ -28240,19 +28240,19 @@
         <v>20552.7</v>
       </c>
       <c r="C195">
+        <v>13939.9</v>
+      </c>
+      <c r="D195">
+        <v>12898.1</v>
+      </c>
+      <c r="E195">
         <v>18654.4</v>
       </c>
-      <c r="D195">
+      <c r="F195">
+        <v>108.081</v>
+      </c>
+      <c r="G195">
         <v>110.165</v>
-      </c>
-      <c r="E195">
-        <v>13939.9</v>
-      </c>
-      <c r="F195">
-        <v>12898.1</v>
-      </c>
-      <c r="G195">
-        <v>108.081</v>
       </c>
       <c r="H195">
         <v>108.763</v>
@@ -28386,19 +28386,19 @@
         <v>20742.7</v>
       </c>
       <c r="C196">
+        <v>14086.3</v>
+      </c>
+      <c r="D196">
+        <v>12983</v>
+      </c>
+      <c r="E196">
         <v>18752.4</v>
       </c>
-      <c r="D196">
+      <c r="F196">
+        <v>108.501</v>
+      </c>
+      <c r="G196">
         <v>110.671</v>
-      </c>
-      <c r="E196">
-        <v>14086.3</v>
-      </c>
-      <c r="F196">
-        <v>12983</v>
-      </c>
-      <c r="G196">
-        <v>108.501</v>
       </c>
       <c r="H196">
         <v>109.413</v>
@@ -28532,19 +28532,19 @@
         <v>20909.9</v>
       </c>
       <c r="C197">
+        <v>14191.4</v>
+      </c>
+      <c r="D197">
+        <v>13033.4</v>
+      </c>
+      <c r="E197">
         <v>18813.9</v>
       </c>
-      <c r="D197">
+      <c r="F197">
+        <v>108.889</v>
+      </c>
+      <c r="G197">
         <v>111.159</v>
-      </c>
-      <c r="E197">
-        <v>14191.4</v>
-      </c>
-      <c r="F197">
-        <v>13033.4</v>
-      </c>
-      <c r="G197">
-        <v>108.889</v>
       </c>
       <c r="H197">
         <v>110.218</v>
@@ -28678,19 +28678,19 @@
         <v>21115.3</v>
       </c>
       <c r="C198">
+        <v>14276.6</v>
+      </c>
+      <c r="D198">
+        <v>13093.2</v>
+      </c>
+      <c r="E198">
         <v>18950.3</v>
       </c>
-      <c r="D198">
+      <c r="F198">
+        <v>109.042</v>
+      </c>
+      <c r="G198">
         <v>111.497</v>
-      </c>
-      <c r="E198">
-        <v>14276.6</v>
-      </c>
-      <c r="F198">
-        <v>13093.2</v>
-      </c>
-      <c r="G198">
-        <v>109.042</v>
       </c>
       <c r="H198">
         <v>111.479</v>
@@ -28824,19 +28824,19 @@
         <v>21329.9</v>
       </c>
       <c r="C199">
+        <v>14497.3</v>
+      </c>
+      <c r="D199">
+        <v>13212.8</v>
+      </c>
+      <c r="E199">
         <v>19020.6</v>
       </c>
-      <c r="D199">
+      <c r="F199">
+        <v>109.726</v>
+      </c>
+      <c r="G199">
         <v>112.181</v>
-      </c>
-      <c r="E199">
-        <v>14497.3</v>
-      </c>
-      <c r="F199">
-        <v>13212.8</v>
-      </c>
-      <c r="G199">
-        <v>109.726</v>
       </c>
       <c r="H199">
         <v>110.761</v>
@@ -28970,19 +28970,19 @@
         <v>21540.3</v>
       </c>
       <c r="C200">
+        <v>14645.3</v>
+      </c>
+      <c r="D200">
+        <v>13301.3</v>
+      </c>
+      <c r="E200">
         <v>19141.7</v>
       </c>
-      <c r="D200">
+      <c r="F200">
+        <v>110.108</v>
+      </c>
+      <c r="G200">
         <v>112.602</v>
-      </c>
-      <c r="E200">
-        <v>14645.3</v>
-      </c>
-      <c r="F200">
-        <v>13301.3</v>
-      </c>
-      <c r="G200">
-        <v>110.108</v>
       </c>
       <c r="H200">
         <v>110.921</v>
@@ -29116,19 +29116,19 @@
         <v>21747.4</v>
       </c>
       <c r="C201">
+        <v>14759.2</v>
+      </c>
+      <c r="D201">
+        <v>13353.7</v>
+      </c>
+      <c r="E201">
         <v>19254</v>
       </c>
-      <c r="D201">
+      <c r="F201">
+        <v>110.529</v>
+      </c>
+      <c r="G201">
         <v>112.989</v>
-      </c>
-      <c r="E201">
-        <v>14759.2</v>
-      </c>
-      <c r="F201">
-        <v>13353.7</v>
-      </c>
-      <c r="G201">
-        <v>110.529</v>
       </c>
       <c r="H201">
         <v>111.281</v>
@@ -29262,19 +29262,19 @@
         <v>21561.1</v>
       </c>
       <c r="C202">
+        <v>14545.5</v>
+      </c>
+      <c r="D202">
+        <v>13118.4</v>
+      </c>
+      <c r="E202">
         <v>19010.8</v>
       </c>
-      <c r="D202">
+      <c r="F202">
+        <v>110.882</v>
+      </c>
+      <c r="G202">
         <v>113.38</v>
-      </c>
-      <c r="E202">
-        <v>14545.5</v>
-      </c>
-      <c r="F202">
-        <v>13118.4</v>
-      </c>
-      <c r="G202">
-        <v>110.882</v>
       </c>
       <c r="H202">
         <v>111.205</v>
@@ -29408,19 +29408,19 @@
         <v>19520.1</v>
       </c>
       <c r="C203">
+        <v>13097.3</v>
+      </c>
+      <c r="D203">
+        <v>11860.3</v>
+      </c>
+      <c r="E203">
         <v>17302.5</v>
       </c>
-      <c r="D203">
+      <c r="F203">
+        <v>110.435</v>
+      </c>
+      <c r="G203">
         <v>112.86</v>
-      </c>
-      <c r="E203">
-        <v>13097.3</v>
-      </c>
-      <c r="F203">
-        <v>11860.3</v>
-      </c>
-      <c r="G203">
-        <v>110.435</v>
       </c>
       <c r="H203">
         <v>110.901</v>
@@ -29554,19 +29554,19 @@
         <v>21157.6</v>
       </c>
       <c r="C204">
+        <v>14394.8</v>
+      </c>
+      <c r="D204">
+        <v>12917.3</v>
+      </c>
+      <c r="E204">
         <v>18584</v>
       </c>
-      <c r="D204">
+      <c r="F204">
+        <v>111.442</v>
+      </c>
+      <c r="G204">
         <v>113.86</v>
-      </c>
-      <c r="E204">
-        <v>14394.8</v>
-      </c>
-      <c r="F204">
-        <v>12917.3</v>
-      </c>
-      <c r="G204">
-        <v>111.442</v>
       </c>
       <c r="H204">
         <v>111.334</v>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV204"/>
+  <dimension ref="A1:AW204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,27 +377,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>gdph</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>jgdp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ch</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gdph</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>jc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>jgdp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -605,6 +605,11 @@
           <t>gftfbusx</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>gftfpe</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -614,19 +619,19 @@
         <v>1051.2</v>
       </c>
       <c r="C2">
+        <v>4936.6</v>
+      </c>
+      <c r="D2">
+        <v>21.286</v>
+      </c>
+      <c r="E2">
         <v>631.7000000000001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>3065.1</v>
       </c>
-      <c r="E2">
-        <v>4936.6</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>20.61</v>
-      </c>
-      <c r="G2">
-        <v>21.286</v>
       </c>
       <c r="H2">
         <v>18.701</v>
@@ -754,19 +759,19 @@
         <v>1067.4</v>
       </c>
       <c r="C3">
+        <v>4943.6</v>
+      </c>
+      <c r="D3">
+        <v>21.593</v>
+      </c>
+      <c r="E3">
         <v>641.6</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>3079</v>
       </c>
-      <c r="E3">
-        <v>4943.6</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>20.838</v>
-      </c>
-      <c r="G3">
-        <v>21.593</v>
       </c>
       <c r="H3">
         <v>18.948</v>
@@ -894,19 +899,19 @@
         <v>1086.1</v>
       </c>
       <c r="C4">
+        <v>4989.2</v>
+      </c>
+      <c r="D4">
+        <v>21.77</v>
+      </c>
+      <c r="E4">
         <v>653.5</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>3106</v>
       </c>
-      <c r="E4">
-        <v>4989.2</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>21.041</v>
-      </c>
-      <c r="G4">
-        <v>21.77</v>
       </c>
       <c r="H4">
         <v>19.271</v>
@@ -1034,19 +1039,19 @@
         <v>1088.6</v>
       </c>
       <c r="C5">
+        <v>4935.7</v>
+      </c>
+      <c r="D5">
+        <v>22.055</v>
+      </c>
+      <c r="E5">
         <v>660.2000000000001</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>3097.5</v>
       </c>
-      <c r="E5">
-        <v>4935.7</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>21.314</v>
-      </c>
-      <c r="G5">
-        <v>22.055</v>
       </c>
       <c r="H5">
         <v>19.516</v>
@@ -1174,19 +1179,19 @@
         <v>1135.2</v>
       </c>
       <c r="C6">
+        <v>5069.7</v>
+      </c>
+      <c r="D6">
+        <v>22.389</v>
+      </c>
+      <c r="E6">
         <v>679.2000000000001</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>3157</v>
       </c>
-      <c r="E6">
-        <v>5069.7</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>21.516</v>
-      </c>
-      <c r="G6">
-        <v>22.389</v>
       </c>
       <c r="H6">
         <v>20.134</v>
@@ -1314,19 +1319,19 @@
         <v>1156.3</v>
       </c>
       <c r="C7">
+        <v>5097.2</v>
+      </c>
+      <c r="D7">
+        <v>22.689</v>
+      </c>
+      <c r="E7">
         <v>693.2000000000001</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>3186</v>
       </c>
-      <c r="E7">
-        <v>5097.2</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>21.761</v>
-      </c>
-      <c r="G7">
-        <v>22.689</v>
       </c>
       <c r="H7">
         <v>20.51</v>
@@ -1454,19 +1459,19 @@
         <v>1177.7</v>
       </c>
       <c r="C8">
+        <v>5139.1</v>
+      </c>
+      <c r="D8">
+        <v>22.917</v>
+      </c>
+      <c r="E8">
         <v>705.6</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>3211.4</v>
       </c>
-      <c r="E8">
-        <v>5139.1</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>21.975</v>
-      </c>
-      <c r="G8">
-        <v>22.917</v>
       </c>
       <c r="H8">
         <v>20.807</v>
@@ -1594,19 +1599,19 @@
         <v>1190.3</v>
       </c>
       <c r="C9">
+        <v>5151.2</v>
+      </c>
+      <c r="D9">
+        <v>23.107</v>
+      </c>
+      <c r="E9">
         <v>721.7000000000001</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>3264.7</v>
       </c>
-      <c r="E9">
-        <v>5151.2</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>22.111</v>
-      </c>
-      <c r="G9">
-        <v>23.107</v>
       </c>
       <c r="H9">
         <v>21.23</v>
@@ -1734,19 +1739,19 @@
         <v>1230.6</v>
       </c>
       <c r="C10">
+        <v>5246</v>
+      </c>
+      <c r="D10">
+        <v>23.478</v>
+      </c>
+      <c r="E10">
         <v>738.9</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>3307.8</v>
       </c>
-      <c r="E10">
-        <v>5246</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>22.344</v>
-      </c>
-      <c r="G10">
-        <v>23.478</v>
       </c>
       <c r="H10">
         <v>22.104</v>
@@ -1874,19 +1879,19 @@
         <v>1266.4</v>
       </c>
       <c r="C11">
+        <v>5365</v>
+      </c>
+      <c r="D11">
+        <v>23.621</v>
+      </c>
+      <c r="E11">
         <v>757.4</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>3370.7</v>
       </c>
-      <c r="E11">
-        <v>5365</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>22.473</v>
-      </c>
-      <c r="G11">
-        <v>23.621</v>
       </c>
       <c r="H11">
         <v>22.327</v>
@@ -2014,19 +2019,19 @@
         <v>1290.6</v>
       </c>
       <c r="C12">
+        <v>5415.7</v>
+      </c>
+      <c r="D12">
+        <v>23.835</v>
+      </c>
+      <c r="E12">
         <v>775.8</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>3422.7</v>
       </c>
-      <c r="E12">
-        <v>5415.7</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>22.671</v>
-      </c>
-      <c r="G12">
-        <v>23.835</v>
       </c>
       <c r="H12">
         <v>22.51</v>
@@ -2154,19 +2159,19 @@
         <v>1328.9</v>
       </c>
       <c r="C13">
+        <v>5506.4</v>
+      </c>
+      <c r="D13">
+        <v>24.105</v>
+      </c>
+      <c r="E13">
         <v>800.5</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>3503</v>
       </c>
-      <c r="E13">
-        <v>5506.4</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>22.855</v>
-      </c>
-      <c r="G13">
-        <v>24.105</v>
       </c>
       <c r="H13">
         <v>22.999</v>
@@ -2294,19 +2299,19 @@
         <v>1377.5</v>
       </c>
       <c r="C14">
+        <v>5642.7</v>
+      </c>
+      <c r="D14">
+        <v>24.412</v>
+      </c>
+      <c r="E14">
         <v>825</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>3567</v>
       </c>
-      <c r="E14">
-        <v>5642.7</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>23.131</v>
-      </c>
-      <c r="G14">
-        <v>24.412</v>
       </c>
       <c r="H14">
         <v>23.37</v>
@@ -2434,19 +2439,19 @@
         <v>1413.9</v>
       </c>
       <c r="C15">
+        <v>5704.1</v>
+      </c>
+      <c r="D15">
+        <v>24.816</v>
+      </c>
+      <c r="E15">
         <v>840.5</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>3565.3</v>
       </c>
-      <c r="E15">
-        <v>5704.1</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>23.576</v>
-      </c>
-      <c r="G15">
-        <v>24.816</v>
       </c>
       <c r="H15">
         <v>23.777</v>
@@ -2574,19 +2579,19 @@
         <v>1433.8</v>
       </c>
       <c r="C16">
+        <v>5674.1</v>
+      </c>
+      <c r="D16">
+        <v>25.29</v>
+      </c>
+      <c r="E16">
         <v>858.9</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>3577.9</v>
       </c>
-      <c r="E16">
-        <v>5674.1</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>24.005</v>
-      </c>
-      <c r="G16">
-        <v>25.29</v>
       </c>
       <c r="H16">
         <v>24.269</v>
@@ -2714,19 +2719,19 @@
         <v>1476.3</v>
       </c>
       <c r="C17">
+        <v>5728</v>
+      </c>
+      <c r="D17">
+        <v>25.728</v>
+      </c>
+      <c r="E17">
         <v>873.9</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>3567.2</v>
       </c>
-      <c r="E17">
-        <v>5728</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>24.496</v>
-      </c>
-      <c r="G17">
-        <v>25.728</v>
       </c>
       <c r="H17">
         <v>24.788</v>
@@ -2854,19 +2859,19 @@
         <v>1491.2</v>
       </c>
       <c r="C18">
+        <v>5678.7</v>
+      </c>
+      <c r="D18">
+        <v>26.249</v>
+      </c>
+      <c r="E18">
         <v>891.9</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>3535.3</v>
       </c>
-      <c r="E18">
-        <v>5678.7</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>25.225</v>
-      </c>
-      <c r="G18">
-        <v>26.249</v>
       </c>
       <c r="H18">
         <v>25.042</v>
@@ -2994,19 +2999,19 @@
         <v>1530.1</v>
       </c>
       <c r="C19">
+        <v>5692.2</v>
+      </c>
+      <c r="D19">
+        <v>26.832</v>
+      </c>
+      <c r="E19">
         <v>920.4</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>3548</v>
       </c>
-      <c r="E19">
-        <v>5692.2</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>25.939</v>
-      </c>
-      <c r="G19">
-        <v>26.832</v>
       </c>
       <c r="H19">
         <v>25.494</v>
@@ -3134,19 +3139,19 @@
         <v>1560</v>
       </c>
       <c r="C20">
+        <v>5638.4</v>
+      </c>
+      <c r="D20">
+        <v>27.659</v>
+      </c>
+      <c r="E20">
         <v>949.3</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>3563.3</v>
       </c>
-      <c r="E20">
-        <v>5638.4</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>26.639</v>
-      </c>
-      <c r="G20">
-        <v>27.659</v>
       </c>
       <c r="H20">
         <v>26.239</v>
@@ -3274,19 +3279,19 @@
         <v>1599.7</v>
       </c>
       <c r="C21">
+        <v>5616.5</v>
+      </c>
+      <c r="D21">
+        <v>28.498</v>
+      </c>
+      <c r="E21">
         <v>959.1</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>3511.2</v>
       </c>
-      <c r="E21">
-        <v>5616.5</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>27.316</v>
-      </c>
-      <c r="G21">
-        <v>28.498</v>
       </c>
       <c r="H21">
         <v>27.11</v>
@@ -3414,19 +3419,19 @@
         <v>1616.1</v>
       </c>
       <c r="C22">
+        <v>5548.2</v>
+      </c>
+      <c r="D22">
+        <v>29.142</v>
+      </c>
+      <c r="E22">
         <v>985.2000000000001</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>3540.6</v>
       </c>
-      <c r="E22">
-        <v>5548.2</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>27.83</v>
-      </c>
-      <c r="G22">
-        <v>29.142</v>
       </c>
       <c r="H22">
         <v>27.603</v>
@@ -3554,19 +3559,19 @@
         <v>1651.9</v>
       </c>
       <c r="C23">
+        <v>5587.8</v>
+      </c>
+      <c r="D23">
+        <v>29.565</v>
+      </c>
+      <c r="E23">
         <v>1013.6</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>3598.9</v>
       </c>
-      <c r="E23">
-        <v>5587.8</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>28.172</v>
-      </c>
-      <c r="G23">
-        <v>29.565</v>
       </c>
       <c r="H23">
         <v>28.003</v>
@@ -3694,19 +3699,19 @@
         <v>1709.8</v>
       </c>
       <c r="C24">
+        <v>5683.4</v>
+      </c>
+      <c r="D24">
+        <v>30.087</v>
+      </c>
+      <c r="E24">
         <v>1047.2</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>3650</v>
       </c>
-      <c r="E24">
-        <v>5683.4</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>28.699</v>
-      </c>
-      <c r="G24">
-        <v>30.087</v>
       </c>
       <c r="H24">
         <v>28.38</v>
@@ -3834,19 +3839,19 @@
         <v>1761.8</v>
       </c>
       <c r="C25">
+        <v>5760</v>
+      </c>
+      <c r="D25">
+        <v>30.59</v>
+      </c>
+      <c r="E25">
         <v>1076.2</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>3689.3</v>
       </c>
-      <c r="E25">
-        <v>5760</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>29.18</v>
-      </c>
-      <c r="G25">
-        <v>30.59</v>
       </c>
       <c r="H25">
         <v>29.032</v>
@@ -3974,19 +3979,19 @@
         <v>1820.5</v>
       </c>
       <c r="C26">
+        <v>5889.5</v>
+      </c>
+      <c r="D26">
+        <v>30.925</v>
+      </c>
+      <c r="E26">
         <v>1109.9</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>3763</v>
       </c>
-      <c r="E26">
-        <v>5889.5</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>29.502</v>
-      </c>
-      <c r="G26">
-        <v>30.925</v>
       </c>
       <c r="H26">
         <v>29.456</v>
@@ -4114,19 +4119,19 @@
         <v>1852.3</v>
       </c>
       <c r="C27">
+        <v>5932.7</v>
+      </c>
+      <c r="D27">
+        <v>31.233</v>
+      </c>
+      <c r="E27">
         <v>1129.5</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>3797.7</v>
       </c>
-      <c r="E27">
-        <v>5932.7</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>29.749</v>
-      </c>
-      <c r="G27">
-        <v>31.233</v>
       </c>
       <c r="H27">
         <v>29.703</v>
@@ -4254,19 +4259,19 @@
         <v>1886.6</v>
       </c>
       <c r="C28">
+        <v>5965.3</v>
+      </c>
+      <c r="D28">
+        <v>31.632</v>
+      </c>
+      <c r="E28">
         <v>1158.8</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>3837.7</v>
       </c>
-      <c r="E28">
-        <v>5965.3</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>30.2</v>
-      </c>
-      <c r="G28">
-        <v>31.632</v>
       </c>
       <c r="H28">
         <v>30.043</v>
@@ -4394,19 +4399,19 @@
         <v>1934.3</v>
       </c>
       <c r="C29">
+        <v>6008.5</v>
+      </c>
+      <c r="D29">
+        <v>32.169</v>
+      </c>
+      <c r="E29">
         <v>1192.4</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>3887.4</v>
       </c>
-      <c r="E29">
-        <v>6008.5</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>30.678</v>
-      </c>
-      <c r="G29">
-        <v>32.169</v>
       </c>
       <c r="H29">
         <v>30.846</v>
@@ -4534,19 +4539,19 @@
         <v>1988.6</v>
       </c>
       <c r="C30">
+        <v>6079.5</v>
+      </c>
+      <c r="D30">
+        <v>32.689</v>
+      </c>
+      <c r="E30">
         <v>1228.2</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>3933.3</v>
       </c>
-      <c r="E30">
-        <v>6079.5</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>31.231</v>
-      </c>
-      <c r="G30">
-        <v>32.689</v>
       </c>
       <c r="H30">
         <v>31.283</v>
@@ -4674,19 +4679,19 @@
         <v>2055.9</v>
       </c>
       <c r="C31">
+        <v>6197.7</v>
+      </c>
+      <c r="D31">
+        <v>33.205</v>
+      </c>
+      <c r="E31">
         <v>1256</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>3954.6</v>
       </c>
-      <c r="E31">
-        <v>6197.7</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <v>31.766</v>
-      </c>
-      <c r="G31">
-        <v>33.205</v>
       </c>
       <c r="H31">
         <v>31.639</v>
@@ -4814,19 +4819,19 @@
         <v>2118.5</v>
       </c>
       <c r="C32">
+        <v>6309.5</v>
+      </c>
+      <c r="D32">
+        <v>33.662</v>
+      </c>
+      <c r="E32">
         <v>1286.9</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>3992</v>
       </c>
-      <c r="E32">
-        <v>6309.5</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
         <v>32.243</v>
-      </c>
-      <c r="G32">
-        <v>33.662</v>
       </c>
       <c r="H32">
         <v>31.795</v>
@@ -4954,19 +4959,19 @@
         <v>2164.3</v>
       </c>
       <c r="C33">
+        <v>6309.7</v>
+      </c>
+      <c r="D33">
+        <v>34.225</v>
+      </c>
+      <c r="E33">
         <v>1324.8</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>4052</v>
       </c>
-      <c r="E33">
-        <v>6309.7</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
         <v>32.702</v>
-      </c>
-      <c r="G33">
-        <v>34.225</v>
       </c>
       <c r="H33">
         <v>32.716</v>
@@ -5094,19 +5099,19 @@
         <v>2202.8</v>
       </c>
       <c r="C34">
+        <v>6329.8</v>
+      </c>
+      <c r="D34">
+        <v>34.786</v>
+      </c>
+      <c r="E34">
         <v>1354.1</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>4074.8</v>
       </c>
-      <c r="E34">
-        <v>6329.8</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
         <v>33.238</v>
-      </c>
-      <c r="G34">
-        <v>34.786</v>
       </c>
       <c r="H34">
         <v>33.09</v>
@@ -5234,19 +5239,19 @@
         <v>2331.6</v>
       </c>
       <c r="C35">
+        <v>6574.4</v>
+      </c>
+      <c r="D35">
+        <v>35.48</v>
+      </c>
+      <c r="E35">
         <v>1411.4</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>4161.9</v>
       </c>
-      <c r="E35">
-        <v>6574.4</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
         <v>33.921</v>
-      </c>
-      <c r="G35">
-        <v>35.48</v>
       </c>
       <c r="H35">
         <v>33.74</v>
@@ -5374,19 +5379,19 @@
         <v>2395.1</v>
       </c>
       <c r="C36">
+        <v>6640.5</v>
+      </c>
+      <c r="D36">
+        <v>36.106</v>
+      </c>
+      <c r="E36">
         <v>1442.2</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>4179.4</v>
       </c>
-      <c r="E36">
-        <v>6640.5</v>
-      </c>
-      <c r="F36">
+      <c r="G36">
         <v>34.517</v>
-      </c>
-      <c r="G36">
-        <v>36.106</v>
       </c>
       <c r="H36">
         <v>34.304</v>
@@ -5514,19 +5519,19 @@
         <v>2476.9</v>
       </c>
       <c r="C37">
+        <v>6729.8</v>
+      </c>
+      <c r="D37">
+        <v>36.819</v>
+      </c>
+      <c r="E37">
         <v>1481.4</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>4213.1</v>
       </c>
-      <c r="E37">
-        <v>6729.8</v>
-      </c>
-      <c r="F37">
+      <c r="G37">
         <v>35.169</v>
-      </c>
-      <c r="G37">
-        <v>36.819</v>
       </c>
       <c r="H37">
         <v>34.896</v>
@@ -5654,19 +5659,19 @@
         <v>2526.6</v>
       </c>
       <c r="C38">
+        <v>6741.9</v>
+      </c>
+      <c r="D38">
+        <v>37.507</v>
+      </c>
+      <c r="E38">
         <v>1517.1</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>4234.9</v>
       </c>
-      <c r="E38">
-        <v>6741.9</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
         <v>35.831</v>
-      </c>
-      <c r="G38">
-        <v>37.507</v>
       </c>
       <c r="H38">
         <v>35.539</v>
@@ -5794,19 +5799,19 @@
         <v>2591.2</v>
       </c>
       <c r="C39">
+        <v>6749.1</v>
+      </c>
+      <c r="D39">
+        <v>38.413</v>
+      </c>
+      <c r="E39">
         <v>1557.6</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>4232.2</v>
       </c>
-      <c r="E39">
-        <v>6749.1</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
         <v>36.81</v>
-      </c>
-      <c r="G39">
-        <v>38.413</v>
       </c>
       <c r="H39">
         <v>36.076</v>
@@ -5934,19 +5939,19 @@
         <v>2667.6</v>
       </c>
       <c r="C40">
+        <v>6799.2</v>
+      </c>
+      <c r="D40">
+        <v>39.215</v>
+      </c>
+      <c r="E40">
         <v>1611.9</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>4273.3</v>
       </c>
-      <c r="E40">
-        <v>6799.2</v>
-      </c>
-      <c r="F40">
+      <c r="G40">
         <v>37.724</v>
-      </c>
-      <c r="G40">
-        <v>39.215</v>
       </c>
       <c r="H40">
         <v>36.918</v>
@@ -6074,19 +6079,19 @@
         <v>2723.9</v>
       </c>
       <c r="C41">
+        <v>6816.2</v>
+      </c>
+      <c r="D41">
+        <v>39.93</v>
+      </c>
+      <c r="E41">
         <v>1655</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>4284</v>
       </c>
-      <c r="E41">
-        <v>6816.2</v>
-      </c>
-      <c r="F41">
+      <c r="G41">
         <v>38.637</v>
-      </c>
-      <c r="G41">
-        <v>39.93</v>
       </c>
       <c r="H41">
         <v>37.731</v>
@@ -6214,19 +6219,19 @@
         <v>2789.8</v>
       </c>
       <c r="C42">
+        <v>6837.6</v>
+      </c>
+      <c r="D42">
+        <v>40.804</v>
+      </c>
+      <c r="E42">
         <v>1702.3</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>4277.9</v>
       </c>
-      <c r="E42">
-        <v>6837.6</v>
-      </c>
-      <c r="F42">
+      <c r="G42">
         <v>39.797</v>
-      </c>
-      <c r="G42">
-        <v>40.804</v>
       </c>
       <c r="H42">
         <v>38.477</v>
@@ -6354,19 +6359,19 @@
         <v>2797.4</v>
       </c>
       <c r="C43">
+        <v>6696.8</v>
+      </c>
+      <c r="D43">
+        <v>41.771</v>
+      </c>
+      <c r="E43">
         <v>1704.7</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>4181.5</v>
       </c>
-      <c r="E43">
-        <v>6696.8</v>
-      </c>
-      <c r="F43">
+      <c r="G43">
         <v>40.771</v>
-      </c>
-      <c r="G43">
-        <v>41.771</v>
       </c>
       <c r="H43">
         <v>39.964</v>
@@ -6494,19 +6499,19 @@
         <v>2856.5</v>
       </c>
       <c r="C44">
+        <v>6688.8</v>
+      </c>
+      <c r="D44">
+        <v>42.703</v>
+      </c>
+      <c r="E44">
         <v>1763.8</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>4227.4</v>
       </c>
-      <c r="E44">
-        <v>6688.8</v>
-      </c>
-      <c r="F44">
+      <c r="G44">
         <v>41.724</v>
-      </c>
-      <c r="G44">
-        <v>42.703</v>
       </c>
       <c r="H44">
         <v>40.369</v>
@@ -6634,19 +6639,19 @@
         <v>2985.6</v>
       </c>
       <c r="C45">
+        <v>6813.5</v>
+      </c>
+      <c r="D45">
+        <v>43.835</v>
+      </c>
+      <c r="E45">
         <v>1831.9</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>4284.5</v>
       </c>
-      <c r="E45">
-        <v>6813.5</v>
-      </c>
-      <c r="F45">
+      <c r="G45">
         <v>42.757</v>
-      </c>
-      <c r="G45">
-        <v>43.835</v>
       </c>
       <c r="H45">
         <v>41.584</v>
@@ -6774,19 +6779,19 @@
         <v>3124.2</v>
       </c>
       <c r="C46">
+        <v>6947</v>
+      </c>
+      <c r="D46">
+        <v>44.997</v>
+      </c>
+      <c r="E46">
         <v>1885.7</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>4298.8</v>
       </c>
-      <c r="E46">
-        <v>6947</v>
-      </c>
-      <c r="F46">
+      <c r="G46">
         <v>43.866</v>
-      </c>
-      <c r="G46">
-        <v>44.997</v>
       </c>
       <c r="H46">
         <v>42.415</v>
@@ -6914,19 +6919,19 @@
         <v>3162.5</v>
       </c>
       <c r="C47">
+        <v>6895.6</v>
+      </c>
+      <c r="D47">
+        <v>45.842</v>
+      </c>
+      <c r="E47">
         <v>1917.5</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>4299.2</v>
       </c>
-      <c r="E47">
-        <v>6895.6</v>
-      </c>
-      <c r="F47">
+      <c r="G47">
         <v>44.601</v>
-      </c>
-      <c r="G47">
-        <v>45.842</v>
       </c>
       <c r="H47">
         <v>43.402</v>
@@ -7054,19 +7059,19 @@
         <v>3260.6</v>
       </c>
       <c r="C48">
+        <v>6978.1</v>
+      </c>
+      <c r="D48">
+        <v>46.733</v>
+      </c>
+      <c r="E48">
         <v>1958.1</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>4319</v>
       </c>
-      <c r="E48">
-        <v>6978.1</v>
-      </c>
-      <c r="F48">
+      <c r="G48">
         <v>45.336</v>
-      </c>
-      <c r="G48">
-        <v>46.733</v>
       </c>
       <c r="H48">
         <v>44.354</v>
@@ -7194,19 +7199,19 @@
         <v>3280.8</v>
       </c>
       <c r="C49">
+        <v>6902.1</v>
+      </c>
+      <c r="D49">
+        <v>47.505</v>
+      </c>
+      <c r="E49">
         <v>1974.4</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>4289.5</v>
       </c>
-      <c r="E49">
-        <v>6902.1</v>
-      </c>
-      <c r="F49">
+      <c r="G49">
         <v>46.031</v>
-      </c>
-      <c r="G49">
-        <v>47.505</v>
       </c>
       <c r="H49">
         <v>45.203</v>
@@ -7334,19 +7339,19 @@
         <v>3274.3</v>
       </c>
       <c r="C50">
+        <v>6794.9</v>
+      </c>
+      <c r="D50">
+        <v>48.186</v>
+      </c>
+      <c r="E50">
         <v>2014.2</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>4321.1</v>
       </c>
-      <c r="E50">
-        <v>6794.9</v>
-      </c>
-      <c r="F50">
+      <c r="G50">
         <v>46.616</v>
-      </c>
-      <c r="G50">
-        <v>48.186</v>
       </c>
       <c r="H50">
         <v>45.925</v>
@@ -7474,19 +7479,19 @@
         <v>3332</v>
       </c>
       <c r="C51">
+        <v>6825.9</v>
+      </c>
+      <c r="D51">
+        <v>48.826</v>
+      </c>
+      <c r="E51">
         <v>2039.6</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>4334.3</v>
       </c>
-      <c r="E51">
-        <v>6825.9</v>
-      </c>
-      <c r="F51">
+      <c r="G51">
         <v>47.064</v>
-      </c>
-      <c r="G51">
-        <v>48.826</v>
       </c>
       <c r="H51">
         <v>46.835</v>
@@ -7614,19 +7619,19 @@
         <v>3366.3</v>
       </c>
       <c r="C52">
+        <v>6799.8</v>
+      </c>
+      <c r="D52">
+        <v>49.504</v>
+      </c>
+      <c r="E52">
         <v>2085.7</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>4363.3</v>
       </c>
-      <c r="E52">
-        <v>6799.8</v>
-      </c>
-      <c r="F52">
+      <c r="G52">
         <v>47.808</v>
-      </c>
-      <c r="G52">
-        <v>49.504</v>
       </c>
       <c r="H52">
         <v>47.228</v>
@@ -7754,19 +7759,19 @@
         <v>3402.6</v>
       </c>
       <c r="C53">
+        <v>6802.5</v>
+      </c>
+      <c r="D53">
+        <v>50.005</v>
+      </c>
+      <c r="E53">
         <v>2145.6</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>4439.7</v>
       </c>
-      <c r="E53">
-        <v>6802.5</v>
-      </c>
-      <c r="F53">
+      <c r="G53">
         <v>48.335</v>
-      </c>
-      <c r="G53">
-        <v>50.005</v>
       </c>
       <c r="H53">
         <v>47.785</v>
@@ -7894,19 +7899,19 @@
         <v>3473.4</v>
       </c>
       <c r="C54">
+        <v>6892.1</v>
+      </c>
+      <c r="D54">
+        <v>50.404</v>
+      </c>
+      <c r="E54">
         <v>2184.6</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>4483.6</v>
       </c>
-      <c r="E54">
-        <v>6892.1</v>
-      </c>
-      <c r="F54">
+      <c r="G54">
         <v>48.735</v>
-      </c>
-      <c r="G54">
-        <v>50.404</v>
       </c>
       <c r="H54">
         <v>47.875</v>
@@ -8034,19 +8039,19 @@
         <v>3578.8</v>
       </c>
       <c r="C55">
+        <v>7049</v>
+      </c>
+      <c r="D55">
+        <v>50.778</v>
+      </c>
+      <c r="E55">
         <v>2249.4</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>4574.9</v>
       </c>
-      <c r="E55">
-        <v>7049</v>
-      </c>
-      <c r="F55">
+      <c r="G55">
         <v>49.18</v>
-      </c>
-      <c r="G55">
-        <v>50.778</v>
       </c>
       <c r="H55">
         <v>48.245</v>
@@ -8174,19 +8179,19 @@
         <v>3689.2</v>
       </c>
       <c r="C56">
+        <v>7189.9</v>
+      </c>
+      <c r="D56">
+        <v>51.318</v>
+      </c>
+      <c r="E56">
         <v>2319.9</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>4657</v>
       </c>
-      <c r="E56">
-        <v>7189.9</v>
-      </c>
-      <c r="F56">
+      <c r="G56">
         <v>49.827</v>
-      </c>
-      <c r="G56">
-        <v>51.318</v>
       </c>
       <c r="H56">
         <v>48.78</v>
@@ -8314,19 +8319,19 @@
         <v>3794.7</v>
       </c>
       <c r="C57">
+        <v>7339.9</v>
+      </c>
+      <c r="D57">
+        <v>51.702</v>
+      </c>
+      <c r="E57">
         <v>2372.5</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>4731.2</v>
       </c>
-      <c r="E57">
-        <v>7339.9</v>
-      </c>
-      <c r="F57">
+      <c r="G57">
         <v>50.156</v>
-      </c>
-      <c r="G57">
-        <v>51.702</v>
       </c>
       <c r="H57">
         <v>49.098</v>
@@ -8454,19 +8459,19 @@
         <v>3908.1</v>
       </c>
       <c r="C58">
+        <v>7483.4</v>
+      </c>
+      <c r="D58">
+        <v>52.212</v>
+      </c>
+      <c r="E58">
         <v>2418.2</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>4770.5</v>
       </c>
-      <c r="E58">
-        <v>7483.4</v>
-      </c>
-      <c r="F58">
+      <c r="G58">
         <v>50.698</v>
-      </c>
-      <c r="G58">
-        <v>52.212</v>
       </c>
       <c r="H58">
         <v>49.735</v>
@@ -8594,19 +8599,19 @@
         <v>4009.6</v>
       </c>
       <c r="C59">
+        <v>7612.7</v>
+      </c>
+      <c r="D59">
+        <v>52.681</v>
+      </c>
+      <c r="E59">
         <v>2475.9</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>4837.3</v>
       </c>
-      <c r="E59">
-        <v>7612.7</v>
-      </c>
-      <c r="F59">
+      <c r="G59">
         <v>51.189</v>
-      </c>
-      <c r="G59">
-        <v>52.681</v>
       </c>
       <c r="H59">
         <v>50.23</v>
@@ -8734,19 +8739,19 @@
         <v>4084.3</v>
       </c>
       <c r="C60">
+        <v>7686.1</v>
+      </c>
+      <c r="D60">
+        <v>53.157</v>
+      </c>
+      <c r="E60">
         <v>2513.5</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>4873.2</v>
       </c>
-      <c r="E60">
-        <v>7686.1</v>
-      </c>
-      <c r="F60">
+      <c r="G60">
         <v>51.584</v>
-      </c>
-      <c r="G60">
-        <v>53.157</v>
       </c>
       <c r="H60">
         <v>50.977</v>
@@ -8874,19 +8879,19 @@
         <v>4148.6</v>
       </c>
       <c r="C61">
+        <v>7749.2</v>
+      </c>
+      <c r="D61">
+        <v>53.528</v>
+      </c>
+      <c r="E61">
         <v>2561.8</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>4936.3</v>
       </c>
-      <c r="E61">
-        <v>7749.2</v>
-      </c>
-      <c r="F61">
+      <c r="G61">
         <v>51.902</v>
-      </c>
-      <c r="G61">
-        <v>53.528</v>
       </c>
       <c r="H61">
         <v>51.605</v>
@@ -9014,19 +9019,19 @@
         <v>4230.2</v>
       </c>
       <c r="C62">
+        <v>7824.2</v>
+      </c>
+      <c r="D62">
+        <v>54.076</v>
+      </c>
+      <c r="E62">
         <v>2636</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>5020.2</v>
       </c>
-      <c r="E62">
-        <v>7824.2</v>
-      </c>
-      <c r="F62">
+      <c r="G62">
         <v>52.514</v>
-      </c>
-      <c r="G62">
-        <v>54.076</v>
       </c>
       <c r="H62">
         <v>51.399</v>
@@ -9154,19 +9159,19 @@
         <v>4294.9</v>
       </c>
       <c r="C63">
+        <v>7893.1</v>
+      </c>
+      <c r="D63">
+        <v>54.396</v>
+      </c>
+      <c r="E63">
         <v>2681.8</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>5066.3</v>
       </c>
-      <c r="E63">
-        <v>7893.1</v>
-      </c>
-      <c r="F63">
+      <c r="G63">
         <v>52.94</v>
-      </c>
-      <c r="G63">
-        <v>54.396</v>
       </c>
       <c r="H63">
         <v>51.52</v>
@@ -9294,19 +9299,19 @@
         <v>4386.8</v>
       </c>
       <c r="C64">
+        <v>8013.7</v>
+      </c>
+      <c r="D64">
+        <v>54.757</v>
+      </c>
+      <c r="E64">
         <v>2754.1</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>5162.5</v>
       </c>
-      <c r="E64">
-        <v>8013.7</v>
-      </c>
-      <c r="F64">
+      <c r="G64">
         <v>53.355</v>
-      </c>
-      <c r="G64">
-        <v>54.757</v>
       </c>
       <c r="H64">
         <v>51.795</v>
@@ -9434,19 +9439,19 @@
         <v>4444.1</v>
       </c>
       <c r="C65">
+        <v>8073.2</v>
+      </c>
+      <c r="D65">
+        <v>55.042</v>
+      </c>
+      <c r="E65">
         <v>2779.4</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>5173.6</v>
       </c>
-      <c r="E65">
-        <v>8073.2</v>
-      </c>
-      <c r="F65">
+      <c r="G65">
         <v>53.727</v>
-      </c>
-      <c r="G65">
-        <v>55.042</v>
       </c>
       <c r="H65">
         <v>52.135</v>
@@ -9574,19 +9579,19 @@
         <v>4507.9</v>
       </c>
       <c r="C66">
+        <v>8148.6</v>
+      </c>
+      <c r="D66">
+        <v>55.313</v>
+      </c>
+      <c r="E66">
         <v>2823.6</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>5218.9</v>
       </c>
-      <c r="E66">
-        <v>8148.6</v>
-      </c>
-      <c r="F66">
+      <c r="G66">
         <v>54.108</v>
-      </c>
-      <c r="G66">
-        <v>55.313</v>
       </c>
       <c r="H66">
         <v>52.003</v>
@@ -9714,19 +9719,19 @@
         <v>4545.3</v>
       </c>
       <c r="C67">
+        <v>8185.3</v>
+      </c>
+      <c r="D67">
+        <v>55.507</v>
+      </c>
+      <c r="E67">
         <v>2851.5</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>5275.7</v>
       </c>
-      <c r="E67">
-        <v>8185.3</v>
-      </c>
-      <c r="F67">
+      <c r="G67">
         <v>54.051</v>
-      </c>
-      <c r="G67">
-        <v>55.507</v>
       </c>
       <c r="H67">
         <v>51.873</v>
@@ -9854,19 +9859,19 @@
         <v>4607.7</v>
       </c>
       <c r="C68">
+        <v>8263.6</v>
+      </c>
+      <c r="D68">
+        <v>55.771</v>
+      </c>
+      <c r="E68">
         <v>2917.2</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>5369</v>
       </c>
-      <c r="E68">
-        <v>8263.6</v>
-      </c>
-      <c r="F68">
+      <c r="G68">
         <v>54.336</v>
-      </c>
-      <c r="G68">
-        <v>55.771</v>
       </c>
       <c r="H68">
         <v>51.947</v>
@@ -9994,19 +9999,19 @@
         <v>4657.6</v>
       </c>
       <c r="C69">
+        <v>8308</v>
+      </c>
+      <c r="D69">
+        <v>56.102</v>
+      </c>
+      <c r="E69">
         <v>2952.8</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>5402</v>
       </c>
-      <c r="E69">
-        <v>8308</v>
-      </c>
-      <c r="F69">
+      <c r="G69">
         <v>54.665</v>
-      </c>
-      <c r="G69">
-        <v>56.102</v>
       </c>
       <c r="H69">
         <v>52.006</v>
@@ -10134,19 +10139,19 @@
         <v>4722.2</v>
       </c>
       <c r="C70">
+        <v>8369.9</v>
+      </c>
+      <c r="D70">
+        <v>56.427</v>
+      </c>
+      <c r="E70">
         <v>2983.5</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>5407.4</v>
       </c>
-      <c r="E70">
-        <v>8369.9</v>
-      </c>
-      <c r="F70">
+      <c r="G70">
         <v>55.179</v>
-      </c>
-      <c r="G70">
-        <v>56.427</v>
       </c>
       <c r="H70">
         <v>51.917</v>
@@ -10274,19 +10279,19 @@
         <v>4806.2</v>
       </c>
       <c r="C71">
+        <v>8460.200000000001</v>
+      </c>
+      <c r="D71">
+        <v>56.81</v>
+      </c>
+      <c r="E71">
         <v>3053.3</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>5481.2</v>
       </c>
-      <c r="E71">
-        <v>8460.200000000001</v>
-      </c>
-      <c r="F71">
+      <c r="G71">
         <v>55.711</v>
-      </c>
-      <c r="G71">
-        <v>56.81</v>
       </c>
       <c r="H71">
         <v>52.164</v>
@@ -10414,19 +10419,19 @@
         <v>4884.6</v>
       </c>
       <c r="C72">
+        <v>8533.6</v>
+      </c>
+      <c r="D72">
+        <v>57.248</v>
+      </c>
+      <c r="E72">
         <v>3117.4</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>5543.7</v>
       </c>
-      <c r="E72">
-        <v>8533.6</v>
-      </c>
-      <c r="F72">
+      <c r="G72">
         <v>56.239</v>
-      </c>
-      <c r="G72">
-        <v>57.248</v>
       </c>
       <c r="H72">
         <v>52.541</v>
@@ -10554,19 +10559,19 @@
         <v>5008</v>
       </c>
       <c r="C73">
+        <v>8680.200000000001</v>
+      </c>
+      <c r="D73">
+        <v>57.678</v>
+      </c>
+      <c r="E73">
         <v>3150.9</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>5555.5</v>
       </c>
-      <c r="E73">
-        <v>8680.200000000001</v>
-      </c>
-      <c r="F73">
+      <c r="G73">
         <v>56.725</v>
-      </c>
-      <c r="G73">
-        <v>57.678</v>
       </c>
       <c r="H73">
         <v>52.651</v>
@@ -10694,19 +10699,19 @@
         <v>5073.4</v>
       </c>
       <c r="C74">
+        <v>8725</v>
+      </c>
+      <c r="D74">
+        <v>58.124</v>
+      </c>
+      <c r="E74">
         <v>3231.9</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>5653.6</v>
       </c>
-      <c r="E74">
-        <v>8725</v>
-      </c>
-      <c r="F74">
+      <c r="G74">
         <v>57.173</v>
-      </c>
-      <c r="G74">
-        <v>58.124</v>
       </c>
       <c r="H74">
         <v>53.369</v>
@@ -10834,19 +10839,19 @@
         <v>5190</v>
       </c>
       <c r="C75">
+        <v>8839.6</v>
+      </c>
+      <c r="D75">
+        <v>58.704</v>
+      </c>
+      <c r="E75">
         <v>3291.7</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>5695.3</v>
       </c>
-      <c r="E75">
-        <v>8839.6</v>
-      </c>
-      <c r="F75">
+      <c r="G75">
         <v>57.805</v>
-      </c>
-      <c r="G75">
-        <v>58.704</v>
       </c>
       <c r="H75">
         <v>53.893</v>
@@ -10974,19 +10979,19 @@
         <v>5282.8</v>
       </c>
       <c r="C76">
+        <v>8891.4</v>
+      </c>
+      <c r="D76">
+        <v>59.423</v>
+      </c>
+      <c r="E76">
         <v>3361.9</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>5745.9</v>
       </c>
-      <c r="E76">
-        <v>8891.4</v>
-      </c>
-      <c r="F76">
+      <c r="G76">
         <v>58.517</v>
-      </c>
-      <c r="G76">
-        <v>59.423</v>
       </c>
       <c r="H76">
         <v>54.201</v>
@@ -11114,19 +11119,19 @@
         <v>5399.5</v>
       </c>
       <c r="C77">
+        <v>9009.9</v>
+      </c>
+      <c r="D77">
+        <v>59.97</v>
+      </c>
+      <c r="E77">
         <v>3434.5</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>5811.3</v>
       </c>
-      <c r="E77">
-        <v>9009.9</v>
-      </c>
-      <c r="F77">
+      <c r="G77">
         <v>59.108</v>
-      </c>
-      <c r="G77">
-        <v>59.97</v>
       </c>
       <c r="H77">
         <v>54.638</v>
@@ -11254,19 +11259,19 @@
         <v>5511.3</v>
       </c>
       <c r="C78">
+        <v>9101.5</v>
+      </c>
+      <c r="D78">
+        <v>60.547</v>
+      </c>
+      <c r="E78">
         <v>3490.2</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>5838.2</v>
       </c>
-      <c r="E78">
-        <v>9101.5</v>
-      </c>
-      <c r="F78">
+      <c r="G78">
         <v>59.787</v>
-      </c>
-      <c r="G78">
-        <v>60.547</v>
       </c>
       <c r="H78">
         <v>55.043</v>
@@ -11394,19 +11399,19 @@
         <v>5612.5</v>
       </c>
       <c r="C79">
+        <v>9171</v>
+      </c>
+      <c r="D79">
+        <v>61.202</v>
+      </c>
+      <c r="E79">
         <v>3553.8</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>5865.5</v>
       </c>
-      <c r="E79">
-        <v>9171</v>
-      </c>
-      <c r="F79">
+      <c r="G79">
         <v>60.593</v>
-      </c>
-      <c r="G79">
-        <v>61.202</v>
       </c>
       <c r="H79">
         <v>55.447</v>
@@ -11534,19 +11539,19 @@
         <v>5695.4</v>
       </c>
       <c r="C80">
+        <v>9238.9</v>
+      </c>
+      <c r="D80">
+        <v>61.656</v>
+      </c>
+      <c r="E80">
         <v>3609.4</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>5922.3</v>
       </c>
-      <c r="E80">
-        <v>9238.9</v>
-      </c>
-      <c r="F80">
+      <c r="G80">
         <v>60.95</v>
-      </c>
-      <c r="G80">
-        <v>61.656</v>
       </c>
       <c r="H80">
         <v>55.723</v>
@@ -11674,19 +11679,19 @@
         <v>5747.2</v>
       </c>
       <c r="C81">
+        <v>9257.1</v>
+      </c>
+      <c r="D81">
+        <v>62.077</v>
+      </c>
+      <c r="E81">
         <v>3653.7</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>5948</v>
       </c>
-      <c r="E81">
-        <v>9257.1</v>
-      </c>
-      <c r="F81">
+      <c r="G81">
         <v>61.43</v>
-      </c>
-      <c r="G81">
-        <v>62.077</v>
       </c>
       <c r="H81">
         <v>55.923</v>
@@ -11814,19 +11819,19 @@
         <v>5872.7</v>
       </c>
       <c r="C82">
+        <v>9358.299999999999</v>
+      </c>
+      <c r="D82">
+        <v>62.753</v>
+      </c>
+      <c r="E82">
         <v>3737.9</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>5998.1</v>
       </c>
-      <c r="E82">
-        <v>9358.299999999999</v>
-      </c>
-      <c r="F82">
+      <c r="G82">
         <v>62.32</v>
-      </c>
-      <c r="G82">
-        <v>62.753</v>
       </c>
       <c r="H82">
         <v>56.315</v>
@@ -11954,19 +11959,19 @@
         <v>5960</v>
       </c>
       <c r="C83">
+        <v>9392.299999999999</v>
+      </c>
+      <c r="D83">
+        <v>63.455</v>
+      </c>
+      <c r="E83">
         <v>3783.4</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>6016.3</v>
       </c>
-      <c r="E83">
-        <v>9392.299999999999</v>
-      </c>
-      <c r="F83">
+      <c r="G83">
         <v>62.886</v>
-      </c>
-      <c r="G83">
-        <v>63.455</v>
       </c>
       <c r="H83">
         <v>57.282</v>
@@ -12094,19 +12099,19 @@
         <v>6015.1</v>
       </c>
       <c r="C84">
+        <v>9398.5</v>
+      </c>
+      <c r="D84">
+        <v>64.00400000000001</v>
+      </c>
+      <c r="E84">
         <v>3846.7</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>6040.2</v>
       </c>
-      <c r="E84">
-        <v>9398.5</v>
-      </c>
-      <c r="F84">
+      <c r="G84">
         <v>63.685</v>
-      </c>
-      <c r="G84">
-        <v>64.00400000000001</v>
       </c>
       <c r="H84">
         <v>57.36</v>
@@ -12234,19 +12239,19 @@
         <v>6004.7</v>
       </c>
       <c r="C85">
+        <v>9312.9</v>
+      </c>
+      <c r="D85">
+        <v>64.493</v>
+      </c>
+      <c r="E85">
         <v>3867.9</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>5994.2</v>
       </c>
-      <c r="E85">
-        <v>9312.9</v>
-      </c>
-      <c r="F85">
+      <c r="G85">
         <v>64.527</v>
-      </c>
-      <c r="G85">
-        <v>64.493</v>
       </c>
       <c r="H85">
         <v>58.043</v>
@@ -12374,19 +12379,19 @@
         <v>6035.2</v>
       </c>
       <c r="C86">
+        <v>9269.4</v>
+      </c>
+      <c r="D86">
+        <v>65.12000000000001</v>
+      </c>
+      <c r="E86">
         <v>3873.6</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>5971.7</v>
       </c>
-      <c r="E86">
-        <v>9269.4</v>
-      </c>
-      <c r="F86">
+      <c r="G86">
         <v>64.866</v>
-      </c>
-      <c r="G86">
-        <v>65.12000000000001</v>
       </c>
       <c r="H86">
         <v>58.563</v>
@@ -12514,19 +12519,19 @@
         <v>6126.9</v>
       </c>
       <c r="C87">
+        <v>9341.6</v>
+      </c>
+      <c r="D87">
+        <v>65.589</v>
+      </c>
+      <c r="E87">
         <v>3926.9</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>6021.2</v>
       </c>
-      <c r="E87">
-        <v>9341.6</v>
-      </c>
-      <c r="F87">
+      <c r="G87">
         <v>65.221</v>
-      </c>
-      <c r="G87">
-        <v>65.589</v>
       </c>
       <c r="H87">
         <v>58.852</v>
@@ -12654,19 +12659,19 @@
         <v>6205.9</v>
       </c>
       <c r="C88">
+        <v>9388.799999999999</v>
+      </c>
+      <c r="D88">
+        <v>66.092</v>
+      </c>
+      <c r="E88">
         <v>3973.3</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>6051.2</v>
       </c>
-      <c r="E88">
-        <v>9388.799999999999</v>
-      </c>
-      <c r="F88">
+      <c r="G88">
         <v>65.664</v>
-      </c>
-      <c r="G88">
-        <v>66.092</v>
       </c>
       <c r="H88">
         <v>59.608</v>
@@ -12794,19 +12799,19 @@
         <v>6264.5</v>
       </c>
       <c r="C89">
+        <v>9421.6</v>
+      </c>
+      <c r="D89">
+        <v>66.476</v>
+      </c>
+      <c r="E89">
         <v>4000</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>6048.2</v>
       </c>
-      <c r="E89">
-        <v>9421.6</v>
-      </c>
-      <c r="F89">
+      <c r="G89">
         <v>66.14</v>
-      </c>
-      <c r="G89">
-        <v>66.476</v>
       </c>
       <c r="H89">
         <v>60.211</v>
@@ -12934,19 +12939,19 @@
         <v>6363.1</v>
       </c>
       <c r="C90">
+        <v>9534.299999999999</v>
+      </c>
+      <c r="D90">
+        <v>66.743</v>
+      </c>
+      <c r="E90">
         <v>4100.4</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>6161.4</v>
       </c>
-      <c r="E90">
-        <v>9534.299999999999</v>
-      </c>
-      <c r="F90">
+      <c r="G90">
         <v>66.55500000000001</v>
-      </c>
-      <c r="G90">
-        <v>66.743</v>
       </c>
       <c r="H90">
         <v>60.299</v>
@@ -13074,19 +13079,19 @@
         <v>6470.8</v>
       </c>
       <c r="C91">
+        <v>9637.700000000001</v>
+      </c>
+      <c r="D91">
+        <v>67.14100000000001</v>
+      </c>
+      <c r="E91">
         <v>4155.7</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>6203.2</v>
       </c>
-      <c r="E91">
-        <v>9637.700000000001</v>
-      </c>
-      <c r="F91">
+      <c r="G91">
         <v>66.99800000000001</v>
-      </c>
-      <c r="G91">
-        <v>67.14100000000001</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -13214,19 +13219,19 @@
         <v>6566.6</v>
       </c>
       <c r="C92">
+        <v>9733</v>
+      </c>
+      <c r="D92">
+        <v>67.462</v>
+      </c>
+      <c r="E92">
         <v>4227</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>6269.7</v>
       </c>
-      <c r="E92">
-        <v>9733</v>
-      </c>
-      <c r="F92">
+      <c r="G92">
         <v>67.425</v>
-      </c>
-      <c r="G92">
-        <v>67.462</v>
       </c>
       <c r="H92">
         <v>61.047</v>
@@ -13354,19 +13359,19 @@
         <v>6680.8</v>
       </c>
       <c r="C93">
+        <v>9834.5</v>
+      </c>
+      <c r="D93">
+        <v>67.937</v>
+      </c>
+      <c r="E93">
         <v>4307.2</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>6344.4</v>
       </c>
-      <c r="E93">
-        <v>9834.5</v>
-      </c>
-      <c r="F93">
+      <c r="G93">
         <v>67.895</v>
-      </c>
-      <c r="G93">
-        <v>67.937</v>
       </c>
       <c r="H93">
         <v>61.43</v>
@@ -13494,19 +13499,19 @@
         <v>6729.5</v>
       </c>
       <c r="C94">
+        <v>9851</v>
+      </c>
+      <c r="D94">
+        <v>68.34099999999999</v>
+      </c>
+      <c r="E94">
         <v>4349.5</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>6368.8</v>
       </c>
-      <c r="E94">
-        <v>9851</v>
-      </c>
-      <c r="F94">
+      <c r="G94">
         <v>68.29900000000001</v>
-      </c>
-      <c r="G94">
-        <v>68.34099999999999</v>
       </c>
       <c r="H94">
         <v>61.584</v>
@@ -13640,19 +13645,19 @@
         <v>6808.9</v>
       </c>
       <c r="C95">
+        <v>9908.299999999999</v>
+      </c>
+      <c r="D95">
+        <v>68.744</v>
+      </c>
+      <c r="E95">
         <v>4418.6</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>6426.7</v>
       </c>
-      <c r="E95">
-        <v>9908.299999999999</v>
-      </c>
-      <c r="F95">
+      <c r="G95">
         <v>68.758</v>
-      </c>
-      <c r="G95">
-        <v>68.744</v>
       </c>
       <c r="H95">
         <v>61.855</v>
@@ -13786,19 +13791,19 @@
         <v>6882.1</v>
       </c>
       <c r="C96">
+        <v>9955.6</v>
+      </c>
+      <c r="D96">
+        <v>69.089</v>
+      </c>
+      <c r="E96">
         <v>4487.2</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>6498.2</v>
       </c>
-      <c r="E96">
-        <v>9955.6</v>
-      </c>
-      <c r="F96">
+      <c r="G96">
         <v>69.057</v>
-      </c>
-      <c r="G96">
-        <v>69.089</v>
       </c>
       <c r="H96">
         <v>62.303</v>
@@ -13932,19 +13937,19 @@
         <v>7013.7</v>
       </c>
       <c r="C97">
+        <v>10091</v>
+      </c>
+      <c r="D97">
+        <v>69.49500000000001</v>
+      </c>
+      <c r="E97">
         <v>4552.7</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>6555.3</v>
       </c>
-      <c r="E97">
-        <v>10091</v>
-      </c>
-      <c r="F97">
+      <c r="G97">
         <v>69.455</v>
-      </c>
-      <c r="G97">
-        <v>69.49500000000001</v>
       </c>
       <c r="H97">
         <v>62.861</v>
@@ -14078,19 +14083,19 @@
         <v>7115.7</v>
       </c>
       <c r="C98">
+        <v>10189</v>
+      </c>
+      <c r="D98">
+        <v>69.851</v>
+      </c>
+      <c r="E98">
         <v>4621.2</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>6630.3</v>
       </c>
-      <c r="E98">
-        <v>10189</v>
-      </c>
-      <c r="F98">
+      <c r="G98">
         <v>69.70399999999999</v>
-      </c>
-      <c r="G98">
-        <v>69.851</v>
       </c>
       <c r="H98">
         <v>63.15</v>
@@ -14224,19 +14229,19 @@
         <v>7246.9</v>
       </c>
       <c r="C99">
+        <v>10327</v>
+      </c>
+      <c r="D99">
+        <v>70.184</v>
+      </c>
+      <c r="E99">
         <v>4683.2</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>6681.8</v>
       </c>
-      <c r="E99">
-        <v>10327</v>
-      </c>
-      <c r="F99">
+      <c r="G99">
         <v>70.093</v>
-      </c>
-      <c r="G99">
-        <v>70.184</v>
       </c>
       <c r="H99">
         <v>63.679</v>
@@ -14370,19 +14375,19 @@
         <v>7331.1</v>
       </c>
       <c r="C100">
+        <v>10387.4</v>
+      </c>
+      <c r="D100">
+        <v>70.55800000000001</v>
+      </c>
+      <c r="E100">
         <v>4752.8</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>6732.8</v>
       </c>
-      <c r="E100">
-        <v>10387.4</v>
-      </c>
-      <c r="F100">
+      <c r="G100">
         <v>70.596</v>
-      </c>
-      <c r="G100">
-        <v>70.55800000000001</v>
       </c>
       <c r="H100">
         <v>64.045</v>
@@ -14516,19 +14521,19 @@
         <v>7455.3</v>
       </c>
       <c r="C101">
+        <v>10506.4</v>
+      </c>
+      <c r="D101">
+        <v>70.952</v>
+      </c>
+      <c r="E101">
         <v>4826.7</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>6805.6</v>
       </c>
-      <c r="E101">
-        <v>10506.4</v>
-      </c>
-      <c r="F101">
+      <c r="G101">
         <v>70.92700000000001</v>
-      </c>
-      <c r="G101">
-        <v>70.952</v>
       </c>
       <c r="H101">
         <v>64.571</v>
@@ -14662,19 +14667,19 @@
         <v>7522.3</v>
       </c>
       <c r="C102">
+        <v>10543.6</v>
+      </c>
+      <c r="D102">
+        <v>71.356</v>
+      </c>
+      <c r="E102">
         <v>4862.4</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>6822.5</v>
       </c>
-      <c r="E102">
-        <v>10543.6</v>
-      </c>
-      <c r="F102">
+      <c r="G102">
         <v>71.274</v>
-      </c>
-      <c r="G102">
-        <v>71.356</v>
       </c>
       <c r="H102">
         <v>65.115</v>
@@ -14808,19 +14813,19 @@
         <v>7581</v>
       </c>
       <c r="C103">
+        <v>10575.1</v>
+      </c>
+      <c r="D103">
+        <v>71.706</v>
+      </c>
+      <c r="E103">
         <v>4933.6</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>6882.3</v>
       </c>
-      <c r="E103">
-        <v>10575.1</v>
-      </c>
-      <c r="F103">
+      <c r="G103">
         <v>71.68899999999999</v>
-      </c>
-      <c r="G103">
-        <v>71.706</v>
       </c>
       <c r="H103">
         <v>65.54900000000001</v>
@@ -14954,19 +14959,19 @@
         <v>7683.1</v>
       </c>
       <c r="C104">
+        <v>10665.1</v>
+      </c>
+      <c r="D104">
+        <v>72.027</v>
+      </c>
+      <c r="E104">
         <v>4998.7</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>6944.7</v>
       </c>
-      <c r="E104">
-        <v>10665.1</v>
-      </c>
-      <c r="F104">
+      <c r="G104">
         <v>71.981</v>
-      </c>
-      <c r="G104">
-        <v>72.027</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -15100,19 +15105,19 @@
         <v>7772.6</v>
       </c>
       <c r="C105">
+        <v>10737.5</v>
+      </c>
+      <c r="D105">
+        <v>72.367</v>
+      </c>
+      <c r="E105">
         <v>5055.7</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>6993.1</v>
       </c>
-      <c r="E105">
-        <v>10737.5</v>
-      </c>
-      <c r="F105">
+      <c r="G105">
         <v>72.298</v>
-      </c>
-      <c r="G105">
-        <v>72.367</v>
       </c>
       <c r="H105">
         <v>66.798</v>
@@ -15246,16 +15251,16 @@
         <v>7868.5</v>
       </c>
       <c r="C106">
+        <v>10817.9</v>
+      </c>
+      <c r="D106">
+        <v>72.7</v>
+      </c>
+      <c r="E106">
         <v>5130.6</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>7057.6</v>
-      </c>
-      <c r="E106">
-        <v>10817.9</v>
-      </c>
-      <c r="F106">
-        <v>72.7</v>
       </c>
       <c r="G106">
         <v>72.7</v>
@@ -15392,19 +15397,19 @@
         <v>8032.8</v>
       </c>
       <c r="C107">
+        <v>10998.3</v>
+      </c>
+      <c r="D107">
+        <v>72.997</v>
+      </c>
+      <c r="E107">
         <v>5220.5</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>7133.6</v>
       </c>
-      <c r="E107">
-        <v>10998.3</v>
-      </c>
-      <c r="F107">
+      <c r="G107">
         <v>73.187</v>
-      </c>
-      <c r="G107">
-        <v>72.997</v>
       </c>
       <c r="H107">
         <v>66.596</v>
@@ -15538,19 +15543,19 @@
         <v>8131.4</v>
       </c>
       <c r="C108">
+        <v>11097</v>
+      </c>
+      <c r="D108">
+        <v>73.352</v>
+      </c>
+      <c r="E108">
         <v>5274.5</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>7176.8</v>
       </c>
-      <c r="E108">
-        <v>11097</v>
-      </c>
-      <c r="F108">
+      <c r="G108">
         <v>73.499</v>
-      </c>
-      <c r="G108">
-        <v>73.352</v>
       </c>
       <c r="H108">
         <v>66.983</v>
@@ -15684,19 +15689,19 @@
         <v>8259.799999999999</v>
       </c>
       <c r="C109">
+        <v>11212.2</v>
+      </c>
+      <c r="D109">
+        <v>73.66200000000001</v>
+      </c>
+      <c r="E109">
         <v>5352.8</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>7233.9</v>
       </c>
-      <c r="E109">
-        <v>11212.2</v>
-      </c>
-      <c r="F109">
+      <c r="G109">
         <v>73.999</v>
-      </c>
-      <c r="G109">
-        <v>73.66200000000001</v>
       </c>
       <c r="H109">
         <v>67.212</v>
@@ -15830,19 +15835,19 @@
         <v>8362.700000000001</v>
       </c>
       <c r="C110">
+        <v>11284.6</v>
+      </c>
+      <c r="D110">
+        <v>73.992</v>
+      </c>
+      <c r="E110">
         <v>5433.1</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>7310.2</v>
       </c>
-      <c r="E110">
-        <v>11284.6</v>
-      </c>
-      <c r="F110">
+      <c r="G110">
         <v>74.32599999999999</v>
-      </c>
-      <c r="G110">
-        <v>73.992</v>
       </c>
       <c r="H110">
         <v>67.44199999999999</v>
@@ -15976,19 +15981,19 @@
         <v>8518.799999999999</v>
       </c>
       <c r="C111">
+        <v>11472.1</v>
+      </c>
+      <c r="D111">
+        <v>74.361</v>
+      </c>
+      <c r="E111">
         <v>5471.3</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>7343.1</v>
       </c>
-      <c r="E111">
-        <v>11472.1</v>
-      </c>
-      <c r="F111">
+      <c r="G111">
         <v>74.512</v>
-      </c>
-      <c r="G111">
-        <v>74.361</v>
       </c>
       <c r="H111">
         <v>67.88500000000001</v>
@@ -16122,19 +16127,19 @@
         <v>8662.799999999999</v>
       </c>
       <c r="C112">
+        <v>11615.6</v>
+      </c>
+      <c r="D112">
+        <v>74.581</v>
+      </c>
+      <c r="E112">
         <v>5579.2</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>7468.2</v>
       </c>
-      <c r="E112">
-        <v>11615.6</v>
-      </c>
-      <c r="F112">
+      <c r="G112">
         <v>74.709</v>
-      </c>
-      <c r="G112">
-        <v>74.581</v>
       </c>
       <c r="H112">
         <v>68.042</v>
@@ -16268,19 +16273,19 @@
         <v>8765.9</v>
       </c>
       <c r="C113">
+        <v>11715.4</v>
+      </c>
+      <c r="D113">
+        <v>74.848</v>
+      </c>
+      <c r="E113">
         <v>5663.6</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>7557.4</v>
       </c>
-      <c r="E113">
-        <v>11715.4</v>
-      </c>
-      <c r="F113">
+      <c r="G113">
         <v>74.943</v>
-      </c>
-      <c r="G113">
-        <v>74.848</v>
       </c>
       <c r="H113">
         <v>68.51900000000001</v>
@@ -16414,19 +16419,19 @@
         <v>8866.5</v>
       </c>
       <c r="C114">
+        <v>11832.5</v>
+      </c>
+      <c r="D114">
+        <v>74.92400000000001</v>
+      </c>
+      <c r="E114">
         <v>5721.3</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>7633.9</v>
       </c>
-      <c r="E114">
-        <v>11832.5</v>
-      </c>
-      <c r="F114">
+      <c r="G114">
         <v>74.949</v>
-      </c>
-      <c r="G114">
-        <v>74.92400000000001</v>
       </c>
       <c r="H114">
         <v>68.232</v>
@@ -16560,19 +16565,19 @@
         <v>8969.700000000001</v>
       </c>
       <c r="C115">
+        <v>11942</v>
+      </c>
+      <c r="D115">
+        <v>75.119</v>
+      </c>
+      <c r="E115">
         <v>5832.6</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>7768.3</v>
       </c>
-      <c r="E115">
-        <v>11942</v>
-      </c>
-      <c r="F115">
+      <c r="G115">
         <v>75.084</v>
-      </c>
-      <c r="G115">
-        <v>75.119</v>
       </c>
       <c r="H115">
         <v>68.67100000000001</v>
@@ -16706,19 +16711,19 @@
         <v>9121.1</v>
       </c>
       <c r="C116">
+        <v>12091.6</v>
+      </c>
+      <c r="D116">
+        <v>75.41</v>
+      </c>
+      <c r="E116">
         <v>5926.8</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>7869.6</v>
       </c>
-      <c r="E116">
-        <v>12091.6</v>
-      </c>
-      <c r="F116">
+      <c r="G116">
         <v>75.31699999999999</v>
-      </c>
-      <c r="G116">
-        <v>75.41</v>
       </c>
       <c r="H116">
         <v>69.119</v>
@@ -16852,19 +16857,19 @@
         <v>9294</v>
       </c>
       <c r="C117">
+        <v>12287</v>
+      </c>
+      <c r="D117">
+        <v>75.613</v>
+      </c>
+      <c r="E117">
         <v>6028.2</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>7983.3</v>
       </c>
-      <c r="E117">
-        <v>12287</v>
-      </c>
-      <c r="F117">
+      <c r="G117">
         <v>75.515</v>
-      </c>
-      <c r="G117">
-        <v>75.613</v>
       </c>
       <c r="H117">
         <v>69.34099999999999</v>
@@ -16998,19 +17003,19 @@
         <v>9417.299999999999</v>
       </c>
       <c r="C118">
+        <v>12403.3</v>
+      </c>
+      <c r="D118">
+        <v>75.859</v>
+      </c>
+      <c r="E118">
         <v>6102.5</v>
       </c>
-      <c r="D118">
+      <c r="F118">
         <v>8060.8</v>
       </c>
-      <c r="E118">
-        <v>12403.3</v>
-      </c>
-      <c r="F118">
+      <c r="G118">
         <v>75.71299999999999</v>
-      </c>
-      <c r="G118">
-        <v>75.859</v>
       </c>
       <c r="H118">
         <v>69.54600000000001</v>
@@ -17144,19 +17149,19 @@
         <v>9524.200000000001</v>
       </c>
       <c r="C119">
+        <v>12498.7</v>
+      </c>
+      <c r="D119">
+        <v>76.19</v>
+      </c>
+      <c r="E119">
         <v>6225.3</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <v>8178.3</v>
       </c>
-      <c r="E119">
-        <v>12498.7</v>
-      </c>
-      <c r="F119">
+      <c r="G119">
         <v>76.127</v>
-      </c>
-      <c r="G119">
-        <v>76.19</v>
       </c>
       <c r="H119">
         <v>70.128</v>
@@ -17290,19 +17295,19 @@
         <v>9681.9</v>
       </c>
       <c r="C120">
+        <v>12662.4</v>
+      </c>
+      <c r="D120">
+        <v>76.47199999999999</v>
+      </c>
+      <c r="E120">
         <v>6328.9</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <v>8270.6</v>
       </c>
-      <c r="E120">
-        <v>12662.4</v>
-      </c>
-      <c r="F120">
+      <c r="G120">
         <v>76.53</v>
-      </c>
-      <c r="G120">
-        <v>76.47199999999999</v>
       </c>
       <c r="H120">
         <v>70.765</v>
@@ -17436,19 +17441,19 @@
         <v>9899.4</v>
       </c>
       <c r="C121">
+        <v>12877.6</v>
+      </c>
+      <c r="D121">
+        <v>76.863</v>
+      </c>
+      <c r="E121">
         <v>6459.6</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <v>8391.799999999999</v>
       </c>
-      <c r="E121">
-        <v>12877.6</v>
-      </c>
-      <c r="F121">
+      <c r="G121">
         <v>76.982</v>
-      </c>
-      <c r="G121">
-        <v>76.863</v>
       </c>
       <c r="H121">
         <v>71.636</v>
@@ -17582,19 +17587,19 @@
         <v>10002.9</v>
       </c>
       <c r="C122">
+        <v>12924.2</v>
+      </c>
+      <c r="D122">
+        <v>77.389</v>
+      </c>
+      <c r="E122">
         <v>6613.6</v>
       </c>
-      <c r="D122">
+      <c r="F122">
         <v>8520.700000000001</v>
       </c>
-      <c r="E122">
-        <v>12924.2</v>
-      </c>
-      <c r="F122">
+      <c r="G122">
         <v>77.625</v>
-      </c>
-      <c r="G122">
-        <v>77.389</v>
       </c>
       <c r="H122">
         <v>72.334</v>
@@ -17728,19 +17733,19 @@
         <v>10247.7</v>
       </c>
       <c r="C123">
+        <v>13160.8</v>
+      </c>
+      <c r="D123">
+        <v>77.84099999999999</v>
+      </c>
+      <c r="E123">
         <v>6707.5</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>8603</v>
       </c>
-      <c r="E123">
-        <v>13160.8</v>
-      </c>
-      <c r="F123">
+      <c r="G123">
         <v>77.973</v>
-      </c>
-      <c r="G123">
-        <v>77.84099999999999</v>
       </c>
       <c r="H123">
         <v>72.614</v>
@@ -17874,19 +17879,19 @@
         <v>10319.8</v>
       </c>
       <c r="C124">
+        <v>13178.4</v>
+      </c>
+      <c r="D124">
+        <v>78.315</v>
+      </c>
+      <c r="E124">
         <v>6815.4</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <v>8687.5</v>
       </c>
-      <c r="E124">
-        <v>13178.4</v>
-      </c>
-      <c r="F124">
+      <c r="G124">
         <v>78.455</v>
-      </c>
-      <c r="G124">
-        <v>78.315</v>
       </c>
       <c r="H124">
         <v>73.134</v>
@@ -18020,19 +18025,19 @@
         <v>10439</v>
       </c>
       <c r="C125">
+        <v>13260.5</v>
+      </c>
+      <c r="D125">
+        <v>78.729</v>
+      </c>
+      <c r="E125">
         <v>6912.1</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <v>8762.200000000001</v>
       </c>
-      <c r="E125">
-        <v>13260.5</v>
-      </c>
-      <c r="F125">
+      <c r="G125">
         <v>78.88800000000001</v>
-      </c>
-      <c r="G125">
-        <v>78.729</v>
       </c>
       <c r="H125">
         <v>73.46299999999999</v>
@@ -18166,19 +18171,19 @@
         <v>10472.9</v>
       </c>
       <c r="C126">
+        <v>13222.7</v>
+      </c>
+      <c r="D126">
+        <v>79.232</v>
+      </c>
+      <c r="E126">
         <v>6986.9</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <v>8797.299999999999</v>
       </c>
-      <c r="E126">
-        <v>13222.7</v>
-      </c>
-      <c r="F126">
+      <c r="G126">
         <v>79.423</v>
-      </c>
-      <c r="G126">
-        <v>79.232</v>
       </c>
       <c r="H126">
         <v>73.589</v>
@@ -18312,19 +18317,19 @@
         <v>10597.8</v>
       </c>
       <c r="C127">
+        <v>13300</v>
+      </c>
+      <c r="D127">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="E127">
         <v>7036.3</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <v>8818.1</v>
       </c>
-      <c r="E127">
-        <v>13300</v>
-      </c>
-      <c r="F127">
+      <c r="G127">
         <v>79.795</v>
-      </c>
-      <c r="G127">
-        <v>79.76000000000001</v>
       </c>
       <c r="H127">
         <v>73.97499999999999</v>
@@ -18458,19 +18463,19 @@
         <v>10596.3</v>
       </c>
       <c r="C128">
+        <v>13244.8</v>
+      </c>
+      <c r="D128">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="E128">
         <v>7064.7</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <v>8848.299999999999</v>
       </c>
-      <c r="E128">
-        <v>13244.8</v>
-      </c>
-      <c r="F128">
+      <c r="G128">
         <v>79.842</v>
-      </c>
-      <c r="G128">
-        <v>80.01000000000001</v>
       </c>
       <c r="H128">
         <v>74.44799999999999</v>
@@ -18604,19 +18609,19 @@
         <v>10660.3</v>
       </c>
       <c r="C129">
+        <v>13280.9</v>
+      </c>
+      <c r="D129">
+        <v>80.28400000000001</v>
+      </c>
+      <c r="E129">
         <v>7174.7</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <v>8980.6</v>
       </c>
-      <c r="E129">
-        <v>13280.9</v>
-      </c>
-      <c r="F129">
+      <c r="G129">
         <v>79.892</v>
-      </c>
-      <c r="G129">
-        <v>80.28400000000001</v>
       </c>
       <c r="H129">
         <v>74.93000000000001</v>
@@ -18750,19 +18755,19 @@
         <v>10789</v>
       </c>
       <c r="C130">
+        <v>13397</v>
+      </c>
+      <c r="D130">
+        <v>80.503</v>
+      </c>
+      <c r="E130">
         <v>7209.9</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <v>9008.1</v>
       </c>
-      <c r="E130">
-        <v>13397</v>
-      </c>
-      <c r="F130">
+      <c r="G130">
         <v>80.041</v>
-      </c>
-      <c r="G130">
-        <v>80.503</v>
       </c>
       <c r="H130">
         <v>75.414</v>
@@ -18896,19 +18901,19 @@
         <v>10893.2</v>
       </c>
       <c r="C131">
+        <v>13478.2</v>
+      </c>
+      <c r="D131">
+        <v>80.83199999999999</v>
+      </c>
+      <c r="E131">
         <v>7302.1</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <v>9054.299999999999</v>
       </c>
-      <c r="E131">
-        <v>13478.2</v>
-      </c>
-      <c r="F131">
+      <c r="G131">
         <v>80.651</v>
-      </c>
-      <c r="G131">
-        <v>80.83199999999999</v>
       </c>
       <c r="H131">
         <v>76.127</v>
@@ -19042,19 +19047,19 @@
         <v>10992.1</v>
       </c>
       <c r="C132">
+        <v>13538.1</v>
+      </c>
+      <c r="D132">
+        <v>81.17700000000001</v>
+      </c>
+      <c r="E132">
         <v>7390.9</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <v>9119.9</v>
       </c>
-      <c r="E132">
-        <v>13538.1</v>
-      </c>
-      <c r="F132">
+      <c r="G132">
         <v>81.045</v>
-      </c>
-      <c r="G132">
-        <v>81.17700000000001</v>
       </c>
       <c r="H132">
         <v>76.78</v>
@@ -19188,19 +19193,19 @@
         <v>11071.5</v>
       </c>
       <c r="C133">
+        <v>13559</v>
+      </c>
+      <c r="D133">
+        <v>81.643</v>
+      </c>
+      <c r="E133">
         <v>7467.7</v>
       </c>
-      <c r="D133">
+      <c r="F133">
         <v>9172.4</v>
       </c>
-      <c r="E133">
-        <v>13559</v>
-      </c>
-      <c r="F133">
+      <c r="G133">
         <v>81.42</v>
-      </c>
-      <c r="G133">
-        <v>81.643</v>
       </c>
       <c r="H133">
         <v>78.203</v>
@@ -19334,19 +19339,19 @@
         <v>11183.5</v>
       </c>
       <c r="C134">
+        <v>13634.3</v>
+      </c>
+      <c r="D134">
+        <v>82.047</v>
+      </c>
+      <c r="E134">
         <v>7555.8</v>
       </c>
-      <c r="D134">
+      <c r="F134">
         <v>9215.5</v>
       </c>
-      <c r="E134">
-        <v>13634.3</v>
-      </c>
-      <c r="F134">
+      <c r="G134">
         <v>81.994</v>
-      </c>
-      <c r="G134">
-        <v>82.047</v>
       </c>
       <c r="H134">
         <v>79.075</v>
@@ -19480,19 +19485,19 @@
         <v>11312.9</v>
       </c>
       <c r="C135">
+        <v>13751.5</v>
+      </c>
+      <c r="D135">
+        <v>82.28700000000001</v>
+      </c>
+      <c r="E135">
         <v>7642.6</v>
       </c>
-      <c r="D135">
+      <c r="F135">
         <v>9319</v>
       </c>
-      <c r="E135">
-        <v>13751.5</v>
-      </c>
-      <c r="F135">
+      <c r="G135">
         <v>82.015</v>
-      </c>
-      <c r="G135">
-        <v>82.28700000000001</v>
       </c>
       <c r="H135">
         <v>79.637</v>
@@ -19626,19 +19631,19 @@
         <v>11567.3</v>
       </c>
       <c r="C136">
+        <v>13985.1</v>
+      </c>
+      <c r="D136">
+        <v>82.738</v>
+      </c>
+      <c r="E136">
         <v>7802.6</v>
       </c>
-      <c r="D136">
+      <c r="F136">
         <v>9455.700000000001</v>
       </c>
-      <c r="E136">
-        <v>13985.1</v>
-      </c>
-      <c r="F136">
+      <c r="G136">
         <v>82.52200000000001</v>
-      </c>
-      <c r="G136">
-        <v>82.738</v>
       </c>
       <c r="H136">
         <v>80.359</v>
@@ -19772,19 +19777,19 @@
         <v>11769.3</v>
       </c>
       <c r="C137">
+        <v>14145.6</v>
+      </c>
+      <c r="D137">
+        <v>83.196</v>
+      </c>
+      <c r="E137">
         <v>7891.5</v>
       </c>
-      <c r="D137">
+      <c r="F137">
         <v>9519.799999999999</v>
       </c>
-      <c r="E137">
-        <v>14145.6</v>
-      </c>
-      <c r="F137">
+      <c r="G137">
         <v>82.901</v>
-      </c>
-      <c r="G137">
-        <v>83.196</v>
       </c>
       <c r="H137">
         <v>80.961</v>
@@ -19918,19 +19923,19 @@
         <v>11920.2</v>
       </c>
       <c r="C138">
+        <v>14221.1</v>
+      </c>
+      <c r="D138">
+        <v>83.824</v>
+      </c>
+      <c r="E138">
         <v>8027.7</v>
       </c>
-      <c r="D138">
+      <c r="F138">
         <v>9604.5</v>
       </c>
-      <c r="E138">
-        <v>14221.1</v>
-      </c>
-      <c r="F138">
+      <c r="G138">
         <v>83.589</v>
-      </c>
-      <c r="G138">
-        <v>83.824</v>
       </c>
       <c r="H138">
         <v>81.65000000000001</v>
@@ -20064,19 +20069,19 @@
         <v>12109</v>
       </c>
       <c r="C139">
+        <v>14329.5</v>
+      </c>
+      <c r="D139">
+        <v>84.515</v>
+      </c>
+      <c r="E139">
         <v>8133</v>
       </c>
-      <c r="D139">
+      <c r="F139">
         <v>9664.299999999999</v>
       </c>
-      <c r="E139">
-        <v>14329.5</v>
-      </c>
-      <c r="F139">
+      <c r="G139">
         <v>84.16200000000001</v>
-      </c>
-      <c r="G139">
-        <v>84.515</v>
       </c>
       <c r="H139">
         <v>82.358</v>
@@ -20210,19 +20215,19 @@
         <v>12303.3</v>
       </c>
       <c r="C140">
+        <v>14465</v>
+      </c>
+      <c r="D140">
+        <v>85.06</v>
+      </c>
+      <c r="E140">
         <v>8264.299999999999</v>
       </c>
-      <c r="D140">
+      <c r="F140">
         <v>9771.1</v>
       </c>
-      <c r="E140">
-        <v>14465</v>
-      </c>
-      <c r="F140">
+      <c r="G140">
         <v>84.586</v>
-      </c>
-      <c r="G140">
-        <v>85.06</v>
       </c>
       <c r="H140">
         <v>83.112</v>
@@ -20356,19 +20361,19 @@
         <v>12522.4</v>
       </c>
       <c r="C141">
+        <v>14609.9</v>
+      </c>
+      <c r="D141">
+        <v>85.714</v>
+      </c>
+      <c r="E141">
         <v>8425.6</v>
       </c>
-      <c r="D141">
+      <c r="F141">
         <v>9877.4</v>
       </c>
-      <c r="E141">
-        <v>14609.9</v>
-      </c>
-      <c r="F141">
+      <c r="G141">
         <v>85.309</v>
-      </c>
-      <c r="G141">
-        <v>85.714</v>
       </c>
       <c r="H141">
         <v>83.92</v>
@@ -20502,19 +20507,19 @@
         <v>12761.3</v>
       </c>
       <c r="C142">
+        <v>14771.6</v>
+      </c>
+      <c r="D142">
+        <v>86.368</v>
+      </c>
+      <c r="E142">
         <v>8523</v>
       </c>
-      <c r="D142">
+      <c r="F142">
         <v>9935</v>
       </c>
-      <c r="E142">
-        <v>14771.6</v>
-      </c>
-      <c r="F142">
+      <c r="G142">
         <v>85.795</v>
-      </c>
-      <c r="G142">
-        <v>86.368</v>
       </c>
       <c r="H142">
         <v>85.026</v>
@@ -20648,19 +20653,19 @@
         <v>12910</v>
       </c>
       <c r="C143">
+        <v>14839.8</v>
+      </c>
+      <c r="D143">
+        <v>86.977</v>
+      </c>
+      <c r="E143">
         <v>8671.4</v>
       </c>
-      <c r="D143">
+      <c r="F143">
         <v>10047.8</v>
       </c>
-      <c r="E143">
-        <v>14839.8</v>
-      </c>
-      <c r="F143">
+      <c r="G143">
         <v>86.31</v>
-      </c>
-      <c r="G143">
-        <v>86.977</v>
       </c>
       <c r="H143">
         <v>85.79300000000001</v>
@@ -20794,19 +20799,19 @@
         <v>13142.9</v>
       </c>
       <c r="C144">
+        <v>14972.1</v>
+      </c>
+      <c r="D144">
+        <v>87.794</v>
+      </c>
+      <c r="E144">
         <v>8849.200000000001</v>
       </c>
-      <c r="D144">
+      <c r="F144">
         <v>10145.3</v>
       </c>
-      <c r="E144">
-        <v>14972.1</v>
-      </c>
-      <c r="F144">
+      <c r="G144">
         <v>87.232</v>
-      </c>
-      <c r="G144">
-        <v>87.794</v>
       </c>
       <c r="H144">
         <v>86.688</v>
@@ -20940,19 +20945,19 @@
         <v>13332.3</v>
       </c>
       <c r="C145">
+        <v>15066.6</v>
+      </c>
+      <c r="D145">
+        <v>88.489</v>
+      </c>
+      <c r="E145">
         <v>8944.9</v>
       </c>
-      <c r="D145">
+      <c r="F145">
         <v>10175.4</v>
       </c>
-      <c r="E145">
-        <v>15066.6</v>
-      </c>
-      <c r="F145">
+      <c r="G145">
         <v>87.913</v>
-      </c>
-      <c r="G145">
-        <v>88.489</v>
       </c>
       <c r="H145">
         <v>87.31</v>
@@ -21086,19 +21091,19 @@
         <v>13603.9</v>
       </c>
       <c r="C146">
+        <v>15267</v>
+      </c>
+      <c r="D146">
+        <v>89.101</v>
+      </c>
+      <c r="E146">
         <v>9090.700000000001</v>
       </c>
-      <c r="D146">
+      <c r="F146">
         <v>10288.9</v>
       </c>
-      <c r="E146">
-        <v>15267</v>
-      </c>
-      <c r="F146">
+      <c r="G146">
         <v>88.359</v>
-      </c>
-      <c r="G146">
-        <v>89.101</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -21232,19 +21237,19 @@
         <v>13749.8</v>
       </c>
       <c r="C147">
+        <v>15302.7</v>
+      </c>
+      <c r="D147">
+        <v>89.845</v>
+      </c>
+      <c r="E147">
         <v>9210.200000000001</v>
       </c>
-      <c r="D147">
+      <c r="F147">
         <v>10341</v>
       </c>
-      <c r="E147">
-        <v>15302.7</v>
-      </c>
-      <c r="F147">
+      <c r="G147">
         <v>89.069</v>
-      </c>
-      <c r="G147">
-        <v>89.845</v>
       </c>
       <c r="H147">
         <v>88.657</v>
@@ -21378,19 +21383,19 @@
         <v>13867.5</v>
       </c>
       <c r="C148">
+        <v>15326.4</v>
+      </c>
+      <c r="D148">
+        <v>90.505</v>
+      </c>
+      <c r="E148">
         <v>9333</v>
       </c>
-      <c r="D148">
+      <c r="F148">
         <v>10403.8</v>
       </c>
-      <c r="E148">
-        <v>15326.4</v>
-      </c>
-      <c r="F148">
+      <c r="G148">
         <v>89.711</v>
-      </c>
-      <c r="G148">
-        <v>90.505</v>
       </c>
       <c r="H148">
         <v>89.315</v>
@@ -21524,19 +21529,19 @@
         <v>14037.2</v>
       </c>
       <c r="C149">
+        <v>15456.9</v>
+      </c>
+      <c r="D149">
+        <v>90.845</v>
+      </c>
+      <c r="E149">
         <v>9407.5</v>
       </c>
-      <c r="D149">
+      <c r="F149">
         <v>10504.5</v>
       </c>
-      <c r="E149">
-        <v>15456.9</v>
-      </c>
-      <c r="F149">
+      <c r="G149">
         <v>89.559</v>
-      </c>
-      <c r="G149">
-        <v>90.845</v>
       </c>
       <c r="H149">
         <v>89.78</v>
@@ -21670,19 +21675,19 @@
         <v>14208.6</v>
       </c>
       <c r="C150">
+        <v>15493.3</v>
+      </c>
+      <c r="D150">
+        <v>91.777</v>
+      </c>
+      <c r="E150">
         <v>9549.4</v>
       </c>
-      <c r="D150">
+      <c r="F150">
         <v>10563.3</v>
       </c>
-      <c r="E150">
-        <v>15493.3</v>
-      </c>
-      <c r="F150">
+      <c r="G150">
         <v>90.40600000000001</v>
-      </c>
-      <c r="G150">
-        <v>91.777</v>
       </c>
       <c r="H150">
         <v>90.54900000000001</v>
@@ -21816,19 +21821,19 @@
         <v>14382.4</v>
       </c>
       <c r="C151">
+        <v>15582.1</v>
+      </c>
+      <c r="D151">
+        <v>92.339</v>
+      </c>
+      <c r="E151">
         <v>9644.700000000001</v>
       </c>
-      <c r="D151">
+      <c r="F151">
         <v>10582.8</v>
       </c>
-      <c r="E151">
-        <v>15582.1</v>
-      </c>
-      <c r="F151">
+      <c r="G151">
         <v>91.139</v>
-      </c>
-      <c r="G151">
-        <v>92.339</v>
       </c>
       <c r="H151">
         <v>91.27200000000001</v>
@@ -21962,19 +21967,19 @@
         <v>14535</v>
       </c>
       <c r="C152">
+        <v>15666.7</v>
+      </c>
+      <c r="D152">
+        <v>92.72499999999999</v>
+      </c>
+      <c r="E152">
         <v>9753.799999999999</v>
       </c>
-      <c r="D152">
+      <c r="F152">
         <v>10642.5</v>
       </c>
-      <c r="E152">
-        <v>15666.7</v>
-      </c>
-      <c r="F152">
+      <c r="G152">
         <v>91.65300000000001</v>
-      </c>
-      <c r="G152">
-        <v>92.72499999999999</v>
       </c>
       <c r="H152">
         <v>91.899</v>
@@ -22108,19 +22113,19 @@
         <v>14681.5</v>
       </c>
       <c r="C153">
+        <v>15762</v>
+      </c>
+      <c r="D153">
+        <v>93.15000000000001</v>
+      </c>
+      <c r="E153">
         <v>9877.799999999999</v>
       </c>
-      <c r="D153">
+      <c r="F153">
         <v>10672.8</v>
       </c>
-      <c r="E153">
-        <v>15762</v>
-      </c>
-      <c r="F153">
+      <c r="G153">
         <v>92.553</v>
-      </c>
-      <c r="G153">
-        <v>93.15000000000001</v>
       </c>
       <c r="H153">
         <v>92.636</v>
@@ -22254,19 +22259,19 @@
         <v>14651</v>
       </c>
       <c r="C154">
+        <v>15671.4</v>
+      </c>
+      <c r="D154">
+        <v>93.569</v>
+      </c>
+      <c r="E154">
         <v>9934.299999999999</v>
       </c>
-      <c r="D154">
+      <c r="F154">
         <v>10644.4</v>
       </c>
-      <c r="E154">
-        <v>15671.4</v>
-      </c>
-      <c r="F154">
+      <c r="G154">
         <v>93.32899999999999</v>
-      </c>
-      <c r="G154">
-        <v>93.569</v>
       </c>
       <c r="H154">
         <v>93.416</v>
@@ -22400,19 +22405,19 @@
         <v>14805.6</v>
       </c>
       <c r="C155">
+        <v>15752.3</v>
+      </c>
+      <c r="D155">
+        <v>93.935</v>
+      </c>
+      <c r="E155">
         <v>10052.8</v>
       </c>
-      <c r="D155">
+      <c r="F155">
         <v>10661.7</v>
       </c>
-      <c r="E155">
-        <v>15752.3</v>
-      </c>
-      <c r="F155">
+      <c r="G155">
         <v>94.289</v>
-      </c>
-      <c r="G155">
-        <v>93.935</v>
       </c>
       <c r="H155">
         <v>94.37300000000001</v>
@@ -22546,19 +22551,19 @@
         <v>14835.2</v>
       </c>
       <c r="C156">
+        <v>15667</v>
+      </c>
+      <c r="D156">
+        <v>94.654</v>
+      </c>
+      <c r="E156">
         <v>10081</v>
       </c>
-      <c r="D156">
+      <c r="F156">
         <v>10581.9</v>
       </c>
-      <c r="E156">
-        <v>15667</v>
-      </c>
-      <c r="F156">
+      <c r="G156">
         <v>95.26600000000001</v>
-      </c>
-      <c r="G156">
-        <v>94.654</v>
       </c>
       <c r="H156">
         <v>95.09</v>
@@ -22692,19 +22697,19 @@
         <v>14559.5</v>
       </c>
       <c r="C157">
+        <v>15328</v>
+      </c>
+      <c r="D157">
+        <v>94.896</v>
+      </c>
+      <c r="E157">
         <v>9837.299999999999</v>
       </c>
-      <c r="D157">
+      <c r="F157">
         <v>10483.4</v>
       </c>
-      <c r="E157">
-        <v>15328</v>
-      </c>
-      <c r="F157">
+      <c r="G157">
         <v>93.836</v>
-      </c>
-      <c r="G157">
-        <v>94.896</v>
       </c>
       <c r="H157">
         <v>94.646</v>
@@ -22838,19 +22843,19 @@
         <v>14394.5</v>
       </c>
       <c r="C158">
+        <v>15155.9</v>
+      </c>
+      <c r="D158">
+        <v>94.959</v>
+      </c>
+      <c r="E158">
         <v>9756.1</v>
       </c>
-      <c r="D158">
+      <c r="F158">
         <v>10459.7</v>
       </c>
-      <c r="E158">
-        <v>15155.9</v>
-      </c>
-      <c r="F158">
+      <c r="G158">
         <v>93.274</v>
-      </c>
-      <c r="G158">
-        <v>94.959</v>
       </c>
       <c r="H158">
         <v>93.87600000000001</v>
@@ -22984,19 +22989,19 @@
         <v>14352.9</v>
       </c>
       <c r="C159">
+        <v>15134.1</v>
+      </c>
+      <c r="D159">
+        <v>94.856</v>
+      </c>
+      <c r="E159">
         <v>9760.200000000001</v>
       </c>
-      <c r="D159">
+      <c r="F159">
         <v>10417.3</v>
       </c>
-      <c r="E159">
-        <v>15134.1</v>
-      </c>
-      <c r="F159">
+      <c r="G159">
         <v>93.693</v>
-      </c>
-      <c r="G159">
-        <v>94.856</v>
       </c>
       <c r="H159">
         <v>93.895</v>
@@ -23130,19 +23135,19 @@
         <v>14420.3</v>
       </c>
       <c r="C160">
+        <v>15189.2</v>
+      </c>
+      <c r="D160">
+        <v>94.91200000000001</v>
+      </c>
+      <c r="E160">
         <v>9895.4</v>
       </c>
-      <c r="D160">
+      <c r="F160">
         <v>10489.2</v>
       </c>
-      <c r="E160">
-        <v>15189.2</v>
-      </c>
-      <c r="F160">
+      <c r="G160">
         <v>94.34</v>
-      </c>
-      <c r="G160">
-        <v>94.91200000000001</v>
       </c>
       <c r="H160">
         <v>94.188</v>
@@ -23276,19 +23281,19 @@
         <v>14628</v>
       </c>
       <c r="C161">
+        <v>15356.1</v>
+      </c>
+      <c r="D161">
+        <v>95.26900000000001</v>
+      </c>
+      <c r="E161">
         <v>9957.1</v>
       </c>
-      <c r="D161">
+      <c r="F161">
         <v>10473.6</v>
       </c>
-      <c r="E161">
-        <v>15356.1</v>
-      </c>
-      <c r="F161">
+      <c r="G161">
         <v>95.06999999999999</v>
-      </c>
-      <c r="G161">
-        <v>95.26900000000001</v>
       </c>
       <c r="H161">
         <v>94.896</v>
@@ -23422,19 +23427,19 @@
         <v>14721.4</v>
       </c>
       <c r="C162">
+        <v>15415.1</v>
+      </c>
+      <c r="D162">
+        <v>95.491</v>
+      </c>
+      <c r="E162">
         <v>10040.5</v>
       </c>
-      <c r="D162">
+      <c r="F162">
         <v>10525.4</v>
       </c>
-      <c r="E162">
-        <v>15415.1</v>
-      </c>
-      <c r="F162">
+      <c r="G162">
         <v>95.395</v>
-      </c>
-      <c r="G162">
-        <v>95.491</v>
       </c>
       <c r="H162">
         <v>95.484</v>
@@ -23568,19 +23573,19 @@
         <v>14926.1</v>
       </c>
       <c r="C163">
+        <v>15557.3</v>
+      </c>
+      <c r="D163">
+        <v>95.91200000000001</v>
+      </c>
+      <c r="E163">
         <v>10131.8</v>
       </c>
-      <c r="D163">
+      <c r="F163">
         <v>10609.1</v>
       </c>
-      <c r="E163">
-        <v>15557.3</v>
-      </c>
-      <c r="F163">
+      <c r="G163">
         <v>95.503</v>
-      </c>
-      <c r="G163">
-        <v>95.91200000000001</v>
       </c>
       <c r="H163">
         <v>96.214</v>
@@ -23714,19 +23719,19 @@
         <v>15079.9</v>
       </c>
       <c r="C164">
+        <v>15672</v>
+      </c>
+      <c r="D164">
+        <v>96.25100000000001</v>
+      </c>
+      <c r="E164">
         <v>10220.6</v>
       </c>
-      <c r="D164">
+      <c r="F164">
         <v>10683.3</v>
       </c>
-      <c r="E164">
-        <v>15672</v>
-      </c>
-      <c r="F164">
+      <c r="G164">
         <v>95.67100000000001</v>
-      </c>
-      <c r="G164">
-        <v>96.25100000000001</v>
       </c>
       <c r="H164">
         <v>96.59699999999999</v>
@@ -23860,19 +23865,19 @@
         <v>15240.8</v>
       </c>
       <c r="C165">
+        <v>15750.6</v>
+      </c>
+      <c r="D165">
+        <v>96.78100000000001</v>
+      </c>
+      <c r="E165">
         <v>10350.5</v>
       </c>
-      <c r="D165">
+      <c r="F165">
         <v>10754</v>
       </c>
-      <c r="E165">
-        <v>15750.6</v>
-      </c>
-      <c r="F165">
+      <c r="G165">
         <v>96.25</v>
-      </c>
-      <c r="G165">
-        <v>96.78100000000001</v>
       </c>
       <c r="H165">
         <v>97.389</v>
@@ -24006,19 +24011,19 @@
         <v>15285.8</v>
       </c>
       <c r="C166">
+        <v>15712.8</v>
+      </c>
+      <c r="D166">
+        <v>97.276</v>
+      </c>
+      <c r="E166">
         <v>10485.4</v>
       </c>
-      <c r="D166">
+      <c r="F166">
         <v>10799.7</v>
       </c>
-      <c r="E166">
-        <v>15712.8</v>
-      </c>
-      <c r="F166">
+      <c r="G166">
         <v>97.09099999999999</v>
-      </c>
-      <c r="G166">
-        <v>97.276</v>
       </c>
       <c r="H166">
         <v>98.26600000000001</v>
@@ -24152,19 +24157,19 @@
         <v>15496.2</v>
       </c>
       <c r="C167">
+        <v>15825.1</v>
+      </c>
+      <c r="D167">
+        <v>97.97499999999999</v>
+      </c>
+      <c r="E167">
         <v>10612.1</v>
       </c>
-      <c r="D167">
+      <c r="F167">
         <v>10823.7</v>
       </c>
-      <c r="E167">
-        <v>15825.1</v>
-      </c>
-      <c r="F167">
+      <c r="G167">
         <v>98.048</v>
-      </c>
-      <c r="G167">
-        <v>97.97499999999999</v>
       </c>
       <c r="H167">
         <v>99.155</v>
@@ -24298,19 +24303,19 @@
         <v>15591.9</v>
       </c>
       <c r="C168">
+        <v>15820.7</v>
+      </c>
+      <c r="D168">
+        <v>98.51900000000001</v>
+      </c>
+      <c r="E168">
         <v>10705.4</v>
       </c>
-      <c r="D168">
+      <c r="F168">
         <v>10866</v>
       </c>
-      <c r="E168">
-        <v>15820.7</v>
-      </c>
-      <c r="F168">
+      <c r="G168">
         <v>98.523</v>
-      </c>
-      <c r="G168">
-        <v>98.51900000000001</v>
       </c>
       <c r="H168">
         <v>99.49800000000001</v>
@@ -24444,19 +24449,19 @@
         <v>15796.5</v>
       </c>
       <c r="C169">
+        <v>16004.1</v>
+      </c>
+      <c r="D169">
+        <v>98.676</v>
+      </c>
+      <c r="E169">
         <v>10761.6</v>
       </c>
-      <c r="D169">
+      <c r="F169">
         <v>10885.9</v>
       </c>
-      <c r="E169">
-        <v>16004.1</v>
-      </c>
-      <c r="F169">
+      <c r="G169">
         <v>98.86</v>
-      </c>
-      <c r="G169">
-        <v>98.676</v>
       </c>
       <c r="H169">
         <v>99.363</v>
@@ -24590,19 +24595,19 @@
         <v>16019.8</v>
       </c>
       <c r="C170">
+        <v>16129.4</v>
+      </c>
+      <c r="D170">
+        <v>99.28400000000001</v>
+      </c>
+      <c r="E170">
         <v>10922.4</v>
       </c>
-      <c r="D170">
+      <c r="F170">
         <v>10973.3</v>
       </c>
-      <c r="E170">
-        <v>16129.4</v>
-      </c>
-      <c r="F170">
+      <c r="G170">
         <v>99.538</v>
-      </c>
-      <c r="G170">
-        <v>99.28400000000001</v>
       </c>
       <c r="H170">
         <v>99.705</v>
@@ -24736,19 +24741,19 @@
         <v>16152.3</v>
       </c>
       <c r="C171">
+        <v>16198.8</v>
+      </c>
+      <c r="D171">
+        <v>99.68899999999999</v>
+      </c>
+      <c r="E171">
         <v>10964.9</v>
       </c>
-      <c r="D171">
+      <c r="F171">
         <v>10989.6</v>
       </c>
-      <c r="E171">
-        <v>16198.8</v>
-      </c>
-      <c r="F171">
+      <c r="G171">
         <v>99.776</v>
-      </c>
-      <c r="G171">
-        <v>99.68899999999999</v>
       </c>
       <c r="H171">
         <v>99.928</v>
@@ -24882,19 +24887,19 @@
         <v>16257.2</v>
       </c>
       <c r="C172">
+        <v>16220.7</v>
+      </c>
+      <c r="D172">
+        <v>100.299</v>
+      </c>
+      <c r="E172">
         <v>11014.2</v>
       </c>
-      <c r="D172">
+      <c r="F172">
         <v>11007.5</v>
       </c>
-      <c r="E172">
-        <v>16220.7</v>
-      </c>
-      <c r="F172">
+      <c r="G172">
         <v>100.062</v>
-      </c>
-      <c r="G172">
-        <v>100.299</v>
       </c>
       <c r="H172">
         <v>100.122</v>
@@ -25028,19 +25033,19 @@
         <v>16358.9</v>
       </c>
       <c r="C173">
+        <v>16239.1</v>
+      </c>
+      <c r="D173">
+        <v>100.728</v>
+      </c>
+      <c r="E173">
         <v>11125.7</v>
       </c>
-      <c r="D173">
+      <c r="F173">
         <v>11056.9</v>
       </c>
-      <c r="E173">
-        <v>16239.1</v>
-      </c>
-      <c r="F173">
+      <c r="G173">
         <v>100.624</v>
-      </c>
-      <c r="G173">
-        <v>100.728</v>
       </c>
       <c r="H173">
         <v>100.245</v>
@@ -25174,19 +25179,19 @@
         <v>16569.6</v>
       </c>
       <c r="C174">
+        <v>16383</v>
+      </c>
+      <c r="D174">
+        <v>101.123</v>
+      </c>
+      <c r="E174">
         <v>11223.2</v>
       </c>
-      <c r="D174">
+      <c r="F174">
         <v>11114.2</v>
       </c>
-      <c r="E174">
-        <v>16383</v>
-      </c>
-      <c r="F174">
+      <c r="G174">
         <v>100.982</v>
-      </c>
-      <c r="G174">
-        <v>101.123</v>
       </c>
       <c r="H174">
         <v>100.241</v>
@@ -25320,19 +25325,19 @@
         <v>16637.9</v>
       </c>
       <c r="C175">
+        <v>16403.2</v>
+      </c>
+      <c r="D175">
+        <v>101.431</v>
+      </c>
+      <c r="E175">
         <v>11239.6</v>
       </c>
-      <c r="D175">
+      <c r="F175">
         <v>11122.2</v>
       </c>
-      <c r="E175">
-        <v>16403.2</v>
-      </c>
-      <c r="F175">
+      <c r="G175">
         <v>101.057</v>
-      </c>
-      <c r="G175">
-        <v>101.431</v>
       </c>
       <c r="H175">
         <v>100.436</v>
@@ -25466,19 +25471,19 @@
         <v>16848.7</v>
       </c>
       <c r="C176">
+        <v>16531.7</v>
+      </c>
+      <c r="D176">
+        <v>101.985</v>
+      </c>
+      <c r="E176">
         <v>11330.9</v>
       </c>
-      <c r="D176">
+      <c r="F176">
         <v>11167.4</v>
       </c>
-      <c r="E176">
-        <v>16531.7</v>
-      </c>
-      <c r="F176">
+      <c r="G176">
         <v>101.466</v>
-      </c>
-      <c r="G176">
-        <v>101.985</v>
       </c>
       <c r="H176">
         <v>100.759</v>
@@ -25612,19 +25617,19 @@
         <v>17083.1</v>
       </c>
       <c r="C177">
+        <v>16663.6</v>
+      </c>
+      <c r="D177">
+        <v>102.551</v>
+      </c>
+      <c r="E177">
         <v>11475.1</v>
       </c>
-      <c r="D177">
+      <c r="F177">
         <v>11263.6</v>
       </c>
-      <c r="E177">
-        <v>16663.6</v>
-      </c>
-      <c r="F177">
+      <c r="G177">
         <v>101.88</v>
-      </c>
-      <c r="G177">
-        <v>102.551</v>
       </c>
       <c r="H177">
         <v>102.29</v>
@@ -25758,19 +25763,19 @@
         <v>17104.6</v>
       </c>
       <c r="C178">
+        <v>16616.5</v>
+      </c>
+      <c r="D178">
+        <v>102.96</v>
+      </c>
+      <c r="E178">
         <v>11574.2</v>
       </c>
-      <c r="D178">
+      <c r="F178">
         <v>11308</v>
       </c>
-      <c r="E178">
-        <v>16616.5</v>
-      </c>
-      <c r="F178">
+      <c r="G178">
         <v>102.357</v>
-      </c>
-      <c r="G178">
-        <v>102.96</v>
       </c>
       <c r="H178">
         <v>102.024</v>
@@ -25904,19 +25909,19 @@
         <v>17432.9</v>
       </c>
       <c r="C179">
+        <v>16841.5</v>
+      </c>
+      <c r="D179">
+        <v>103.539</v>
+      </c>
+      <c r="E179">
         <v>11756.9</v>
       </c>
-      <c r="D179">
+      <c r="F179">
         <v>11431.8</v>
       </c>
-      <c r="E179">
-        <v>16841.5</v>
-      </c>
-      <c r="F179">
+      <c r="G179">
         <v>102.846</v>
-      </c>
-      <c r="G179">
-        <v>103.539</v>
       </c>
       <c r="H179">
         <v>102.472</v>
@@ -26050,19 +26055,19 @@
         <v>17721.7</v>
       </c>
       <c r="C180">
+        <v>17047.1</v>
+      </c>
+      <c r="D180">
+        <v>104.01</v>
+      </c>
+      <c r="E180">
         <v>11915.4</v>
       </c>
-      <c r="D180">
+      <c r="F180">
         <v>11554.8</v>
       </c>
-      <c r="E180">
-        <v>17047.1</v>
-      </c>
-      <c r="F180">
+      <c r="G180">
         <v>103.123</v>
-      </c>
-      <c r="G180">
-        <v>104.01</v>
       </c>
       <c r="H180">
         <v>102.949</v>
@@ -26196,19 +26201,19 @@
         <v>17849.9</v>
       </c>
       <c r="C181">
+        <v>17143</v>
+      </c>
+      <c r="D181">
+        <v>104.078</v>
+      </c>
+      <c r="E181">
         <v>12044.5</v>
       </c>
-      <c r="D181">
+      <c r="F181">
         <v>11695</v>
       </c>
-      <c r="E181">
-        <v>17143</v>
-      </c>
-      <c r="F181">
+      <c r="G181">
         <v>102.992</v>
-      </c>
-      <c r="G181">
-        <v>104.078</v>
       </c>
       <c r="H181">
         <v>103.085</v>
@@ -26342,19 +26347,19 @@
         <v>18003.4</v>
       </c>
       <c r="C182">
+        <v>17305.8</v>
+      </c>
+      <c r="D182">
+        <v>104.054</v>
+      </c>
+      <c r="E182">
         <v>12099.1</v>
       </c>
-      <c r="D182">
+      <c r="F182">
         <v>11798.3</v>
       </c>
-      <c r="E182">
-        <v>17305.8</v>
-      </c>
-      <c r="F182">
+      <c r="G182">
         <v>102.552</v>
-      </c>
-      <c r="G182">
-        <v>104.054</v>
       </c>
       <c r="H182">
         <v>102.922</v>
@@ -26488,19 +26493,19 @@
         <v>18223.6</v>
       </c>
       <c r="C183">
+        <v>17422.8</v>
+      </c>
+      <c r="D183">
+        <v>104.647</v>
+      </c>
+      <c r="E183">
         <v>12255.5</v>
       </c>
-      <c r="D183">
+      <c r="F183">
         <v>11892.3</v>
       </c>
-      <c r="E183">
-        <v>17422.8</v>
-      </c>
-      <c r="F183">
+      <c r="G183">
         <v>103.057</v>
-      </c>
-      <c r="G183">
-        <v>104.647</v>
       </c>
       <c r="H183">
         <v>103.122</v>
@@ -26634,19 +26639,19 @@
         <v>18347.4</v>
       </c>
       <c r="C184">
+        <v>17486</v>
+      </c>
+      <c r="D184">
+        <v>104.92</v>
+      </c>
+      <c r="E184">
         <v>12389.3</v>
       </c>
-      <c r="D184">
+      <c r="F184">
         <v>11991.2</v>
       </c>
-      <c r="E184">
-        <v>17486</v>
-      </c>
-      <c r="F184">
+      <c r="G184">
         <v>103.322</v>
-      </c>
-      <c r="G184">
-        <v>104.92</v>
       </c>
       <c r="H184">
         <v>103.277</v>
@@ -26780,19 +26785,19 @@
         <v>18378.8</v>
       </c>
       <c r="C185">
+        <v>17514.1</v>
+      </c>
+      <c r="D185">
+        <v>104.935</v>
+      </c>
+      <c r="E185">
         <v>12446</v>
       </c>
-      <c r="D185">
+      <c r="F185">
         <v>12055.4</v>
       </c>
-      <c r="E185">
-        <v>17514.1</v>
-      </c>
-      <c r="F185">
+      <c r="G185">
         <v>103.243</v>
-      </c>
-      <c r="G185">
-        <v>104.935</v>
       </c>
       <c r="H185">
         <v>103.192</v>
@@ -26926,19 +26931,19 @@
         <v>18470.2</v>
       </c>
       <c r="C186">
+        <v>17613.3</v>
+      </c>
+      <c r="D186">
+        <v>104.902</v>
+      </c>
+      <c r="E186">
         <v>12551.6</v>
       </c>
-      <c r="D186">
+      <c r="F186">
         <v>12148.1</v>
       </c>
-      <c r="E186">
-        <v>17613.3</v>
-      </c>
-      <c r="F186">
+      <c r="G186">
         <v>103.325</v>
-      </c>
-      <c r="G186">
-        <v>104.902</v>
       </c>
       <c r="H186">
         <v>102.914</v>
@@ -27072,19 +27077,19 @@
         <v>18656.2</v>
       </c>
       <c r="C187">
+        <v>17668.2</v>
+      </c>
+      <c r="D187">
+        <v>105.595</v>
+      </c>
+      <c r="E187">
         <v>12707.5</v>
       </c>
-      <c r="D187">
+      <c r="F187">
         <v>12225.8</v>
       </c>
-      <c r="E187">
-        <v>17668.2</v>
-      </c>
-      <c r="F187">
+      <c r="G187">
         <v>103.944</v>
-      </c>
-      <c r="G187">
-        <v>105.595</v>
       </c>
       <c r="H187">
         <v>103.505</v>
@@ -27218,19 +27223,19 @@
         <v>18821.4</v>
       </c>
       <c r="C188">
+        <v>17764.4</v>
+      </c>
+      <c r="D188">
+        <v>105.941</v>
+      </c>
+      <c r="E188">
         <v>12841.2</v>
       </c>
-      <c r="D188">
+      <c r="F188">
         <v>12304.5</v>
       </c>
-      <c r="E188">
-        <v>17764.4</v>
-      </c>
-      <c r="F188">
+      <c r="G188">
         <v>104.366</v>
-      </c>
-      <c r="G188">
-        <v>105.941</v>
       </c>
       <c r="H188">
         <v>103.95</v>
@@ -27364,19 +27369,19 @@
         <v>19032.6</v>
       </c>
       <c r="C189">
+        <v>17876.2</v>
+      </c>
+      <c r="D189">
+        <v>106.506</v>
+      </c>
+      <c r="E189">
         <v>12979.5</v>
       </c>
-      <c r="D189">
+      <c r="F189">
         <v>12380</v>
       </c>
-      <c r="E189">
-        <v>17876.2</v>
-      </c>
-      <c r="F189">
+      <c r="G189">
         <v>104.847</v>
-      </c>
-      <c r="G189">
-        <v>106.506</v>
       </c>
       <c r="H189">
         <v>104.475</v>
@@ -27510,19 +27515,19 @@
         <v>19237.4</v>
       </c>
       <c r="C190">
+        <v>17977.3</v>
+      </c>
+      <c r="D190">
+        <v>107.031</v>
+      </c>
+      <c r="E190">
         <v>13153.2</v>
       </c>
-      <c r="D190">
+      <c r="F190">
         <v>12477.3</v>
       </c>
-      <c r="E190">
-        <v>17977.3</v>
-      </c>
-      <c r="F190">
+      <c r="G190">
         <v>105.421</v>
-      </c>
-      <c r="G190">
-        <v>107.031</v>
       </c>
       <c r="H190">
         <v>105.072</v>
@@ -27656,19 +27661,19 @@
         <v>19379.2</v>
       </c>
       <c r="C191">
+        <v>18054.1</v>
+      </c>
+      <c r="D191">
+        <v>107.368</v>
+      </c>
+      <c r="E191">
         <v>13241.3</v>
       </c>
-      <c r="D191">
+      <c r="F191">
         <v>12533.1</v>
       </c>
-      <c r="E191">
-        <v>18054.1</v>
-      </c>
-      <c r="F191">
+      <c r="G191">
         <v>105.654</v>
-      </c>
-      <c r="G191">
-        <v>107.368</v>
       </c>
       <c r="H191">
         <v>105.466</v>
@@ -27802,19 +27807,19 @@
         <v>19617.3</v>
       </c>
       <c r="C192">
+        <v>18185.6</v>
+      </c>
+      <c r="D192">
+        <v>107.968</v>
+      </c>
+      <c r="E192">
         <v>13370.9</v>
       </c>
-      <c r="D192">
+      <c r="F192">
         <v>12604.5</v>
       </c>
-      <c r="E192">
-        <v>18185.6</v>
-      </c>
-      <c r="F192">
+      <c r="G192">
         <v>106.084</v>
-      </c>
-      <c r="G192">
-        <v>107.968</v>
       </c>
       <c r="H192">
         <v>106.002</v>
@@ -27948,19 +27953,19 @@
         <v>19938</v>
       </c>
       <c r="C193">
+        <v>18359.4</v>
+      </c>
+      <c r="D193">
+        <v>108.637</v>
+      </c>
+      <c r="E193">
         <v>13596</v>
       </c>
-      <c r="D193">
+      <c r="F193">
         <v>12733.7</v>
       </c>
-      <c r="E193">
-        <v>18359.4</v>
-      </c>
-      <c r="F193">
+      <c r="G193">
         <v>106.775</v>
-      </c>
-      <c r="G193">
-        <v>108.637</v>
       </c>
       <c r="H193">
         <v>106.831</v>
@@ -28094,19 +28099,19 @@
         <v>20242.2</v>
       </c>
       <c r="C194">
+        <v>18530.5</v>
+      </c>
+      <c r="D194">
+        <v>109.292</v>
+      </c>
+      <c r="E194">
         <v>13755.5</v>
       </c>
-      <c r="D194">
+      <c r="F194">
         <v>12798.1</v>
       </c>
-      <c r="E194">
-        <v>18530.5</v>
-      </c>
-      <c r="F194">
+      <c r="G194">
         <v>107.485</v>
-      </c>
-      <c r="G194">
-        <v>109.292</v>
       </c>
       <c r="H194">
         <v>107.962</v>
@@ -28240,19 +28245,19 @@
         <v>20552.7</v>
       </c>
       <c r="C195">
+        <v>18654.4</v>
+      </c>
+      <c r="D195">
+        <v>110.165</v>
+      </c>
+      <c r="E195">
         <v>13939.9</v>
       </c>
-      <c r="D195">
+      <c r="F195">
         <v>12898.1</v>
       </c>
-      <c r="E195">
-        <v>18654.4</v>
-      </c>
-      <c r="F195">
+      <c r="G195">
         <v>108.081</v>
-      </c>
-      <c r="G195">
-        <v>110.165</v>
       </c>
       <c r="H195">
         <v>108.763</v>
@@ -28386,19 +28391,19 @@
         <v>20742.7</v>
       </c>
       <c r="C196">
+        <v>18752.4</v>
+      </c>
+      <c r="D196">
+        <v>110.671</v>
+      </c>
+      <c r="E196">
         <v>14086.3</v>
       </c>
-      <c r="D196">
+      <c r="F196">
         <v>12983</v>
       </c>
-      <c r="E196">
-        <v>18752.4</v>
-      </c>
-      <c r="F196">
+      <c r="G196">
         <v>108.501</v>
-      </c>
-      <c r="G196">
-        <v>110.671</v>
       </c>
       <c r="H196">
         <v>109.413</v>
@@ -28532,19 +28537,19 @@
         <v>20909.9</v>
       </c>
       <c r="C197">
+        <v>18813.9</v>
+      </c>
+      <c r="D197">
+        <v>111.159</v>
+      </c>
+      <c r="E197">
         <v>14191.4</v>
       </c>
-      <c r="D197">
+      <c r="F197">
         <v>13033.4</v>
       </c>
-      <c r="E197">
-        <v>18813.9</v>
-      </c>
-      <c r="F197">
+      <c r="G197">
         <v>108.889</v>
-      </c>
-      <c r="G197">
-        <v>111.159</v>
       </c>
       <c r="H197">
         <v>110.218</v>
@@ -28678,19 +28683,19 @@
         <v>21115.3</v>
       </c>
       <c r="C198">
+        <v>18950.3</v>
+      </c>
+      <c r="D198">
+        <v>111.497</v>
+      </c>
+      <c r="E198">
         <v>14276.6</v>
       </c>
-      <c r="D198">
+      <c r="F198">
         <v>13093.2</v>
       </c>
-      <c r="E198">
-        <v>18950.3</v>
-      </c>
-      <c r="F198">
+      <c r="G198">
         <v>109.042</v>
-      </c>
-      <c r="G198">
-        <v>111.497</v>
       </c>
       <c r="H198">
         <v>111.479</v>
@@ -28824,19 +28829,19 @@
         <v>21329.9</v>
       </c>
       <c r="C199">
+        <v>19020.6</v>
+      </c>
+      <c r="D199">
+        <v>112.181</v>
+      </c>
+      <c r="E199">
         <v>14497.3</v>
       </c>
-      <c r="D199">
+      <c r="F199">
         <v>13212.8</v>
       </c>
-      <c r="E199">
-        <v>19020.6</v>
-      </c>
-      <c r="F199">
+      <c r="G199">
         <v>109.726</v>
-      </c>
-      <c r="G199">
-        <v>112.181</v>
       </c>
       <c r="H199">
         <v>110.761</v>
@@ -28970,19 +28975,19 @@
         <v>21540.3</v>
       </c>
       <c r="C200">
+        <v>19141.7</v>
+      </c>
+      <c r="D200">
+        <v>112.602</v>
+      </c>
+      <c r="E200">
         <v>14645.3</v>
       </c>
-      <c r="D200">
+      <c r="F200">
         <v>13301.3</v>
       </c>
-      <c r="E200">
-        <v>19141.7</v>
-      </c>
-      <c r="F200">
+      <c r="G200">
         <v>110.108</v>
-      </c>
-      <c r="G200">
-        <v>112.602</v>
       </c>
       <c r="H200">
         <v>110.921</v>
@@ -29116,19 +29121,19 @@
         <v>21747.4</v>
       </c>
       <c r="C201">
+        <v>19254</v>
+      </c>
+      <c r="D201">
+        <v>112.989</v>
+      </c>
+      <c r="E201">
         <v>14759.2</v>
       </c>
-      <c r="D201">
+      <c r="F201">
         <v>13353.7</v>
       </c>
-      <c r="E201">
-        <v>19254</v>
-      </c>
-      <c r="F201">
+      <c r="G201">
         <v>110.529</v>
-      </c>
-      <c r="G201">
-        <v>112.989</v>
       </c>
       <c r="H201">
         <v>111.281</v>
@@ -29262,19 +29267,19 @@
         <v>21561.1</v>
       </c>
       <c r="C202">
+        <v>19010.8</v>
+      </c>
+      <c r="D202">
+        <v>113.38</v>
+      </c>
+      <c r="E202">
         <v>14545.5</v>
       </c>
-      <c r="D202">
+      <c r="F202">
         <v>13118.4</v>
       </c>
-      <c r="E202">
-        <v>19010.8</v>
-      </c>
-      <c r="F202">
+      <c r="G202">
         <v>110.882</v>
-      </c>
-      <c r="G202">
-        <v>113.38</v>
       </c>
       <c r="H202">
         <v>111.205</v>
@@ -29408,19 +29413,19 @@
         <v>19520.1</v>
       </c>
       <c r="C203">
+        <v>17302.5</v>
+      </c>
+      <c r="D203">
+        <v>112.86</v>
+      </c>
+      <c r="E203">
         <v>13097.3</v>
       </c>
-      <c r="D203">
+      <c r="F203">
         <v>11860.3</v>
       </c>
-      <c r="E203">
-        <v>17302.5</v>
-      </c>
-      <c r="F203">
+      <c r="G203">
         <v>110.435</v>
-      </c>
-      <c r="G203">
-        <v>112.86</v>
       </c>
       <c r="H203">
         <v>110.901</v>
@@ -29544,6 +29549,9 @@
       </c>
       <c r="AV203">
         <v>1062344</v>
+      </c>
+      <c r="AW203">
+        <v>1078.1</v>
       </c>
     </row>
     <row r="204">
@@ -29554,19 +29562,19 @@
         <v>21157.6</v>
       </c>
       <c r="C204">
+        <v>18584</v>
+      </c>
+      <c r="D204">
+        <v>113.86</v>
+      </c>
+      <c r="E204">
         <v>14394.8</v>
       </c>
-      <c r="D204">
+      <c r="F204">
         <v>12917.3</v>
       </c>
-      <c r="E204">
-        <v>18584</v>
-      </c>
-      <c r="F204">
+      <c r="G204">
         <v>111.442</v>
-      </c>
-      <c r="G204">
-        <v>113.86</v>
       </c>
       <c r="H204">
         <v>111.334</v>
@@ -29690,6 +29698,9 @@
       </c>
       <c r="AV204">
         <v>734317</v>
+      </c>
+      <c r="AW204">
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -29562,7 +29562,7 @@
         <v>21157.6</v>
       </c>
       <c r="C204">
-        <v>18584</v>
+        <v>18583.5</v>
       </c>
       <c r="D204">
         <v>113.86</v>
@@ -29574,7 +29574,7 @@
         <v>12917.3</v>
       </c>
       <c r="G204">
-        <v>111.442</v>
+        <v>111.45</v>
       </c>
       <c r="H204">
         <v>111.334</v>
@@ -29679,7 +29679,7 @@
         <v>3183.5</v>
       </c>
       <c r="AP204">
-        <v>533020</v>
+        <v>533712</v>
       </c>
       <c r="AQ204">
         <v>486072</v>
@@ -29697,7 +29697,7 @@
         <v>1212.3</v>
       </c>
       <c r="AV204">
-        <v>734317</v>
+        <v>731137</v>
       </c>
       <c r="AW204">
         <v>15.6</v>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -29464,7 +29464,7 @@
         <v>112.5</v>
       </c>
       <c r="T203">
-        <v>2095.7</v>
+        <v>2096.5</v>
       </c>
       <c r="U203">
         <v>1395.8</v>
@@ -29476,7 +29476,7 @@
         <v>3839.3</v>
       </c>
       <c r="X203">
-        <v>1384.9</v>
+        <v>1393.3</v>
       </c>
       <c r="Y203">
         <v>110.431</v>
@@ -29494,7 +29494,7 @@
         <v>2013.1</v>
       </c>
       <c r="AD203">
-        <v>1599.3</v>
+        <v>1600.1</v>
       </c>
       <c r="AE203">
         <v>131.4</v>
@@ -29503,7 +29503,7 @@
         <v>171.5</v>
       </c>
       <c r="AG203">
-        <v>1365.7</v>
+        <v>1374.2</v>
       </c>
       <c r="AH203">
         <v>4815.3</v>
@@ -29559,124 +29559,124 @@
         <v>44104</v>
       </c>
       <c r="B204">
-        <v>21157.6</v>
+        <v>21157.1</v>
       </c>
       <c r="C204">
         <v>18583.5</v>
       </c>
       <c r="D204">
-        <v>113.86</v>
+        <v>113.85</v>
       </c>
       <c r="E204">
-        <v>14394.8</v>
+        <v>14394.2</v>
       </c>
       <c r="F204">
-        <v>12917.3</v>
+        <v>12915.9</v>
       </c>
       <c r="G204">
         <v>111.45</v>
       </c>
       <c r="H204">
-        <v>111.334</v>
+        <v>111.34</v>
       </c>
       <c r="I204">
-        <v>117.122</v>
+        <v>116.915</v>
       </c>
       <c r="J204">
-        <v>116.958</v>
+        <v>116.714</v>
       </c>
       <c r="K204">
-        <v>117.835</v>
+        <v>117.784</v>
       </c>
       <c r="L204">
-        <v>-0.6800000000000001</v>
+        <v>-0.76</v>
       </c>
       <c r="M204">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="N204">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="O204">
         <v>842.7000000000001</v>
       </c>
       <c r="P204">
-        <v>699</v>
+        <v>691.3</v>
       </c>
       <c r="Q204">
-        <v>771.5</v>
+        <v>768.7000000000001</v>
       </c>
       <c r="R204">
-        <v>4357.4</v>
+        <v>4324.1</v>
       </c>
       <c r="S204">
         <v>113</v>
       </c>
       <c r="T204">
-        <v>2191.8</v>
+        <v>2186.6</v>
       </c>
       <c r="U204">
-        <v>1459.8</v>
+        <v>1462</v>
       </c>
       <c r="V204">
-        <v>256.6</v>
+        <v>284.4</v>
       </c>
       <c r="W204">
-        <v>3824.5</v>
+        <v>3816.5</v>
       </c>
       <c r="X204">
-        <v>1439.5</v>
+        <v>1455</v>
       </c>
       <c r="Y204">
-        <v>111.438</v>
+        <v>111.446</v>
       </c>
       <c r="Z204">
-        <v>1486.6</v>
+        <v>1486.8</v>
       </c>
       <c r="AA204">
-        <v>2337.9</v>
+        <v>2329.7</v>
       </c>
       <c r="AB204">
-        <v>1335.2</v>
+        <v>1335.3</v>
       </c>
       <c r="AC204">
-        <v>1996.2</v>
+        <v>1992.7</v>
       </c>
       <c r="AD204">
-        <v>1686.4</v>
+        <v>1687.2</v>
       </c>
       <c r="AE204">
         <v>144.7</v>
       </c>
       <c r="AF204">
-        <v>193.9</v>
+        <v>205.3</v>
       </c>
       <c r="AG204">
-        <v>1419.3</v>
+        <v>1434.8</v>
       </c>
       <c r="AH204">
-        <v>3513.8</v>
+        <v>3488.1</v>
       </c>
       <c r="AI204">
-        <v>727.5</v>
+        <v>728.2000000000001</v>
       </c>
       <c r="AJ204">
-        <v>505.4</v>
+        <v>499.4</v>
       </c>
       <c r="AK204">
-        <v>1315.1</v>
+        <v>1317.3</v>
       </c>
       <c r="AL204">
-        <v>62.63333333333333</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="AM204">
         <v>20.2</v>
       </c>
       <c r="AN204">
-        <v>843.6</v>
+        <v>836</v>
       </c>
       <c r="AO204">
-        <v>3183.5</v>
+        <v>3167.8</v>
       </c>
       <c r="AP204">
         <v>533712</v>
@@ -29688,13 +29688,13 @@
         <v>73845</v>
       </c>
       <c r="AS204">
-        <v>1211.7</v>
+        <v>1212.7</v>
       </c>
       <c r="AT204">
         <v>0.6</v>
       </c>
       <c r="AU204">
-        <v>1212.3</v>
+        <v>1213.3</v>
       </c>
       <c r="AV204">
         <v>731137</v>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcalakovalski\Documents\Fiscal-Impact-Measure\data\raw\haver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/data/raw/haver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702DE25-4506-4913-8786-2BD4C5EE6E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702E589D-1334-0A4D-A611-B5793A126BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,18 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW208"/>
+  <dimension ref="A1:AW204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>25658</v>
       </c>
@@ -857,7 +857,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>25749</v>
       </c>
@@ -997,7 +997,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>25841</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>25933</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>26023</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>5224</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>26114</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>26206</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>5684</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>26298</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>26389</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>5932</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>26480</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>26572</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>26664</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>26754</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>26845</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>26937</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>27029</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>27119</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>5436</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>27210</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>6296</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>27302</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>6428</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>27394</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>27484</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>13260</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>27575</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>18048</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>27667</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>17984</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>27759</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>27850</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>15616</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27941</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>14396</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28033</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28125</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>13528</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28215</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>13396</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28306</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>11776</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28398</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>10436</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>28490</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>10524</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>28580</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>9580</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>28671</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>8584</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>28763</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>8376</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>28855</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>28945</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>8788</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>29036</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>29128</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>9052</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>29220</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>29311</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>29402</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>15040</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>29494</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>18064</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>29586</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>16916</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>29676</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>15560</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>29767</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>14648</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>29859</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>14212</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>29951</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>15928</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>30041</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>18472</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>30132</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>23188</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>30224</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>25120</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>30316</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>26724</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>30406</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>24276</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>30497</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>23528</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>30589</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>17744</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>30681</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>14992</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>30772</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>13404</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>30863</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>12936</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>30955</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>12784</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>31047</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>13536</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>31137</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>14404</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>31228</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>14440</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>31320</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>14516</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>31412</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>15088</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>31502</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>31593</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>15848</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>31685</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>16448</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>31777</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>16408</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>31867</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>14996</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>31958</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>14580</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>32050</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>13992</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>32142</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>13108</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>32233</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>13496</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>32324</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>12736</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>32416</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>12776</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>32508</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>12652</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>32598</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>13160</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>32689</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>13316</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>32781</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>14220</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>32873</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>15380</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>32963</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>16048</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>33054</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>16632</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>33146</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>17728</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>33238</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>20448</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>33328</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>23824</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>33419</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>26968</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>33511</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>25364</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>33603</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>25508</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>33694</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>25104</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>33785</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>25416</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>33877</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>25360</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>33969</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>23420</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>34059</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>20628</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>34150</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>21808</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>34242</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>21780</v>
       </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>34334</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>22140</v>
       </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>34424</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>21808</v>
       </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>34515</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>22096</v>
       </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>34607</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>21264</v>
       </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>34699</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>20560</v>
       </c>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>34789</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>20144</v>
       </c>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>34880</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>20856</v>
       </c>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>34972</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>21284</v>
       </c>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>35064</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>21768</v>
       </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>35155</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>22276</v>
       </c>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>35246</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>22048</v>
       </c>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>35338</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>21004</v>
       </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>35430</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>21088</v>
       </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>35520</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>20308</v>
       </c>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>35611</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>19792</v>
       </c>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>35703</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>19064</v>
       </c>
     </row>
-    <row r="113" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>35795</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>18852</v>
       </c>
     </row>
-    <row r="114" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>35885</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>18852</v>
       </c>
     </row>
-    <row r="115" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>35976</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="116" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>36068</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>19780</v>
       </c>
     </row>
-    <row r="117" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>36160</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>19312</v>
       </c>
     </row>
-    <row r="118" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>36250</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>20304</v>
       </c>
     </row>
-    <row r="119" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>36341</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>20404</v>
       </c>
     </row>
-    <row r="120" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>36433</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>19852</v>
       </c>
     </row>
-    <row r="121" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>36525</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>19584</v>
       </c>
     </row>
-    <row r="122" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>36616</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>20072</v>
       </c>
     </row>
-    <row r="123" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>36707</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>19528</v>
       </c>
     </row>
-    <row r="124" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>36799</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>20092</v>
       </c>
     </row>
-    <row r="125" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>36891</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>21320</v>
       </c>
     </row>
-    <row r="126" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>36981</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>24876</v>
       </c>
     </row>
-    <row r="127" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>37072</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>27868</v>
       </c>
     </row>
-    <row r="128" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>37164</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>32624</v>
       </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>37256</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>40108</v>
       </c>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>37346</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>41187</v>
       </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>37437</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>37529</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>37621</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>41942</v>
       </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>37711</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>37802</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>37894</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>37986</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>39385</v>
       </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>38077</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>36288</v>
       </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>38168</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>34859</v>
       </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>38260</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>33830</v>
       </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>38352</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>32126</v>
       </c>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>38442</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>31363</v>
       </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>38533</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>30188</v>
       </c>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>38625</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>30774</v>
       </c>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>38717</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>31798</v>
       </c>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>38807</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>29568</v>
       </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>38898</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>28723</v>
       </c>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>38990</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>29815</v>
       </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>39082</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>30381</v>
       </c>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>39172</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>31562</v>
       </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>39263</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>31128</v>
       </c>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>39355</v>
       </c>
@@ -22211,7 +22211,7 @@
         <v>32144</v>
       </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>39447</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>33303</v>
       </c>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>39538</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>35577</v>
       </c>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>39629</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>37546</v>
       </c>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>39721</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>39813</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>54221</v>
       </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>39903</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>71755</v>
       </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>39994</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>93374</v>
       </c>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>40086</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>95724</v>
       </c>
     </row>
-    <row r="161" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>40178</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>82110</v>
       </c>
     </row>
-    <row r="162" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>40268</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>66932</v>
       </c>
     </row>
-    <row r="163" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>40359</v>
       </c>
@@ -23817,7 +23817,7 @@
         <v>64967</v>
       </c>
     </row>
-    <row r="164" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>40451</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>70037</v>
       </c>
     </row>
-    <row r="165" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>40543</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>66693</v>
       </c>
     </row>
-    <row r="166" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>40633</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>61132</v>
       </c>
     </row>
-    <row r="167" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>40724</v>
       </c>
@@ -24401,7 +24401,7 @@
         <v>57152</v>
       </c>
     </row>
-    <row r="168" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>40816</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>54998</v>
       </c>
     </row>
-    <row r="169" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>40908</v>
       </c>
@@ -24693,7 +24693,7 @@
         <v>54201</v>
       </c>
     </row>
-    <row r="170" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>40999</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>49963</v>
       </c>
     </row>
-    <row r="171" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>41090</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>45690</v>
       </c>
     </row>
-    <row r="172" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>41182</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>42696</v>
       </c>
     </row>
-    <row r="173" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>41274</v>
       </c>
@@ -25277,7 +25277,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="174" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>41364</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>39763</v>
       </c>
     </row>
-    <row r="175" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>41455</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>39107</v>
       </c>
     </row>
-    <row r="176" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>41547</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>41639</v>
       </c>
@@ -25861,7 +25861,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="178" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>41729</v>
       </c>
@@ -26007,7 +26007,7 @@
         <v>37237</v>
       </c>
     </row>
-    <row r="179" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>41820</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>34943</v>
       </c>
     </row>
-    <row r="180" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>41912</v>
       </c>
@@ -26299,7 +26299,7 @@
         <v>33201</v>
       </c>
     </row>
-    <row r="181" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>42004</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>32209</v>
       </c>
     </row>
-    <row r="182" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>42094</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>32153</v>
       </c>
     </row>
-    <row r="183" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>42185</v>
       </c>
@@ -26737,7 +26737,7 @@
         <v>31701</v>
       </c>
     </row>
-    <row r="184" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>42277</v>
       </c>
@@ -26883,7 +26883,7 @@
         <v>31839</v>
       </c>
     </row>
-    <row r="185" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>42369</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>31762</v>
       </c>
     </row>
-    <row r="186" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>42460</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>31925</v>
       </c>
     </row>
-    <row r="187" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>42551</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>31992</v>
       </c>
     </row>
-    <row r="188" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>42643</v>
       </c>
@@ -27467,7 +27467,7 @@
         <v>31816</v>
       </c>
     </row>
-    <row r="189" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>42735</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>30943</v>
       </c>
     </row>
-    <row r="190" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>42825</v>
       </c>
@@ -27759,7 +27759,7 @@
         <v>30386</v>
       </c>
     </row>
-    <row r="191" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>42916</v>
       </c>
@@ -27905,7 +27905,7 @@
         <v>29666</v>
       </c>
     </row>
-    <row r="192" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>43008</v>
       </c>
@@ -28051,7 +28051,7 @@
         <v>29811</v>
       </c>
     </row>
-    <row r="193" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>43100</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>29364</v>
       </c>
     </row>
-    <row r="194" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>43190</v>
       </c>
@@ -28343,7 +28343,7 @@
         <v>28799</v>
       </c>
     </row>
-    <row r="195" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>43281</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>27492</v>
       </c>
     </row>
-    <row r="196" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>43373</v>
       </c>
@@ -28635,7 +28635,7 @@
         <v>26989</v>
       </c>
     </row>
-    <row r="197" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>43465</v>
       </c>
@@ -28781,7 +28781,7 @@
         <v>26647</v>
       </c>
     </row>
-    <row r="198" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>43555</v>
       </c>
@@ -28927,7 +28927,7 @@
         <v>27557</v>
       </c>
     </row>
-    <row r="199" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>43646</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>27095</v>
       </c>
     </row>
-    <row r="200" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>43738</v>
       </c>
@@ -29219,7 +29219,7 @@
         <v>27197</v>
       </c>
     </row>
-    <row r="201" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>43830</v>
       </c>
@@ -29365,7 +29365,7 @@
         <v>27492</v>
       </c>
     </row>
-    <row r="202" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>43921</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>43021</v>
       </c>
     </row>
-    <row r="203" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44012</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>1078.0999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>44104</v>
       </c>
@@ -29807,11 +29807,6 @@
       </c>
       <c r="AW204">
         <v>15.6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="E208">
-        <v>21170.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW204"/>
+  <dimension ref="A1:AW205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29703,6 +29703,155 @@
         <v>15.6</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B205">
+        <v>21479.5</v>
+      </c>
+      <c r="C205">
+        <v>18780.3</v>
+      </c>
+      <c r="D205">
+        <v>114.415</v>
+      </c>
+      <c r="E205">
+        <v>14545.3</v>
+      </c>
+      <c r="F205">
+        <v>13004.7</v>
+      </c>
+      <c r="G205">
+        <v>111.851</v>
+      </c>
+      <c r="H205">
+        <v>112.015</v>
+      </c>
+      <c r="I205">
+        <v>117.773</v>
+      </c>
+      <c r="J205">
+        <v>117.701</v>
+      </c>
+      <c r="K205">
+        <v>118.101</v>
+      </c>
+      <c r="L205">
+        <v>-0.22</v>
+      </c>
+      <c r="M205">
+        <v>-0.19</v>
+      </c>
+      <c r="N205">
+        <v>-0.04</v>
+      </c>
+      <c r="O205">
+        <v>860.6</v>
+      </c>
+      <c r="P205">
+        <v>673.6</v>
+      </c>
+      <c r="Q205">
+        <v>302.4</v>
+      </c>
+      <c r="R205">
+        <v>3743.8</v>
+      </c>
+      <c r="S205">
+        <v>113.6</v>
+      </c>
+      <c r="T205">
+        <v>2226.7</v>
+      </c>
+      <c r="U205">
+        <v>1503.7</v>
+      </c>
+      <c r="V205">
+        <v>255.4</v>
+      </c>
+      <c r="W205">
+        <v>3830.8</v>
+      </c>
+      <c r="X205">
+        <v>1478.8</v>
+      </c>
+      <c r="Y205">
+        <v>111.846</v>
+      </c>
+      <c r="Z205">
+        <v>1493.6</v>
+      </c>
+      <c r="AA205">
+        <v>2337.2</v>
+      </c>
+      <c r="AB205">
+        <v>1333.3</v>
+      </c>
+      <c r="AC205">
+        <v>1984.5</v>
+      </c>
+      <c r="AD205">
+        <v>1710.3</v>
+      </c>
+      <c r="AE205">
+        <v>151.3</v>
+      </c>
+      <c r="AF205">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="AG205">
+        <v>1456.9</v>
+      </c>
+      <c r="AH205">
+        <v>2925.1</v>
+      </c>
+      <c r="AI205">
+        <v>738.1</v>
+      </c>
+      <c r="AJ205">
+        <v>516.4</v>
+      </c>
+      <c r="AK205">
+        <v>1352.4</v>
+      </c>
+      <c r="AL205">
+        <v>69.03333333333333</v>
+      </c>
+      <c r="AM205">
+        <v>21.8</v>
+      </c>
+      <c r="AN205">
+        <v>818.7000000000001</v>
+      </c>
+      <c r="AO205">
+        <v>3152.2</v>
+      </c>
+      <c r="AP205">
+        <v>547131</v>
+      </c>
+      <c r="AQ205">
+        <v>512193</v>
+      </c>
+      <c r="AR205">
+        <v>73559</v>
+      </c>
+      <c r="AS205">
+        <v>609.9</v>
+      </c>
+      <c r="AT205">
+        <v>0.6</v>
+      </c>
+      <c r="AU205">
+        <v>610.5</v>
+      </c>
+      <c r="AV205">
+        <v>233386</v>
+      </c>
+      <c r="AW205">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW205"/>
+  <dimension ref="A1:BG205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,56 @@
           <t>gftfpe</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>gftfpp</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>gftfpv</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubp</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubg</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>gfsube</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubk</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>gfegc</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>gfege</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>gfegv</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yptolm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -29553,6 +29603,33 @@
       <c r="AW203">
         <v>1078.1</v>
       </c>
+      <c r="AX203">
+        <v>19.1</v>
+      </c>
+      <c r="AY203">
+        <v>160.9</v>
+      </c>
+      <c r="AZ203">
+        <v>609.3</v>
+      </c>
+      <c r="BA203">
+        <v>63.8</v>
+      </c>
+      <c r="BB203">
+        <v>73.3</v>
+      </c>
+      <c r="BC203">
+        <v>140</v>
+      </c>
+      <c r="BD203">
+        <v>597.9</v>
+      </c>
+      <c r="BE203">
+        <v>28.4</v>
+      </c>
+      <c r="BF203">
+        <v>64.40000000000001</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
@@ -29702,6 +29779,36 @@
       <c r="AW204">
         <v>15.6</v>
       </c>
+      <c r="AX204">
+        <v>27</v>
+      </c>
+      <c r="AY204">
+        <v>58.4</v>
+      </c>
+      <c r="AZ204">
+        <v>865.6</v>
+      </c>
+      <c r="BA204">
+        <v>15</v>
+      </c>
+      <c r="BB204">
+        <v>73.3</v>
+      </c>
+      <c r="BC204">
+        <v>140</v>
+      </c>
+      <c r="BD204">
+        <v>0</v>
+      </c>
+      <c r="BE204">
+        <v>15.8</v>
+      </c>
+      <c r="BF204">
+        <v>23.4</v>
+      </c>
+      <c r="BG204">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
@@ -29850,6 +29957,36 @@
       </c>
       <c r="AW205">
         <v>5</v>
+      </c>
+      <c r="AX205">
+        <v>10.8</v>
+      </c>
+      <c r="AY205">
+        <v>34.5</v>
+      </c>
+      <c r="AZ205">
+        <v>260.3</v>
+      </c>
+      <c r="BA205">
+        <v>0.1</v>
+      </c>
+      <c r="BB205">
+        <v>73.3</v>
+      </c>
+      <c r="BC205">
+        <v>140</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>15.2</v>
+      </c>
+      <c r="BF205">
+        <v>13.8</v>
+      </c>
+      <c r="BG205">
+        <v>35.83333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG205"/>
+  <dimension ref="A1:BJ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,6 +657,21 @@
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
+          <t>yptue</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yptup</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yptuc</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
           <t>yptolm</t>
         </is>
       </c>
@@ -29630,6 +29645,15 @@
       <c r="BF203">
         <v>64.40000000000001</v>
       </c>
+      <c r="BG203">
+        <v>7.2</v>
+      </c>
+      <c r="BH203">
+        <v>101.5</v>
+      </c>
+      <c r="BI203">
+        <v>679.2000000000001</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
@@ -29807,6 +29831,15 @@
         <v>23.4</v>
       </c>
       <c r="BG204">
+        <v>23.9</v>
+      </c>
+      <c r="BH204">
+        <v>156.1</v>
+      </c>
+      <c r="BI204">
+        <v>373.1</v>
+      </c>
+      <c r="BJ204">
         <v>159.3</v>
       </c>
     </row>
@@ -29986,6 +30019,15 @@
         <v>13.8</v>
       </c>
       <c r="BG205">
+        <v>64.8</v>
+      </c>
+      <c r="BH205">
+        <v>112</v>
+      </c>
+      <c r="BI205">
+        <v>16.1</v>
+      </c>
+      <c r="BJ205">
         <v>35.83333333333334</v>
       </c>
     </row>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -32173,7 +32173,7 @@
         <v>113</v>
       </c>
       <c r="Q204">
-        <v>2193.9</v>
+        <v>2191.6</v>
       </c>
       <c r="R204">
         <v>1489.2</v>
@@ -32185,7 +32185,7 @@
         <v>3816.6</v>
       </c>
       <c r="U204">
-        <v>1455.6</v>
+        <v>1446.9</v>
       </c>
       <c r="V204">
         <v>111.426</v>
@@ -32203,7 +32203,7 @@
         <v>1993.1</v>
       </c>
       <c r="AA204">
-        <v>1687.4</v>
+        <v>1685</v>
       </c>
       <c r="AB204">
         <v>144.7</v>
@@ -32212,7 +32212,7 @@
         <v>207</v>
       </c>
       <c r="AD204">
-        <v>1435.4</v>
+        <v>1426.6</v>
       </c>
       <c r="AE204">
         <v>3494.9</v>
@@ -32337,103 +32337,103 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21479.5</v>
+        <v>21487.9</v>
       </c>
       <c r="C205">
-        <v>18780.3</v>
+        <v>18783.9</v>
       </c>
       <c r="D205">
-        <v>114.415</v>
+        <v>114.441</v>
       </c>
       <c r="E205">
-        <v>14545.3</v>
+        <v>14542.4</v>
       </c>
       <c r="F205">
-        <v>13004.7</v>
+        <v>13000.3</v>
       </c>
       <c r="G205">
-        <v>111.851</v>
+        <v>111.867</v>
       </c>
       <c r="H205">
-        <v>112.015</v>
+        <v>112.115</v>
       </c>
       <c r="I205">
-        <v>117.773</v>
+        <v>117.726</v>
       </c>
       <c r="J205">
-        <v>117.701</v>
+        <v>117.642</v>
       </c>
       <c r="K205">
-        <v>118.101</v>
+        <v>118.106</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>673.6</v>
+        <v>684.5</v>
       </c>
       <c r="N205">
-        <v>302.4</v>
+        <v>297.8</v>
       </c>
       <c r="O205">
-        <v>3743.8</v>
+        <v>3748.6</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2226.7</v>
+        <v>2236.1</v>
       </c>
       <c r="R205">
-        <v>1503.7</v>
+        <v>1504.1</v>
       </c>
       <c r="S205">
         <v>255.4</v>
       </c>
       <c r="T205">
-        <v>3830.8</v>
+        <v>3832.6</v>
       </c>
       <c r="U205">
-        <v>1478.8</v>
+        <v>1468.2</v>
       </c>
       <c r="V205">
-        <v>111.846</v>
+        <v>111.862</v>
       </c>
       <c r="W205">
-        <v>1493.6</v>
+        <v>1493.5</v>
       </c>
       <c r="X205">
-        <v>2337.2</v>
+        <v>2339</v>
       </c>
       <c r="Y205">
-        <v>1333.3</v>
+        <v>1332.1</v>
       </c>
       <c r="Z205">
-        <v>1984.5</v>
+        <v>1986.9</v>
       </c>
       <c r="AA205">
-        <v>1710.3</v>
+        <v>1717.8</v>
       </c>
       <c r="AB205">
-        <v>151.3</v>
+        <v>150.9</v>
       </c>
       <c r="AC205">
         <v>186.3333333333333</v>
       </c>
       <c r="AD205">
-        <v>1456.9</v>
+        <v>1446.3</v>
       </c>
       <c r="AE205">
-        <v>2925.1</v>
+        <v>2919</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>516.4</v>
+        <v>518.3</v>
       </c>
       <c r="AH205">
-        <v>1352.4</v>
+        <v>1353.2</v>
       </c>
       <c r="AI205">
         <v>69.03333333333333</v>
@@ -32442,10 +32442,10 @@
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>818.7000000000001</v>
+        <v>829.6</v>
       </c>
       <c r="AL205">
-        <v>3152.2</v>
+        <v>3164.6</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32457,13 +32457,13 @@
         <v>73559</v>
       </c>
       <c r="AP205">
-        <v>609.9</v>
+        <v>609.8</v>
       </c>
       <c r="AQ205">
         <v>0.6</v>
       </c>
       <c r="AR205">
-        <v>610.5</v>
+        <v>610.4</v>
       </c>
       <c r="AS205">
         <v>5</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>64.8</v>
+        <v>63.9</v>
       </c>
       <c r="BF205">
-        <v>112</v>
+        <v>110.8</v>
       </c>
       <c r="BG205">
-        <v>16.1</v>
+        <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>203.9</v>
+        <v>199.4</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -32305,7 +32305,7 @@
         <v>556.2000000000001</v>
       </c>
       <c r="BI204">
-        <v>159.3</v>
+        <v>106.2</v>
       </c>
       <c r="BJ204">
         <v>259.4213333333333</v>
@@ -32337,115 +32337,115 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21487.9</v>
+        <v>21494.7</v>
       </c>
       <c r="C205">
-        <v>18783.9</v>
+        <v>18794.4</v>
       </c>
       <c r="D205">
-        <v>114.441</v>
+        <v>114.415</v>
       </c>
       <c r="E205">
-        <v>14542.4</v>
+        <v>14537</v>
       </c>
       <c r="F205">
-        <v>13000.3</v>
+        <v>12999.1</v>
       </c>
       <c r="G205">
-        <v>111.867</v>
+        <v>111.835</v>
       </c>
       <c r="H205">
-        <v>112.115</v>
+        <v>112.102</v>
       </c>
       <c r="I205">
-        <v>117.726</v>
+        <v>117.727</v>
       </c>
       <c r="J205">
-        <v>117.642</v>
+        <v>117.647</v>
       </c>
       <c r="K205">
-        <v>118.106</v>
+        <v>118.093</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>684.5</v>
+        <v>682.4</v>
       </c>
       <c r="N205">
-        <v>297.8</v>
+        <v>296.4</v>
       </c>
       <c r="O205">
-        <v>3748.6</v>
+        <v>3745.8</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2236.1</v>
+        <v>2242.3</v>
       </c>
       <c r="R205">
-        <v>1504.1</v>
+        <v>1511.6</v>
       </c>
       <c r="S205">
-        <v>255.4</v>
+        <v>332.7</v>
       </c>
       <c r="T205">
-        <v>3832.6</v>
+        <v>3835.2</v>
       </c>
       <c r="U205">
-        <v>1468.2</v>
+        <v>1467.7</v>
       </c>
       <c r="V205">
-        <v>111.862</v>
+        <v>111.831</v>
       </c>
       <c r="W205">
-        <v>1493.5</v>
+        <v>1493.4</v>
       </c>
       <c r="X205">
-        <v>2339</v>
+        <v>2341.7</v>
       </c>
       <c r="Y205">
-        <v>1332.1</v>
+        <v>1332.2</v>
       </c>
       <c r="Z205">
-        <v>1986.9</v>
+        <v>1989.2</v>
       </c>
       <c r="AA205">
-        <v>1717.8</v>
+        <v>1717.7</v>
       </c>
       <c r="AB205">
-        <v>150.9</v>
+        <v>150.8</v>
       </c>
       <c r="AC205">
-        <v>186.3333333333333</v>
+        <v>236.9</v>
       </c>
       <c r="AD205">
-        <v>1446.3</v>
+        <v>1445.8</v>
       </c>
       <c r="AE205">
-        <v>2919</v>
+        <v>2918.2</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>518.3</v>
+        <v>524.5</v>
       </c>
       <c r="AH205">
-        <v>1353.2</v>
+        <v>1360.8</v>
       </c>
       <c r="AI205">
-        <v>69.03333333333333</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AJ205">
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>829.6</v>
+        <v>827.6</v>
       </c>
       <c r="AL205">
-        <v>3164.6</v>
+        <v>3165.4</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="BF205">
-        <v>110.8</v>
+        <v>110.3</v>
       </c>
       <c r="BG205">
         <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>199.4</v>
+        <v>198.5</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>
@@ -32532,13 +32532,13 @@
         <v>1</v>
       </c>
       <c r="BO205">
-        <v>4938.666666666667</v>
+        <v>4935.333333333333</v>
       </c>
       <c r="BP205">
-        <v>13656</v>
+        <v>13655.33333333333</v>
       </c>
       <c r="BQ205">
-        <v>325241.6666666667</v>
+        <v>327589.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -32305,7 +32305,7 @@
         <v>556.2000000000001</v>
       </c>
       <c r="BI204">
-        <v>106.2</v>
+        <v>159.3</v>
       </c>
       <c r="BJ204">
         <v>259.4213333333333</v>
@@ -32337,115 +32337,115 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21494.7</v>
+        <v>21487.9</v>
       </c>
       <c r="C205">
-        <v>18794.4</v>
+        <v>18783.9</v>
       </c>
       <c r="D205">
-        <v>114.415</v>
+        <v>114.441</v>
       </c>
       <c r="E205">
-        <v>14537</v>
+        <v>14542.4</v>
       </c>
       <c r="F205">
-        <v>12999.1</v>
+        <v>13000.3</v>
       </c>
       <c r="G205">
-        <v>111.835</v>
+        <v>111.867</v>
       </c>
       <c r="H205">
-        <v>112.102</v>
+        <v>112.115</v>
       </c>
       <c r="I205">
-        <v>117.727</v>
+        <v>117.726</v>
       </c>
       <c r="J205">
-        <v>117.647</v>
+        <v>117.642</v>
       </c>
       <c r="K205">
-        <v>118.093</v>
+        <v>118.106</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>682.4</v>
+        <v>684.5</v>
       </c>
       <c r="N205">
-        <v>296.4</v>
+        <v>297.8</v>
       </c>
       <c r="O205">
-        <v>3745.8</v>
+        <v>3748.6</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2242.3</v>
+        <v>2236.1</v>
       </c>
       <c r="R205">
-        <v>1511.6</v>
+        <v>1504.1</v>
       </c>
       <c r="S205">
-        <v>332.7</v>
+        <v>255.4</v>
       </c>
       <c r="T205">
-        <v>3835.2</v>
+        <v>3832.6</v>
       </c>
       <c r="U205">
-        <v>1467.7</v>
+        <v>1468.2</v>
       </c>
       <c r="V205">
-        <v>111.831</v>
+        <v>111.862</v>
       </c>
       <c r="W205">
-        <v>1493.4</v>
+        <v>1493.5</v>
       </c>
       <c r="X205">
-        <v>2341.7</v>
+        <v>2339</v>
       </c>
       <c r="Y205">
-        <v>1332.2</v>
+        <v>1332.1</v>
       </c>
       <c r="Z205">
-        <v>1989.2</v>
+        <v>1986.9</v>
       </c>
       <c r="AA205">
-        <v>1717.7</v>
+        <v>1717.8</v>
       </c>
       <c r="AB205">
-        <v>150.8</v>
+        <v>150.9</v>
       </c>
       <c r="AC205">
-        <v>236.9</v>
+        <v>186.3333333333333</v>
       </c>
       <c r="AD205">
-        <v>1445.8</v>
+        <v>1446.3</v>
       </c>
       <c r="AE205">
-        <v>2918.2</v>
+        <v>2919</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>524.5</v>
+        <v>518.3</v>
       </c>
       <c r="AH205">
-        <v>1360.8</v>
+        <v>1353.2</v>
       </c>
       <c r="AI205">
-        <v>95.90000000000001</v>
+        <v>69.03333333333333</v>
       </c>
       <c r="AJ205">
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>827.6</v>
+        <v>829.6</v>
       </c>
       <c r="AL205">
-        <v>3165.4</v>
+        <v>3164.6</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>63.6</v>
+        <v>63.9</v>
       </c>
       <c r="BF205">
-        <v>110.3</v>
+        <v>110.8</v>
       </c>
       <c r="BG205">
         <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>198.5</v>
+        <v>199.4</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>
@@ -32532,13 +32532,13 @@
         <v>1</v>
       </c>
       <c r="BO205">
-        <v>4935.333333333333</v>
+        <v>4938.666666666667</v>
       </c>
       <c r="BP205">
-        <v>13655.33333333333</v>
+        <v>13656</v>
       </c>
       <c r="BQ205">
-        <v>327589.6666666667</v>
+        <v>325241.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ205"/>
+  <dimension ref="A1:BS205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,120 +592,130 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>gftfpr</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>gftfpp</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>gftfpv</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>gfsubp</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>gfsubg</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>gfsube</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>gfsubs</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>gfsubf</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubv</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>gfsubk</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>gfegc</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>gfege</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>gfegv</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>yptue</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>yptup</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>yptuc</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>gftfpu</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>yptolm</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>ui</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>pcw</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>gdppothq</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>gdppotq</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>recessq</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>lasgova</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>lalgova</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>cpgs</t>
         </is>
@@ -838,28 +848,28 @@
       <c r="AR2">
         <v>4.7</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>38.1</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>38.3</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>4940.7</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>1052.1</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>1</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>2613.333333333334</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>7048.666666666667</v>
       </c>
-      <c r="BQ2">
+      <c r="BS2">
         <v>23545.66666666667</v>
       </c>
     </row>
@@ -990,28 +1000,28 @@
       <c r="AR3">
         <v>4.8</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>38.63333333333333</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>38.83333333333334</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>4982</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>1075.7</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>1</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>2648.333333333334</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>7104.333333333333</v>
       </c>
-      <c r="BQ3">
+      <c r="BS3">
         <v>24037</v>
       </c>
     </row>
@@ -1142,28 +1152,28 @@
       <c r="AR4">
         <v>4.7</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>39.03333333333333</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>39.23333333333334</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>5021.9</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>1093.2</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>1</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>2681.666666666667</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>7204.333333333333</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>25485.66666666667</v>
       </c>
     </row>
@@ -1294,28 +1304,28 @@
       <c r="AR5">
         <v>4.8</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>39.6</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>39.8</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>5060.8</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>1116.2</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>1</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>2716.333333333334</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>7279.333333333333</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>25754.66666666667</v>
       </c>
     </row>
@@ -1446,28 +1456,28 @@
       <c r="AR6">
         <v>4.8</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>39.93333333333333</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>40.16666666666667</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>5099.9</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>1142</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>-1</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>2719.333333333334</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>7353.333333333333</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>25713</v>
       </c>
     </row>
@@ -1598,28 +1608,28 @@
       <c r="AR7">
         <v>4.8</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>40.3</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>40.53333333333334</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>5139.7</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>1165.9</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>-1</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>2739.666666666667</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>7419.666666666667</v>
       </c>
-      <c r="BQ7">
+      <c r="BS7">
         <v>25998.66666666667</v>
       </c>
     </row>
@@ -1750,28 +1760,28 @@
       <c r="AR8">
         <v>4.5</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>40.7</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>40.96666666666667</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>5180</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>1187.1</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>-1</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>2751.666666666667</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>7443.666666666667</v>
       </c>
-      <c r="BQ8">
+      <c r="BS8">
         <v>25691</v>
       </c>
     </row>
@@ -1902,28 +1912,28 @@
       <c r="AR9">
         <v>4.6</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>41</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>41.23333333333334</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>5221</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>1206.4</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>-1</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>2781</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>7534</v>
       </c>
-      <c r="BQ9">
+      <c r="BS9">
         <v>26178.66666666667</v>
       </c>
     </row>
@@ -2054,28 +2064,28 @@
       <c r="AR10">
         <v>6.1</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>41.33333333333334</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>41.6</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>5262.8</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>1234.6</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>-1</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>2815</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>7651.666666666667</v>
       </c>
-      <c r="BQ10">
+      <c r="BS10">
         <v>25519</v>
       </c>
     </row>
@@ -2206,28 +2216,28 @@
       <c r="AR11">
         <v>6.2</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>41.6</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>41.8</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>5305.2</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>1252.3</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>-1</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>2849</v>
       </c>
-      <c r="BP11">
+      <c r="BR11">
         <v>7726.333333333333</v>
       </c>
-      <c r="BQ11">
+      <c r="BS11">
         <v>24875</v>
       </c>
     </row>
@@ -2358,28 +2368,28 @@
       <c r="AR12">
         <v>7.2</v>
       </c>
-      <c r="BJ12">
+      <c r="BL12">
         <v>41.93333333333333</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>42.2</v>
       </c>
-      <c r="BL12">
+      <c r="BN12">
         <v>5348.2</v>
       </c>
-      <c r="BM12">
+      <c r="BO12">
         <v>1274.5</v>
       </c>
-      <c r="BN12">
+      <c r="BP12">
         <v>-1</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>2874</v>
       </c>
-      <c r="BP12">
+      <c r="BR12">
         <v>7855</v>
       </c>
-      <c r="BQ12">
+      <c r="BS12">
         <v>25641</v>
       </c>
     </row>
@@ -2510,28 +2520,28 @@
       <c r="AR13">
         <v>7.1</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>42.36666666666667</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>42.63333333333333</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>5391.9</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>1301.3</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>-1</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>2901.333333333334</v>
       </c>
-      <c r="BP13">
+      <c r="BR13">
         <v>7931.333333333333</v>
       </c>
-      <c r="BQ13">
+      <c r="BS13">
         <v>27114.33333333333</v>
       </c>
     </row>
@@ -2662,28 +2672,28 @@
       <c r="AR14">
         <v>5.9</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>43.03333333333333</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>43.26666666666667</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>5436.6</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
         <v>1327.2</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>-1</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>2899.666666666667</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>8016</v>
       </c>
-      <c r="BQ14">
+      <c r="BS14">
         <v>27472.66666666667</v>
       </c>
     </row>
@@ -2814,28 +2824,28 @@
       <c r="AR15">
         <v>5.7</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>43.93333333333334</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>44.16666666666666</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>5483.5</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>1359.2</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>-1</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>2911.666666666667</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>8115</v>
       </c>
-      <c r="BQ15">
+      <c r="BS15">
         <v>27079.33333333333</v>
       </c>
     </row>
@@ -2966,28 +2976,28 @@
       <c r="AR16">
         <v>4.7</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>44.8</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>45.06666666666666</v>
       </c>
-      <c r="BL16">
+      <c r="BN16">
         <v>5530.8</v>
       </c>
-      <c r="BM16">
+      <c r="BO16">
         <v>1397.6</v>
       </c>
-      <c r="BN16">
+      <c r="BP16">
         <v>-1</v>
       </c>
-      <c r="BO16">
+      <c r="BQ16">
         <v>2926.333333333334</v>
       </c>
-      <c r="BP16">
+      <c r="BR16">
         <v>8183.666666666667</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>27510</v>
       </c>
     </row>
@@ -3118,28 +3128,28 @@
       <c r="AR17">
         <v>4.6</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>45.93333333333333</v>
       </c>
-      <c r="BK17">
+      <c r="BM17">
         <v>46.16666666666666</v>
       </c>
-      <c r="BL17">
+      <c r="BN17">
         <v>5579.2</v>
       </c>
-      <c r="BM17">
+      <c r="BO17">
         <v>1437.9</v>
       </c>
-      <c r="BN17">
+      <c r="BP17">
         <v>1</v>
       </c>
-      <c r="BO17">
+      <c r="BQ17">
         <v>2953.333333333334</v>
       </c>
-      <c r="BP17">
+      <c r="BR17">
         <v>8272.333333333334</v>
       </c>
-      <c r="BQ17">
+      <c r="BS17">
         <v>28620</v>
       </c>
     </row>
@@ -3270,28 +3280,28 @@
       <c r="AR18">
         <v>3.6</v>
       </c>
-      <c r="BJ18">
+      <c r="BL18">
         <v>47.3</v>
       </c>
-      <c r="BK18">
+      <c r="BM18">
         <v>47.56666666666666</v>
       </c>
-      <c r="BL18">
+      <c r="BN18">
         <v>5628.2</v>
       </c>
-      <c r="BM18">
+      <c r="BO18">
         <v>1477.9</v>
       </c>
-      <c r="BN18">
+      <c r="BP18">
         <v>1</v>
       </c>
-      <c r="BO18">
+      <c r="BQ18">
         <v>2988.666666666667</v>
       </c>
-      <c r="BP18">
+      <c r="BR18">
         <v>8307.666666666666</v>
       </c>
-      <c r="BQ18">
+      <c r="BS18">
         <v>30923.66666666667</v>
       </c>
     </row>
@@ -3422,28 +3432,28 @@
       <c r="AR19">
         <v>2.9</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>48.56666666666667</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>48.76666666666667</v>
       </c>
-      <c r="BL19">
+      <c r="BN19">
         <v>5677.5</v>
       </c>
-      <c r="BM19">
+      <c r="BO19">
         <v>1526.2</v>
       </c>
-      <c r="BN19">
+      <c r="BP19">
         <v>1</v>
       </c>
-      <c r="BO19">
+      <c r="BQ19">
         <v>3018</v>
       </c>
-      <c r="BP19">
+      <c r="BR19">
         <v>8346.333333333334</v>
       </c>
-      <c r="BQ19">
+      <c r="BS19">
         <v>33400.66666666666</v>
       </c>
     </row>
@@ -3574,28 +3584,28 @@
       <c r="AR20">
         <v>3.2</v>
       </c>
-      <c r="BJ20">
+      <c r="BL20">
         <v>49.93333333333333</v>
       </c>
-      <c r="BK20">
+      <c r="BM20">
         <v>50.23333333333334</v>
       </c>
-      <c r="BL20">
+      <c r="BN20">
         <v>5726.2</v>
       </c>
-      <c r="BM20">
+      <c r="BO20">
         <v>1584.3</v>
       </c>
-      <c r="BN20">
+      <c r="BP20">
         <v>1</v>
       </c>
-      <c r="BO20">
+      <c r="BQ20">
         <v>3048.333333333334</v>
       </c>
-      <c r="BP20">
+      <c r="BR20">
         <v>8424.666666666666</v>
       </c>
-      <c r="BQ20">
+      <c r="BS20">
         <v>33701.66666666666</v>
       </c>
     </row>
@@ -3726,28 +3736,28 @@
       <c r="AR21">
         <v>3.6</v>
       </c>
-      <c r="BJ21">
+      <c r="BL21">
         <v>51.46666666666667</v>
       </c>
-      <c r="BK21">
+      <c r="BM21">
         <v>51.76666666666667</v>
       </c>
-      <c r="BL21">
+      <c r="BN21">
         <v>5774.2</v>
       </c>
-      <c r="BM21">
+      <c r="BO21">
         <v>1644.6</v>
       </c>
-      <c r="BN21">
+      <c r="BP21">
         <v>1</v>
       </c>
-      <c r="BO21">
+      <c r="BQ21">
         <v>3099</v>
       </c>
-      <c r="BP21">
+      <c r="BR21">
         <v>8551.333333333334</v>
       </c>
-      <c r="BQ21">
+      <c r="BS21">
         <v>33884</v>
       </c>
     </row>
@@ -3878,28 +3888,28 @@
       <c r="AR22">
         <v>4.2</v>
       </c>
-      <c r="BJ22">
+      <c r="BL22">
         <v>52.56666666666666</v>
       </c>
-      <c r="BK22">
+      <c r="BM22">
         <v>52.86666666666667</v>
       </c>
-      <c r="BL22">
+      <c r="BN22">
         <v>5820.9</v>
       </c>
-      <c r="BM22">
+      <c r="BO22">
         <v>1695.5</v>
       </c>
-      <c r="BN22">
+      <c r="BP22">
         <v>1</v>
       </c>
-      <c r="BO22">
+      <c r="BQ22">
         <v>3161.666666666667</v>
       </c>
-      <c r="BP22">
+      <c r="BR22">
         <v>8673</v>
       </c>
-      <c r="BQ22">
+      <c r="BS22">
         <v>37820.33333333334</v>
       </c>
     </row>
@@ -4030,28 +4040,28 @@
       <c r="AR23">
         <v>4.3</v>
       </c>
-      <c r="BJ23">
+      <c r="BL23">
         <v>53.2</v>
       </c>
-      <c r="BK23">
+      <c r="BM23">
         <v>53.5</v>
       </c>
-      <c r="BL23">
+      <c r="BN23">
         <v>5866.7</v>
       </c>
-      <c r="BM23">
+      <c r="BO23">
         <v>1734.3</v>
       </c>
-      <c r="BN23">
+      <c r="BP23">
         <v>-1</v>
       </c>
-      <c r="BO23">
+      <c r="BQ23">
         <v>3177.333333333334</v>
       </c>
-      <c r="BP23">
+      <c r="BR23">
         <v>8751.333333333334</v>
       </c>
-      <c r="BQ23">
+      <c r="BS23">
         <v>35429.66666666666</v>
       </c>
     </row>
@@ -4182,28 +4192,28 @@
       <c r="AR24">
         <v>4.6</v>
       </c>
-      <c r="BJ24">
+      <c r="BL24">
         <v>54.26666666666667</v>
       </c>
-      <c r="BK24">
+      <c r="BM24">
         <v>54.56666666666666</v>
       </c>
-      <c r="BL24">
+      <c r="BN24">
         <v>5912</v>
       </c>
-      <c r="BM24">
+      <c r="BO24">
         <v>1778.6</v>
       </c>
-      <c r="BN24">
+      <c r="BP24">
         <v>-1</v>
       </c>
-      <c r="BO24">
+      <c r="BQ24">
         <v>3178</v>
       </c>
-      <c r="BP24">
+      <c r="BR24">
         <v>8786.333333333334</v>
       </c>
-      <c r="BQ24">
+      <c r="BS24">
         <v>36988.33333333334</v>
       </c>
     </row>
@@ -4334,28 +4344,28 @@
       <c r="AR25">
         <v>4.9</v>
       </c>
-      <c r="BJ25">
+      <c r="BL25">
         <v>55.26666666666667</v>
       </c>
-      <c r="BK25">
+      <c r="BM25">
         <v>55.56666666666667</v>
       </c>
-      <c r="BL25">
+      <c r="BN25">
         <v>5957.4</v>
       </c>
-      <c r="BM25">
+      <c r="BO25">
         <v>1822.2</v>
       </c>
-      <c r="BN25">
+      <c r="BP25">
         <v>-1</v>
       </c>
-      <c r="BO25">
+      <c r="BQ25">
         <v>3197.333333333334</v>
       </c>
-      <c r="BP25">
+      <c r="BR25">
         <v>8824.666666666666</v>
       </c>
-      <c r="BQ25">
+      <c r="BS25">
         <v>39554</v>
       </c>
     </row>
@@ -4486,28 +4496,28 @@
       <c r="AR26">
         <v>5.1</v>
       </c>
-      <c r="BJ26">
+      <c r="BL26">
         <v>55.9</v>
       </c>
-      <c r="BK26">
+      <c r="BM26">
         <v>56.23333333333333</v>
       </c>
-      <c r="BL26">
+      <c r="BN26">
         <v>6002.8</v>
       </c>
-      <c r="BM26">
+      <c r="BO26">
         <v>1855.5</v>
       </c>
-      <c r="BN26">
+      <c r="BP26">
         <v>-1</v>
       </c>
-      <c r="BO26">
+      <c r="BQ26">
         <v>3214.333333333334</v>
       </c>
-      <c r="BP26">
+      <c r="BR26">
         <v>8883</v>
       </c>
-      <c r="BQ26">
+      <c r="BS26">
         <v>42554</v>
       </c>
     </row>
@@ -4638,28 +4648,28 @@
       <c r="AR27">
         <v>4.8</v>
       </c>
-      <c r="BJ27">
+      <c r="BL27">
         <v>56.4</v>
       </c>
-      <c r="BK27">
+      <c r="BM27">
         <v>56.73333333333333</v>
       </c>
-      <c r="BL27">
+      <c r="BN27">
         <v>6048.9</v>
       </c>
-      <c r="BM27">
+      <c r="BO27">
         <v>1888.6</v>
       </c>
-      <c r="BN27">
+      <c r="BP27">
         <v>-1</v>
       </c>
-      <c r="BO27">
+      <c r="BQ27">
         <v>3241.666666666667</v>
       </c>
-      <c r="BP27">
+      <c r="BR27">
         <v>8868.666666666666</v>
       </c>
-      <c r="BQ27">
+      <c r="BS27">
         <v>38830.66666666666</v>
       </c>
     </row>
@@ -4790,28 +4800,28 @@
       <c r="AR28">
         <v>5.1</v>
       </c>
-      <c r="BJ28">
+      <c r="BL28">
         <v>57.3</v>
       </c>
-      <c r="BK28">
+      <c r="BM28">
         <v>57.6</v>
       </c>
-      <c r="BL28">
+      <c r="BN28">
         <v>6096.4</v>
       </c>
-      <c r="BM28">
+      <c r="BO28">
         <v>1928.1</v>
       </c>
-      <c r="BN28">
+      <c r="BP28">
         <v>-1</v>
       </c>
-      <c r="BO28">
+      <c r="BQ28">
         <v>3290.666666666667</v>
       </c>
-      <c r="BP28">
+      <c r="BR28">
         <v>8845</v>
       </c>
-      <c r="BQ28">
+      <c r="BS28">
         <v>36130</v>
       </c>
     </row>
@@ -4942,28 +4952,28 @@
       <c r="AR29">
         <v>5.5</v>
       </c>
-      <c r="BJ29">
+      <c r="BL29">
         <v>58.13333333333333</v>
       </c>
-      <c r="BK29">
+      <c r="BM29">
         <v>58.43333333333334</v>
       </c>
-      <c r="BL29">
+      <c r="BN29">
         <v>6144.7</v>
       </c>
-      <c r="BM29">
+      <c r="BO29">
         <v>1978.1</v>
       </c>
-      <c r="BN29">
+      <c r="BP29">
         <v>-1</v>
       </c>
-      <c r="BO29">
+      <c r="BQ29">
         <v>3342</v>
       </c>
-      <c r="BP29">
+      <c r="BR29">
         <v>8861</v>
       </c>
-      <c r="BQ29">
+      <c r="BS29">
         <v>34359.66666666666</v>
       </c>
     </row>
@@ -5094,28 +5104,28 @@
       <c r="AR30">
         <v>5.8</v>
       </c>
-      <c r="BJ30">
+      <c r="BL30">
         <v>59.2</v>
       </c>
-      <c r="BK30">
+      <c r="BM30">
         <v>59.53333333333333</v>
       </c>
-      <c r="BL30">
+      <c r="BN30">
         <v>6194.5</v>
       </c>
-      <c r="BM30">
+      <c r="BO30">
         <v>2026.2</v>
       </c>
-      <c r="BN30">
+      <c r="BP30">
         <v>-1</v>
       </c>
-      <c r="BO30">
+      <c r="BQ30">
         <v>3341.333333333334</v>
       </c>
-      <c r="BP30">
+      <c r="BR30">
         <v>8860.666666666666</v>
       </c>
-      <c r="BQ30">
+      <c r="BS30">
         <v>36034</v>
       </c>
     </row>
@@ -5246,28 +5256,28 @@
       <c r="AR31">
         <v>5.9</v>
       </c>
-      <c r="BJ31">
+      <c r="BL31">
         <v>60.23333333333333</v>
       </c>
-      <c r="BK31">
+      <c r="BM31">
         <v>60.6</v>
       </c>
-      <c r="BL31">
+      <c r="BN31">
         <v>6245.6</v>
       </c>
-      <c r="BM31">
+      <c r="BO31">
         <v>2071.8</v>
       </c>
-      <c r="BN31">
+      <c r="BP31">
         <v>-1</v>
       </c>
-      <c r="BO31">
+      <c r="BQ31">
         <v>3374.666666666667</v>
       </c>
-      <c r="BP31">
+      <c r="BR31">
         <v>8907.333333333334</v>
       </c>
-      <c r="BQ31">
+      <c r="BS31">
         <v>37037.66666666666</v>
       </c>
     </row>
@@ -5398,28 +5408,28 @@
       <c r="AR32">
         <v>6.4</v>
       </c>
-      <c r="BJ32">
+      <c r="BL32">
         <v>61.06666666666666</v>
       </c>
-      <c r="BK32">
+      <c r="BM32">
         <v>61.43333333333334</v>
       </c>
-      <c r="BL32">
+      <c r="BN32">
         <v>6297.4</v>
       </c>
-      <c r="BM32">
+      <c r="BO32">
         <v>2114.4</v>
       </c>
-      <c r="BN32">
+      <c r="BP32">
         <v>-1</v>
       </c>
-      <c r="BO32">
+      <c r="BQ32">
         <v>3385</v>
       </c>
-      <c r="BP32">
+      <c r="BR32">
         <v>9099.333333333334</v>
       </c>
-      <c r="BQ32">
+      <c r="BS32">
         <v>35666.33333333334</v>
       </c>
     </row>
@@ -5550,28 +5560,28 @@
       <c r="AR33">
         <v>10.3</v>
       </c>
-      <c r="BJ33">
+      <c r="BL33">
         <v>61.96666666666667</v>
       </c>
-      <c r="BK33">
+      <c r="BM33">
         <v>62.26666666666666</v>
       </c>
-      <c r="BL33">
+      <c r="BN33">
         <v>6350.6</v>
       </c>
-      <c r="BM33">
+      <c r="BO33">
         <v>2178.3</v>
       </c>
-      <c r="BN33">
+      <c r="BP33">
         <v>-1</v>
       </c>
-      <c r="BO33">
+      <c r="BQ33">
         <v>3404.666666666667</v>
       </c>
-      <c r="BP33">
+      <c r="BR33">
         <v>9231</v>
       </c>
-      <c r="BQ33">
+      <c r="BS33">
         <v>35160</v>
       </c>
     </row>
@@ -5702,28 +5712,28 @@
       <c r="AR34">
         <v>8.699999999999999</v>
       </c>
-      <c r="BJ34">
+      <c r="BL34">
         <v>63.03333333333333</v>
       </c>
-      <c r="BK34">
+      <c r="BM34">
         <v>63.36666666666667</v>
       </c>
-      <c r="BL34">
+      <c r="BN34">
         <v>6405.2</v>
       </c>
-      <c r="BM34">
+      <c r="BO34">
         <v>2229</v>
       </c>
-      <c r="BN34">
+      <c r="BP34">
         <v>-1</v>
       </c>
-      <c r="BO34">
+      <c r="BQ34">
         <v>3442.333333333334</v>
       </c>
-      <c r="BP34">
+      <c r="BR34">
         <v>9348.333333333334</v>
       </c>
-      <c r="BQ34">
+      <c r="BS34">
         <v>34095.33333333334</v>
       </c>
     </row>
@@ -5854,28 +5864,28 @@
       <c r="AR35">
         <v>8.4</v>
       </c>
-      <c r="BJ35">
+      <c r="BL35">
         <v>64.46666666666667</v>
       </c>
-      <c r="BK35">
+      <c r="BM35">
         <v>64.76666666666667</v>
       </c>
-      <c r="BL35">
+      <c r="BN35">
         <v>6460.8</v>
       </c>
-      <c r="BM35">
+      <c r="BO35">
         <v>2291.3</v>
       </c>
-      <c r="BN35">
+      <c r="BP35">
         <v>-1</v>
       </c>
-      <c r="BO35">
+      <c r="BQ35">
         <v>3479</v>
       </c>
-      <c r="BP35">
+      <c r="BR35">
         <v>9466</v>
       </c>
-      <c r="BQ35">
+      <c r="BS35">
         <v>41889.66666666666</v>
       </c>
     </row>
@@ -6006,28 +6016,28 @@
       <c r="AR36">
         <v>8.300000000000001</v>
       </c>
-      <c r="BJ36">
+      <c r="BL36">
         <v>65.96666666666667</v>
       </c>
-      <c r="BK36">
+      <c r="BM36">
         <v>66.23333333333333</v>
       </c>
-      <c r="BL36">
+      <c r="BN36">
         <v>6518</v>
       </c>
-      <c r="BM36">
+      <c r="BO36">
         <v>2350.9</v>
       </c>
-      <c r="BN36">
+      <c r="BP36">
         <v>-1</v>
       </c>
-      <c r="BO36">
+      <c r="BQ36">
         <v>3477.333333333334</v>
       </c>
-      <c r="BP36">
+      <c r="BR36">
         <v>9492.333333333334</v>
       </c>
-      <c r="BQ36">
+      <c r="BS36">
         <v>43760.66666666666</v>
       </c>
     </row>
@@ -6158,28 +6168,28 @@
       <c r="AR37">
         <v>10.4</v>
       </c>
-      <c r="BJ37">
+      <c r="BL37">
         <v>67.5</v>
       </c>
-      <c r="BK37">
+      <c r="BM37">
         <v>67.83333333333333</v>
       </c>
-      <c r="BL37">
+      <c r="BN37">
         <v>6576.2</v>
       </c>
-      <c r="BM37">
+      <c r="BO37">
         <v>2420.4</v>
       </c>
-      <c r="BN37">
+      <c r="BP37">
         <v>-1</v>
       </c>
-      <c r="BO37">
+      <c r="BQ37">
         <v>3494</v>
       </c>
-      <c r="BP37">
+      <c r="BR37">
         <v>9482.666666666666</v>
       </c>
-      <c r="BQ37">
+      <c r="BS37">
         <v>45015.33333333334</v>
       </c>
     </row>
@@ -6310,28 +6320,28 @@
       <c r="AR38">
         <v>8.4</v>
       </c>
-      <c r="BJ38">
+      <c r="BL38">
         <v>69.2</v>
       </c>
-      <c r="BK38">
+      <c r="BM38">
         <v>69.56666666666666</v>
       </c>
-      <c r="BL38">
+      <c r="BN38">
         <v>6636</v>
       </c>
-      <c r="BM38">
+      <c r="BO38">
         <v>2486.9</v>
       </c>
-      <c r="BN38">
+      <c r="BP38">
         <v>-1</v>
       </c>
-      <c r="BO38">
+      <c r="BQ38">
         <v>3504.333333333334</v>
       </c>
-      <c r="BP38">
+      <c r="BR38">
         <v>9531.333333333334</v>
       </c>
-      <c r="BQ38">
+      <c r="BS38">
         <v>40794</v>
       </c>
     </row>
@@ -6462,28 +6472,28 @@
       <c r="AR39">
         <v>8.800000000000001</v>
       </c>
-      <c r="BJ39">
+      <c r="BL39">
         <v>71.40000000000001</v>
       </c>
-      <c r="BK39">
+      <c r="BM39">
         <v>71.89999999999999</v>
       </c>
-      <c r="BL39">
+      <c r="BN39">
         <v>6693.8</v>
       </c>
-      <c r="BM39">
+      <c r="BO39">
         <v>2570</v>
       </c>
-      <c r="BN39">
+      <c r="BP39">
         <v>-1</v>
       </c>
-      <c r="BO39">
+      <c r="BQ39">
         <v>3518</v>
       </c>
-      <c r="BP39">
+      <c r="BR39">
         <v>9604.333333333334</v>
       </c>
-      <c r="BQ39">
+      <c r="BS39">
         <v>45875.33333333334</v>
       </c>
     </row>
@@ -6614,28 +6624,28 @@
       <c r="AR40">
         <v>8.1</v>
       </c>
-      <c r="BJ40">
+      <c r="BL40">
         <v>73.7</v>
       </c>
-      <c r="BK40">
+      <c r="BM40">
         <v>74.23333333333333</v>
       </c>
-      <c r="BL40">
+      <c r="BN40">
         <v>6748.7</v>
       </c>
-      <c r="BM40">
+      <c r="BO40">
         <v>2647.8</v>
       </c>
-      <c r="BN40">
+      <c r="BP40">
         <v>-1</v>
       </c>
-      <c r="BO40">
+      <c r="BQ40">
         <v>3560.666666666667</v>
       </c>
-      <c r="BP40">
+      <c r="BR40">
         <v>9710.666666666666</v>
       </c>
-      <c r="BQ40">
+      <c r="BS40">
         <v>49343.66666666666</v>
       </c>
     </row>
@@ -6766,28 +6776,28 @@
       <c r="AR41">
         <v>8.9</v>
       </c>
-      <c r="BJ41">
+      <c r="BL41">
         <v>76.03333333333333</v>
       </c>
-      <c r="BK41">
+      <c r="BM41">
         <v>76.5</v>
       </c>
-      <c r="BL41">
+      <c r="BN41">
         <v>6800.2</v>
       </c>
-      <c r="BM41">
+      <c r="BO41">
         <v>2717.5</v>
       </c>
-      <c r="BN41">
+      <c r="BP41">
         <v>-1</v>
       </c>
-      <c r="BO41">
+      <c r="BQ41">
         <v>3579.333333333334</v>
       </c>
-      <c r="BP41">
+      <c r="BR41">
         <v>9697.333333333334</v>
       </c>
-      <c r="BQ41">
+      <c r="BS41">
         <v>52609</v>
       </c>
     </row>
@@ -6918,28 +6928,28 @@
       <c r="AR42">
         <v>9.199999999999999</v>
       </c>
-      <c r="BJ42">
+      <c r="BL42">
         <v>79.03333333333333</v>
       </c>
-      <c r="BK42">
+      <c r="BM42">
         <v>79.5</v>
       </c>
-      <c r="BL42">
+      <c r="BN42">
         <v>6847.6</v>
       </c>
-      <c r="BM42">
+      <c r="BO42">
         <v>2793.9</v>
       </c>
-      <c r="BN42">
+      <c r="BP42">
         <v>1</v>
       </c>
-      <c r="BO42">
+      <c r="BQ42">
         <v>3582</v>
       </c>
-      <c r="BP42">
+      <c r="BR42">
         <v>9741.333333333334</v>
       </c>
-      <c r="BQ42">
+      <c r="BS42">
         <v>55934.33333333334</v>
       </c>
     </row>
@@ -7070,28 +7080,28 @@
       <c r="AR43">
         <v>9.6</v>
       </c>
-      <c r="BJ43">
+      <c r="BL43">
         <v>81.7</v>
       </c>
-      <c r="BK43">
+      <c r="BM43">
         <v>82.2</v>
       </c>
-      <c r="BL43">
+      <c r="BN43">
         <v>6890.3</v>
       </c>
-      <c r="BM43">
+      <c r="BO43">
         <v>2878.2</v>
       </c>
-      <c r="BN43">
+      <c r="BP43">
         <v>1</v>
       </c>
-      <c r="BO43">
+      <c r="BQ43">
         <v>3602.666666666667</v>
       </c>
-      <c r="BP43">
+      <c r="BR43">
         <v>9749.333333333334</v>
       </c>
-      <c r="BQ43">
+      <c r="BS43">
         <v>54112</v>
       </c>
     </row>
@@ -7222,28 +7232,28 @@
       <c r="AR44">
         <v>10.1</v>
       </c>
-      <c r="BJ44">
+      <c r="BL44">
         <v>83.23333333333333</v>
       </c>
-      <c r="BK44">
+      <c r="BM44">
         <v>83.73333333333333</v>
       </c>
-      <c r="BL44">
+      <c r="BN44">
         <v>6928.3</v>
       </c>
-      <c r="BM44">
+      <c r="BO44">
         <v>2958.8</v>
       </c>
-      <c r="BN44">
+      <c r="BP44">
         <v>1</v>
       </c>
-      <c r="BO44">
+      <c r="BQ44">
         <v>3624</v>
       </c>
-      <c r="BP44">
+      <c r="BR44">
         <v>9782.333333333334</v>
       </c>
-      <c r="BQ44">
+      <c r="BS44">
         <v>52797</v>
       </c>
     </row>
@@ -7374,28 +7384,28 @@
       <c r="AR45">
         <v>10.3</v>
       </c>
-      <c r="BJ45">
+      <c r="BL45">
         <v>85.56666666666666</v>
       </c>
-      <c r="BK45">
+      <c r="BM45">
         <v>86.16666666666667</v>
       </c>
-      <c r="BL45">
+      <c r="BN45">
         <v>6968.3</v>
       </c>
-      <c r="BM45">
+      <c r="BO45">
         <v>3053.4</v>
       </c>
-      <c r="BN45">
+      <c r="BP45">
         <v>-1</v>
       </c>
-      <c r="BO45">
+      <c r="BQ45">
         <v>3630.666666666667</v>
       </c>
-      <c r="BP45">
+      <c r="BR45">
         <v>9793</v>
       </c>
-      <c r="BQ45">
+      <c r="BS45">
         <v>54381</v>
       </c>
     </row>
@@ -7526,28 +7536,28 @@
       <c r="AR46">
         <v>10.6</v>
       </c>
-      <c r="BJ46">
+      <c r="BL46">
         <v>87.93333333333334</v>
       </c>
-      <c r="BK46">
+      <c r="BM46">
         <v>88.46666666666665</v>
       </c>
-      <c r="BL46">
+      <c r="BN46">
         <v>7012.5</v>
       </c>
-      <c r="BM46">
+      <c r="BO46">
         <v>3153.6</v>
       </c>
-      <c r="BN46">
+      <c r="BP46">
         <v>-1</v>
       </c>
-      <c r="BO46">
+      <c r="BQ46">
         <v>3636</v>
       </c>
-      <c r="BP46">
+      <c r="BR46">
         <v>9750.333333333334</v>
       </c>
-      <c r="BQ46">
+      <c r="BS46">
         <v>60484</v>
       </c>
     </row>
@@ -7678,28 +7688,28 @@
       <c r="AR47">
         <v>10.7</v>
       </c>
-      <c r="BJ47">
+      <c r="BL47">
         <v>89.76666666666667</v>
       </c>
-      <c r="BK47">
+      <c r="BM47">
         <v>90.23333333333335</v>
       </c>
-      <c r="BL47">
+      <c r="BN47">
         <v>7059.7</v>
       </c>
-      <c r="BM47">
+      <c r="BO47">
         <v>3237.8</v>
       </c>
-      <c r="BN47">
+      <c r="BP47">
         <v>-1</v>
       </c>
-      <c r="BO47">
+      <c r="BQ47">
         <v>3631.666666666667</v>
       </c>
-      <c r="BP47">
+      <c r="BR47">
         <v>9665</v>
       </c>
-      <c r="BQ47">
+      <c r="BS47">
         <v>53862</v>
       </c>
     </row>
@@ -7830,28 +7840,28 @@
       <c r="AR48">
         <v>11.1</v>
       </c>
-      <c r="BJ48">
+      <c r="BL48">
         <v>92.26666666666667</v>
       </c>
-      <c r="BK48">
+      <c r="BM48">
         <v>92.73333333333333</v>
       </c>
-      <c r="BL48">
+      <c r="BN48">
         <v>7109.5</v>
       </c>
-      <c r="BM48">
+      <c r="BO48">
         <v>3322</v>
       </c>
-      <c r="BN48">
+      <c r="BP48">
         <v>1</v>
       </c>
-      <c r="BO48">
+      <c r="BQ48">
         <v>3640</v>
       </c>
-      <c r="BP48">
+      <c r="BR48">
         <v>9547.666666666666</v>
       </c>
-      <c r="BQ48">
+      <c r="BS48">
         <v>52044</v>
       </c>
     </row>
@@ -7982,28 +7992,28 @@
       <c r="AR49">
         <v>13.5</v>
       </c>
-      <c r="BJ49">
+      <c r="BL49">
         <v>93.76666666666667</v>
       </c>
-      <c r="BK49">
+      <c r="BM49">
         <v>94.16666666666667</v>
       </c>
-      <c r="BL49">
+      <c r="BN49">
         <v>7161.9</v>
       </c>
-      <c r="BM49">
+      <c r="BO49">
         <v>3404.3</v>
       </c>
-      <c r="BN49">
+      <c r="BP49">
         <v>1</v>
       </c>
-      <c r="BO49">
+      <c r="BQ49">
         <v>3653</v>
       </c>
-      <c r="BP49">
+      <c r="BR49">
         <v>9507</v>
       </c>
-      <c r="BQ49">
+      <c r="BS49">
         <v>54313.66666666666</v>
       </c>
     </row>
@@ -8134,28 +8144,28 @@
       <c r="AR50">
         <v>14</v>
       </c>
-      <c r="BJ50">
+      <c r="BL50">
         <v>94.60000000000001</v>
       </c>
-      <c r="BK50">
+      <c r="BM50">
         <v>94.96666666666665</v>
       </c>
-      <c r="BL50">
+      <c r="BN50">
         <v>7216.2</v>
       </c>
-      <c r="BM50">
+      <c r="BO50">
         <v>3477.3</v>
       </c>
-      <c r="BN50">
+      <c r="BP50">
         <v>1</v>
       </c>
-      <c r="BO50">
+      <c r="BQ50">
         <v>3645.666666666667</v>
       </c>
-      <c r="BP50">
+      <c r="BR50">
         <v>9484.333333333334</v>
       </c>
-      <c r="BQ50">
+      <c r="BS50">
         <v>51944</v>
       </c>
     </row>
@@ -8286,28 +8296,28 @@
       <c r="AR51">
         <v>13.6</v>
       </c>
-      <c r="BJ51">
+      <c r="BL51">
         <v>95.96666666666667</v>
       </c>
-      <c r="BK51">
+      <c r="BM51">
         <v>96.23333333333333</v>
       </c>
-      <c r="BL51">
+      <c r="BN51">
         <v>7271.9</v>
       </c>
-      <c r="BM51">
+      <c r="BO51">
         <v>3549.7</v>
       </c>
-      <c r="BN51">
+      <c r="BP51">
         <v>1</v>
       </c>
-      <c r="BO51">
+      <c r="BQ51">
         <v>3647.333333333334</v>
       </c>
-      <c r="BP51">
+      <c r="BR51">
         <v>9495.666666666666</v>
       </c>
-      <c r="BQ51">
+      <c r="BS51">
         <v>52182.66666666666</v>
       </c>
     </row>
@@ -8438,28 +8448,28 @@
       <c r="AR52">
         <v>13</v>
       </c>
-      <c r="BJ52">
+      <c r="BL52">
         <v>97.63333333333334</v>
       </c>
-      <c r="BK52">
+      <c r="BM52">
         <v>98</v>
       </c>
-      <c r="BL52">
+      <c r="BN52">
         <v>7328.5</v>
       </c>
-      <c r="BM52">
+      <c r="BO52">
         <v>3628</v>
       </c>
-      <c r="BN52">
+      <c r="BP52">
         <v>1</v>
       </c>
-      <c r="BO52">
+      <c r="BQ52">
         <v>3625.666666666667</v>
       </c>
-      <c r="BP52">
+      <c r="BR52">
         <v>9409.666666666666</v>
       </c>
-      <c r="BQ52">
+      <c r="BS52">
         <v>52486.33333333334</v>
       </c>
     </row>
@@ -8590,28 +8600,28 @@
       <c r="AR53">
         <v>19.4</v>
       </c>
-      <c r="BJ53">
+      <c r="BL53">
         <v>97.93333333333334</v>
       </c>
-      <c r="BK53">
+      <c r="BM53">
         <v>98.33333333333333</v>
       </c>
-      <c r="BL53">
+      <c r="BN53">
         <v>7386.2</v>
       </c>
-      <c r="BM53">
+      <c r="BO53">
         <v>3694.6</v>
       </c>
-      <c r="BN53">
+      <c r="BP53">
         <v>1</v>
       </c>
-      <c r="BO53">
+      <c r="BQ53">
         <v>3640.333333333334</v>
       </c>
-      <c r="BP53">
+      <c r="BR53">
         <v>9437</v>
       </c>
-      <c r="BQ53">
+      <c r="BS53">
         <v>54765.33333333334</v>
       </c>
     </row>
@@ -8742,28 +8752,28 @@
       <c r="AR54">
         <v>19.9</v>
       </c>
-      <c r="BJ54">
+      <c r="BL54">
         <v>98</v>
       </c>
-      <c r="BK54">
+      <c r="BM54">
         <v>98.3</v>
       </c>
-      <c r="BL54">
+      <c r="BN54">
         <v>7443.9</v>
       </c>
-      <c r="BM54">
+      <c r="BO54">
         <v>3751.5</v>
       </c>
-      <c r="BN54">
+      <c r="BP54">
         <v>-1</v>
       </c>
-      <c r="BO54">
+      <c r="BQ54">
         <v>3650.333333333334</v>
       </c>
-      <c r="BP54">
+      <c r="BR54">
         <v>9447.333333333334</v>
       </c>
-      <c r="BQ54">
+      <c r="BS54">
         <v>52678.33333333334</v>
       </c>
     </row>
@@ -8894,28 +8904,28 @@
       <c r="AR55">
         <v>21.6</v>
       </c>
-      <c r="BJ55">
+      <c r="BL55">
         <v>99.13333333333334</v>
       </c>
-      <c r="BK55">
+      <c r="BM55">
         <v>99.43333333333334</v>
       </c>
-      <c r="BL55">
+      <c r="BN55">
         <v>7502.9</v>
       </c>
-      <c r="BM55">
+      <c r="BO55">
         <v>3809.3</v>
       </c>
-      <c r="BN55">
+      <c r="BP55">
         <v>-1</v>
       </c>
-      <c r="BO55">
+      <c r="BQ55">
         <v>3656</v>
       </c>
-      <c r="BP55">
+      <c r="BR55">
         <v>9445.333333333334</v>
       </c>
-      <c r="BQ55">
+      <c r="BS55">
         <v>51386</v>
       </c>
     </row>
@@ -9046,28 +9056,28 @@
       <c r="AR56">
         <v>22.2</v>
       </c>
-      <c r="BJ56">
+      <c r="BL56">
         <v>100.1</v>
       </c>
-      <c r="BK56">
+      <c r="BM56">
         <v>100.4</v>
       </c>
-      <c r="BL56">
+      <c r="BN56">
         <v>7563.6</v>
       </c>
-      <c r="BM56">
+      <c r="BO56">
         <v>3881</v>
       </c>
-      <c r="BN56">
+      <c r="BP56">
         <v>-1</v>
       </c>
-      <c r="BO56">
+      <c r="BQ56">
         <v>3671.333333333334</v>
       </c>
-      <c r="BP56">
+      <c r="BR56">
         <v>9433</v>
       </c>
-      <c r="BQ56">
+      <c r="BS56">
         <v>53662.33333333334</v>
       </c>
     </row>
@@ -9198,28 +9208,28 @@
       <c r="AR57">
         <v>21.5</v>
       </c>
-      <c r="BJ57">
+      <c r="BL57">
         <v>101.1</v>
       </c>
-      <c r="BK57">
+      <c r="BM57">
         <v>101.1666666666667</v>
       </c>
-      <c r="BL57">
+      <c r="BN57">
         <v>7626.8</v>
       </c>
-      <c r="BM57">
+      <c r="BO57">
         <v>3943</v>
       </c>
-      <c r="BN57">
+      <c r="BP57">
         <v>-1</v>
       </c>
-      <c r="BO57">
+      <c r="BQ57">
         <v>3671.666666666667</v>
       </c>
-      <c r="BP57">
+      <c r="BR57">
         <v>9401.666666666666</v>
       </c>
-      <c r="BQ57">
+      <c r="BS57">
         <v>53249</v>
       </c>
     </row>
@@ -9350,28 +9360,28 @@
       <c r="AR58">
         <v>21.2</v>
       </c>
-      <c r="BJ58">
+      <c r="BL58">
         <v>102.5333333333333</v>
       </c>
-      <c r="BK58">
+      <c r="BM58">
         <v>101.9333333333333</v>
       </c>
-      <c r="BL58">
+      <c r="BN58">
         <v>7692.5</v>
       </c>
-      <c r="BM58">
+      <c r="BO58">
         <v>4017.3</v>
       </c>
-      <c r="BN58">
+      <c r="BP58">
         <v>-1</v>
       </c>
-      <c r="BO58">
+      <c r="BQ58">
         <v>3687</v>
       </c>
-      <c r="BP58">
+      <c r="BR58">
         <v>9412</v>
       </c>
-      <c r="BQ58">
+      <c r="BS58">
         <v>55752.33333333334</v>
       </c>
     </row>
@@ -9502,28 +9512,28 @@
       <c r="AR59">
         <v>21</v>
       </c>
-      <c r="BJ59">
+      <c r="BL59">
         <v>103.5</v>
       </c>
-      <c r="BK59">
+      <c r="BM59">
         <v>102.4666666666667</v>
       </c>
-      <c r="BL59">
+      <c r="BN59">
         <v>7760.5</v>
       </c>
-      <c r="BM59">
+      <c r="BO59">
         <v>4087.5</v>
       </c>
-      <c r="BN59">
+      <c r="BP59">
         <v>-1</v>
       </c>
-      <c r="BO59">
+      <c r="BQ59">
         <v>3720</v>
       </c>
-      <c r="BP59">
+      <c r="BR59">
         <v>9445.333333333334</v>
       </c>
-      <c r="BQ59">
+      <c r="BS59">
         <v>57382.66666666666</v>
       </c>
     </row>
@@ -9654,28 +9664,28 @@
       <c r="AR60">
         <v>20.9</v>
       </c>
-      <c r="BJ60">
+      <c r="BL60">
         <v>104.4</v>
       </c>
-      <c r="BK60">
+      <c r="BM60">
         <v>103.9333333333333</v>
       </c>
-      <c r="BL60">
+      <c r="BN60">
         <v>7830.2</v>
       </c>
-      <c r="BM60">
+      <c r="BO60">
         <v>4160.9</v>
       </c>
-      <c r="BN60">
+      <c r="BP60">
         <v>-1</v>
       </c>
-      <c r="BO60">
+      <c r="BQ60">
         <v>3758</v>
       </c>
-      <c r="BP60">
+      <c r="BR60">
         <v>9509</v>
       </c>
-      <c r="BQ60">
+      <c r="BS60">
         <v>59910.33333333334</v>
       </c>
     </row>
@@ -9806,28 +9816,28 @@
       <c r="AR61">
         <v>21.2</v>
       </c>
-      <c r="BJ61">
+      <c r="BL61">
         <v>105.3</v>
       </c>
-      <c r="BK61">
+      <c r="BM61">
         <v>104.8</v>
       </c>
-      <c r="BL61">
+      <c r="BN61">
         <v>7901.2</v>
       </c>
-      <c r="BM61">
+      <c r="BO61">
         <v>4230</v>
       </c>
-      <c r="BN61">
+      <c r="BP61">
         <v>-1</v>
       </c>
-      <c r="BO61">
+      <c r="BQ61">
         <v>3773</v>
       </c>
-      <c r="BP61">
+      <c r="BR61">
         <v>9555</v>
       </c>
-      <c r="BQ61">
+      <c r="BS61">
         <v>60890.66666666666</v>
       </c>
     </row>
@@ -9958,28 +9968,28 @@
       <c r="AR62">
         <v>21.1</v>
       </c>
-      <c r="BJ62">
+      <c r="BL62">
         <v>106.2666666666667</v>
       </c>
-      <c r="BK62">
+      <c r="BM62">
         <v>105.6666666666667</v>
       </c>
-      <c r="BL62">
+      <c r="BN62">
         <v>7972.5</v>
       </c>
-      <c r="BM62">
+      <c r="BO62">
         <v>4310.4</v>
       </c>
-      <c r="BN62">
+      <c r="BP62">
         <v>-1</v>
       </c>
-      <c r="BO62">
+      <c r="BQ62">
         <v>3798.333333333334</v>
       </c>
-      <c r="BP62">
+      <c r="BR62">
         <v>9595.666666666666</v>
       </c>
-      <c r="BQ62">
+      <c r="BS62">
         <v>62514.66666666666</v>
       </c>
     </row>
@@ -10110,28 +10120,28 @@
       <c r="AR63">
         <v>21</v>
       </c>
-      <c r="BJ63">
+      <c r="BL63">
         <v>107.2333333333333</v>
       </c>
-      <c r="BK63">
+      <c r="BM63">
         <v>106.6333333333333</v>
       </c>
-      <c r="BL63">
+      <c r="BN63">
         <v>8044.2</v>
       </c>
-      <c r="BM63">
+      <c r="BO63">
         <v>4377.1</v>
       </c>
-      <c r="BN63">
+      <c r="BP63">
         <v>-1</v>
       </c>
-      <c r="BO63">
+      <c r="BQ63">
         <v>3819.333333333334</v>
       </c>
-      <c r="BP63">
+      <c r="BR63">
         <v>9640.333333333334</v>
       </c>
-      <c r="BQ63">
+      <c r="BS63">
         <v>65739.33333333333</v>
       </c>
     </row>
@@ -10262,28 +10272,28 @@
       <c r="AR64">
         <v>21.3</v>
       </c>
-      <c r="BJ64">
+      <c r="BL64">
         <v>107.9</v>
       </c>
-      <c r="BK64">
+      <c r="BM64">
         <v>107.1333333333333</v>
       </c>
-      <c r="BL64">
+      <c r="BN64">
         <v>8115.9</v>
       </c>
-      <c r="BM64">
+      <c r="BO64">
         <v>4442.8</v>
       </c>
-      <c r="BN64">
+      <c r="BP64">
         <v>-1</v>
       </c>
-      <c r="BO64">
+      <c r="BQ64">
         <v>3844.333333333334</v>
       </c>
-      <c r="BP64">
+      <c r="BR64">
         <v>9746.666666666666</v>
       </c>
-      <c r="BQ64">
+      <c r="BS64">
         <v>67220</v>
       </c>
     </row>
@@ -10414,28 +10424,28 @@
       <c r="AR65">
         <v>22</v>
       </c>
-      <c r="BJ65">
+      <c r="BL65">
         <v>109</v>
       </c>
-      <c r="BK65">
+      <c r="BM65">
         <v>108.2</v>
       </c>
-      <c r="BL65">
+      <c r="BN65">
         <v>8187.2</v>
       </c>
-      <c r="BM65">
+      <c r="BO65">
         <v>4506.8</v>
       </c>
-      <c r="BN65">
+      <c r="BP65">
         <v>-1</v>
       </c>
-      <c r="BO65">
+      <c r="BQ65">
         <v>3864.333333333334</v>
       </c>
-      <c r="BP65">
+      <c r="BR65">
         <v>9764.333333333334</v>
       </c>
-      <c r="BQ65">
+      <c r="BS65">
         <v>66558.33333333333</v>
       </c>
     </row>
@@ -10566,28 +10576,28 @@
       <c r="AR66">
         <v>23.1</v>
       </c>
-      <c r="BJ66">
+      <c r="BL66">
         <v>109.5666666666667</v>
       </c>
-      <c r="BK66">
+      <c r="BM66">
         <v>108.6666666666667</v>
       </c>
-      <c r="BL66">
+      <c r="BN66">
         <v>8257.9</v>
       </c>
-      <c r="BM66">
+      <c r="BO66">
         <v>4568.4</v>
       </c>
-      <c r="BN66">
+      <c r="BP66">
         <v>-1</v>
       </c>
-      <c r="BO66">
+      <c r="BQ66">
         <v>3872.333333333334</v>
       </c>
-      <c r="BP66">
+      <c r="BR66">
         <v>9815.333333333334</v>
       </c>
-      <c r="BQ66">
+      <c r="BS66">
         <v>70815.33333333333</v>
       </c>
     </row>
@@ -10718,28 +10728,28 @@
       <c r="AR67">
         <v>24.2</v>
       </c>
-      <c r="BJ67">
+      <c r="BL67">
         <v>109.0333333333333</v>
       </c>
-      <c r="BK67">
+      <c r="BM67">
         <v>107.9333333333333</v>
       </c>
-      <c r="BL67">
+      <c r="BN67">
         <v>8328.299999999999</v>
       </c>
-      <c r="BM67">
+      <c r="BO67">
         <v>4624.7</v>
       </c>
-      <c r="BN67">
+      <c r="BP67">
         <v>-1</v>
       </c>
-      <c r="BO67">
+      <c r="BQ67">
         <v>3883</v>
       </c>
-      <c r="BP67">
+      <c r="BR67">
         <v>9854.333333333334</v>
       </c>
-      <c r="BQ67">
+      <c r="BS67">
         <v>72215.33333333333</v>
       </c>
     </row>
@@ -10870,28 +10880,28 @@
       <c r="AR68">
         <v>25.5</v>
       </c>
-      <c r="BJ68">
+      <c r="BL68">
         <v>109.7</v>
       </c>
-      <c r="BK68">
+      <c r="BM68">
         <v>108.5</v>
       </c>
-      <c r="BL68">
+      <c r="BN68">
         <v>8398.5</v>
       </c>
-      <c r="BM68">
+      <c r="BO68">
         <v>4682.9</v>
       </c>
-      <c r="BN68">
+      <c r="BP68">
         <v>-1</v>
       </c>
-      <c r="BO68">
+      <c r="BQ68">
         <v>3889.333333333334</v>
       </c>
-      <c r="BP68">
+      <c r="BR68">
         <v>9906.666666666666</v>
       </c>
-      <c r="BQ68">
+      <c r="BS68">
         <v>73843.33333333333</v>
       </c>
     </row>
@@ -11022,28 +11032,28 @@
       <c r="AR69">
         <v>26.8</v>
       </c>
-      <c r="BJ69">
+      <c r="BL69">
         <v>110.4666666666667</v>
       </c>
-      <c r="BK69">
+      <c r="BM69">
         <v>109.2</v>
       </c>
-      <c r="BL69">
+      <c r="BN69">
         <v>8468.4</v>
       </c>
-      <c r="BM69">
+      <c r="BO69">
         <v>4747.5</v>
       </c>
-      <c r="BN69">
+      <c r="BP69">
         <v>-1</v>
       </c>
-      <c r="BO69">
+      <c r="BQ69">
         <v>3926.666666666667</v>
       </c>
-      <c r="BP69">
+      <c r="BR69">
         <v>10024.33333333333</v>
       </c>
-      <c r="BQ69">
+      <c r="BS69">
         <v>71122.66666666667</v>
       </c>
     </row>
@@ -11174,28 +11184,28 @@
       <c r="AR70">
         <v>28.3</v>
       </c>
-      <c r="BJ70">
+      <c r="BL70">
         <v>111.8</v>
       </c>
-      <c r="BK70">
+      <c r="BM70">
         <v>110.6666666666667</v>
       </c>
-      <c r="BL70">
+      <c r="BN70">
         <v>8537.9</v>
       </c>
-      <c r="BM70">
+      <c r="BO70">
         <v>4817</v>
       </c>
-      <c r="BN70">
+      <c r="BP70">
         <v>-1</v>
       </c>
-      <c r="BO70">
+      <c r="BQ70">
         <v>3943.666666666667</v>
       </c>
-      <c r="BP70">
+      <c r="BR70">
         <v>10039.33333333333</v>
       </c>
-      <c r="BQ70">
+      <c r="BS70">
         <v>75290</v>
       </c>
     </row>
@@ -11326,28 +11336,28 @@
       <c r="AR71">
         <v>30.4</v>
       </c>
-      <c r="BJ71">
+      <c r="BL71">
         <v>113.0666666666667</v>
       </c>
-      <c r="BK71">
+      <c r="BM71">
         <v>111.9666666666667</v>
       </c>
-      <c r="BL71">
+      <c r="BN71">
         <v>8606.700000000001</v>
       </c>
-      <c r="BM71">
+      <c r="BO71">
         <v>4889.4</v>
       </c>
-      <c r="BN71">
+      <c r="BP71">
         <v>-1</v>
       </c>
-      <c r="BO71">
+      <c r="BQ71">
         <v>3953</v>
       </c>
-      <c r="BP71">
+      <c r="BR71">
         <v>10083.33333333333</v>
       </c>
-      <c r="BQ71">
+      <c r="BS71">
         <v>75025.66666666667</v>
       </c>
     </row>
@@ -11478,28 +11488,28 @@
       <c r="AR72">
         <v>31.3</v>
       </c>
-      <c r="BJ72">
+      <c r="BL72">
         <v>114.2666666666667</v>
       </c>
-      <c r="BK72">
+      <c r="BM72">
         <v>113.1666666666667</v>
       </c>
-      <c r="BL72">
+      <c r="BN72">
         <v>8675.1</v>
       </c>
-      <c r="BM72">
+      <c r="BO72">
         <v>4965.6</v>
       </c>
-      <c r="BN72">
+      <c r="BP72">
         <v>-1</v>
       </c>
-      <c r="BO72">
+      <c r="BQ72">
         <v>3969</v>
       </c>
-      <c r="BP72">
+      <c r="BR72">
         <v>10092.33333333333</v>
       </c>
-      <c r="BQ72">
+      <c r="BS72">
         <v>77047</v>
       </c>
     </row>
@@ -11630,28 +11640,28 @@
       <c r="AR73">
         <v>31.1</v>
       </c>
-      <c r="BJ73">
+      <c r="BL73">
         <v>115.3333333333333</v>
       </c>
-      <c r="BK73">
+      <c r="BM73">
         <v>114.1666666666667</v>
       </c>
-      <c r="BL73">
+      <c r="BN73">
         <v>8743.5</v>
       </c>
-      <c r="BM73">
+      <c r="BO73">
         <v>5044.5</v>
       </c>
-      <c r="BN73">
+      <c r="BP73">
         <v>-1</v>
       </c>
-      <c r="BO73">
+      <c r="BQ73">
         <v>4000.666666666667</v>
       </c>
-      <c r="BP73">
+      <c r="BR73">
         <v>10184.66666666667</v>
       </c>
-      <c r="BQ73">
+      <c r="BS73">
         <v>78058</v>
       </c>
     </row>
@@ -11782,28 +11792,28 @@
       <c r="AR74">
         <v>30.4</v>
       </c>
-      <c r="BJ74">
+      <c r="BL74">
         <v>116.2333333333333</v>
       </c>
-      <c r="BK74">
+      <c r="BM74">
         <v>114.9333333333333</v>
       </c>
-      <c r="BL74">
+      <c r="BN74">
         <v>8811.200000000001</v>
       </c>
-      <c r="BM74">
+      <c r="BO74">
         <v>5123.5</v>
       </c>
-      <c r="BN74">
+      <c r="BP74">
         <v>-1</v>
       </c>
-      <c r="BO74">
+      <c r="BQ74">
         <v>4030.666666666667</v>
       </c>
-      <c r="BP74">
+      <c r="BR74">
         <v>10250.66666666667</v>
       </c>
-      <c r="BQ74">
+      <c r="BS74">
         <v>79349.66666666667</v>
       </c>
     </row>
@@ -11934,28 +11944,28 @@
       <c r="AR75">
         <v>29.8</v>
       </c>
-      <c r="BJ75">
+      <c r="BL75">
         <v>117.5666666666667</v>
       </c>
-      <c r="BK75">
+      <c r="BM75">
         <v>116.2</v>
       </c>
-      <c r="BL75">
+      <c r="BN75">
         <v>8878.9</v>
       </c>
-      <c r="BM75">
+      <c r="BO75">
         <v>5213.1</v>
       </c>
-      <c r="BN75">
+      <c r="BP75">
         <v>-1</v>
       </c>
-      <c r="BO75">
+      <c r="BQ75">
         <v>4065.333333333334</v>
       </c>
-      <c r="BP75">
+      <c r="BR75">
         <v>10315.33333333333</v>
       </c>
-      <c r="BQ75">
+      <c r="BS75">
         <v>83348</v>
       </c>
     </row>
@@ -12086,28 +12096,28 @@
       <c r="AR76">
         <v>29.2</v>
       </c>
-      <c r="BJ76">
+      <c r="BL76">
         <v>119</v>
       </c>
-      <c r="BK76">
+      <c r="BM76">
         <v>117.7333333333333</v>
       </c>
-      <c r="BL76">
+      <c r="BN76">
         <v>8946.299999999999</v>
       </c>
-      <c r="BM76">
+      <c r="BO76">
         <v>5315.4</v>
       </c>
-      <c r="BN76">
+      <c r="BP76">
         <v>-1</v>
       </c>
-      <c r="BO76">
+      <c r="BQ76">
         <v>4094.333333333334</v>
       </c>
-      <c r="BP76">
+      <c r="BR76">
         <v>10341.66666666667</v>
       </c>
-      <c r="BQ76">
+      <c r="BS76">
         <v>82022.66666666667</v>
       </c>
     </row>
@@ -12238,28 +12248,28 @@
       <c r="AR77">
         <v>28.6</v>
       </c>
-      <c r="BJ77">
+      <c r="BL77">
         <v>120.3</v>
       </c>
-      <c r="BK77">
+      <c r="BM77">
         <v>118.9333333333333</v>
       </c>
-      <c r="BL77">
+      <c r="BN77">
         <v>9013.700000000001</v>
       </c>
-      <c r="BM77">
+      <c r="BO77">
         <v>5401.8</v>
       </c>
-      <c r="BN77">
+      <c r="BP77">
         <v>-1</v>
       </c>
-      <c r="BO77">
+      <c r="BQ77">
         <v>4114.666666666667</v>
       </c>
-      <c r="BP77">
+      <c r="BR77">
         <v>10446.66666666667</v>
       </c>
-      <c r="BQ77">
+      <c r="BS77">
         <v>84604</v>
       </c>
     </row>
@@ -12390,28 +12400,28 @@
       <c r="AR78">
         <v>28</v>
       </c>
-      <c r="BJ78">
+      <c r="BL78">
         <v>121.6666666666667</v>
       </c>
-      <c r="BK78">
+      <c r="BM78">
         <v>120.3666666666667</v>
       </c>
-      <c r="BL78">
+      <c r="BN78">
         <v>9080.700000000001</v>
       </c>
-      <c r="BM78">
+      <c r="BO78">
         <v>5498.7</v>
       </c>
-      <c r="BN78">
+      <c r="BP78">
         <v>-1</v>
       </c>
-      <c r="BO78">
+      <c r="BQ78">
         <v>4135.666666666667</v>
       </c>
-      <c r="BP78">
+      <c r="BR78">
         <v>10510.66666666667</v>
       </c>
-      <c r="BQ78">
+      <c r="BS78">
         <v>83566.66666666667</v>
       </c>
     </row>
@@ -12542,28 +12552,28 @@
       <c r="AR79">
         <v>27.4</v>
       </c>
-      <c r="BJ79">
+      <c r="BL79">
         <v>123.6333333333333</v>
       </c>
-      <c r="BK79">
+      <c r="BM79">
         <v>122.4</v>
       </c>
-      <c r="BL79">
+      <c r="BN79">
         <v>9147.6</v>
       </c>
-      <c r="BM79">
+      <c r="BO79">
         <v>5598.2</v>
       </c>
-      <c r="BN79">
+      <c r="BP79">
         <v>-1</v>
       </c>
-      <c r="BO79">
+      <c r="BQ79">
         <v>4169</v>
       </c>
-      <c r="BP79">
+      <c r="BR79">
         <v>10566.33333333333</v>
       </c>
-      <c r="BQ79">
+      <c r="BS79">
         <v>85684</v>
       </c>
     </row>
@@ -12694,28 +12704,28 @@
       <c r="AR80">
         <v>27.1</v>
       </c>
-      <c r="BJ80">
+      <c r="BL80">
         <v>124.6</v>
       </c>
-      <c r="BK80">
+      <c r="BM80">
         <v>123.2666666666667</v>
       </c>
-      <c r="BL80">
+      <c r="BN80">
         <v>9214.200000000001</v>
       </c>
-      <c r="BM80">
+      <c r="BO80">
         <v>5680.2</v>
       </c>
-      <c r="BN80">
+      <c r="BP80">
         <v>-1</v>
       </c>
-      <c r="BO80">
+      <c r="BQ80">
         <v>4201.333333333333</v>
       </c>
-      <c r="BP80">
+      <c r="BR80">
         <v>10640.66666666667</v>
       </c>
-      <c r="BQ80">
+      <c r="BS80">
         <v>85730.33333333333</v>
       </c>
     </row>
@@ -12846,28 +12856,28 @@
       <c r="AR81">
         <v>27.3</v>
       </c>
-      <c r="BJ81">
+      <c r="BL81">
         <v>125.8666666666667</v>
       </c>
-      <c r="BK81">
+      <c r="BM81">
         <v>124.4</v>
       </c>
-      <c r="BL81">
+      <c r="BN81">
         <v>9280.700000000001</v>
       </c>
-      <c r="BM81">
+      <c r="BO81">
         <v>5761.9</v>
       </c>
-      <c r="BN81">
+      <c r="BP81">
         <v>-1</v>
       </c>
-      <c r="BO81">
+      <c r="BQ81">
         <v>4221</v>
       </c>
-      <c r="BP81">
+      <c r="BR81">
         <v>10719.66666666667</v>
       </c>
-      <c r="BQ81">
+      <c r="BS81">
         <v>89358.33333333333</v>
       </c>
     </row>
@@ -12998,28 +13008,28 @@
       <c r="AR82">
         <v>27.1</v>
       </c>
-      <c r="BJ82">
+      <c r="BL82">
         <v>128.0333333333333</v>
       </c>
-      <c r="BK82">
+      <c r="BM82">
         <v>126.5666666666667</v>
       </c>
-      <c r="BL82">
+      <c r="BN82">
         <v>9346.4</v>
       </c>
-      <c r="BM82">
+      <c r="BO82">
         <v>5865.2</v>
       </c>
-      <c r="BN82">
+      <c r="BP82">
         <v>-1</v>
       </c>
-      <c r="BO82">
+      <c r="BQ82">
         <v>4258</v>
       </c>
-      <c r="BP82">
+      <c r="BR82">
         <v>10814</v>
       </c>
-      <c r="BQ82">
+      <c r="BS82">
         <v>94388.33333333333</v>
       </c>
     </row>
@@ -13150,28 +13160,28 @@
       <c r="AR83">
         <v>27</v>
       </c>
-      <c r="BJ83">
+      <c r="BL83">
         <v>129.3</v>
       </c>
-      <c r="BK83">
+      <c r="BM83">
         <v>127.6666666666667</v>
       </c>
-      <c r="BL83">
+      <c r="BN83">
         <v>9411.5</v>
       </c>
-      <c r="BM83">
+      <c r="BO83">
         <v>5972.2</v>
       </c>
-      <c r="BN83">
+      <c r="BP83">
         <v>-1</v>
       </c>
-      <c r="BO83">
+      <c r="BQ83">
         <v>4295.666666666667</v>
       </c>
-      <c r="BP83">
+      <c r="BR83">
         <v>10873</v>
       </c>
-      <c r="BQ83">
+      <c r="BS83">
         <v>93807</v>
       </c>
     </row>
@@ -13302,28 +13312,28 @@
       <c r="AR84">
         <v>26.9</v>
       </c>
-      <c r="BJ84">
+      <c r="BL84">
         <v>131.5333333333333</v>
       </c>
-      <c r="BK84">
+      <c r="BM84">
         <v>129.8666666666667</v>
       </c>
-      <c r="BL84">
+      <c r="BN84">
         <v>9475.299999999999</v>
       </c>
-      <c r="BM84">
+      <c r="BO84">
         <v>6064.3</v>
       </c>
-      <c r="BN84">
+      <c r="BP84">
         <v>1</v>
       </c>
-      <c r="BO84">
+      <c r="BQ84">
         <v>4322.666666666667</v>
       </c>
-      <c r="BP84">
+      <c r="BR84">
         <v>10967.33333333333</v>
       </c>
-      <c r="BQ84">
+      <c r="BS84">
         <v>94972</v>
       </c>
     </row>
@@ -13454,28 +13464,28 @@
       <c r="AR85">
         <v>27</v>
       </c>
-      <c r="BJ85">
+      <c r="BL85">
         <v>133.7666666666667</v>
       </c>
-      <c r="BK85">
+      <c r="BM85">
         <v>132.1</v>
       </c>
-      <c r="BL85">
+      <c r="BN85">
         <v>9537.799999999999</v>
       </c>
-      <c r="BM85">
+      <c r="BO85">
         <v>6149.7</v>
       </c>
-      <c r="BN85">
+      <c r="BP85">
         <v>1</v>
       </c>
-      <c r="BO85">
+      <c r="BQ85">
         <v>4342.666666666667</v>
       </c>
-      <c r="BP85">
+      <c r="BR85">
         <v>11000.33333333333</v>
       </c>
-      <c r="BQ85">
+      <c r="BS85">
         <v>98807.66666666667</v>
       </c>
     </row>
@@ -13606,28 +13616,28 @@
       <c r="AR86">
         <v>27.1</v>
       </c>
-      <c r="BJ86">
+      <c r="BL86">
         <v>134.7666666666667</v>
       </c>
-      <c r="BK86">
+      <c r="BM86">
         <v>132.9333333333333</v>
       </c>
-      <c r="BL86">
+      <c r="BN86">
         <v>9599.200000000001</v>
       </c>
-      <c r="BM86">
+      <c r="BO86">
         <v>6249.9</v>
       </c>
-      <c r="BN86">
+      <c r="BP86">
         <v>1</v>
       </c>
-      <c r="BO86">
+      <c r="BQ86">
         <v>4358</v>
       </c>
-      <c r="BP86">
+      <c r="BR86">
         <v>11027</v>
       </c>
-      <c r="BQ86">
+      <c r="BS86">
         <v>95253.66666666667</v>
       </c>
     </row>
@@ -13758,28 +13768,28 @@
       <c r="AR87">
         <v>27.2</v>
       </c>
-      <c r="BJ87">
+      <c r="BL87">
         <v>135.5666666666667</v>
       </c>
-      <c r="BK87">
+      <c r="BM87">
         <v>133.7333333333334</v>
       </c>
-      <c r="BL87">
+      <c r="BN87">
         <v>9659.6</v>
       </c>
-      <c r="BM87">
+      <c r="BO87">
         <v>6335.5</v>
       </c>
-      <c r="BN87">
+      <c r="BP87">
         <v>-1</v>
       </c>
-      <c r="BO87">
+      <c r="BQ87">
         <v>4362.333333333333</v>
       </c>
-      <c r="BP87">
+      <c r="BR87">
         <v>11057.33333333333</v>
       </c>
-      <c r="BQ87">
+      <c r="BS87">
         <v>96128.66666666667</v>
       </c>
     </row>
@@ -13910,28 +13920,28 @@
       <c r="AR88">
         <v>27.5</v>
       </c>
-      <c r="BJ88">
+      <c r="BL88">
         <v>136.6</v>
       </c>
-      <c r="BK88">
+      <c r="BM88">
         <v>134.6333333333333</v>
       </c>
-      <c r="BL88">
+      <c r="BN88">
         <v>9719.4</v>
       </c>
-      <c r="BM88">
+      <c r="BO88">
         <v>6424.4</v>
       </c>
-      <c r="BN88">
+      <c r="BP88">
         <v>-1</v>
       </c>
-      <c r="BO88">
+      <c r="BQ88">
         <v>4345</v>
       </c>
-      <c r="BP88">
+      <c r="BR88">
         <v>11099.33333333333</v>
       </c>
-      <c r="BQ88">
+      <c r="BS88">
         <v>97326.33333333333</v>
       </c>
     </row>
@@ -14062,28 +14072,28 @@
       <c r="AR89">
         <v>28.1</v>
       </c>
-      <c r="BJ89">
+      <c r="BL89">
         <v>137.7333333333333</v>
       </c>
-      <c r="BK89">
+      <c r="BM89">
         <v>135.7333333333333</v>
       </c>
-      <c r="BL89">
+      <c r="BN89">
         <v>9779.4</v>
       </c>
-      <c r="BM89">
+      <c r="BO89">
         <v>6502.4</v>
       </c>
-      <c r="BN89">
+      <c r="BP89">
         <v>-1</v>
       </c>
-      <c r="BO89">
+      <c r="BQ89">
         <v>4354.333333333333</v>
       </c>
-      <c r="BP89">
+      <c r="BR89">
         <v>11139.33333333333</v>
       </c>
-      <c r="BQ89">
+      <c r="BS89">
         <v>99221</v>
       </c>
     </row>
@@ -14214,28 +14224,28 @@
       <c r="AR90">
         <v>28.6</v>
       </c>
-      <c r="BJ90">
+      <c r="BL90">
         <v>138.6666666666667</v>
       </c>
-      <c r="BK90">
+      <c r="BM90">
         <v>136.5333333333333</v>
       </c>
-      <c r="BL90">
+      <c r="BN90">
         <v>9839.700000000001</v>
       </c>
-      <c r="BM90">
+      <c r="BO90">
         <v>6566.9</v>
       </c>
-      <c r="BN90">
+      <c r="BP90">
         <v>-1</v>
       </c>
-      <c r="BO90">
+      <c r="BQ90">
         <v>4372</v>
       </c>
-      <c r="BP90">
+      <c r="BR90">
         <v>11199</v>
       </c>
-      <c r="BQ90">
+      <c r="BS90">
         <v>106368.6666666667</v>
       </c>
     </row>
@@ -14366,28 +14376,28 @@
       <c r="AR91">
         <v>29.2</v>
       </c>
-      <c r="BJ91">
+      <c r="BL91">
         <v>139.7333333333333</v>
       </c>
-      <c r="BK91">
+      <c r="BM91">
         <v>137.5666666666667</v>
       </c>
-      <c r="BL91">
+      <c r="BN91">
         <v>9900.9</v>
       </c>
-      <c r="BM91">
+      <c r="BO91">
         <v>6647.5</v>
       </c>
-      <c r="BN91">
+      <c r="BP91">
         <v>-1</v>
       </c>
-      <c r="BO91">
+      <c r="BQ91">
         <v>4395.666666666667</v>
       </c>
-      <c r="BP91">
+      <c r="BR91">
         <v>11238</v>
       </c>
-      <c r="BQ91">
+      <c r="BS91">
         <v>103446</v>
       </c>
     </row>
@@ -14518,28 +14528,28 @@
       <c r="AR92">
         <v>30.4</v>
       </c>
-      <c r="BJ92">
+      <c r="BL92">
         <v>140.8</v>
       </c>
-      <c r="BK92">
+      <c r="BM92">
         <v>138.7</v>
       </c>
-      <c r="BL92">
+      <c r="BN92">
         <v>9963.6</v>
       </c>
-      <c r="BM92">
+      <c r="BO92">
         <v>6722.2</v>
       </c>
-      <c r="BN92">
+      <c r="BP92">
         <v>-1</v>
       </c>
-      <c r="BO92">
+      <c r="BQ92">
         <v>4425.333333333333</v>
       </c>
-      <c r="BP92">
+      <c r="BR92">
         <v>11306.66666666667</v>
       </c>
-      <c r="BQ92">
+      <c r="BS92">
         <v>99580.33333333333</v>
       </c>
     </row>
@@ -14670,28 +14680,28 @@
       <c r="AR93">
         <v>32.2</v>
       </c>
-      <c r="BJ93">
+      <c r="BL93">
         <v>142.0333333333333</v>
       </c>
-      <c r="BK93">
+      <c r="BM93">
         <v>139.8</v>
       </c>
-      <c r="BL93">
+      <c r="BN93">
         <v>10027.2</v>
       </c>
-      <c r="BM93">
+      <c r="BO93">
         <v>6811.7</v>
       </c>
-      <c r="BN93">
+      <c r="BP93">
         <v>-1</v>
       </c>
-      <c r="BO93">
+      <c r="BQ93">
         <v>4438</v>
       </c>
-      <c r="BP93">
+      <c r="BR93">
         <v>11319.66666666667</v>
       </c>
-      <c r="BQ93">
+      <c r="BS93">
         <v>98022.33333333333</v>
       </c>
     </row>
@@ -14828,28 +14838,28 @@
       <c r="AR94">
         <v>35.5</v>
       </c>
-      <c r="BJ94">
+      <c r="BL94">
         <v>143.0666666666667</v>
       </c>
-      <c r="BK94">
+      <c r="BM94">
         <v>140.7666666666667</v>
       </c>
-      <c r="BL94">
+      <c r="BN94">
         <v>10091.8</v>
       </c>
-      <c r="BM94">
+      <c r="BO94">
         <v>6894</v>
       </c>
-      <c r="BN94">
+      <c r="BP94">
         <v>-1</v>
       </c>
-      <c r="BO94">
+      <c r="BQ94">
         <v>4456</v>
       </c>
-      <c r="BP94">
+      <c r="BR94">
         <v>11366.66666666667</v>
       </c>
-      <c r="BQ94">
+      <c r="BS94">
         <v>102495</v>
       </c>
     </row>
@@ -14986,28 +14996,28 @@
       <c r="AR95">
         <v>37.6</v>
       </c>
-      <c r="BJ95">
+      <c r="BL95">
         <v>144.1</v>
       </c>
-      <c r="BK95">
+      <c r="BM95">
         <v>141.7333333333334</v>
       </c>
-      <c r="BL95">
+      <c r="BN95">
         <v>10158.1</v>
       </c>
-      <c r="BM95">
+      <c r="BO95">
         <v>6980.6</v>
       </c>
-      <c r="BN95">
+      <c r="BP95">
         <v>-1</v>
       </c>
-      <c r="BO95">
+      <c r="BQ95">
         <v>4478</v>
       </c>
-      <c r="BP95">
+      <c r="BR95">
         <v>11407.66666666667</v>
       </c>
-      <c r="BQ95">
+      <c r="BS95">
         <v>111962</v>
       </c>
     </row>
@@ -15144,28 +15154,28 @@
       <c r="AR96">
         <v>37.7</v>
       </c>
-      <c r="BJ96">
+      <c r="BL96">
         <v>144.7666666666667</v>
       </c>
-      <c r="BK96">
+      <c r="BM96">
         <v>142.3333333333333</v>
       </c>
-      <c r="BL96">
+      <c r="BN96">
         <v>10225.2</v>
       </c>
-      <c r="BM96">
+      <c r="BO96">
         <v>7068.5</v>
       </c>
-      <c r="BN96">
+      <c r="BP96">
         <v>-1</v>
       </c>
-      <c r="BO96">
+      <c r="BQ96">
         <v>4496</v>
       </c>
-      <c r="BP96">
+      <c r="BR96">
         <v>11483</v>
       </c>
-      <c r="BQ96">
+      <c r="BS96">
         <v>116124.6666666667</v>
       </c>
     </row>
@@ -15302,28 +15312,28 @@
       <c r="AR97">
         <v>36</v>
       </c>
-      <c r="BJ97">
+      <c r="BL97">
         <v>145.9666666666667</v>
       </c>
-      <c r="BK97">
+      <c r="BM97">
         <v>143.4333333333333</v>
       </c>
-      <c r="BL97">
+      <c r="BN97">
         <v>10293.3</v>
       </c>
-      <c r="BM97">
+      <c r="BO97">
         <v>7154.3</v>
       </c>
-      <c r="BN97">
+      <c r="BP97">
         <v>-1</v>
       </c>
-      <c r="BO97">
+      <c r="BQ97">
         <v>4515</v>
       </c>
-      <c r="BP97">
+      <c r="BR97">
         <v>11520.66666666667</v>
       </c>
-      <c r="BQ97">
+      <c r="BS97">
         <v>118029</v>
       </c>
     </row>
@@ -15460,28 +15470,28 @@
       <c r="AR98">
         <v>33.6</v>
       </c>
-      <c r="BJ98">
+      <c r="BL98">
         <v>146.7</v>
       </c>
-      <c r="BK98">
+      <c r="BM98">
         <v>144.0333333333333</v>
       </c>
-      <c r="BL98">
+      <c r="BN98">
         <v>10362.2</v>
       </c>
-      <c r="BM98">
+      <c r="BO98">
         <v>7236.6</v>
       </c>
-      <c r="BN98">
+      <c r="BP98">
         <v>-1</v>
       </c>
-      <c r="BO98">
+      <c r="BQ98">
         <v>4523.666666666667</v>
       </c>
-      <c r="BP98">
+      <c r="BR98">
         <v>11591.33333333333</v>
       </c>
-      <c r="BQ98">
+      <c r="BS98">
         <v>111803</v>
       </c>
     </row>
@@ -15618,28 +15628,28 @@
       <c r="AR99">
         <v>32.4</v>
       </c>
-      <c r="BJ99">
+      <c r="BL99">
         <v>147.5333333333333</v>
       </c>
-      <c r="BK99">
+      <c r="BM99">
         <v>144.8666666666667</v>
       </c>
-      <c r="BL99">
+      <c r="BN99">
         <v>10431.5</v>
       </c>
-      <c r="BM99">
+      <c r="BO99">
         <v>7320.2</v>
       </c>
-      <c r="BN99">
+      <c r="BP99">
         <v>-1</v>
       </c>
-      <c r="BO99">
+      <c r="BQ99">
         <v>4555.333333333333</v>
       </c>
-      <c r="BP99">
+      <c r="BR99">
         <v>11672.33333333333</v>
       </c>
-      <c r="BQ99">
+      <c r="BS99">
         <v>113545</v>
       </c>
     </row>
@@ -15776,28 +15786,28 @@
       <c r="AR100">
         <v>31.9</v>
       </c>
-      <c r="BJ100">
+      <c r="BL100">
         <v>148.9</v>
       </c>
-      <c r="BK100">
+      <c r="BM100">
         <v>146.4</v>
       </c>
-      <c r="BL100">
+      <c r="BN100">
         <v>10502</v>
       </c>
-      <c r="BM100">
+      <c r="BO100">
         <v>7412</v>
       </c>
-      <c r="BN100">
+      <c r="BP100">
         <v>-1</v>
       </c>
-      <c r="BO100">
+      <c r="BQ100">
         <v>4600</v>
       </c>
-      <c r="BP100">
+      <c r="BR100">
         <v>11710.33333333333</v>
       </c>
-      <c r="BQ100">
+      <c r="BS100">
         <v>118942</v>
       </c>
     </row>
@@ -15934,28 +15944,28 @@
       <c r="AR101">
         <v>32.2</v>
       </c>
-      <c r="BJ101">
+      <c r="BL101">
         <v>149.7666666666667</v>
       </c>
-      <c r="BK101">
+      <c r="BM101">
         <v>147.2666666666667</v>
       </c>
-      <c r="BL101">
+      <c r="BN101">
         <v>10573.5</v>
       </c>
-      <c r="BM101">
+      <c r="BO101">
         <v>7502.9</v>
       </c>
-      <c r="BN101">
+      <c r="BP101">
         <v>-1</v>
       </c>
-      <c r="BO101">
+      <c r="BQ101">
         <v>4626.333333333333</v>
       </c>
-      <c r="BP101">
+      <c r="BR101">
         <v>11752</v>
       </c>
-      <c r="BQ101">
+      <c r="BS101">
         <v>117294.3333333333</v>
       </c>
     </row>
@@ -16092,28 +16102,28 @@
       <c r="AR102">
         <v>34</v>
       </c>
-      <c r="BJ102">
+      <c r="BL102">
         <v>150.8666666666667</v>
       </c>
-      <c r="BK102">
+      <c r="BM102">
         <v>148.3333333333333</v>
       </c>
-      <c r="BL102">
+      <c r="BN102">
         <v>10645.4</v>
       </c>
-      <c r="BM102">
+      <c r="BO102">
         <v>7595</v>
       </c>
-      <c r="BN102">
+      <c r="BP102">
         <v>-1</v>
       </c>
-      <c r="BO102">
+      <c r="BQ102">
         <v>4649.666666666667</v>
       </c>
-      <c r="BP102">
+      <c r="BR102">
         <v>11791.33333333333</v>
       </c>
-      <c r="BQ102">
+      <c r="BS102">
         <v>116848.6666666667</v>
       </c>
     </row>
@@ -16250,28 +16260,28 @@
       <c r="AR103">
         <v>34.6</v>
       </c>
-      <c r="BJ103">
+      <c r="BL103">
         <v>152.1</v>
       </c>
-      <c r="BK103">
+      <c r="BM103">
         <v>149.5</v>
       </c>
-      <c r="BL103">
+      <c r="BN103">
         <v>10718.4</v>
       </c>
-      <c r="BM103">
+      <c r="BO103">
         <v>7683.7</v>
       </c>
-      <c r="BN103">
+      <c r="BP103">
         <v>-1</v>
       </c>
-      <c r="BO103">
+      <c r="BQ103">
         <v>4643</v>
       </c>
-      <c r="BP103">
+      <c r="BR103">
         <v>11828.66666666667</v>
       </c>
-      <c r="BQ103">
+      <c r="BS103">
         <v>124434.3333333333</v>
       </c>
     </row>
@@ -16408,28 +16418,28 @@
       <c r="AR104">
         <v>35.1</v>
       </c>
-      <c r="BJ104">
+      <c r="BL104">
         <v>152.8666666666667</v>
       </c>
-      <c r="BK104">
+      <c r="BM104">
         <v>150.1666666666667</v>
       </c>
-      <c r="BL104">
+      <c r="BN104">
         <v>10792</v>
       </c>
-      <c r="BM104">
+      <c r="BO104">
         <v>7774.5</v>
       </c>
-      <c r="BN104">
+      <c r="BP104">
         <v>-1</v>
       </c>
-      <c r="BO104">
+      <c r="BQ104">
         <v>4623.666666666667</v>
       </c>
-      <c r="BP104">
+      <c r="BR104">
         <v>11868</v>
       </c>
-      <c r="BQ104">
+      <c r="BS104">
         <v>125240</v>
       </c>
     </row>
@@ -16566,28 +16576,28 @@
       <c r="AR105">
         <v>35.5</v>
       </c>
-      <c r="BJ105">
+      <c r="BL105">
         <v>153.7</v>
       </c>
-      <c r="BK105">
+      <c r="BM105">
         <v>151</v>
       </c>
-      <c r="BL105">
+      <c r="BN105">
         <v>10867.2</v>
       </c>
-      <c r="BM105">
+      <c r="BO105">
         <v>7866.5</v>
       </c>
-      <c r="BN105">
+      <c r="BP105">
         <v>-1</v>
       </c>
-      <c r="BO105">
+      <c r="BQ105">
         <v>4624.666666666667</v>
       </c>
-      <c r="BP105">
+      <c r="BR105">
         <v>11923</v>
       </c>
-      <c r="BQ105">
+      <c r="BS105">
         <v>127572.6666666667</v>
       </c>
     </row>
@@ -16724,28 +16734,28 @@
       <c r="AR106">
         <v>35.5</v>
       </c>
-      <c r="BJ106">
+      <c r="BL106">
         <v>155.0666666666667</v>
       </c>
-      <c r="BK106">
+      <c r="BM106">
         <v>152.4</v>
       </c>
-      <c r="BL106">
+      <c r="BN106">
         <v>10943.8</v>
       </c>
-      <c r="BM106">
+      <c r="BO106">
         <v>7960.1</v>
       </c>
-      <c r="BN106">
+      <c r="BP106">
         <v>-1</v>
       </c>
-      <c r="BO106">
+      <c r="BQ106">
         <v>4621.333333333333</v>
       </c>
-      <c r="BP106">
+      <c r="BR106">
         <v>11966</v>
       </c>
-      <c r="BQ106">
+      <c r="BS106">
         <v>126179.3333333333</v>
       </c>
     </row>
@@ -16882,28 +16892,28 @@
       <c r="AR107">
         <v>35.4</v>
       </c>
-      <c r="BJ107">
+      <c r="BL107">
         <v>156.4</v>
       </c>
-      <c r="BK107">
+      <c r="BM107">
         <v>153.7333333333334</v>
       </c>
-      <c r="BL107">
+      <c r="BN107">
         <v>11025.2</v>
       </c>
-      <c r="BM107">
+      <c r="BO107">
         <v>8052.5</v>
       </c>
-      <c r="BN107">
+      <c r="BP107">
         <v>-1</v>
       </c>
-      <c r="BO107">
+      <c r="BQ107">
         <v>4618.333333333333</v>
       </c>
-      <c r="BP107">
+      <c r="BR107">
         <v>12017.33333333333</v>
       </c>
-      <c r="BQ107">
+      <c r="BS107">
         <v>131672</v>
       </c>
     </row>
@@ -17040,28 +17050,28 @@
       <c r="AR108">
         <v>35.2</v>
       </c>
-      <c r="BJ108">
+      <c r="BL108">
         <v>157.3</v>
       </c>
-      <c r="BK108">
+      <c r="BM108">
         <v>154.5666666666667</v>
       </c>
-      <c r="BL108">
+      <c r="BN108">
         <v>11112.4</v>
       </c>
-      <c r="BM108">
+      <c r="BO108">
         <v>8142.7</v>
       </c>
-      <c r="BN108">
+      <c r="BP108">
         <v>-1</v>
       </c>
-      <c r="BO108">
+      <c r="BQ108">
         <v>4600.333333333333</v>
       </c>
-      <c r="BP108">
+      <c r="BR108">
         <v>12067</v>
       </c>
-      <c r="BQ108">
+      <c r="BS108">
         <v>131615</v>
       </c>
     </row>
@@ -17198,28 +17208,28 @@
       <c r="AR109">
         <v>34.8</v>
       </c>
-      <c r="BJ109">
+      <c r="BL109">
         <v>158.6666666666667</v>
       </c>
-      <c r="BK109">
+      <c r="BM109">
         <v>155.8666666666667</v>
       </c>
-      <c r="BL109">
+      <c r="BN109">
         <v>11205.1</v>
       </c>
-      <c r="BM109">
+      <c r="BO109">
         <v>8254.6</v>
       </c>
-      <c r="BN109">
+      <c r="BP109">
         <v>-1</v>
       </c>
-      <c r="BO109">
+      <c r="BQ109">
         <v>4581.333333333333</v>
       </c>
-      <c r="BP109">
+      <c r="BR109">
         <v>12139</v>
       </c>
-      <c r="BQ109">
+      <c r="BS109">
         <v>135638.6666666667</v>
       </c>
     </row>
@@ -17356,28 +17366,28 @@
       <c r="AR110">
         <v>34.4</v>
       </c>
-      <c r="BJ110">
+      <c r="BL110">
         <v>159.6333333333333</v>
       </c>
-      <c r="BK110">
+      <c r="BM110">
         <v>156.8</v>
       </c>
-      <c r="BL110">
+      <c r="BN110">
         <v>11303.2</v>
       </c>
-      <c r="BM110">
+      <c r="BO110">
         <v>8376.4</v>
       </c>
-      <c r="BN110">
+      <c r="BP110">
         <v>-1</v>
       </c>
-      <c r="BO110">
+      <c r="BQ110">
         <v>4574.333333333333</v>
       </c>
-      <c r="BP110">
+      <c r="BR110">
         <v>12185.66666666667</v>
       </c>
-      <c r="BQ110">
+      <c r="BS110">
         <v>135471.6666666667</v>
       </c>
     </row>
@@ -17514,28 +17524,28 @@
       <c r="AR111">
         <v>33.6</v>
       </c>
-      <c r="BJ111">
+      <c r="BL111">
         <v>160</v>
       </c>
-      <c r="BK111">
+      <c r="BM111">
         <v>157.1</v>
       </c>
-      <c r="BL111">
+      <c r="BN111">
         <v>11406</v>
       </c>
-      <c r="BM111">
+      <c r="BO111">
         <v>8469.700000000001</v>
       </c>
-      <c r="BN111">
+      <c r="BP111">
         <v>-1</v>
       </c>
-      <c r="BO111">
+      <c r="BQ111">
         <v>4577</v>
       </c>
-      <c r="BP111">
+      <c r="BR111">
         <v>12229.66666666667</v>
       </c>
-      <c r="BQ111">
+      <c r="BS111">
         <v>139479.3333333333</v>
       </c>
     </row>
@@ -17672,28 +17682,28 @@
       <c r="AR112">
         <v>33.4</v>
       </c>
-      <c r="BJ112">
+      <c r="BL112">
         <v>160.8</v>
       </c>
-      <c r="BK112">
+      <c r="BM112">
         <v>157.8</v>
       </c>
-      <c r="BL112">
+      <c r="BN112">
         <v>11513.8</v>
       </c>
-      <c r="BM112">
+      <c r="BO112">
         <v>8586.9</v>
       </c>
-      <c r="BN112">
+      <c r="BP112">
         <v>-1</v>
       </c>
-      <c r="BO112">
+      <c r="BQ112">
         <v>4589</v>
       </c>
-      <c r="BP112">
+      <c r="BR112">
         <v>12296</v>
       </c>
-      <c r="BQ112">
+      <c r="BS112">
         <v>141385.3333333333</v>
       </c>
     </row>
@@ -17830,28 +17840,28 @@
       <c r="AR113">
         <v>33.8</v>
       </c>
-      <c r="BJ113">
+      <c r="BL113">
         <v>161.6666666666667</v>
       </c>
-      <c r="BK113">
+      <c r="BM113">
         <v>158.5333333333333</v>
       </c>
-      <c r="BL113">
+      <c r="BN113">
         <v>11625.6</v>
       </c>
-      <c r="BM113">
+      <c r="BO113">
         <v>8698.700000000001</v>
       </c>
-      <c r="BN113">
+      <c r="BP113">
         <v>-1</v>
       </c>
-      <c r="BO113">
+      <c r="BQ113">
         <v>4583</v>
       </c>
-      <c r="BP113">
+      <c r="BR113">
         <v>12380</v>
       </c>
-      <c r="BQ113">
+      <c r="BS113">
         <v>140102.6666666667</v>
       </c>
     </row>
@@ -17988,28 +17998,28 @@
       <c r="AR114">
         <v>33.8</v>
       </c>
-      <c r="BJ114">
+      <c r="BL114">
         <v>162</v>
       </c>
-      <c r="BK114">
+      <c r="BM114">
         <v>158.7333333333333</v>
       </c>
-      <c r="BL114">
+      <c r="BN114">
         <v>11741</v>
       </c>
-      <c r="BM114">
+      <c r="BO114">
         <v>8797.9</v>
       </c>
-      <c r="BN114">
+      <c r="BP114">
         <v>-1</v>
       </c>
-      <c r="BO114">
+      <c r="BQ114">
         <v>4578</v>
       </c>
-      <c r="BP114">
+      <c r="BR114">
         <v>12437.33333333333</v>
       </c>
-      <c r="BQ114">
+      <c r="BS114">
         <v>133975</v>
       </c>
     </row>
@@ -18146,28 +18156,28 @@
       <c r="AR115">
         <v>35</v>
       </c>
-      <c r="BJ115">
+      <c r="BL115">
         <v>162.5333333333333</v>
       </c>
-      <c r="BK115">
+      <c r="BM115">
         <v>159.2</v>
       </c>
-      <c r="BL115">
+      <c r="BN115">
         <v>11860</v>
       </c>
-      <c r="BM115">
+      <c r="BO115">
         <v>8908.1</v>
       </c>
-      <c r="BN115">
+      <c r="BP115">
         <v>-1</v>
       </c>
-      <c r="BO115">
+      <c r="BQ115">
         <v>4596.666666666667</v>
       </c>
-      <c r="BP115">
+      <c r="BR115">
         <v>12501.33333333333</v>
       </c>
-      <c r="BQ115">
+      <c r="BS115">
         <v>137818</v>
       </c>
     </row>
@@ -18304,28 +18314,28 @@
       <c r="AR116">
         <v>36.8</v>
       </c>
-      <c r="BJ116">
+      <c r="BL116">
         <v>163.3666666666667</v>
       </c>
-      <c r="BK116">
+      <c r="BM116">
         <v>159.9666666666667</v>
       </c>
-      <c r="BL116">
+      <c r="BN116">
         <v>11981.4</v>
       </c>
-      <c r="BM116">
+      <c r="BO116">
         <v>9038</v>
       </c>
-      <c r="BN116">
+      <c r="BP116">
         <v>-1</v>
       </c>
-      <c r="BO116">
+      <c r="BQ116">
         <v>4631.666666666667</v>
       </c>
-      <c r="BP116">
+      <c r="BR116">
         <v>12553.33333333333</v>
       </c>
-      <c r="BQ116">
+      <c r="BS116">
         <v>143529.3333333333</v>
       </c>
     </row>
@@ -18462,28 +18472,28 @@
       <c r="AR117">
         <v>39.9</v>
       </c>
-      <c r="BJ117">
+      <c r="BL117">
         <v>164.1333333333333</v>
       </c>
-      <c r="BK117">
+      <c r="BM117">
         <v>160.7666666666667</v>
       </c>
-      <c r="BL117">
+      <c r="BN117">
         <v>12105</v>
       </c>
-      <c r="BM117">
+      <c r="BO117">
         <v>9156.299999999999</v>
       </c>
-      <c r="BN117">
+      <c r="BP117">
         <v>-1</v>
       </c>
-      <c r="BO117">
+      <c r="BQ117">
         <v>4640.666666666667</v>
       </c>
-      <c r="BP117">
+      <c r="BR117">
         <v>12616.33333333333</v>
       </c>
-      <c r="BQ117">
+      <c r="BS117">
         <v>144434.6666666667</v>
       </c>
     </row>
@@ -18620,28 +18630,28 @@
       <c r="AR118">
         <v>42.4</v>
       </c>
-      <c r="BJ118">
+      <c r="BL118">
         <v>164.7333333333333</v>
       </c>
-      <c r="BK118">
+      <c r="BM118">
         <v>161.3666666666667</v>
       </c>
-      <c r="BL118">
+      <c r="BN118">
         <v>12231.2</v>
       </c>
-      <c r="BM118">
+      <c r="BO118">
         <v>9286.700000000001</v>
       </c>
-      <c r="BN118">
+      <c r="BP118">
         <v>-1</v>
       </c>
-      <c r="BO118">
+      <c r="BQ118">
         <v>4669</v>
       </c>
-      <c r="BP118">
+      <c r="BR118">
         <v>12694.66666666667</v>
       </c>
-      <c r="BQ118">
+      <c r="BS118">
         <v>150497</v>
       </c>
     </row>
@@ -18778,28 +18788,28 @@
       <c r="AR119">
         <v>45</v>
       </c>
-      <c r="BJ119">
+      <c r="BL119">
         <v>165.9666666666667</v>
       </c>
-      <c r="BK119">
+      <c r="BM119">
         <v>162.5333333333333</v>
       </c>
-      <c r="BL119">
+      <c r="BN119">
         <v>12359</v>
       </c>
-      <c r="BM119">
+      <c r="BO119">
         <v>9417.799999999999</v>
       </c>
-      <c r="BN119">
+      <c r="BP119">
         <v>-1</v>
       </c>
-      <c r="BO119">
+      <c r="BQ119">
         <v>4688.333333333333</v>
       </c>
-      <c r="BP119">
+      <c r="BR119">
         <v>12783.33333333333</v>
       </c>
-      <c r="BQ119">
+      <c r="BS119">
         <v>152515.3333333333</v>
       </c>
     </row>
@@ -18936,28 +18946,28 @@
       <c r="AR120">
         <v>46.4</v>
       </c>
-      <c r="BJ120">
+      <c r="BL120">
         <v>167.2</v>
       </c>
-      <c r="BK120">
+      <c r="BM120">
         <v>163.9</v>
       </c>
-      <c r="BL120">
+      <c r="BN120">
         <v>12488.9</v>
       </c>
-      <c r="BM120">
+      <c r="BO120">
         <v>9549.299999999999</v>
       </c>
-      <c r="BN120">
+      <c r="BP120">
         <v>-1</v>
       </c>
-      <c r="BO120">
+      <c r="BQ120">
         <v>4717.333333333333</v>
       </c>
-      <c r="BP120">
+      <c r="BR120">
         <v>12887.33333333333</v>
       </c>
-      <c r="BQ120">
+      <c r="BS120">
         <v>155465.3333333333</v>
       </c>
     </row>
@@ -19094,28 +19104,28 @@
       <c r="AR121">
         <v>46.9</v>
       </c>
-      <c r="BJ121">
+      <c r="BL121">
         <v>168.4333333333333</v>
       </c>
-      <c r="BK121">
+      <c r="BM121">
         <v>165.2</v>
       </c>
-      <c r="BL121">
+      <c r="BN121">
         <v>12621</v>
       </c>
-      <c r="BM121">
+      <c r="BO121">
         <v>9702.1</v>
       </c>
-      <c r="BN121">
+      <c r="BP121">
         <v>-1</v>
       </c>
-      <c r="BO121">
+      <c r="BQ121">
         <v>4757.333333333333</v>
       </c>
-      <c r="BP121">
+      <c r="BR121">
         <v>12972.33333333333</v>
       </c>
-      <c r="BQ121">
+      <c r="BS121">
         <v>163365.3333333333</v>
       </c>
     </row>
@@ -19252,28 +19262,28 @@
       <c r="AR122">
         <v>45.1</v>
       </c>
-      <c r="BJ122">
+      <c r="BL122">
         <v>170.1</v>
       </c>
-      <c r="BK122">
+      <c r="BM122">
         <v>166.8333333333333</v>
       </c>
-      <c r="BL122">
+      <c r="BN122">
         <v>12754.4</v>
       </c>
-      <c r="BM122">
+      <c r="BO122">
         <v>9871.5</v>
       </c>
-      <c r="BN122">
+      <c r="BP122">
         <v>-1</v>
       </c>
-      <c r="BO122">
+      <c r="BQ122">
         <v>4768</v>
       </c>
-      <c r="BP122">
+      <c r="BR122">
         <v>13050.33333333333</v>
       </c>
-      <c r="BQ122">
+      <c r="BS122">
         <v>168776.3333333333</v>
       </c>
     </row>
@@ -19410,28 +19420,28 @@
       <c r="AR123">
         <v>45.5</v>
       </c>
-      <c r="BJ123">
+      <c r="BL123">
         <v>171.4333333333333</v>
       </c>
-      <c r="BK123">
+      <c r="BM123">
         <v>168.1666666666667</v>
       </c>
-      <c r="BL123">
+      <c r="BN123">
         <v>12885.1</v>
       </c>
-      <c r="BM123">
+      <c r="BO123">
         <v>10033</v>
       </c>
-      <c r="BN123">
+      <c r="BP123">
         <v>-1</v>
       </c>
-      <c r="BO123">
+      <c r="BQ123">
         <v>4779.333333333333</v>
       </c>
-      <c r="BP123">
+      <c r="BR123">
         <v>13113</v>
       </c>
-      <c r="BQ123">
+      <c r="BS123">
         <v>165200.6666666667</v>
       </c>
     </row>
@@ -19568,28 +19578,28 @@
       <c r="AR124">
         <v>45.8</v>
       </c>
-      <c r="BJ124">
+      <c r="BL124">
         <v>173</v>
       </c>
-      <c r="BK124">
+      <c r="BM124">
         <v>169.7</v>
       </c>
-      <c r="BL124">
+      <c r="BN124">
         <v>13011.4</v>
       </c>
-      <c r="BM124">
+      <c r="BO124">
         <v>10189</v>
       </c>
-      <c r="BN124">
+      <c r="BP124">
         <v>-1</v>
       </c>
-      <c r="BO124">
+      <c r="BQ124">
         <v>4793.333333333333</v>
       </c>
-      <c r="BP124">
+      <c r="BR124">
         <v>13168</v>
       </c>
-      <c r="BQ124">
+      <c r="BS124">
         <v>166145</v>
       </c>
     </row>
@@ -19726,28 +19736,28 @@
       <c r="AR125">
         <v>47</v>
       </c>
-      <c r="BJ125">
+      <c r="BL125">
         <v>174.2333333333333</v>
       </c>
-      <c r="BK125">
+      <c r="BM125">
         <v>170.8333333333333</v>
       </c>
-      <c r="BL125">
+      <c r="BN125">
         <v>13131.9</v>
       </c>
-      <c r="BM125">
+      <c r="BO125">
         <v>10337.8</v>
       </c>
-      <c r="BN125">
+      <c r="BP125">
         <v>-1</v>
       </c>
-      <c r="BO125">
+      <c r="BQ125">
         <v>4809</v>
       </c>
-      <c r="BP125">
+      <c r="BR125">
         <v>13220.66666666667</v>
       </c>
-      <c r="BQ125">
+      <c r="BS125">
         <v>170616.6666666667</v>
       </c>
     </row>
@@ -19884,28 +19894,28 @@
       <c r="AR126">
         <v>55.2</v>
       </c>
-      <c r="BJ126">
+      <c r="BL126">
         <v>175.9</v>
       </c>
-      <c r="BK126">
+      <c r="BM126">
         <v>172.4333333333333</v>
       </c>
-      <c r="BL126">
+      <c r="BN126">
         <v>13247.1</v>
       </c>
-      <c r="BM126">
+      <c r="BO126">
         <v>10492.2</v>
       </c>
-      <c r="BN126">
+      <c r="BP126">
         <v>1</v>
       </c>
-      <c r="BO126">
+      <c r="BQ126">
         <v>4832</v>
       </c>
-      <c r="BP126">
+      <c r="BR126">
         <v>13310</v>
       </c>
-      <c r="BQ126">
+      <c r="BS126">
         <v>176411.3333333333</v>
       </c>
     </row>
@@ -20042,28 +20052,28 @@
       <c r="AR127">
         <v>62</v>
       </c>
-      <c r="BJ127">
+      <c r="BL127">
         <v>177.1333333333333</v>
       </c>
-      <c r="BK127">
+      <c r="BM127">
         <v>173.7333333333334</v>
       </c>
-      <c r="BL127">
+      <c r="BN127">
         <v>13356.2</v>
       </c>
-      <c r="BM127">
+      <c r="BO127">
         <v>10642.6</v>
       </c>
-      <c r="BN127">
+      <c r="BP127">
         <v>1</v>
       </c>
-      <c r="BO127">
+      <c r="BQ127">
         <v>4877.666666666667</v>
       </c>
-      <c r="BP127">
+      <c r="BR127">
         <v>13410.66666666667</v>
       </c>
-      <c r="BQ127">
+      <c r="BS127">
         <v>189275.6666666667</v>
       </c>
     </row>
@@ -20200,28 +20210,28 @@
       <c r="AR128">
         <v>71.2</v>
       </c>
-      <c r="BJ128">
+      <c r="BL128">
         <v>177.6333333333333</v>
       </c>
-      <c r="BK128">
+      <c r="BM128">
         <v>174.1</v>
       </c>
-      <c r="BL128">
+      <c r="BN128">
         <v>13459.7</v>
       </c>
-      <c r="BM128">
+      <c r="BO128">
         <v>10768.3</v>
       </c>
-      <c r="BN128">
+      <c r="BP128">
         <v>1</v>
       </c>
-      <c r="BO128">
+      <c r="BQ128">
         <v>4936.666666666667</v>
       </c>
-      <c r="BP128">
+      <c r="BR128">
         <v>13500.66666666667</v>
       </c>
-      <c r="BQ128">
+      <c r="BS128">
         <v>187116</v>
       </c>
     </row>
@@ -20358,28 +20368,28 @@
       <c r="AR129">
         <v>46.4</v>
       </c>
-      <c r="BJ129">
+      <c r="BL129">
         <v>177.5</v>
       </c>
-      <c r="BK129">
+      <c r="BM129">
         <v>173.6666666666667</v>
       </c>
-      <c r="BL129">
+      <c r="BN129">
         <v>13557.8</v>
       </c>
-      <c r="BM129">
+      <c r="BO129">
         <v>10882.5</v>
       </c>
-      <c r="BN129">
+      <c r="BP129">
         <v>1</v>
       </c>
-      <c r="BO129">
+      <c r="BQ129">
         <v>4977.333333333333</v>
       </c>
-      <c r="BP129">
+      <c r="BR129">
         <v>13583.66666666667</v>
       </c>
-      <c r="BQ129">
+      <c r="BS129">
         <v>193037.6666666667</v>
       </c>
     </row>
@@ -20516,28 +20526,28 @@
       <c r="AR130">
         <v>42.6</v>
       </c>
-      <c r="BJ130">
+      <c r="BL130">
         <v>178.0666666666667</v>
       </c>
-      <c r="BK130">
+      <c r="BM130">
         <v>174.0333333333333</v>
       </c>
-      <c r="BL130">
+      <c r="BN130">
         <v>13651.1</v>
       </c>
-      <c r="BM130">
+      <c r="BO130">
         <v>10993.6</v>
       </c>
-      <c r="BN130">
+      <c r="BP130">
         <v>-1</v>
       </c>
-      <c r="BO130">
+      <c r="BQ130">
         <v>5004.333333333333</v>
       </c>
-      <c r="BP130">
+      <c r="BR130">
         <v>13639</v>
       </c>
-      <c r="BQ130">
+      <c r="BS130">
         <v>198023.3333333333</v>
       </c>
     </row>
@@ -20674,28 +20684,28 @@
       <c r="AR131">
         <v>39.8</v>
       </c>
-      <c r="BJ131">
+      <c r="BL131">
         <v>179.4666666666667</v>
       </c>
-      <c r="BK131">
+      <c r="BM131">
         <v>175.5333333333333</v>
       </c>
-      <c r="BL131">
+      <c r="BN131">
         <v>13741.2</v>
       </c>
-      <c r="BM131">
+      <c r="BO131">
         <v>11105.7</v>
       </c>
-      <c r="BN131">
+      <c r="BP131">
         <v>-1</v>
       </c>
-      <c r="BO131">
+      <c r="BQ131">
         <v>5039</v>
       </c>
-      <c r="BP131">
+      <c r="BR131">
         <v>13699.33333333333</v>
       </c>
-      <c r="BQ131">
+      <c r="BS131">
         <v>194794</v>
       </c>
     </row>
@@ -20832,28 +20842,28 @@
       <c r="AR132">
         <v>41.3</v>
       </c>
-      <c r="BJ132">
+      <c r="BL132">
         <v>180.4333333333333</v>
       </c>
-      <c r="BK132">
+      <c r="BM132">
         <v>176.5</v>
       </c>
-      <c r="BL132">
+      <c r="BN132">
         <v>13829.2</v>
       </c>
-      <c r="BM132">
+      <c r="BO132">
         <v>11228.4</v>
       </c>
-      <c r="BN132">
+      <c r="BP132">
         <v>-1</v>
       </c>
-      <c r="BO132">
+      <c r="BQ132">
         <v>5052.666666666667</v>
       </c>
-      <c r="BP132">
+      <c r="BR132">
         <v>13744.66666666667</v>
       </c>
-      <c r="BQ132">
+      <c r="BS132">
         <v>196443.6666666667</v>
       </c>
     </row>
@@ -20990,28 +21000,28 @@
       <c r="AR133">
         <v>41.9</v>
       </c>
-      <c r="BJ133">
+      <c r="BL133">
         <v>181.5</v>
       </c>
-      <c r="BK133">
+      <c r="BM133">
         <v>177.4666666666667</v>
       </c>
-      <c r="BL133">
+      <c r="BN133">
         <v>13916</v>
       </c>
-      <c r="BM133">
+      <c r="BO133">
         <v>11363</v>
       </c>
-      <c r="BN133">
+      <c r="BP133">
         <v>-1</v>
       </c>
-      <c r="BO133">
+      <c r="BQ133">
         <v>5020.666666666667</v>
       </c>
-      <c r="BP133">
+      <c r="BR133">
         <v>13775</v>
       </c>
-      <c r="BQ133">
+      <c r="BS133">
         <v>199770.6666666667</v>
       </c>
     </row>
@@ -21148,28 +21158,28 @@
       <c r="AR134">
         <v>47.1</v>
       </c>
-      <c r="BJ134">
+      <c r="BL134">
         <v>183.3666666666667</v>
       </c>
-      <c r="BK134">
+      <c r="BM134">
         <v>179.4666666666667</v>
       </c>
-      <c r="BL134">
+      <c r="BN134">
         <v>14002.4</v>
       </c>
-      <c r="BM134">
+      <c r="BO134">
         <v>11485.5</v>
       </c>
-      <c r="BN134">
+      <c r="BP134">
         <v>-1</v>
       </c>
-      <c r="BO134">
+      <c r="BQ134">
         <v>5029.333333333333</v>
       </c>
-      <c r="BP134">
+      <c r="BR134">
         <v>13801</v>
       </c>
-      <c r="BQ134">
+      <c r="BS134">
         <v>197410.6666666667</v>
       </c>
     </row>
@@ -21306,28 +21316,28 @@
       <c r="AR135">
         <v>57.1</v>
       </c>
-      <c r="BJ135">
+      <c r="BL135">
         <v>183.0666666666667</v>
       </c>
-      <c r="BK135">
+      <c r="BM135">
         <v>178.9333333333333</v>
       </c>
-      <c r="BL135">
+      <c r="BN135">
         <v>14089.7</v>
       </c>
-      <c r="BM135">
+      <c r="BO135">
         <v>11591.1</v>
       </c>
-      <c r="BN135">
+      <c r="BP135">
         <v>-1</v>
       </c>
-      <c r="BO135">
+      <c r="BQ135">
         <v>5007.666666666667</v>
       </c>
-      <c r="BP135">
+      <c r="BR135">
         <v>13820</v>
       </c>
-      <c r="BQ135">
+      <c r="BS135">
         <v>195858</v>
       </c>
     </row>
@@ -21464,28 +21474,28 @@
       <c r="AR136">
         <v>45.9</v>
       </c>
-      <c r="BJ136">
+      <c r="BL136">
         <v>184.4333333333333</v>
       </c>
-      <c r="BK136">
+      <c r="BM136">
         <v>180.2</v>
       </c>
-      <c r="BL136">
+      <c r="BN136">
         <v>14177.4</v>
       </c>
-      <c r="BM136">
+      <c r="BO136">
         <v>11726.4</v>
       </c>
-      <c r="BN136">
+      <c r="BP136">
         <v>-1</v>
       </c>
-      <c r="BO136">
+      <c r="BQ136">
         <v>4978.666666666667</v>
       </c>
-      <c r="BP136">
+      <c r="BR136">
         <v>13832.33333333333</v>
       </c>
-      <c r="BQ136">
+      <c r="BS136">
         <v>200686</v>
       </c>
     </row>
@@ -21622,28 +21632,28 @@
       <c r="AR137">
         <v>46</v>
       </c>
-      <c r="BJ137">
+      <c r="BL137">
         <v>185.1333333333333</v>
       </c>
-      <c r="BK137">
+      <c r="BM137">
         <v>180.7333333333334</v>
       </c>
-      <c r="BL137">
+      <c r="BN137">
         <v>14266.5</v>
       </c>
-      <c r="BM137">
+      <c r="BO137">
         <v>11869.8</v>
       </c>
-      <c r="BN137">
+      <c r="BP137">
         <v>-1</v>
       </c>
-      <c r="BO137">
+      <c r="BQ137">
         <v>4985.333333333333</v>
       </c>
-      <c r="BP137">
+      <c r="BR137">
         <v>13824.33333333333</v>
       </c>
-      <c r="BQ137">
+      <c r="BS137">
         <v>199340</v>
       </c>
     </row>
@@ -21780,28 +21790,28 @@
       <c r="AR138">
         <v>44.2</v>
       </c>
-      <c r="BJ138">
+      <c r="BL138">
         <v>186.7</v>
       </c>
-      <c r="BK138">
+      <c r="BM138">
         <v>182.3333333333333</v>
       </c>
-      <c r="BL138">
+      <c r="BN138">
         <v>14357.5</v>
       </c>
-      <c r="BM138">
+      <c r="BO138">
         <v>12034.5</v>
       </c>
-      <c r="BN138">
+      <c r="BP138">
         <v>-1</v>
       </c>
-      <c r="BO138">
+      <c r="BQ138">
         <v>4968.333333333333</v>
       </c>
-      <c r="BP138">
+      <c r="BR138">
         <v>13859</v>
       </c>
-      <c r="BQ138">
+      <c r="BS138">
         <v>197322.3333333333</v>
       </c>
     </row>
@@ -21938,28 +21948,28 @@
       <c r="AR139">
         <v>43.7</v>
       </c>
-      <c r="BJ139">
+      <c r="BL139">
         <v>188.1666666666667</v>
       </c>
-      <c r="BK139">
+      <c r="BM139">
         <v>183.6666666666667</v>
       </c>
-      <c r="BL139">
+      <c r="BN139">
         <v>14450.4</v>
       </c>
-      <c r="BM139">
+      <c r="BO139">
         <v>12211.2</v>
       </c>
-      <c r="BN139">
+      <c r="BP139">
         <v>-1</v>
       </c>
-      <c r="BO139">
+      <c r="BQ139">
         <v>4974</v>
       </c>
-      <c r="BP139">
+      <c r="BR139">
         <v>13898</v>
       </c>
-      <c r="BQ139">
+      <c r="BS139">
         <v>202356.3333333333</v>
       </c>
     </row>
@@ -22096,28 +22106,28 @@
       <c r="AR140">
         <v>45.4</v>
       </c>
-      <c r="BJ140">
+      <c r="BL140">
         <v>189.3666666666667</v>
       </c>
-      <c r="BK140">
+      <c r="BM140">
         <v>184.8666666666667</v>
       </c>
-      <c r="BL140">
+      <c r="BN140">
         <v>14545.5</v>
       </c>
-      <c r="BM140">
+      <c r="BO140">
         <v>12371.8</v>
       </c>
-      <c r="BN140">
+      <c r="BP140">
         <v>-1</v>
       </c>
-      <c r="BO140">
+      <c r="BQ140">
         <v>4984</v>
       </c>
-      <c r="BP140">
+      <c r="BR140">
         <v>13909.33333333333</v>
       </c>
-      <c r="BQ140">
+      <c r="BS140">
         <v>202328</v>
       </c>
     </row>
@@ -22254,28 +22264,28 @@
       <c r="AR141">
         <v>52.3</v>
       </c>
-      <c r="BJ141">
+      <c r="BL141">
         <v>191.4</v>
       </c>
-      <c r="BK141">
+      <c r="BM141">
         <v>187.0666666666667</v>
       </c>
-      <c r="BL141">
+      <c r="BN141">
         <v>14642.1</v>
       </c>
-      <c r="BM141">
+      <c r="BO141">
         <v>12550</v>
       </c>
-      <c r="BN141">
+      <c r="BP141">
         <v>-1</v>
       </c>
-      <c r="BO141">
+      <c r="BQ141">
         <v>4995.333333333333</v>
       </c>
-      <c r="BP141">
+      <c r="BR141">
         <v>13958.66666666667</v>
       </c>
-      <c r="BQ141">
+      <c r="BS141">
         <v>204931</v>
       </c>
     </row>
@@ -22412,28 +22422,28 @@
       <c r="AR142">
         <v>56.7</v>
       </c>
-      <c r="BJ142">
+      <c r="BL142">
         <v>192.3666666666667</v>
       </c>
-      <c r="BK142">
+      <c r="BM142">
         <v>187.9333333333333</v>
       </c>
-      <c r="BL142">
+      <c r="BN142">
         <v>14737.1</v>
       </c>
-      <c r="BM142">
+      <c r="BO142">
         <v>12731.5</v>
       </c>
-      <c r="BN142">
+      <c r="BP142">
         <v>-1</v>
       </c>
-      <c r="BO142">
+      <c r="BQ142">
         <v>5015.666666666667</v>
       </c>
-      <c r="BP142">
+      <c r="BR142">
         <v>13994.66666666667</v>
       </c>
-      <c r="BQ142">
+      <c r="BS142">
         <v>207202</v>
       </c>
     </row>
@@ -22570,28 +22580,28 @@
       <c r="AR143">
         <v>60.7</v>
       </c>
-      <c r="BJ143">
+      <c r="BL143">
         <v>193.6666666666667</v>
       </c>
-      <c r="BK143">
+      <c r="BM143">
         <v>189.2333333333334</v>
       </c>
-      <c r="BL143">
+      <c r="BN143">
         <v>14829.4</v>
       </c>
-      <c r="BM143">
+      <c r="BO143">
         <v>12901</v>
       </c>
-      <c r="BN143">
+      <c r="BP143">
         <v>-1</v>
       </c>
-      <c r="BO143">
+      <c r="BQ143">
         <v>5023.333333333333</v>
       </c>
-      <c r="BP143">
+      <c r="BR143">
         <v>14012</v>
       </c>
-      <c r="BQ143">
+      <c r="BS143">
         <v>215946</v>
       </c>
     </row>
@@ -22728,28 +22738,28 @@
       <c r="AR144">
         <v>62</v>
       </c>
-      <c r="BJ144">
+      <c r="BL144">
         <v>196.6</v>
       </c>
-      <c r="BK144">
+      <c r="BM144">
         <v>192.5666666666667</v>
       </c>
-      <c r="BL144">
+      <c r="BN144">
         <v>14920.2</v>
       </c>
-      <c r="BM144">
+      <c r="BO144">
         <v>13097.4</v>
       </c>
-      <c r="BN144">
+      <c r="BP144">
         <v>-1</v>
       </c>
-      <c r="BO144">
+      <c r="BQ144">
         <v>5039.333333333333</v>
       </c>
-      <c r="BP144">
+      <c r="BR144">
         <v>14085.33333333333</v>
       </c>
-      <c r="BQ144">
+      <c r="BS144">
         <v>219407.6666666667</v>
       </c>
     </row>
@@ -22886,28 +22896,28 @@
       <c r="AR145">
         <v>64.2</v>
       </c>
-      <c r="BJ145">
+      <c r="BL145">
         <v>198.4333333333333</v>
       </c>
-      <c r="BK145">
+      <c r="BM145">
         <v>194.2</v>
       </c>
-      <c r="BL145">
+      <c r="BN145">
         <v>15008.9</v>
       </c>
-      <c r="BM145">
+      <c r="BO145">
         <v>13281.3</v>
       </c>
-      <c r="BN145">
+      <c r="BP145">
         <v>-1</v>
       </c>
-      <c r="BO145">
+      <c r="BQ145">
         <v>5047.666666666667</v>
       </c>
-      <c r="BP145">
+      <c r="BR145">
         <v>14072.33333333333</v>
       </c>
-      <c r="BQ145">
+      <c r="BS145">
         <v>222763.6666666667</v>
       </c>
     </row>
@@ -23044,28 +23054,28 @@
       <c r="AR146">
         <v>55.7</v>
       </c>
-      <c r="BJ146">
+      <c r="BL146">
         <v>199.4666666666667</v>
       </c>
-      <c r="BK146">
+      <c r="BM146">
         <v>195.1333333333334</v>
       </c>
-      <c r="BL146">
+      <c r="BN146">
         <v>15095.2</v>
       </c>
-      <c r="BM146">
+      <c r="BO146">
         <v>13450.8</v>
       </c>
-      <c r="BN146">
+      <c r="BP146">
         <v>-1</v>
       </c>
-      <c r="BO146">
+      <c r="BQ146">
         <v>5047</v>
       </c>
-      <c r="BP146">
+      <c r="BR146">
         <v>14098</v>
       </c>
-      <c r="BQ146">
+      <c r="BS146">
         <v>230117.6666666667</v>
       </c>
     </row>
@@ -23202,28 +23212,28 @@
       <c r="AR147">
         <v>51.5</v>
       </c>
-      <c r="BJ147">
+      <c r="BL147">
         <v>201.2666666666667</v>
       </c>
-      <c r="BK147">
+      <c r="BM147">
         <v>196.9333333333333</v>
       </c>
-      <c r="BL147">
+      <c r="BN147">
         <v>15179.4</v>
       </c>
-      <c r="BM147">
+      <c r="BO147">
         <v>13639</v>
       </c>
-      <c r="BN147">
+      <c r="BP147">
         <v>-1</v>
       </c>
-      <c r="BO147">
+      <c r="BQ147">
         <v>5068.333333333333</v>
       </c>
-      <c r="BP147">
+      <c r="BR147">
         <v>14119.66666666667</v>
       </c>
-      <c r="BQ147">
+      <c r="BS147">
         <v>238436</v>
       </c>
     </row>
@@ -23360,28 +23370,28 @@
       <c r="AR148">
         <v>49.9</v>
       </c>
-      <c r="BJ148">
+      <c r="BL148">
         <v>203.1666666666667</v>
       </c>
-      <c r="BK148">
+      <c r="BM148">
         <v>198.8</v>
       </c>
-      <c r="BL148">
+      <c r="BN148">
         <v>15259.8</v>
       </c>
-      <c r="BM148">
+      <c r="BO148">
         <v>13807.3</v>
       </c>
-      <c r="BN148">
+      <c r="BP148">
         <v>-1</v>
       </c>
-      <c r="BO148">
+      <c r="BQ148">
         <v>5086</v>
       </c>
-      <c r="BP148">
+      <c r="BR148">
         <v>14201</v>
       </c>
-      <c r="BQ148">
+      <c r="BS148">
         <v>238965</v>
       </c>
     </row>
@@ -23518,28 +23528,28 @@
       <c r="AR149">
         <v>48.7</v>
       </c>
-      <c r="BJ149">
+      <c r="BL149">
         <v>202.3333333333333</v>
       </c>
-      <c r="BK149">
+      <c r="BM149">
         <v>197.5666666666666</v>
       </c>
-      <c r="BL149">
+      <c r="BN149">
         <v>15336.4</v>
       </c>
-      <c r="BM149">
+      <c r="BO149">
         <v>13927.8</v>
       </c>
-      <c r="BN149">
+      <c r="BP149">
         <v>-1</v>
       </c>
-      <c r="BO149">
+      <c r="BQ149">
         <v>5098.333333333333</v>
       </c>
-      <c r="BP149">
+      <c r="BR149">
         <v>14251.33333333333</v>
       </c>
-      <c r="BQ149">
+      <c r="BS149">
         <v>242956.3333333333</v>
       </c>
     </row>
@@ -23676,28 +23686,28 @@
       <c r="AR150">
         <v>49.5</v>
       </c>
-      <c r="BJ150">
+      <c r="BL150">
         <v>204.317</v>
       </c>
-      <c r="BK150">
+      <c r="BM150">
         <v>199.553</v>
       </c>
-      <c r="BL150">
+      <c r="BN150">
         <v>15412.4</v>
       </c>
-      <c r="BM150">
+      <c r="BO150">
         <v>14134.4</v>
       </c>
-      <c r="BN150">
+      <c r="BP150">
         <v>-1</v>
       </c>
-      <c r="BO150">
+      <c r="BQ150">
         <v>5106.333333333333</v>
       </c>
-      <c r="BP150">
+      <c r="BR150">
         <v>14287.33333333333</v>
       </c>
-      <c r="BQ150">
+      <c r="BS150">
         <v>258254.3333333333</v>
       </c>
     </row>
@@ -23834,28 +23844,28 @@
       <c r="AR151">
         <v>58.2</v>
       </c>
-      <c r="BJ151">
+      <c r="BL151">
         <v>206.631</v>
       </c>
-      <c r="BK151">
+      <c r="BM151">
         <v>202.077</v>
       </c>
-      <c r="BL151">
+      <c r="BN151">
         <v>15488</v>
       </c>
-      <c r="BM151">
+      <c r="BO151">
         <v>14295.6</v>
       </c>
-      <c r="BN151">
+      <c r="BP151">
         <v>-1</v>
       </c>
-      <c r="BO151">
+      <c r="BQ151">
         <v>5124.333333333333</v>
       </c>
-      <c r="BP151">
+      <c r="BR151">
         <v>14336</v>
       </c>
-      <c r="BQ151">
+      <c r="BS151">
         <v>266203.6666666667</v>
       </c>
     </row>
@@ -23992,28 +24002,28 @@
       <c r="AR152">
         <v>55.9</v>
       </c>
-      <c r="BJ152">
+      <c r="BL152">
         <v>207.939</v>
       </c>
-      <c r="BK152">
+      <c r="BM152">
         <v>203.37</v>
       </c>
-      <c r="BL152">
+      <c r="BN152">
         <v>15563.8</v>
       </c>
-      <c r="BM152">
+      <c r="BO152">
         <v>14439.6</v>
       </c>
-      <c r="BN152">
+      <c r="BP152">
         <v>-1</v>
       </c>
-      <c r="BO152">
+      <c r="BQ152">
         <v>5122</v>
       </c>
-      <c r="BP152">
+      <c r="BR152">
         <v>14369.33333333333</v>
       </c>
-      <c r="BQ152">
+      <c r="BS152">
         <v>271640.3333333333</v>
       </c>
     </row>
@@ -24150,28 +24160,28 @@
       <c r="AR153">
         <v>54.7</v>
       </c>
-      <c r="BJ153">
+      <c r="BL153">
         <v>210.4896666666667</v>
       </c>
-      <c r="BK153">
+      <c r="BM153">
         <v>206.0856666666666</v>
       </c>
-      <c r="BL153">
+      <c r="BN153">
         <v>15638.8</v>
       </c>
-      <c r="BM153">
+      <c r="BO153">
         <v>14566.7</v>
       </c>
-      <c r="BN153">
+      <c r="BP153">
         <v>1</v>
       </c>
-      <c r="BO153">
+      <c r="BQ153">
         <v>5136</v>
       </c>
-      <c r="BP153">
+      <c r="BR153">
         <v>14455</v>
       </c>
-      <c r="BQ153">
+      <c r="BS153">
         <v>276454.6666666667</v>
       </c>
     </row>
@@ -24308,28 +24318,28 @@
       <c r="AR154">
         <v>51.9</v>
       </c>
-      <c r="BJ154">
+      <c r="BL154">
         <v>212.7696666666667</v>
       </c>
-      <c r="BK154">
+      <c r="BM154">
         <v>208.516</v>
       </c>
-      <c r="BL154">
+      <c r="BN154">
         <v>15712.6</v>
       </c>
-      <c r="BM154">
+      <c r="BO154">
         <v>14689.5</v>
       </c>
-      <c r="BN154">
+      <c r="BP154">
         <v>1</v>
       </c>
-      <c r="BO154">
+      <c r="BQ154">
         <v>5148.666666666667</v>
       </c>
-      <c r="BP154">
+      <c r="BR154">
         <v>14521.66666666667</v>
       </c>
-      <c r="BQ154">
+      <c r="BS154">
         <v>278038.3333333333</v>
       </c>
     </row>
@@ -24466,28 +24476,28 @@
       <c r="AR155">
         <v>51.7</v>
       </c>
-      <c r="BJ155">
+      <c r="BL155">
         <v>215.5376666666667</v>
       </c>
-      <c r="BK155">
+      <c r="BM155">
         <v>211.5026666666667</v>
       </c>
-      <c r="BL155">
+      <c r="BN155">
         <v>15783.7</v>
       </c>
-      <c r="BM155">
+      <c r="BO155">
         <v>14835.1</v>
       </c>
-      <c r="BN155">
+      <c r="BP155">
         <v>1</v>
       </c>
-      <c r="BO155">
+      <c r="BQ155">
         <v>5166</v>
       </c>
-      <c r="BP155">
+      <c r="BR155">
         <v>14560.33333333333</v>
       </c>
-      <c r="BQ155">
+      <c r="BS155">
         <v>283074.3333333333</v>
       </c>
     </row>
@@ -24624,28 +24634,28 @@
       <c r="AR156">
         <v>52</v>
       </c>
-      <c r="BJ156">
+      <c r="BL156">
         <v>218.861</v>
       </c>
-      <c r="BK156">
+      <c r="BM156">
         <v>215.13</v>
       </c>
-      <c r="BL156">
+      <c r="BN156">
         <v>15850.9</v>
       </c>
-      <c r="BM156">
+      <c r="BO156">
         <v>15009.3</v>
       </c>
-      <c r="BN156">
+      <c r="BP156">
         <v>1</v>
       </c>
-      <c r="BO156">
+      <c r="BQ156">
         <v>5196.333333333333</v>
       </c>
-      <c r="BP156">
+      <c r="BR156">
         <v>14594</v>
       </c>
-      <c r="BQ156">
+      <c r="BS156">
         <v>287093.6666666667</v>
       </c>
     </row>
@@ -24782,28 +24792,28 @@
       <c r="AR157">
         <v>54.6</v>
       </c>
-      <c r="BJ157">
+      <c r="BL157">
         <v>213.8486666666667</v>
       </c>
-      <c r="BK157">
+      <c r="BM157">
         <v>208.8386666666667</v>
       </c>
-      <c r="BL157">
+      <c r="BN157">
         <v>15913.8</v>
       </c>
-      <c r="BM157">
+      <c r="BO157">
         <v>15116</v>
       </c>
-      <c r="BN157">
+      <c r="BP157">
         <v>1</v>
       </c>
-      <c r="BO157">
+      <c r="BQ157">
         <v>5189</v>
       </c>
-      <c r="BP157">
+      <c r="BR157">
         <v>14591</v>
       </c>
-      <c r="BQ157">
+      <c r="BS157">
         <v>288334</v>
       </c>
     </row>
@@ -24940,28 +24950,28 @@
       <c r="AR158">
         <v>55.4</v>
       </c>
-      <c r="BJ158">
+      <c r="BL158">
         <v>212.3776666666667</v>
       </c>
-      <c r="BK158">
+      <c r="BM158">
         <v>206.9433333333334</v>
       </c>
-      <c r="BL158">
+      <c r="BN158">
         <v>15971.4</v>
       </c>
-      <c r="BM158">
+      <c r="BO158">
         <v>15169.1</v>
       </c>
-      <c r="BN158">
+      <c r="BP158">
         <v>1</v>
       </c>
-      <c r="BO158">
+      <c r="BQ158">
         <v>5192</v>
       </c>
-      <c r="BP158">
+      <c r="BR158">
         <v>14587</v>
       </c>
-      <c r="BQ158">
+      <c r="BS158">
         <v>289591.3333333333</v>
       </c>
     </row>
@@ -25098,28 +25108,28 @@
       <c r="AR159">
         <v>55.5</v>
       </c>
-      <c r="BJ159">
+      <c r="BL159">
         <v>213.507</v>
       </c>
-      <c r="BK159">
+      <c r="BM159">
         <v>208.3903333333334</v>
       </c>
-      <c r="BL159">
+      <c r="BN159">
         <v>16025</v>
       </c>
-      <c r="BM159">
+      <c r="BO159">
         <v>15197.8</v>
       </c>
-      <c r="BN159">
+      <c r="BP159">
         <v>1</v>
       </c>
-      <c r="BO159">
+      <c r="BQ159">
         <v>5181.666666666667</v>
       </c>
-      <c r="BP159">
+      <c r="BR159">
         <v>14576.33333333333</v>
       </c>
-      <c r="BQ159">
+      <c r="BS159">
         <v>292223.6666666667</v>
       </c>
     </row>
@@ -25256,28 +25266,28 @@
       <c r="AR160">
         <v>67.09999999999999</v>
       </c>
-      <c r="BJ160">
+      <c r="BL160">
         <v>215.344</v>
       </c>
-      <c r="BK160">
+      <c r="BM160">
         <v>210.695</v>
       </c>
-      <c r="BL160">
+      <c r="BN160">
         <v>16075.4</v>
       </c>
-      <c r="BM160">
+      <c r="BO160">
         <v>15261.7</v>
       </c>
-      <c r="BN160">
+      <c r="BP160">
         <v>-1</v>
       </c>
-      <c r="BO160">
+      <c r="BQ160">
         <v>5145.333333333333</v>
       </c>
-      <c r="BP160">
+      <c r="BR160">
         <v>14532</v>
       </c>
-      <c r="BQ160">
+      <c r="BS160">
         <v>287368</v>
       </c>
     </row>
@@ -25414,28 +25424,28 @@
       <c r="AR161">
         <v>55.5</v>
       </c>
-      <c r="BJ161">
+      <c r="BL161">
         <v>217.03</v>
       </c>
-      <c r="BK161">
+      <c r="BM161">
         <v>212.6326666666666</v>
       </c>
-      <c r="BL161">
+      <c r="BN161">
         <v>16124.4</v>
       </c>
-      <c r="BM161">
+      <c r="BO161">
         <v>15359.8</v>
       </c>
-      <c r="BN161">
+      <c r="BP161">
         <v>-1</v>
       </c>
-      <c r="BO161">
+      <c r="BQ161">
         <v>5153.333333333333</v>
       </c>
-      <c r="BP161">
+      <c r="BR161">
         <v>14521</v>
       </c>
-      <c r="BQ161">
+      <c r="BS161">
         <v>274301</v>
       </c>
     </row>
@@ -25572,28 +25582,28 @@
       <c r="AR162">
         <v>54.8</v>
       </c>
-      <c r="BJ162">
+      <c r="BL162">
         <v>217.374</v>
       </c>
-      <c r="BK162">
+      <c r="BM162">
         <v>213.237</v>
       </c>
-      <c r="BL162">
+      <c r="BN162">
         <v>16173.6</v>
       </c>
-      <c r="BM162">
+      <c r="BO162">
         <v>15445.7</v>
       </c>
-      <c r="BN162">
+      <c r="BP162">
         <v>-1</v>
       </c>
-      <c r="BO162">
+      <c r="BQ162">
         <v>5144</v>
       </c>
-      <c r="BP162">
+      <c r="BR162">
         <v>14466</v>
       </c>
-      <c r="BQ162">
+      <c r="BS162">
         <v>268022</v>
       </c>
     </row>
@@ -25730,28 +25740,28 @@
       <c r="AR163">
         <v>55.5</v>
       </c>
-      <c r="BJ163">
+      <c r="BL163">
         <v>217.2973333333333</v>
       </c>
-      <c r="BK163">
+      <c r="BM163">
         <v>213.1506666666667</v>
       </c>
-      <c r="BL163">
+      <c r="BN163">
         <v>16224.4</v>
       </c>
-      <c r="BM163">
+      <c r="BO163">
         <v>15566.2</v>
       </c>
-      <c r="BN163">
+      <c r="BP163">
         <v>-1</v>
       </c>
-      <c r="BO163">
+      <c r="BQ163">
         <v>5136.666666666667</v>
       </c>
-      <c r="BP163">
+      <c r="BR163">
         <v>14434</v>
       </c>
-      <c r="BQ163">
+      <c r="BS163">
         <v>274526.6666666667</v>
       </c>
     </row>
@@ -25888,28 +25898,28 @@
       <c r="AR164">
         <v>56</v>
       </c>
-      <c r="BJ164">
+      <c r="BL164">
         <v>217.9343333333333</v>
       </c>
-      <c r="BK164">
+      <c r="BM164">
         <v>213.82</v>
       </c>
-      <c r="BL164">
+      <c r="BN164">
         <v>16277.7</v>
       </c>
-      <c r="BM164">
+      <c r="BO164">
         <v>15662.7</v>
       </c>
-      <c r="BN164">
+      <c r="BP164">
         <v>-1</v>
       </c>
-      <c r="BO164">
+      <c r="BQ164">
         <v>5129.333333333333</v>
       </c>
-      <c r="BP164">
+      <c r="BR164">
         <v>14327.66666666667</v>
       </c>
-      <c r="BQ164">
+      <c r="BS164">
         <v>277232.3333333333</v>
       </c>
     </row>
@@ -26046,28 +26056,28 @@
       <c r="AR165">
         <v>56.9</v>
       </c>
-      <c r="BJ165">
+      <c r="BL165">
         <v>219.699</v>
       </c>
-      <c r="BK165">
+      <c r="BM165">
         <v>215.764</v>
       </c>
-      <c r="BL165">
+      <c r="BN165">
         <v>16333.2</v>
       </c>
-      <c r="BM165">
+      <c r="BO165">
         <v>15804.5</v>
       </c>
-      <c r="BN165">
+      <c r="BP165">
         <v>-1</v>
       </c>
-      <c r="BO165">
+      <c r="BQ165">
         <v>5137</v>
       </c>
-      <c r="BP165">
+      <c r="BR165">
         <v>14279</v>
       </c>
-      <c r="BQ165">
+      <c r="BS165">
         <v>269906.3333333333</v>
       </c>
     </row>
@@ -26204,28 +26214,28 @@
       <c r="AR166">
         <v>58.9</v>
       </c>
-      <c r="BJ166">
+      <c r="BL166">
         <v>222.0436666666667</v>
       </c>
-      <c r="BK166">
+      <c r="BM166">
         <v>218.4156666666667</v>
       </c>
-      <c r="BL166">
+      <c r="BN166">
         <v>16390.9</v>
       </c>
-      <c r="BM166">
+      <c r="BO166">
         <v>15945.5</v>
       </c>
-      <c r="BN166">
+      <c r="BP166">
         <v>-1</v>
       </c>
-      <c r="BO166">
+      <c r="BQ166">
         <v>5113.333333333333</v>
       </c>
-      <c r="BP166">
+      <c r="BR166">
         <v>14232.66666666667</v>
       </c>
-      <c r="BQ166">
+      <c r="BS166">
         <v>258077</v>
       </c>
     </row>
@@ -26362,28 +26372,28 @@
       <c r="AR167">
         <v>59.9</v>
       </c>
-      <c r="BJ167">
+      <c r="BL167">
         <v>224.5683333333333</v>
       </c>
-      <c r="BK167">
+      <c r="BM167">
         <v>221.2876666666667</v>
       </c>
-      <c r="BL167">
+      <c r="BN167">
         <v>16450.9</v>
       </c>
-      <c r="BM167">
+      <c r="BO167">
         <v>16109</v>
       </c>
-      <c r="BN167">
+      <c r="BP167">
         <v>-1</v>
       </c>
-      <c r="BO167">
+      <c r="BQ167">
         <v>5084.333333333333</v>
       </c>
-      <c r="BP167">
+      <c r="BR167">
         <v>14207.66666666667</v>
       </c>
-      <c r="BQ167">
+      <c r="BS167">
         <v>251739</v>
       </c>
     </row>
@@ -26520,28 +26530,28 @@
       <c r="AR168">
         <v>60.2</v>
       </c>
-      <c r="BJ168">
+      <c r="BL168">
         <v>226.0326666666667</v>
       </c>
-      <c r="BK168">
+      <c r="BM168">
         <v>222.738</v>
       </c>
-      <c r="BL168">
+      <c r="BN168">
         <v>16513.3</v>
       </c>
-      <c r="BM168">
+      <c r="BO168">
         <v>16274.4</v>
       </c>
-      <c r="BN168">
+      <c r="BP168">
         <v>-1</v>
       </c>
-      <c r="BO168">
+      <c r="BQ168">
         <v>5069.666666666667</v>
       </c>
-      <c r="BP168">
+      <c r="BR168">
         <v>14094</v>
       </c>
-      <c r="BQ168">
+      <c r="BS168">
         <v>253215.3333333333</v>
       </c>
     </row>
@@ -26678,28 +26688,28 @@
       <c r="AR169">
         <v>61.1</v>
       </c>
-      <c r="BJ169">
+      <c r="BL169">
         <v>227.0473333333333</v>
       </c>
-      <c r="BK169">
+      <c r="BM169">
         <v>223.7746666666667</v>
       </c>
-      <c r="BL169">
+      <c r="BN169">
         <v>16577.3</v>
       </c>
-      <c r="BM169">
+      <c r="BO169">
         <v>16362.2</v>
       </c>
-      <c r="BN169">
+      <c r="BP169">
         <v>-1</v>
       </c>
-      <c r="BO169">
+      <c r="BQ169">
         <v>5051</v>
       </c>
-      <c r="BP169">
+      <c r="BR169">
         <v>14080.66666666667</v>
       </c>
-      <c r="BQ169">
+      <c r="BS169">
         <v>258046</v>
       </c>
     </row>
@@ -26836,28 +26846,28 @@
       <c r="AR170">
         <v>58.4</v>
       </c>
-      <c r="BJ170">
+      <c r="BL170">
         <v>228.326</v>
       </c>
-      <c r="BK170">
+      <c r="BM170">
         <v>225.0873333333333</v>
       </c>
-      <c r="BL170">
+      <c r="BN170">
         <v>16642.9</v>
       </c>
-      <c r="BM170">
+      <c r="BO170">
         <v>16529.8</v>
       </c>
-      <c r="BN170">
+      <c r="BP170">
         <v>-1</v>
       </c>
-      <c r="BO170">
+      <c r="BQ170">
         <v>5048</v>
       </c>
-      <c r="BP170">
+      <c r="BR170">
         <v>14067.66666666667</v>
       </c>
-      <c r="BQ170">
+      <c r="BS170">
         <v>254528.3333333333</v>
       </c>
     </row>
@@ -26994,28 +27004,28 @@
       <c r="AR171">
         <v>58.1</v>
       </c>
-      <c r="BJ171">
+      <c r="BL171">
         <v>228.808</v>
       </c>
-      <c r="BK171">
+      <c r="BM171">
         <v>225.4593333333333</v>
       </c>
-      <c r="BL171">
+      <c r="BN171">
         <v>16710.5</v>
       </c>
-      <c r="BM171">
+      <c r="BO171">
         <v>16662.5</v>
       </c>
-      <c r="BN171">
+      <c r="BP171">
         <v>-1</v>
       </c>
-      <c r="BO171">
+      <c r="BQ171">
         <v>5055.333333333333</v>
       </c>
-      <c r="BP171">
+      <c r="BR171">
         <v>14044.33333333333</v>
       </c>
-      <c r="BQ171">
+      <c r="BS171">
         <v>254598.6666666667</v>
       </c>
     </row>
@@ -27152,28 +27162,28 @@
       <c r="AR172">
         <v>56.3</v>
       </c>
-      <c r="BJ172">
+      <c r="BL172">
         <v>229.841</v>
       </c>
-      <c r="BK172">
+      <c r="BM172">
         <v>226.357</v>
       </c>
-      <c r="BL172">
+      <c r="BN172">
         <v>16779.7</v>
       </c>
-      <c r="BM172">
+      <c r="BO172">
         <v>16817.4</v>
       </c>
-      <c r="BN172">
+      <c r="BP172">
         <v>-1</v>
       </c>
-      <c r="BO172">
+      <c r="BQ172">
         <v>5064.666666666667</v>
       </c>
-      <c r="BP172">
+      <c r="BR172">
         <v>14034.33333333333</v>
       </c>
-      <c r="BQ172">
+      <c r="BS172">
         <v>252248.6666666667</v>
       </c>
     </row>
@@ -27310,28 +27320,28 @@
       <c r="AR173">
         <v>59.4</v>
       </c>
-      <c r="BJ173">
+      <c r="BL173">
         <v>231.3693333333333</v>
       </c>
-      <c r="BK173">
+      <c r="BM173">
         <v>227.9716666666667</v>
       </c>
-      <c r="BL173">
+      <c r="BN173">
         <v>16850.1</v>
       </c>
-      <c r="BM173">
+      <c r="BO173">
         <v>16974.5</v>
       </c>
-      <c r="BN173">
+      <c r="BP173">
         <v>-1</v>
       </c>
-      <c r="BO173">
+      <c r="BQ173">
         <v>5051.666666666667</v>
       </c>
-      <c r="BP173">
+      <c r="BR173">
         <v>14026.33333333333</v>
       </c>
-      <c r="BQ173">
+      <c r="BS173">
         <v>246424.3333333333</v>
       </c>
     </row>
@@ -27468,28 +27478,28 @@
       <c r="AR174">
         <v>59.4</v>
       </c>
-      <c r="BJ174">
+      <c r="BL174">
         <v>232.2993333333334</v>
       </c>
-      <c r="BK174">
+      <c r="BM174">
         <v>228.8366666666667</v>
       </c>
-      <c r="BL174">
+      <c r="BN174">
         <v>16921.8</v>
       </c>
-      <c r="BM174">
+      <c r="BO174">
         <v>17114.6</v>
       </c>
-      <c r="BN174">
+      <c r="BP174">
         <v>-1</v>
       </c>
-      <c r="BO174">
+      <c r="BQ174">
         <v>5042</v>
       </c>
-      <c r="BP174">
+      <c r="BR174">
         <v>14029.33333333333</v>
       </c>
-      <c r="BQ174">
+      <c r="BS174">
         <v>242924.3333333333</v>
       </c>
     </row>
@@ -27626,28 +27636,28 @@
       <c r="AR175">
         <v>60.1</v>
       </c>
-      <c r="BJ175">
+      <c r="BL175">
         <v>232.045</v>
       </c>
-      <c r="BK175">
+      <c r="BM175">
         <v>228.4096666666667</v>
       </c>
-      <c r="BL175">
+      <c r="BN175">
         <v>16994.9</v>
       </c>
-      <c r="BM175">
+      <c r="BO175">
         <v>17238</v>
       </c>
-      <c r="BN175">
+      <c r="BP175">
         <v>-1</v>
       </c>
-      <c r="BO175">
+      <c r="BQ175">
         <v>5044.666666666667</v>
       </c>
-      <c r="BP175">
+      <c r="BR175">
         <v>14033</v>
       </c>
-      <c r="BQ175">
+      <c r="BS175">
         <v>245991.6666666667</v>
       </c>
     </row>
@@ -27784,28 +27794,28 @@
       <c r="AR176">
         <v>60</v>
       </c>
-      <c r="BJ176">
+      <c r="BL176">
         <v>233.3</v>
       </c>
-      <c r="BK176">
+      <c r="BM176">
         <v>229.589</v>
       </c>
-      <c r="BL176">
+      <c r="BN176">
         <v>17068.6</v>
       </c>
-      <c r="BM176">
+      <c r="BO176">
         <v>17395.8</v>
       </c>
-      <c r="BN176">
+      <c r="BP176">
         <v>-1</v>
       </c>
-      <c r="BO176">
+      <c r="BQ176">
         <v>5040</v>
       </c>
-      <c r="BP176">
+      <c r="BR176">
         <v>14031</v>
       </c>
-      <c r="BQ176">
+      <c r="BS176">
         <v>249225</v>
       </c>
     </row>
@@ -27942,28 +27952,28 @@
       <c r="AR177">
         <v>59.4</v>
       </c>
-      <c r="BJ177">
+      <c r="BL177">
         <v>234.1626666666667</v>
       </c>
-      <c r="BK177">
+      <c r="BM177">
         <v>230.4336666666667</v>
       </c>
-      <c r="BL177">
+      <c r="BN177">
         <v>17143.4</v>
       </c>
-      <c r="BM177">
+      <c r="BO177">
         <v>17575</v>
       </c>
-      <c r="BN177">
+      <c r="BP177">
         <v>-1</v>
       </c>
-      <c r="BO177">
+      <c r="BQ177">
         <v>5055.333333333333</v>
       </c>
-      <c r="BP177">
+      <c r="BR177">
         <v>14033.66666666667</v>
       </c>
-      <c r="BQ177">
+      <c r="BS177">
         <v>247543.3333333333</v>
       </c>
     </row>
@@ -28100,28 +28110,28 @@
       <c r="AR178">
         <v>58.7</v>
       </c>
-      <c r="BJ178">
+      <c r="BL178">
         <v>235.621</v>
       </c>
-      <c r="BK178">
+      <c r="BM178">
         <v>231.95</v>
       </c>
-      <c r="BL178">
+      <c r="BN178">
         <v>17219.3</v>
       </c>
-      <c r="BM178">
+      <c r="BO178">
         <v>17725.1</v>
       </c>
-      <c r="BN178">
+      <c r="BP178">
         <v>-1</v>
       </c>
-      <c r="BO178">
+      <c r="BQ178">
         <v>5054.666666666667</v>
       </c>
-      <c r="BP178">
+      <c r="BR178">
         <v>14037.66666666667</v>
       </c>
-      <c r="BQ178">
+      <c r="BS178">
         <v>242591.3333333333</v>
       </c>
     </row>
@@ -28258,28 +28268,28 @@
       <c r="AR179">
         <v>58.5</v>
       </c>
-      <c r="BJ179">
+      <c r="BL179">
         <v>236.8723333333333</v>
       </c>
-      <c r="BK179">
+      <c r="BM179">
         <v>233.1013333333334</v>
       </c>
-      <c r="BL179">
+      <c r="BN179">
         <v>17296.2</v>
       </c>
-      <c r="BM179">
+      <c r="BO179">
         <v>17903.5</v>
       </c>
-      <c r="BN179">
+      <c r="BP179">
         <v>-1</v>
       </c>
-      <c r="BO179">
+      <c r="BQ179">
         <v>5054.666666666667</v>
       </c>
-      <c r="BP179">
+      <c r="BR179">
         <v>14077</v>
       </c>
-      <c r="BQ179">
+      <c r="BS179">
         <v>251613.3333333333</v>
       </c>
     </row>
@@ -28416,28 +28426,28 @@
       <c r="AR180">
         <v>58.2</v>
       </c>
-      <c r="BJ180">
+      <c r="BL180">
         <v>237.4783333333333</v>
       </c>
-      <c r="BK180">
+      <c r="BM180">
         <v>233.4943333333333</v>
       </c>
-      <c r="BL180">
+      <c r="BN180">
         <v>17374.2</v>
       </c>
-      <c r="BM180">
+      <c r="BO180">
         <v>18061.8</v>
       </c>
-      <c r="BN180">
+      <c r="BP180">
         <v>-1</v>
       </c>
-      <c r="BO180">
+      <c r="BQ180">
         <v>5030.666666666667</v>
       </c>
-      <c r="BP180">
+      <c r="BR180">
         <v>14120</v>
       </c>
-      <c r="BQ180">
+      <c r="BS180">
         <v>257546.3333333333</v>
       </c>
     </row>
@@ -28574,28 +28584,28 @@
       <c r="AR181">
         <v>57</v>
       </c>
-      <c r="BJ181">
+      <c r="BL181">
         <v>236.8883333333334</v>
       </c>
-      <c r="BK181">
+      <c r="BM181">
         <v>232.431</v>
       </c>
-      <c r="BL181">
+      <c r="BN181">
         <v>17453</v>
       </c>
-      <c r="BM181">
+      <c r="BO181">
         <v>18172.7</v>
       </c>
-      <c r="BN181">
+      <c r="BP181">
         <v>-1</v>
       </c>
-      <c r="BO181">
+      <c r="BQ181">
         <v>5052.666666666667</v>
       </c>
-      <c r="BP181">
+      <c r="BR181">
         <v>14140</v>
       </c>
-      <c r="BQ181">
+      <c r="BS181">
         <v>260104.3333333333</v>
       </c>
     </row>
@@ -28732,28 +28742,28 @@
       <c r="AR182">
         <v>56</v>
       </c>
-      <c r="BJ182">
+      <c r="BL182">
         <v>235.355</v>
       </c>
-      <c r="BK182">
+      <c r="BM182">
         <v>230.2366666666667</v>
       </c>
-      <c r="BL182">
+      <c r="BN182">
         <v>17532.1</v>
       </c>
-      <c r="BM182">
+      <c r="BO182">
         <v>18238.8</v>
       </c>
-      <c r="BN182">
+      <c r="BP182">
         <v>-1</v>
       </c>
-      <c r="BO182">
+      <c r="BQ182">
         <v>5067.666666666667</v>
       </c>
-      <c r="BP182">
+      <c r="BR182">
         <v>14155</v>
       </c>
-      <c r="BQ182">
+      <c r="BS182">
         <v>260731.6666666667</v>
       </c>
     </row>
@@ -28890,28 +28900,28 @@
       <c r="AR183">
         <v>56.4</v>
       </c>
-      <c r="BJ183">
+      <c r="BL183">
         <v>236.96</v>
       </c>
-      <c r="BK183">
+      <c r="BM183">
         <v>231.9576666666667</v>
       </c>
-      <c r="BL183">
+      <c r="BN183">
         <v>17611.2</v>
       </c>
-      <c r="BM183">
+      <c r="BO183">
         <v>18420.6</v>
       </c>
-      <c r="BN183">
+      <c r="BP183">
         <v>-1</v>
       </c>
-      <c r="BO183">
+      <c r="BQ183">
         <v>5072.333333333333</v>
       </c>
-      <c r="BP183">
+      <c r="BR183">
         <v>14181.66666666667</v>
       </c>
-      <c r="BQ183">
+      <c r="BS183">
         <v>274292.3333333333</v>
       </c>
     </row>
@@ -29048,28 +29058,28 @@
       <c r="AR184">
         <v>57.7</v>
       </c>
-      <c r="BJ184">
+      <c r="BL184">
         <v>237.855</v>
       </c>
-      <c r="BK184">
+      <c r="BM184">
         <v>232.6933333333334</v>
       </c>
-      <c r="BL184">
+      <c r="BN184">
         <v>17689.6</v>
       </c>
-      <c r="BM184">
+      <c r="BO184">
         <v>18561</v>
       </c>
-      <c r="BN184">
+      <c r="BP184">
         <v>-1</v>
       </c>
-      <c r="BO184">
+      <c r="BQ184">
         <v>5077.666666666667</v>
       </c>
-      <c r="BP184">
+      <c r="BR184">
         <v>14214</v>
       </c>
-      <c r="BQ184">
+      <c r="BS184">
         <v>278090.3333333333</v>
       </c>
     </row>
@@ -29206,28 +29216,28 @@
       <c r="AR185">
         <v>58.7</v>
       </c>
-      <c r="BJ185">
+      <c r="BL185">
         <v>237.837</v>
       </c>
-      <c r="BK185">
+      <c r="BM185">
         <v>232.2803333333334</v>
       </c>
-      <c r="BL185">
+      <c r="BN185">
         <v>17766.8</v>
       </c>
-      <c r="BM185">
+      <c r="BO185">
         <v>18643.9</v>
       </c>
-      <c r="BN185">
+      <c r="BP185">
         <v>-1</v>
       </c>
-      <c r="BO185">
+      <c r="BQ185">
         <v>5087.333333333333</v>
       </c>
-      <c r="BP185">
+      <c r="BR185">
         <v>14223.66666666667</v>
       </c>
-      <c r="BQ185">
+      <c r="BS185">
         <v>268417</v>
       </c>
     </row>
@@ -29364,28 +29374,28 @@
       <c r="AR186">
         <v>60.7</v>
       </c>
-      <c r="BJ186">
+      <c r="BL186">
         <v>237.6893333333333</v>
       </c>
-      <c r="BK186">
+      <c r="BM186">
         <v>231.781</v>
       </c>
-      <c r="BL186">
+      <c r="BN186">
         <v>17843.2</v>
       </c>
-      <c r="BM186">
+      <c r="BO186">
         <v>18711.2</v>
       </c>
-      <c r="BN186">
+      <c r="BP186">
         <v>-1</v>
       </c>
-      <c r="BO186">
+      <c r="BQ186">
         <v>5089</v>
       </c>
-      <c r="BP186">
+      <c r="BR186">
         <v>14277</v>
       </c>
-      <c r="BQ186">
+      <c r="BS186">
         <v>280145</v>
       </c>
     </row>
@@ -29522,28 +29532,28 @@
       <c r="AR187">
         <v>62.4</v>
       </c>
-      <c r="BJ187">
+      <c r="BL187">
         <v>239.5903333333333</v>
       </c>
-      <c r="BK187">
+      <c r="BM187">
         <v>233.774</v>
       </c>
-      <c r="BL187">
+      <c r="BN187">
         <v>17918.2</v>
       </c>
-      <c r="BM187">
+      <c r="BO187">
         <v>18920.1</v>
       </c>
-      <c r="BN187">
+      <c r="BP187">
         <v>-1</v>
       </c>
-      <c r="BO187">
+      <c r="BQ187">
         <v>5098.666666666667</v>
       </c>
-      <c r="BP187">
+      <c r="BR187">
         <v>14297.66666666667</v>
       </c>
-      <c r="BQ187">
+      <c r="BS187">
         <v>275022</v>
       </c>
     </row>
@@ -29680,28 +29690,28 @@
       <c r="AR188">
         <v>63</v>
       </c>
-      <c r="BJ188">
+      <c r="BL188">
         <v>240.6073333333333</v>
       </c>
-      <c r="BK188">
+      <c r="BM188">
         <v>234.5966666666667</v>
       </c>
-      <c r="BL188">
+      <c r="BN188">
         <v>17992</v>
       </c>
-      <c r="BM188">
+      <c r="BO188">
         <v>19062.5</v>
       </c>
-      <c r="BN188">
+      <c r="BP188">
         <v>-1</v>
       </c>
-      <c r="BO188">
+      <c r="BQ188">
         <v>5126.666666666667</v>
       </c>
-      <c r="BP188">
+      <c r="BR188">
         <v>14369</v>
       </c>
-      <c r="BQ188">
+      <c r="BS188">
         <v>271266.6666666667</v>
       </c>
     </row>
@@ -29838,28 +29848,28 @@
       <c r="AR189">
         <v>61</v>
       </c>
-      <c r="BJ189">
+      <c r="BL189">
         <v>242.1346666666667</v>
       </c>
-      <c r="BK189">
+      <c r="BM189">
         <v>236.1406666666667</v>
       </c>
-      <c r="BL189">
+      <c r="BN189">
         <v>18065.1</v>
       </c>
-      <c r="BM189">
+      <c r="BO189">
         <v>19233.7</v>
       </c>
-      <c r="BN189">
+      <c r="BP189">
         <v>-1</v>
       </c>
-      <c r="BO189">
+      <c r="BQ189">
         <v>5135.333333333333</v>
       </c>
-      <c r="BP189">
+      <c r="BR189">
         <v>14351</v>
       </c>
-      <c r="BQ189">
+      <c r="BS189">
         <v>274719.6666666667</v>
       </c>
     </row>
@@ -29996,28 +30006,28 @@
       <c r="AR190">
         <v>59.5</v>
       </c>
-      <c r="BJ190">
+      <c r="BL190">
         <v>243.7526666666667</v>
       </c>
-      <c r="BK190">
+      <c r="BM190">
         <v>237.75</v>
       </c>
-      <c r="BL190">
+      <c r="BN190">
         <v>18137.7</v>
       </c>
-      <c r="BM190">
+      <c r="BO190">
         <v>19409</v>
       </c>
-      <c r="BN190">
+      <c r="BP190">
         <v>-1</v>
       </c>
-      <c r="BO190">
+      <c r="BQ190">
         <v>5158</v>
       </c>
-      <c r="BP190">
+      <c r="BR190">
         <v>14347</v>
       </c>
-      <c r="BQ190">
+      <c r="BS190">
         <v>274527.6666666667</v>
       </c>
     </row>
@@ -30154,28 +30164,28 @@
       <c r="AR191">
         <v>58.1</v>
       </c>
-      <c r="BJ191">
+      <c r="BL191">
         <v>244.187</v>
       </c>
-      <c r="BK191">
+      <c r="BM191">
         <v>238.0306666666667</v>
       </c>
-      <c r="BL191">
+      <c r="BN191">
         <v>18211.1</v>
       </c>
-      <c r="BM191">
+      <c r="BO191">
         <v>19547.7</v>
       </c>
-      <c r="BN191">
+      <c r="BP191">
         <v>-1</v>
       </c>
-      <c r="BO191">
+      <c r="BQ191">
         <v>5170.333333333333</v>
       </c>
-      <c r="BP191">
+      <c r="BR191">
         <v>14363</v>
       </c>
-      <c r="BQ191">
+      <c r="BS191">
         <v>275545.6666666667</v>
       </c>
     </row>
@@ -30312,28 +30322,28 @@
       <c r="AR192">
         <v>61.9</v>
       </c>
-      <c r="BJ192">
+      <c r="BL192">
         <v>245.3453333333333</v>
       </c>
-      <c r="BK192">
+      <c r="BM192">
         <v>239.2</v>
       </c>
-      <c r="BL192">
+      <c r="BN192">
         <v>18287.1</v>
       </c>
-      <c r="BM192">
+      <c r="BO192">
         <v>19726.8</v>
       </c>
-      <c r="BN192">
+      <c r="BP192">
         <v>-1</v>
       </c>
-      <c r="BO192">
+      <c r="BQ192">
         <v>5168.333333333333</v>
       </c>
-      <c r="BP192">
+      <c r="BR192">
         <v>14401.66666666667</v>
       </c>
-      <c r="BQ192">
+      <c r="BS192">
         <v>273887</v>
       </c>
     </row>
@@ -30470,28 +30480,28 @@
       <c r="AR193">
         <v>60</v>
       </c>
-      <c r="BJ193">
+      <c r="BL193">
         <v>247.257</v>
       </c>
-      <c r="BK193">
+      <c r="BM193">
         <v>241.3036666666667</v>
       </c>
-      <c r="BL193">
+      <c r="BN193">
         <v>18365.3</v>
       </c>
-      <c r="BM193">
+      <c r="BO193">
         <v>19944.4</v>
       </c>
-      <c r="BN193">
+      <c r="BP193">
         <v>-1</v>
       </c>
-      <c r="BO193">
+      <c r="BQ193">
         <v>5160.333333333333</v>
       </c>
-      <c r="BP193">
+      <c r="BR193">
         <v>14428.66666666667</v>
       </c>
-      <c r="BQ193">
+      <c r="BS193">
         <v>278738</v>
       </c>
     </row>
@@ -30628,28 +30638,28 @@
       <c r="AR194">
         <v>58.2</v>
       </c>
-      <c r="BJ194">
+      <c r="BL194">
         <v>249.1793333333334</v>
       </c>
-      <c r="BK194">
+      <c r="BM194">
         <v>243.2743333333333</v>
       </c>
-      <c r="BL194">
+      <c r="BN194">
         <v>18446.4</v>
       </c>
-      <c r="BM194">
+      <c r="BO194">
         <v>20150.3</v>
       </c>
-      <c r="BN194">
+      <c r="BP194">
         <v>-1</v>
       </c>
-      <c r="BO194">
+      <c r="BQ194">
         <v>5150.333333333333</v>
       </c>
-      <c r="BP194">
+      <c r="BR194">
         <v>14442.33333333333</v>
       </c>
-      <c r="BQ194">
+      <c r="BS194">
         <v>284701</v>
       </c>
     </row>
@@ -30786,28 +30796,28 @@
       <c r="AR195">
         <v>57.8</v>
       </c>
-      <c r="BJ195">
+      <c r="BL195">
         <v>250.7376666666667</v>
       </c>
-      <c r="BK195">
+      <c r="BM195">
         <v>244.813</v>
       </c>
-      <c r="BL195">
+      <c r="BN195">
         <v>18530.5</v>
       </c>
-      <c r="BM195">
+      <c r="BO195">
         <v>20416.2</v>
       </c>
-      <c r="BN195">
+      <c r="BP195">
         <v>-1</v>
       </c>
-      <c r="BO195">
+      <c r="BQ195">
         <v>5173</v>
       </c>
-      <c r="BP195">
+      <c r="BR195">
         <v>14468.66666666667</v>
       </c>
-      <c r="BQ195">
+      <c r="BS195">
         <v>293031</v>
       </c>
     </row>
@@ -30944,28 +30954,28 @@
       <c r="AR196">
         <v>57.9</v>
       </c>
-      <c r="BJ196">
+      <c r="BL196">
         <v>251.7543333333333</v>
       </c>
-      <c r="BK196">
+      <c r="BM196">
         <v>245.793</v>
       </c>
-      <c r="BL196">
+      <c r="BN196">
         <v>18617.4</v>
       </c>
-      <c r="BM196">
+      <c r="BO196">
         <v>20593.4</v>
       </c>
-      <c r="BN196">
+      <c r="BP196">
         <v>-1</v>
       </c>
-      <c r="BO196">
+      <c r="BQ196">
         <v>5185.333333333333</v>
       </c>
-      <c r="BP196">
+      <c r="BR196">
         <v>14494.33333333333</v>
       </c>
-      <c r="BQ196">
+      <c r="BS196">
         <v>291638.3333333333</v>
       </c>
     </row>
@@ -31102,28 +31112,28 @@
       <c r="AR197">
         <v>79.5</v>
       </c>
-      <c r="BJ197">
+      <c r="BL197">
         <v>252.738</v>
       </c>
-      <c r="BK197">
+      <c r="BM197">
         <v>246.681</v>
       </c>
-      <c r="BL197">
+      <c r="BN197">
         <v>18705.5</v>
       </c>
-      <c r="BM197">
+      <c r="BO197">
         <v>20789.5</v>
       </c>
-      <c r="BN197">
+      <c r="BP197">
         <v>-1</v>
       </c>
-      <c r="BO197">
+      <c r="BQ197">
         <v>5177</v>
       </c>
-      <c r="BP197">
+      <c r="BR197">
         <v>14510</v>
       </c>
-      <c r="BQ197">
+      <c r="BS197">
         <v>283060</v>
       </c>
     </row>
@@ -31260,28 +31270,28 @@
       <c r="AR198">
         <v>71.3</v>
       </c>
-      <c r="BJ198">
+      <c r="BL198">
         <v>253.1856666666667</v>
       </c>
-      <c r="BK198">
+      <c r="BM198">
         <v>246.765</v>
       </c>
-      <c r="BL198">
+      <c r="BN198">
         <v>18794.8</v>
       </c>
-      <c r="BM198">
+      <c r="BO198">
         <v>20942.1</v>
       </c>
-      <c r="BN198">
+      <c r="BP198">
         <v>-1</v>
       </c>
-      <c r="BO198">
+      <c r="BQ198">
         <v>5171.333333333333</v>
       </c>
-      <c r="BP198">
+      <c r="BR198">
         <v>14527.66666666667</v>
       </c>
-      <c r="BQ198">
+      <c r="BS198">
         <v>299821.3333333333</v>
       </c>
     </row>
@@ -31418,28 +31428,28 @@
       <c r="AR199">
         <v>61.1</v>
       </c>
-      <c r="BJ199">
+      <c r="BL199">
         <v>255.3733333333333</v>
       </c>
-      <c r="BK199">
+      <c r="BM199">
         <v>249.0076666666667</v>
       </c>
-      <c r="BL199">
+      <c r="BN199">
         <v>18885.5</v>
       </c>
-      <c r="BM199">
+      <c r="BO199">
         <v>21178.4</v>
       </c>
-      <c r="BN199">
+      <c r="BP199">
         <v>-1</v>
       </c>
-      <c r="BO199">
+      <c r="BQ199">
         <v>5177.333333333333</v>
       </c>
-      <c r="BP199">
+      <c r="BR199">
         <v>14558.33333333333</v>
       </c>
-      <c r="BQ199">
+      <c r="BS199">
         <v>314021</v>
       </c>
     </row>
@@ -31576,28 +31586,28 @@
       <c r="AR200">
         <v>82</v>
       </c>
-      <c r="BJ200">
+      <c r="BL200">
         <v>256.1916666666667</v>
       </c>
-      <c r="BK200">
+      <c r="BM200">
         <v>249.665</v>
       </c>
-      <c r="BL200">
+      <c r="BN200">
         <v>18976.5</v>
       </c>
-      <c r="BM200">
+      <c r="BO200">
         <v>21354.4</v>
       </c>
-      <c r="BN200">
+      <c r="BP200">
         <v>-1</v>
       </c>
-      <c r="BO200">
+      <c r="BQ200">
         <v>5218.333333333333</v>
       </c>
-      <c r="BP200">
+      <c r="BR200">
         <v>14590</v>
       </c>
-      <c r="BQ200">
+      <c r="BS200">
         <v>311467.6666666667</v>
       </c>
     </row>
@@ -31734,28 +31744,28 @@
       <c r="AR201">
         <v>81.09999999999999</v>
       </c>
-      <c r="BJ201">
+      <c r="BL201">
         <v>257.8596666666667</v>
       </c>
-      <c r="BK201">
+      <c r="BM201">
         <v>251.4253333333334</v>
       </c>
-      <c r="BL201">
+      <c r="BN201">
         <v>19065.6</v>
       </c>
-      <c r="BM201">
+      <c r="BO201">
         <v>21534.6</v>
       </c>
-      <c r="BN201">
+      <c r="BP201">
         <v>1</v>
       </c>
-      <c r="BO201">
+      <c r="BQ201">
         <v>5250.333333333333</v>
       </c>
-      <c r="BP201">
+      <c r="BR201">
         <v>14620.33333333333</v>
       </c>
-      <c r="BQ201">
+      <c r="BS201">
         <v>312808.6666666667</v>
       </c>
     </row>
@@ -31892,28 +31902,28 @@
       <c r="AR202">
         <v>75.09999999999999</v>
       </c>
-      <c r="BJ202">
+      <c r="BL202">
         <v>258.5</v>
       </c>
-      <c r="BK202">
+      <c r="BM202">
         <v>251.8853333333333</v>
       </c>
-      <c r="BL202">
+      <c r="BN202">
         <v>19154</v>
       </c>
-      <c r="BM202">
+      <c r="BO202">
         <v>21723.5</v>
       </c>
-      <c r="BN202">
+      <c r="BP202">
         <v>1</v>
       </c>
-      <c r="BO202">
+      <c r="BQ202">
         <v>5276.333333333333</v>
       </c>
-      <c r="BP202">
+      <c r="BR202">
         <v>14658.33333333333</v>
       </c>
-      <c r="BQ202">
+      <c r="BS202">
         <v>328551</v>
       </c>
     </row>
@@ -32054,72 +32064,78 @@
         <v>1078.1</v>
       </c>
       <c r="AT203">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AU203">
         <v>19.1</v>
       </c>
-      <c r="AU203">
+      <c r="AV203">
         <v>160.9</v>
       </c>
-      <c r="AV203">
+      <c r="AW203">
         <v>609.3</v>
       </c>
-      <c r="AW203">
+      <c r="AX203">
         <v>63.8</v>
       </c>
-      <c r="AX203">
+      <c r="AY203">
         <v>73.3</v>
       </c>
-      <c r="AY203">
+      <c r="AZ203">
         <v>22</v>
       </c>
-      <c r="AZ203">
+      <c r="BA203">
         <v>16.9</v>
       </c>
-      <c r="BA203">
+      <c r="BB203">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="BC203">
         <v>140</v>
       </c>
-      <c r="BB203">
+      <c r="BD203">
         <v>597.9</v>
       </c>
-      <c r="BC203">
+      <c r="BE203">
         <v>28.4</v>
       </c>
-      <c r="BD203">
+      <c r="BF203">
         <v>64.40000000000001</v>
       </c>
-      <c r="BE203">
+      <c r="BG203">
         <v>7.2</v>
       </c>
-      <c r="BF203">
+      <c r="BH203">
         <v>101.5</v>
       </c>
-      <c r="BG203">
+      <c r="BI203">
         <v>679.2000000000001</v>
       </c>
-      <c r="BH203">
+      <c r="BJ203">
         <v>788</v>
       </c>
-      <c r="BJ203">
+      <c r="BL203">
         <v>256.472</v>
       </c>
-      <c r="BK203">
+      <c r="BM203">
         <v>249.576</v>
       </c>
-      <c r="BL203">
+      <c r="BN203">
         <v>19242</v>
       </c>
-      <c r="BM203">
+      <c r="BO203">
         <v>21708.2</v>
       </c>
-      <c r="BN203">
+      <c r="BP203">
         <v>1</v>
       </c>
-      <c r="BO203">
+      <c r="BQ203">
         <v>5049.333333333333</v>
       </c>
-      <c r="BP203">
+      <c r="BR203">
         <v>13569.66666666667</v>
       </c>
-      <c r="BQ203">
+      <c r="BS203">
         <v>326980</v>
       </c>
     </row>
@@ -32173,7 +32189,7 @@
         <v>113</v>
       </c>
       <c r="Q204">
-        <v>2193.9</v>
+        <v>2191.6</v>
       </c>
       <c r="R204">
         <v>1489.2</v>
@@ -32185,7 +32201,7 @@
         <v>3816.6</v>
       </c>
       <c r="U204">
-        <v>1455.6</v>
+        <v>1446.9</v>
       </c>
       <c r="V204">
         <v>111.426</v>
@@ -32203,7 +32219,7 @@
         <v>1993.1</v>
       </c>
       <c r="AA204">
-        <v>1687.4</v>
+        <v>1685</v>
       </c>
       <c r="AB204">
         <v>144.7</v>
@@ -32212,7 +32228,7 @@
         <v>207</v>
       </c>
       <c r="AD204">
-        <v>1435.4</v>
+        <v>1426.6</v>
       </c>
       <c r="AE204">
         <v>3494.9</v>
@@ -32260,75 +32276,81 @@
         <v>15.6</v>
       </c>
       <c r="AT204">
+        <v>14.8</v>
+      </c>
+      <c r="AU204">
         <v>27</v>
       </c>
-      <c r="AU204">
+      <c r="AV204">
         <v>58.4</v>
       </c>
-      <c r="AV204">
+      <c r="AW204">
         <v>865.6</v>
       </c>
-      <c r="AW204">
+      <c r="AX204">
         <v>15</v>
       </c>
-      <c r="AX204">
+      <c r="AY204">
         <v>73.3</v>
       </c>
-      <c r="AY204">
+      <c r="AZ204">
         <v>0</v>
       </c>
-      <c r="AZ204">
+      <c r="BA204">
         <v>18.4</v>
       </c>
-      <c r="BA204">
+      <c r="BB204">
+        <v>35.1</v>
+      </c>
+      <c r="BC204">
         <v>140</v>
       </c>
-      <c r="BB204">
+      <c r="BD204">
         <v>0</v>
       </c>
-      <c r="BC204">
+      <c r="BE204">
         <v>15.8</v>
       </c>
-      <c r="BD204">
+      <c r="BF204">
         <v>23.4</v>
       </c>
-      <c r="BE204">
+      <c r="BG204">
         <v>23.9</v>
       </c>
-      <c r="BF204">
+      <c r="BH204">
         <v>156.1</v>
       </c>
-      <c r="BG204">
+      <c r="BI204">
         <v>373.1</v>
       </c>
-      <c r="BH204">
+      <c r="BJ204">
         <v>556.2000000000001</v>
       </c>
-      <c r="BI204">
-        <v>159.3</v>
-      </c>
-      <c r="BJ204">
+      <c r="BK204">
+        <v>106.2</v>
+      </c>
+      <c r="BL204">
         <v>259.4213333333333</v>
       </c>
-      <c r="BK204">
+      <c r="BM204">
         <v>253.0136666666666</v>
       </c>
-      <c r="BL204">
+      <c r="BN204">
         <v>19327.3</v>
       </c>
-      <c r="BM204">
+      <c r="BO204">
         <v>22002.3</v>
       </c>
-      <c r="BN204">
+      <c r="BP204">
         <v>1</v>
       </c>
-      <c r="BO204">
+      <c r="BQ204">
         <v>5036.333333333333</v>
       </c>
-      <c r="BP204">
+      <c r="BR204">
         <v>13736.66666666667</v>
       </c>
-      <c r="BQ204">
+      <c r="BS204">
         <v>318988.3333333333</v>
       </c>
     </row>
@@ -32337,115 +32359,115 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21479.5</v>
+        <v>21494.7</v>
       </c>
       <c r="C205">
-        <v>18780.3</v>
+        <v>18794.4</v>
       </c>
       <c r="D205">
         <v>114.415</v>
       </c>
       <c r="E205">
-        <v>14545.3</v>
+        <v>14537</v>
       </c>
       <c r="F205">
-        <v>13004.7</v>
+        <v>12999.1</v>
       </c>
       <c r="G205">
-        <v>111.851</v>
+        <v>111.835</v>
       </c>
       <c r="H205">
-        <v>112.015</v>
+        <v>112.102</v>
       </c>
       <c r="I205">
-        <v>117.773</v>
+        <v>117.727</v>
       </c>
       <c r="J205">
-        <v>117.701</v>
+        <v>117.647</v>
       </c>
       <c r="K205">
-        <v>118.101</v>
+        <v>118.093</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>673.6</v>
+        <v>682.4</v>
       </c>
       <c r="N205">
-        <v>302.4</v>
+        <v>296.4</v>
       </c>
       <c r="O205">
-        <v>3743.8</v>
+        <v>3745.8</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2226.7</v>
+        <v>2242.3</v>
       </c>
       <c r="R205">
-        <v>1503.7</v>
+        <v>1511.6</v>
       </c>
       <c r="S205">
-        <v>255.4</v>
+        <v>332.7</v>
       </c>
       <c r="T205">
-        <v>3830.8</v>
+        <v>3835.2</v>
       </c>
       <c r="U205">
-        <v>1478.8</v>
+        <v>1467.7</v>
       </c>
       <c r="V205">
-        <v>111.846</v>
+        <v>111.831</v>
       </c>
       <c r="W205">
-        <v>1493.6</v>
+        <v>1493.4</v>
       </c>
       <c r="X205">
-        <v>2337.2</v>
+        <v>2341.7</v>
       </c>
       <c r="Y205">
-        <v>1333.3</v>
+        <v>1332.2</v>
       </c>
       <c r="Z205">
-        <v>1984.5</v>
+        <v>1989.2</v>
       </c>
       <c r="AA205">
-        <v>1710.3</v>
+        <v>1717.7</v>
       </c>
       <c r="AB205">
-        <v>151.3</v>
+        <v>150.8</v>
       </c>
       <c r="AC205">
-        <v>186.3333333333333</v>
+        <v>236.9</v>
       </c>
       <c r="AD205">
-        <v>1456.9</v>
+        <v>1445.8</v>
       </c>
       <c r="AE205">
-        <v>2925.1</v>
+        <v>2918.2</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>516.4</v>
+        <v>524.5</v>
       </c>
       <c r="AH205">
-        <v>1352.4</v>
+        <v>1360.8</v>
       </c>
       <c r="AI205">
-        <v>69.03333333333333</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AJ205">
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>818.7000000000001</v>
+        <v>827.6</v>
       </c>
       <c r="AL205">
-        <v>3152.2</v>
+        <v>3165.4</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32457,88 +32479,94 @@
         <v>73559</v>
       </c>
       <c r="AP205">
-        <v>609.9</v>
+        <v>609.8</v>
       </c>
       <c r="AQ205">
         <v>0.6</v>
       </c>
       <c r="AR205">
-        <v>610.5</v>
+        <v>610.4</v>
       </c>
       <c r="AS205">
         <v>5</v>
       </c>
       <c r="AT205">
+        <v>15.1</v>
+      </c>
+      <c r="AU205">
         <v>10.8</v>
       </c>
-      <c r="AU205">
+      <c r="AV205">
         <v>34.5</v>
       </c>
-      <c r="AV205">
+      <c r="AW205">
         <v>260.3</v>
       </c>
-      <c r="AW205">
+      <c r="AX205">
         <v>0.1</v>
       </c>
-      <c r="AX205">
+      <c r="AY205">
         <v>73.3</v>
       </c>
-      <c r="AY205">
+      <c r="AZ205">
         <v>0</v>
       </c>
-      <c r="AZ205">
+      <c r="BA205">
         <v>46.2</v>
       </c>
-      <c r="BA205">
+      <c r="BB205">
+        <v>20.7</v>
+      </c>
+      <c r="BC205">
         <v>140</v>
       </c>
-      <c r="BB205">
+      <c r="BD205">
         <v>0</v>
       </c>
-      <c r="BC205">
+      <c r="BE205">
         <v>15.2</v>
       </c>
-      <c r="BD205">
+      <c r="BF205">
         <v>13.8</v>
       </c>
-      <c r="BE205">
-        <v>64.8</v>
-      </c>
-      <c r="BF205">
-        <v>112</v>
-      </c>
       <c r="BG205">
-        <v>16.1</v>
+        <v>63.6</v>
       </c>
       <c r="BH205">
-        <v>203.9</v>
+        <v>110.3</v>
       </c>
       <c r="BI205">
+        <v>13.6</v>
+      </c>
+      <c r="BJ205">
+        <v>198.5</v>
+      </c>
+      <c r="BK205">
         <v>35.83333333333334</v>
       </c>
-      <c r="BJ205">
+      <c r="BL205">
         <v>260.983</v>
       </c>
-      <c r="BK205">
+      <c r="BM205">
         <v>254.6803333333333</v>
       </c>
-      <c r="BL205">
+      <c r="BN205">
         <v>19414.2</v>
       </c>
-      <c r="BM205">
+      <c r="BO205">
         <v>22146</v>
       </c>
-      <c r="BN205">
+      <c r="BP205">
         <v>1</v>
       </c>
-      <c r="BO205">
-        <v>4938.666666666667</v>
-      </c>
-      <c r="BP205">
-        <v>13656</v>
-      </c>
       <c r="BQ205">
-        <v>325241.6666666667</v>
+        <v>4935.333333333333</v>
+      </c>
+      <c r="BR205">
+        <v>13655.33333333333</v>
+      </c>
+      <c r="BS205">
+        <v>327589.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS205"/>
+  <dimension ref="A1:BS206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32566,7 +32566,219 @@
         <v>13655.33333333333</v>
       </c>
       <c r="BS205">
-        <v>327589.6666666667</v>
+        <v>327773.6666666667</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B206">
+        <v>20728.36666666667</v>
+      </c>
+      <c r="C206">
+        <v>19087.6</v>
+      </c>
+      <c r="D206">
+        <v>113.7043333333333</v>
+      </c>
+      <c r="E206">
+        <v>15041.1</v>
+      </c>
+      <c r="F206">
+        <v>13333.8</v>
+      </c>
+      <c r="G206">
+        <v>112.808</v>
+      </c>
+      <c r="H206">
+        <v>113.142</v>
+      </c>
+      <c r="I206">
+        <v>119.943</v>
+      </c>
+      <c r="J206">
+        <v>119.985</v>
+      </c>
+      <c r="K206">
+        <v>119.799</v>
+      </c>
+      <c r="L206">
+        <v>880.1</v>
+      </c>
+      <c r="M206">
+        <v>687.3</v>
+      </c>
+      <c r="N206">
+        <v>544.4</v>
+      </c>
+      <c r="O206">
+        <v>6000.1</v>
+      </c>
+      <c r="P206">
+        <v>114.3</v>
+      </c>
+      <c r="Q206">
+        <v>2278.8</v>
+      </c>
+      <c r="R206">
+        <v>1537.6</v>
+      </c>
+      <c r="S206">
+        <v>285.2333333333334</v>
+      </c>
+      <c r="T206">
+        <v>3953</v>
+      </c>
+      <c r="U206">
+        <v>1500.9</v>
+      </c>
+      <c r="V206">
+        <v>111.2293333333333</v>
+      </c>
+      <c r="W206">
+        <v>1557</v>
+      </c>
+      <c r="X206">
+        <v>2395.9</v>
+      </c>
+      <c r="Y206">
+        <v>1376.1</v>
+      </c>
+      <c r="Z206">
+        <v>1997.6</v>
+      </c>
+      <c r="AA206">
+        <v>1722.1</v>
+      </c>
+      <c r="AB206">
+        <v>160</v>
+      </c>
+      <c r="AC206">
+        <v>205.1333333333333</v>
+      </c>
+      <c r="AD206">
+        <v>1476.9</v>
+      </c>
+      <c r="AE206">
+        <v>5166.9</v>
+      </c>
+      <c r="AF206">
+        <v>783.9</v>
+      </c>
+      <c r="AG206">
+        <v>556.8</v>
+      </c>
+      <c r="AH206">
+        <v>1377.6</v>
+      </c>
+      <c r="AI206">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="AJ206">
+        <v>23.9</v>
+      </c>
+      <c r="AK206">
+        <v>833.2000000000001</v>
+      </c>
+      <c r="AL206">
+        <v>3218.7</v>
+      </c>
+      <c r="AM206">
+        <v>561498</v>
+      </c>
+      <c r="AN206">
+        <v>523163</v>
+      </c>
+      <c r="AO206">
+        <v>72442</v>
+      </c>
+      <c r="AP206">
+        <v>402.3</v>
+      </c>
+      <c r="AQ206">
+        <v>2.5</v>
+      </c>
+      <c r="AR206">
+        <v>404.9</v>
+      </c>
+      <c r="AS206">
+        <v>366.2333333333333</v>
+      </c>
+      <c r="AT206">
+        <v>13.2</v>
+      </c>
+      <c r="AU206">
+        <v>18.96666666666667</v>
+      </c>
+      <c r="AV206">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="AW206">
+        <v>578.4</v>
+      </c>
+      <c r="AX206">
+        <v>26.3</v>
+      </c>
+      <c r="AY206">
+        <v>73.3</v>
+      </c>
+      <c r="AZ206">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="BA206">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="BB206">
+        <v>50.8</v>
+      </c>
+      <c r="BC206">
+        <v>140</v>
+      </c>
+      <c r="BD206">
+        <v>199.3</v>
+      </c>
+      <c r="BE206">
+        <v>19.8</v>
+      </c>
+      <c r="BF206">
+        <v>33.86666666666667</v>
+      </c>
+      <c r="BG206">
+        <v>31.56666666666667</v>
+      </c>
+      <c r="BH206">
+        <v>122.6333333333333</v>
+      </c>
+      <c r="BI206">
+        <v>355.3</v>
+      </c>
+      <c r="BJ206">
+        <v>514.2333333333334</v>
+      </c>
+      <c r="BL206">
+        <v>263.395</v>
+      </c>
+      <c r="BM206">
+        <v>257.3506666666667</v>
+      </c>
+      <c r="BN206">
+        <v>19502.8</v>
+      </c>
+      <c r="BO206">
+        <v>22361.5</v>
+      </c>
+      <c r="BP206">
+        <v>1</v>
+      </c>
+      <c r="BQ206">
+        <v>4988.666666666667</v>
+      </c>
+      <c r="BR206">
+        <v>13686</v>
+      </c>
+      <c r="BS206">
+        <v>324580.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/haver/national_accounts.xlsx
+++ b/data/raw/haver/national_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\raw\haver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443CB59-9D9E-4BB8-91A8-0F642F2BB191}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73DE8ED-0973-4D39-A69D-0EDC61956CC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,8 +625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X187" workbookViewId="0">
-      <selection activeCell="AG207" sqref="AG207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K200" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R211" sqref="R211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32753,7 +32756,7 @@
         <v>1537.6</v>
       </c>
       <c r="S206">
-        <v>285.23333333333341</v>
+        <v>332.7</v>
       </c>
       <c r="T206">
         <v>3953</v>
